--- a/java/project-JavaBank/src/io/data.xlsx
+++ b/java/project-JavaBank/src/io/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Huy Binh\Documents\GitHub\nguyenhuybinh2604.github.io\java\project-JavaBank\src\io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5725075F-3228-401D-890D-662BC9F7C4E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{427A39B6-9476-4079-9D39-E3CA1744C551}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Customer" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,16 @@
     <sheet name="Manager" sheetId="3" r:id="rId3"/>
     <sheet name="Person" sheetId="4" r:id="rId4"/>
     <sheet name="Account" sheetId="5" r:id="rId5"/>
+    <sheet name="Loan" sheetId="7" r:id="rId6"/>
+    <sheet name="Saving" sheetId="8" r:id="rId7"/>
+    <sheet name="exchangeRate" sheetId="6" r:id="rId8"/>
+    <sheet name="interestRate" sheetId="9" r:id="rId9"/>
+    <sheet name="Sheet1" sheetId="11" r:id="rId10"/>
+    <sheet name="BS" sheetId="10" r:id="rId11"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">interestRate!$A$1:$F$15</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -34,8 +43,43 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Huy Binh</author>
+  </authors>
+  <commentList>
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{9E5604CD-5E78-460D-B62F-727DEF31E424}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Huy Binh:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+VND tenor step 0.4%, rating step 0.5%
+USD tenor step 0.1%, rating step 0.5%</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="962" uniqueCount="225">
   <si>
     <t>customerId</t>
   </si>
@@ -257,21 +301,511 @@
   </si>
   <si>
     <t>gender</t>
+  </si>
+  <si>
+    <t>valueDate</t>
+  </si>
+  <si>
+    <t>maturityDate</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
+    <t>balance</t>
+  </si>
+  <si>
+    <t>convertedBalance</t>
+  </si>
+  <si>
+    <t>interestRate</t>
+  </si>
+  <si>
+    <t>productStatus</t>
+  </si>
+  <si>
+    <t>VND</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>AUD</t>
+  </si>
+  <si>
+    <t>fromCurrency</t>
+  </si>
+  <si>
+    <t>toCurrency</t>
+  </si>
+  <si>
+    <t>ACTIVE</t>
+  </si>
+  <si>
+    <t>loanId</t>
+  </si>
+  <si>
+    <t>c007</t>
+  </si>
+  <si>
+    <t>cus7</t>
+  </si>
+  <si>
+    <t>c008</t>
+  </si>
+  <si>
+    <t>cus8</t>
+  </si>
+  <si>
+    <t>c009</t>
+  </si>
+  <si>
+    <t>cus9</t>
+  </si>
+  <si>
+    <t>c010</t>
+  </si>
+  <si>
+    <t>cus10</t>
+  </si>
+  <si>
+    <t>F@12346</t>
+  </si>
+  <si>
+    <t>F@12347</t>
+  </si>
+  <si>
+    <t>F@12348</t>
+  </si>
+  <si>
+    <t>F@12349</t>
+  </si>
+  <si>
+    <t>Bruno Fernandes</t>
+  </si>
+  <si>
+    <t>Fred</t>
+  </si>
+  <si>
+    <t>Casemiro</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>Huynh Nhu</t>
+  </si>
+  <si>
+    <t>Vietnam</t>
+  </si>
+  <si>
+    <t>savingId</t>
+  </si>
+  <si>
+    <t>convertRate</t>
+  </si>
+  <si>
+    <t>c011</t>
+  </si>
+  <si>
+    <t>c012</t>
+  </si>
+  <si>
+    <t>c013</t>
+  </si>
+  <si>
+    <t>c014</t>
+  </si>
+  <si>
+    <t>c015</t>
+  </si>
+  <si>
+    <t>c016</t>
+  </si>
+  <si>
+    <t>c017</t>
+  </si>
+  <si>
+    <t>c018</t>
+  </si>
+  <si>
+    <t>c019</t>
+  </si>
+  <si>
+    <t>c020</t>
+  </si>
+  <si>
+    <t>c021</t>
+  </si>
+  <si>
+    <t>c022</t>
+  </si>
+  <si>
+    <t>c023</t>
+  </si>
+  <si>
+    <t>c024</t>
+  </si>
+  <si>
+    <t>c025</t>
+  </si>
+  <si>
+    <t>Olivia Brown</t>
+  </si>
+  <si>
+    <t>Ethan Lee</t>
+  </si>
+  <si>
+    <t>Isabella Taylor</t>
+  </si>
+  <si>
+    <t>Jackson Davis</t>
+  </si>
+  <si>
+    <t>Emma Thompson</t>
+  </si>
+  <si>
+    <t>Sophia Johnson</t>
+  </si>
+  <si>
+    <t>Lucas Hernandez</t>
+  </si>
+  <si>
+    <t>Mia Rodriguez</t>
+  </si>
+  <si>
+    <t>Benjamin Martinez</t>
+  </si>
+  <si>
+    <t>Ava Wilson</t>
+  </si>
+  <si>
+    <t>William Anderson</t>
+  </si>
+  <si>
+    <t>Charlotte Clark</t>
+  </si>
+  <si>
+    <t>Samuel White</t>
+  </si>
+  <si>
+    <t>Chloe Harris</t>
+  </si>
+  <si>
+    <t>Daniel Garcia</t>
+  </si>
+  <si>
+    <t>Iceland</t>
+  </si>
+  <si>
+    <t>Senegal</t>
+  </si>
+  <si>
+    <t>Peru</t>
+  </si>
+  <si>
+    <t>Singapore</t>
+  </si>
+  <si>
+    <t>Croatia</t>
+  </si>
+  <si>
+    <t>Kazakhstan</t>
+  </si>
+  <si>
+    <t>Jamaica</t>
+  </si>
+  <si>
+    <t>Bhutan</t>
+  </si>
+  <si>
+    <t>Ukraine</t>
+  </si>
+  <si>
+    <t>Bolivia</t>
+  </si>
+  <si>
+    <t>Tunisia</t>
+  </si>
+  <si>
+    <t>Nepal</t>
+  </si>
+  <si>
+    <t>Belarus</t>
+  </si>
+  <si>
+    <t>Ghana</t>
+  </si>
+  <si>
+    <t>Papua New Guinea</t>
+  </si>
+  <si>
+    <t>Loans</t>
+  </si>
+  <si>
+    <t>Casa</t>
+  </si>
+  <si>
+    <t>Savings</t>
+  </si>
+  <si>
+    <t>Equity</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>cus11</t>
+  </si>
+  <si>
+    <t>cus12</t>
+  </si>
+  <si>
+    <t>cus13</t>
+  </si>
+  <si>
+    <t>cus14</t>
+  </si>
+  <si>
+    <t>cus15</t>
+  </si>
+  <si>
+    <t>cus16</t>
+  </si>
+  <si>
+    <t>cus17</t>
+  </si>
+  <si>
+    <t>cus18</t>
+  </si>
+  <si>
+    <t>cus19</t>
+  </si>
+  <si>
+    <t>cus20</t>
+  </si>
+  <si>
+    <t>cus21</t>
+  </si>
+  <si>
+    <t>cus22</t>
+  </si>
+  <si>
+    <t>cus23</t>
+  </si>
+  <si>
+    <t>cus24</t>
+  </si>
+  <si>
+    <t>cus25</t>
+  </si>
+  <si>
+    <t>F@12350</t>
+  </si>
+  <si>
+    <t>F@12351</t>
+  </si>
+  <si>
+    <t>F@12352</t>
+  </si>
+  <si>
+    <t>F@12353</t>
+  </si>
+  <si>
+    <t>F@12354</t>
+  </si>
+  <si>
+    <t>F@12355</t>
+  </si>
+  <si>
+    <t>F@12356</t>
+  </si>
+  <si>
+    <t>F@12357</t>
+  </si>
+  <si>
+    <t>F@12358</t>
+  </si>
+  <si>
+    <t>F@12359</t>
+  </si>
+  <si>
+    <t>F@12360</t>
+  </si>
+  <si>
+    <t>F@12361</t>
+  </si>
+  <si>
+    <t>F@12362</t>
+  </si>
+  <si>
+    <t>F@12363</t>
+  </si>
+  <si>
+    <t>F@12364</t>
+  </si>
+  <si>
+    <t>jennifer.foster@mail.com</t>
+  </si>
+  <si>
+    <t>bradley.parker@mail.com</t>
+  </si>
+  <si>
+    <t>daniel.coleman@mail.com</t>
+  </si>
+  <si>
+    <t>lisa.hernandez@mail.com</t>
+  </si>
+  <si>
+    <t>kevin.morris@mail.com</t>
+  </si>
+  <si>
+    <t>ashley.hall@mail.com</t>
+  </si>
+  <si>
+    <t>jason.lee@mail.com</t>
+  </si>
+  <si>
+    <t>sarah.scott@mail.com</t>
+  </si>
+  <si>
+    <t>ryan.nelson@mail.com</t>
+  </si>
+  <si>
+    <t>hannah.turner@mail.com</t>
+  </si>
+  <si>
+    <t>david.rodriguez@mail.com</t>
+  </si>
+  <si>
+    <t>emily.foster@mail.com</t>
+  </si>
+  <si>
+    <t>matthew.baker@mail.com</t>
+  </si>
+  <si>
+    <t>olivia.miller@mail.com</t>
+  </si>
+  <si>
+    <t>samuel.johnson@mail.com</t>
+  </si>
+  <si>
+    <t>isabella.robinson@mail.com</t>
+  </si>
+  <si>
+    <t>jacob.green@mail.com</t>
+  </si>
+  <si>
+    <t>mia.cooper@mail.com</t>
+  </si>
+  <si>
+    <t>ethan.mitchell@mail.com</t>
+  </si>
+  <si>
+    <t>productType</t>
+  </si>
+  <si>
+    <t>tenor</t>
+  </si>
+  <si>
+    <t>LOAN</t>
+  </si>
+  <si>
+    <t>UNKNOWN</t>
+  </si>
+  <si>
+    <t>SAVING</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>ACCOUNT</t>
+  </si>
+  <si>
+    <t>effectDate</t>
+  </si>
+  <si>
+    <t>CAD</t>
+  </si>
+  <si>
+    <t>GBP</t>
+  </si>
+  <si>
+    <t>JPY</t>
+  </si>
+  <si>
+    <t>CHF</t>
+  </si>
+  <si>
+    <t>CNY</t>
+  </si>
+  <si>
+    <t>HKD</t>
+  </si>
+  <si>
+    <t>KRW</t>
+  </si>
+  <si>
+    <t>SGD</t>
+  </si>
+  <si>
+    <t>LOCKED</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0\ _₫_-;\-* #,##0\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -284,6 +818,25 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -303,18 +856,34 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -527,21 +1096,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="11.73046875" customWidth="1"/>
+    <col min="1" max="1" width="9.53125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.53125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="9.53125" customWidth="1"/>
-    <col min="5" max="5" width="15.796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.46484375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.1328125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="25" width="8.73046875" customWidth="1"/>
+    <col min="7" max="8" width="8.73046875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="14.25" x14ac:dyDescent="0.45">
@@ -660,7 +1229,9 @@
       <c r="E6" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F6" s="1"/>
+      <c r="F6" s="13" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="7" spans="1:6" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
@@ -682,9 +1253,487 @@
         <v>6</v>
       </c>
     </row>
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="F10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="F11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="F12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="F13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="F15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="F16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="F17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="F18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="F20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="F21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="F22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="F23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="F24" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="F25" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="F26" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEF66A9F-C555-407B-AFB1-FA9ED92A7166}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:A34">
+    <sortCondition ref="A1:A34"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D353C15-BDD1-43C8-8E39-2FD10E2A33AF}">
+  <dimension ref="B3:C9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="3" max="3" width="18.9296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B3" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C3" s="9">
+        <f>C5-C4</f>
+        <v>360753754923.08008</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B4" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C4" s="8">
+        <f>SUM(Loan!I:I)</f>
+        <v>440912793000</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B5" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="C5" s="8">
+        <f>C9</f>
+        <v>801666547923.08008</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B6" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C6" s="8">
+        <f>SUM(Account!I:I)</f>
+        <v>1421196923.0799999</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B7" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C7" s="8">
+        <f>SUM(Saving!I:I)</f>
+        <v>500245351000</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B8" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C8" s="8">
+        <v>300000000000</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B9" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="C9" s="9">
+        <f>SUM(C6:C8)</f>
+        <v>801666547923.08008</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -693,16 +1742,18 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="2" width="13.1328125" customWidth="1"/>
-    <col min="3" max="3" width="9.73046875" customWidth="1"/>
-    <col min="4" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="10.53125" customWidth="1"/>
-    <col min="7" max="7" width="12.1328125" customWidth="1"/>
+    <col min="1" max="1" width="5.73046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.53125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.46484375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.59765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.73046875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.3984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.59765625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.86328125" customWidth="1"/>
     <col min="9" max="24" width="8.73046875" customWidth="1"/>
   </cols>
@@ -871,10 +1922,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:E994"/>
+  <dimension ref="A1:E1013"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -884,7 +1935,7 @@
     <col min="3" max="3" width="6.19921875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.1328125" customWidth="1"/>
     <col min="5" max="5" width="12.53125" customWidth="1"/>
-    <col min="6" max="25" width="8.73046875" customWidth="1"/>
+    <col min="6" max="16" width="8.73046875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
@@ -1008,91 +2059,395 @@
     </row>
     <row r="8" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>58</v>
+        <v>88</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>100</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="2">
         <v>33</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>59</v>
+      <c r="D8" s="10">
+        <v>30</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C9" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="10">
         <v>29</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>63</v>
+      <c r="E9" s="5" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>66</v>
+        <v>92</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>101</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="2">
-        <v>31</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>47</v>
+      <c r="D10" s="10">
+        <v>28</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>69</v>
+        <v>94</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>102</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="10">
+        <v>31</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A12" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="10">
+        <v>46</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A13" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="10">
+        <v>47</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A14" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="10">
+        <v>45</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A15" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="10">
+        <v>50</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A16" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="10">
+        <v>48</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A17" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="10">
+        <v>32</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A18" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="10">
+        <v>27</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A19" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="10">
+        <v>42</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A20" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="10">
+        <v>41</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A21" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" s="10">
+        <v>36</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A22" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" s="10">
+        <v>50</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A23" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" s="10">
+        <v>30</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A24" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24" s="10">
+        <v>49</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A25" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25" s="10">
         <v>43</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E25" s="5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A26" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26" s="10">
+        <v>26</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A27" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D27" s="2">
+        <v>33</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A28" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D28" s="2">
+        <v>29</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A29" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D29" s="2">
+        <v>31</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A30" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D30" s="2">
+        <v>43</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="17" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="18" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="19" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="20" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="23" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="24" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="25" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="26" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="27" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="28" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="29" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="30" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="31" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="32" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -2054,7 +3409,27 @@
     <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="1001" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="1002" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="1003" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="1004" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="1005" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="1006" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="1007" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="1008" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="1009" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="1010" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="1011" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="1012" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="1013" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
@@ -2062,23 +3437,7497 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF21B7AB-93DC-4751-874C-8807C9FDCFB9}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:K76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="9.86328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.53125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.73046875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.265625" customWidth="1"/>
+    <col min="7" max="7" width="7.46484375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.73046875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.73046875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>72</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="6">
+        <v>41092</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="H2">
+        <v>537251</v>
+      </c>
+      <c r="I2" s="8">
+        <f>H2*VLOOKUP(G2,exchangeRate!$B$2:$D$4,3,FALSE)</f>
+        <v>537251</v>
+      </c>
+      <c r="J2" s="7">
+        <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G2)</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="6">
+        <v>43316</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="H3">
+        <v>238237</v>
+      </c>
+      <c r="I3" s="8">
+        <f>H3*VLOOKUP(G3,exchangeRate!$B$2:$D$4,3,FALSE)</f>
+        <v>238237</v>
+      </c>
+      <c r="J3" s="7">
+        <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G3)</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2</v>
+      </c>
+      <c r="D4" s="6">
+        <v>41334</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="H4">
+        <v>536806</v>
+      </c>
+      <c r="I4" s="8">
+        <f>H4*VLOOKUP(G4,exchangeRate!$B$2:$D$4,3,FALSE)</f>
+        <v>536806</v>
+      </c>
+      <c r="J4" s="7">
+        <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G4)</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1">
+        <v>3</v>
+      </c>
+      <c r="D5" s="6">
+        <v>42255</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="H5">
+        <v>75604</v>
+      </c>
+      <c r="I5" s="8">
+        <f>H5*VLOOKUP(G5,exchangeRate!$B$2:$D$4,3,FALSE)</f>
+        <v>75604</v>
+      </c>
+      <c r="J5" s="7">
+        <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G5)</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="6">
+        <v>42469</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="H6">
+        <v>113622</v>
+      </c>
+      <c r="I6" s="8">
+        <f>H6*VLOOKUP(G6,exchangeRate!$B$2:$D$4,3,FALSE)</f>
+        <v>113622</v>
+      </c>
+      <c r="J6" s="7">
+        <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G6)</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2</v>
+      </c>
+      <c r="D7" s="6">
+        <v>40723</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="H7">
+        <v>287474</v>
+      </c>
+      <c r="I7" s="8">
+        <f>H7*VLOOKUP(G7,exchangeRate!$B$2:$D$4,3,FALSE)</f>
+        <v>287474</v>
+      </c>
+      <c r="J7" s="7">
+        <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G7)</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1">
+        <v>3</v>
+      </c>
+      <c r="D8" s="6">
+        <v>40590</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="H8">
+        <v>4113</v>
+      </c>
+      <c r="I8" s="8">
+        <f>H8*VLOOKUP(G8,exchangeRate!$B$2:$D$4,3,FALSE)</f>
+        <v>96655500</v>
+      </c>
+      <c r="J8" s="7">
+        <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G8)</f>
+        <v>0</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>2</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="6">
+        <v>41097</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="H9">
+        <v>4172</v>
+      </c>
+      <c r="I9" s="8">
+        <f>H9*VLOOKUP(G9,exchangeRate!$B$2:$D$4,3,FALSE)</f>
+        <v>98042000</v>
+      </c>
+      <c r="J9" s="7">
+        <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G9)</f>
+        <v>0</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <v>3</v>
+      </c>
+      <c r="C10" s="1">
+        <v>2</v>
+      </c>
+      <c r="D10" s="6">
+        <v>42263</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="H10">
+        <v>1626</v>
+      </c>
+      <c r="I10" s="8">
+        <f>H10*VLOOKUP(G10,exchangeRate!$B$2:$D$4,3,FALSE)</f>
+        <v>38211000</v>
+      </c>
+      <c r="J10" s="7">
+        <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G10)</f>
+        <v>0</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1">
+        <v>4</v>
+      </c>
+      <c r="C11" s="1">
+        <v>3</v>
+      </c>
+      <c r="D11" s="6">
+        <v>41451</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="H11">
+        <v>3420</v>
+      </c>
+      <c r="I11" s="8">
+        <f>H11*VLOOKUP(G11,exchangeRate!$B$2:$D$4,3,FALSE)</f>
+        <v>80370000</v>
+      </c>
+      <c r="J11" s="7">
+        <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G11)</f>
+        <v>0</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1">
+        <v>5</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" s="6">
+        <v>43745</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="H12">
+        <v>3742</v>
+      </c>
+      <c r="I12" s="8">
+        <f>H12*VLOOKUP(G12,exchangeRate!$B$2:$D$4,3,FALSE)</f>
+        <v>87937000</v>
+      </c>
+      <c r="J12" s="7">
+        <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G12)</f>
+        <v>0</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1">
+        <v>6</v>
+      </c>
+      <c r="C13" s="1">
+        <v>2</v>
+      </c>
+      <c r="D13" s="6">
+        <v>40997</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="H13">
+        <v>4345</v>
+      </c>
+      <c r="I13" s="8">
+        <f>H13*VLOOKUP(G13,exchangeRate!$B$2:$D$4,3,FALSE)</f>
+        <v>102107500</v>
+      </c>
+      <c r="J13" s="7">
+        <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G13)</f>
+        <v>0</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1">
+        <v>3</v>
+      </c>
+      <c r="D14" s="6">
+        <v>43422</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="H14">
+        <v>323</v>
+      </c>
+      <c r="I14" s="8">
+        <f>H14*VLOOKUP(G14,exchangeRate!$B$2:$D$4,3,FALSE)</f>
+        <v>8421155.8699999992</v>
+      </c>
+      <c r="J14" s="7">
+        <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G14)</f>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1">
+        <v>2</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
+      <c r="D15" s="6">
+        <v>41168</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="H15">
+        <v>210</v>
+      </c>
+      <c r="I15" s="8">
+        <f>H15*VLOOKUP(G15,exchangeRate!$B$2:$D$4,3,FALSE)</f>
+        <v>5475054.8999999994</v>
+      </c>
+      <c r="J15" s="7">
+        <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G15)</f>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1">
+        <v>3</v>
+      </c>
+      <c r="C16" s="1">
+        <v>2</v>
+      </c>
+      <c r="D16" s="6">
+        <v>40835</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="H16">
+        <v>490</v>
+      </c>
+      <c r="I16" s="8">
+        <f>H16*VLOOKUP(G16,exchangeRate!$B$2:$D$4,3,FALSE)</f>
+        <v>12775128.1</v>
+      </c>
+      <c r="J16" s="7">
+        <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G16)</f>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1">
+        <v>4</v>
+      </c>
+      <c r="C17" s="1">
+        <v>3</v>
+      </c>
+      <c r="D17" s="6">
+        <v>44123</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="H17">
+        <v>481</v>
+      </c>
+      <c r="I17" s="8">
+        <f>H17*VLOOKUP(G17,exchangeRate!$B$2:$D$4,3,FALSE)</f>
+        <v>12540482.889999999</v>
+      </c>
+      <c r="J17" s="7">
+        <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G17)</f>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1">
+        <v>5</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+      <c r="D18" s="6">
+        <v>41981</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="H18">
+        <v>287</v>
+      </c>
+      <c r="I18" s="8">
+        <f>H18*VLOOKUP(G18,exchangeRate!$B$2:$D$4,3,FALSE)</f>
+        <v>7482575.0299999993</v>
+      </c>
+      <c r="J18" s="7">
+        <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G18)</f>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1">
+        <v>6</v>
+      </c>
+      <c r="C19">
+        <v>3</v>
+      </c>
+      <c r="D19" s="6">
+        <v>41004</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="H19">
+        <v>491</v>
+      </c>
+      <c r="I19" s="8">
+        <f>H19*VLOOKUP(G19,exchangeRate!$B$2:$D$4,3,FALSE)</f>
+        <v>12801199.789999999</v>
+      </c>
+      <c r="J19" s="7">
+        <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G19)</f>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="5">
+        <v>7</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20" s="6">
+        <v>42846</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="H20">
+        <v>9980102</v>
+      </c>
+      <c r="I20" s="8">
+        <f>H20*VLOOKUP(G20,exchangeRate!$B$2:$D$4,3,FALSE)</f>
+        <v>9980102</v>
+      </c>
+      <c r="J20" s="7">
+        <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G20)</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="5">
+        <v>8</v>
+      </c>
+      <c r="C21">
+        <v>3</v>
+      </c>
+      <c r="D21" s="6">
+        <v>44145</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="H21">
+        <v>5476967</v>
+      </c>
+      <c r="I21" s="8">
+        <f>H21*VLOOKUP(G21,exchangeRate!$B$2:$D$4,3,FALSE)</f>
+        <v>5476967</v>
+      </c>
+      <c r="J21" s="7">
+        <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G21)</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="K21" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="5">
+        <v>9</v>
+      </c>
+      <c r="C22">
+        <v>3</v>
+      </c>
+      <c r="D22" s="6">
+        <v>44904</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="H22">
+        <v>4549845</v>
+      </c>
+      <c r="I22" s="8">
+        <f>H22*VLOOKUP(G22,exchangeRate!$B$2:$D$4,3,FALSE)</f>
+        <v>4549845</v>
+      </c>
+      <c r="J22" s="7">
+        <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G22)</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="K22" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="5">
+        <v>10</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23" s="6">
+        <v>43775</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="H23">
+        <v>5863377</v>
+      </c>
+      <c r="I23" s="8">
+        <f>H23*VLOOKUP(G23,exchangeRate!$B$2:$D$4,3,FALSE)</f>
+        <v>5863377</v>
+      </c>
+      <c r="J23" s="7">
+        <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G23)</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="K23" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="5">
+        <v>11</v>
+      </c>
+      <c r="C24">
+        <v>3</v>
+      </c>
+      <c r="D24" s="6">
+        <v>43591</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="H24">
+        <v>8448457</v>
+      </c>
+      <c r="I24" s="8">
+        <f>H24*VLOOKUP(G24,exchangeRate!$B$2:$D$4,3,FALSE)</f>
+        <v>8448457</v>
+      </c>
+      <c r="J24" s="7">
+        <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G24)</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="K24" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="5">
+        <v>12</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="D25" s="6">
+        <v>44831</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="H25">
+        <v>3872282</v>
+      </c>
+      <c r="I25" s="8">
+        <f>H25*VLOOKUP(G25,exchangeRate!$B$2:$D$4,3,FALSE)</f>
+        <v>3872282</v>
+      </c>
+      <c r="J25" s="7">
+        <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G25)</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="K25" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="5">
+        <v>13</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="D26" s="6">
+        <v>42794</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="H26">
+        <v>5739796</v>
+      </c>
+      <c r="I26" s="8">
+        <f>H26*VLOOKUP(G26,exchangeRate!$B$2:$D$4,3,FALSE)</f>
+        <v>5739796</v>
+      </c>
+      <c r="J26" s="7">
+        <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G26)</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="K26" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="5">
+        <v>14</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27" s="6">
+        <v>43645</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="H27">
+        <v>7755939</v>
+      </c>
+      <c r="I27" s="8">
+        <f>H27*VLOOKUP(G27,exchangeRate!$B$2:$D$4,3,FALSE)</f>
+        <v>7755939</v>
+      </c>
+      <c r="J27" s="7">
+        <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G27)</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="K27" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="5">
+        <v>15</v>
+      </c>
+      <c r="C28">
+        <v>3</v>
+      </c>
+      <c r="D28" s="6">
+        <v>44874</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="H28">
+        <v>7213398</v>
+      </c>
+      <c r="I28" s="8">
+        <f>H28*VLOOKUP(G28,exchangeRate!$B$2:$D$4,3,FALSE)</f>
+        <v>7213398</v>
+      </c>
+      <c r="J28" s="7">
+        <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G28)</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="K28" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="5">
+        <v>16</v>
+      </c>
+      <c r="C29">
+        <v>3</v>
+      </c>
+      <c r="D29" s="6">
+        <v>44413</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="H29">
+        <v>6577462</v>
+      </c>
+      <c r="I29" s="8">
+        <f>H29*VLOOKUP(G29,exchangeRate!$B$2:$D$4,3,FALSE)</f>
+        <v>6577462</v>
+      </c>
+      <c r="J29" s="7">
+        <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G29)</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="K29" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="5">
+        <v>17</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30" s="6">
+        <v>43560</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="H30">
+        <v>2960169</v>
+      </c>
+      <c r="I30" s="8">
+        <f>H30*VLOOKUP(G30,exchangeRate!$B$2:$D$4,3,FALSE)</f>
+        <v>2960169</v>
+      </c>
+      <c r="J30" s="7">
+        <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G30)</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="K30" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="5">
+        <v>18</v>
+      </c>
+      <c r="C31">
+        <v>3</v>
+      </c>
+      <c r="D31" s="6">
+        <v>44453</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="H31">
+        <v>8009206</v>
+      </c>
+      <c r="I31" s="8">
+        <f>H31*VLOOKUP(G31,exchangeRate!$B$2:$D$4,3,FALSE)</f>
+        <v>8009206</v>
+      </c>
+      <c r="J31" s="7">
+        <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G31)</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="K31" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" s="5">
+        <v>19</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32" s="6">
+        <v>44206</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="H32">
+        <v>7747227</v>
+      </c>
+      <c r="I32" s="8">
+        <f>H32*VLOOKUP(G32,exchangeRate!$B$2:$D$4,3,FALSE)</f>
+        <v>7747227</v>
+      </c>
+      <c r="J32" s="7">
+        <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G32)</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="K32" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" s="5">
+        <v>20</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+      <c r="D33" s="6">
+        <v>44862</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="H33">
+        <v>8563947</v>
+      </c>
+      <c r="I33" s="8">
+        <f>H33*VLOOKUP(G33,exchangeRate!$B$2:$D$4,3,FALSE)</f>
+        <v>8563947</v>
+      </c>
+      <c r="J33" s="7">
+        <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G33)</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="K33" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" s="5">
+        <v>21</v>
+      </c>
+      <c r="C34">
+        <v>2</v>
+      </c>
+      <c r="D34" s="6">
+        <v>43873</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="H34">
+        <v>9371489</v>
+      </c>
+      <c r="I34" s="8">
+        <f>H34*VLOOKUP(G34,exchangeRate!$B$2:$D$4,3,FALSE)</f>
+        <v>9371489</v>
+      </c>
+      <c r="J34" s="7">
+        <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G34)</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="K34" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" s="5">
+        <v>22</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
+      <c r="D35" s="6">
+        <v>43135</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="H35">
+        <v>5359387</v>
+      </c>
+      <c r="I35" s="8">
+        <f>H35*VLOOKUP(G35,exchangeRate!$B$2:$D$4,3,FALSE)</f>
+        <v>5359387</v>
+      </c>
+      <c r="J35" s="7">
+        <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G35)</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="K35" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" s="5">
+        <v>23</v>
+      </c>
+      <c r="D36" s="6">
+        <v>43851</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="H36">
+        <v>7487506</v>
+      </c>
+      <c r="I36" s="8">
+        <f>H36*VLOOKUP(G36,exchangeRate!$B$2:$D$4,3,FALSE)</f>
+        <v>7487506</v>
+      </c>
+      <c r="J36" s="7">
+        <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G36)</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="K36" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" s="5">
+        <v>24</v>
+      </c>
+      <c r="C37">
+        <v>2</v>
+      </c>
+      <c r="D37" s="6">
+        <v>44812</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="H37">
+        <v>1603258</v>
+      </c>
+      <c r="I37" s="8">
+        <f>H37*VLOOKUP(G37,exchangeRate!$B$2:$D$4,3,FALSE)</f>
+        <v>1603258</v>
+      </c>
+      <c r="J37" s="7">
+        <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G37)</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="K37" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" s="5">
+        <v>25</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38" s="6">
+        <v>44040</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="H38">
+        <v>2798196</v>
+      </c>
+      <c r="I38" s="8">
+        <f>H38*VLOOKUP(G38,exchangeRate!$B$2:$D$4,3,FALSE)</f>
+        <v>2798196</v>
+      </c>
+      <c r="J38" s="7">
+        <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G38)</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="K38" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" s="5">
+        <v>7</v>
+      </c>
+      <c r="C39">
+        <v>2</v>
+      </c>
+      <c r="D39" s="6">
+        <v>43760</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="H39">
+        <v>150</v>
+      </c>
+      <c r="I39" s="8">
+        <f>H39*VLOOKUP(G39,exchangeRate!$B$2:$D$4,3,FALSE)</f>
+        <v>3525000</v>
+      </c>
+      <c r="J39" s="7">
+        <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G39)</f>
+        <v>0</v>
+      </c>
+      <c r="K39" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" s="5">
+        <v>8</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40" s="6">
+        <v>44115</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="H40">
+        <v>2967</v>
+      </c>
+      <c r="I40" s="8">
+        <f>H40*VLOOKUP(G40,exchangeRate!$B$2:$D$4,3,FALSE)</f>
+        <v>69724500</v>
+      </c>
+      <c r="J40" s="7">
+        <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G40)</f>
+        <v>0</v>
+      </c>
+      <c r="K40" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" s="5">
+        <v>9</v>
+      </c>
+      <c r="C41">
+        <v>3</v>
+      </c>
+      <c r="D41" s="6">
+        <v>44188</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="H41">
+        <v>214</v>
+      </c>
+      <c r="I41" s="8">
+        <f>H41*VLOOKUP(G41,exchangeRate!$B$2:$D$4,3,FALSE)</f>
+        <v>5029000</v>
+      </c>
+      <c r="J41" s="7">
+        <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G41)</f>
+        <v>0</v>
+      </c>
+      <c r="K41" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" s="5">
+        <v>10</v>
+      </c>
+      <c r="C42">
+        <v>3</v>
+      </c>
+      <c r="D42" s="6">
+        <v>43139</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="H42">
+        <v>2850</v>
+      </c>
+      <c r="I42" s="8">
+        <f>H42*VLOOKUP(G42,exchangeRate!$B$2:$D$4,3,FALSE)</f>
+        <v>66975000</v>
+      </c>
+      <c r="J42" s="7">
+        <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G42)</f>
+        <v>0</v>
+      </c>
+      <c r="K42" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" s="5">
+        <v>11</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43" s="6">
+        <v>44198</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="H43">
+        <v>2852</v>
+      </c>
+      <c r="I43" s="8">
+        <f>H43*VLOOKUP(G43,exchangeRate!$B$2:$D$4,3,FALSE)</f>
+        <v>67022000</v>
+      </c>
+      <c r="J43" s="7">
+        <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G43)</f>
+        <v>0</v>
+      </c>
+      <c r="K43" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" s="5">
+        <v>12</v>
+      </c>
+      <c r="C44">
+        <v>2</v>
+      </c>
+      <c r="D44" s="6">
+        <v>44371</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="H44">
+        <v>351</v>
+      </c>
+      <c r="I44" s="8">
+        <f>H44*VLOOKUP(G44,exchangeRate!$B$2:$D$4,3,FALSE)</f>
+        <v>8248500</v>
+      </c>
+      <c r="J44" s="7">
+        <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G44)</f>
+        <v>0</v>
+      </c>
+      <c r="K44" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" s="5">
+        <v>13</v>
+      </c>
+      <c r="C45">
+        <v>3</v>
+      </c>
+      <c r="D45" s="6">
+        <v>44043</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="H45">
+        <v>124</v>
+      </c>
+      <c r="I45" s="8">
+        <f>H45*VLOOKUP(G45,exchangeRate!$B$2:$D$4,3,FALSE)</f>
+        <v>2914000</v>
+      </c>
+      <c r="J45" s="7">
+        <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G45)</f>
+        <v>0</v>
+      </c>
+      <c r="K45" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" s="5">
+        <v>14</v>
+      </c>
+      <c r="C46">
+        <v>2</v>
+      </c>
+      <c r="D46" s="6">
+        <v>43807</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="H46">
+        <v>1990</v>
+      </c>
+      <c r="I46" s="8">
+        <f>H46*VLOOKUP(G46,exchangeRate!$B$2:$D$4,3,FALSE)</f>
+        <v>46765000</v>
+      </c>
+      <c r="J46" s="7">
+        <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G46)</f>
+        <v>0</v>
+      </c>
+      <c r="K46" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" s="5">
+        <v>15</v>
+      </c>
+      <c r="C47">
+        <v>2</v>
+      </c>
+      <c r="D47" s="6">
+        <v>44072</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="H47">
+        <v>434</v>
+      </c>
+      <c r="I47" s="8">
+        <f>H47*VLOOKUP(G47,exchangeRate!$B$2:$D$4,3,FALSE)</f>
+        <v>10199000</v>
+      </c>
+      <c r="J47" s="7">
+        <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G47)</f>
+        <v>0</v>
+      </c>
+      <c r="K47" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" s="5">
+        <v>16</v>
+      </c>
+      <c r="C48">
+        <v>2</v>
+      </c>
+      <c r="D48" s="6">
+        <v>44302</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="H48">
+        <v>1177</v>
+      </c>
+      <c r="I48" s="8">
+        <f>H48*VLOOKUP(G48,exchangeRate!$B$2:$D$4,3,FALSE)</f>
+        <v>27659500</v>
+      </c>
+      <c r="J48" s="7">
+        <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G48)</f>
+        <v>0</v>
+      </c>
+      <c r="K48" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" s="5">
+        <v>17</v>
+      </c>
+      <c r="C49">
+        <v>2</v>
+      </c>
+      <c r="D49" s="6">
+        <v>43405</v>
+      </c>
+      <c r="G49" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="H49">
+        <v>779</v>
+      </c>
+      <c r="I49" s="8">
+        <f>H49*VLOOKUP(G49,exchangeRate!$B$2:$D$4,3,FALSE)</f>
+        <v>18306500</v>
+      </c>
+      <c r="J49" s="7">
+        <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G49)</f>
+        <v>0</v>
+      </c>
+      <c r="K49" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" s="5">
+        <v>18</v>
+      </c>
+      <c r="C50">
+        <v>3</v>
+      </c>
+      <c r="D50" s="6">
+        <v>43605</v>
+      </c>
+      <c r="G50" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="H50">
+        <v>360</v>
+      </c>
+      <c r="I50" s="8">
+        <f>H50*VLOOKUP(G50,exchangeRate!$B$2:$D$4,3,FALSE)</f>
+        <v>8460000</v>
+      </c>
+      <c r="J50" s="7">
+        <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G50)</f>
+        <v>0</v>
+      </c>
+      <c r="K50" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" s="5">
+        <v>19</v>
+      </c>
+      <c r="D51" s="6">
+        <v>44204</v>
+      </c>
+      <c r="G51" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="H51">
+        <v>270</v>
+      </c>
+      <c r="I51" s="8">
+        <f>H51*VLOOKUP(G51,exchangeRate!$B$2:$D$4,3,FALSE)</f>
+        <v>6345000</v>
+      </c>
+      <c r="J51" s="7">
+        <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G51)</f>
+        <v>0</v>
+      </c>
+      <c r="K51" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" s="5">
+        <v>20</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52" s="6">
+        <v>43202</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="H52">
+        <v>194</v>
+      </c>
+      <c r="I52" s="8">
+        <f>H52*VLOOKUP(G52,exchangeRate!$B$2:$D$4,3,FALSE)</f>
+        <v>4559000</v>
+      </c>
+      <c r="J52" s="7">
+        <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G52)</f>
+        <v>0</v>
+      </c>
+      <c r="K52" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" s="5">
+        <v>21</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53" s="6">
+        <v>43331</v>
+      </c>
+      <c r="G53" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="H53">
+        <v>420</v>
+      </c>
+      <c r="I53" s="8">
+        <f>H53*VLOOKUP(G53,exchangeRate!$B$2:$D$4,3,FALSE)</f>
+        <v>9870000</v>
+      </c>
+      <c r="J53" s="7">
+        <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G53)</f>
+        <v>0</v>
+      </c>
+      <c r="K53" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" s="5">
+        <v>22</v>
+      </c>
+      <c r="D54" s="6">
+        <v>44422</v>
+      </c>
+      <c r="G54" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="H54">
+        <v>277</v>
+      </c>
+      <c r="I54" s="8">
+        <f>H54*VLOOKUP(G54,exchangeRate!$B$2:$D$4,3,FALSE)</f>
+        <v>6509500</v>
+      </c>
+      <c r="J54" s="7">
+        <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G54)</f>
+        <v>0</v>
+      </c>
+      <c r="K54" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" s="5">
+        <v>23</v>
+      </c>
+      <c r="C55">
+        <v>3</v>
+      </c>
+      <c r="D55" s="6">
+        <v>43798</v>
+      </c>
+      <c r="G55" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="H55">
+        <v>1875</v>
+      </c>
+      <c r="I55" s="8">
+        <f>H55*VLOOKUP(G55,exchangeRate!$B$2:$D$4,3,FALSE)</f>
+        <v>44062500</v>
+      </c>
+      <c r="J55" s="7">
+        <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G55)</f>
+        <v>0</v>
+      </c>
+      <c r="K55" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" s="5">
+        <v>24</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56" s="6">
+        <v>43490</v>
+      </c>
+      <c r="G56" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="H56">
+        <v>662</v>
+      </c>
+      <c r="I56" s="8">
+        <f>H56*VLOOKUP(G56,exchangeRate!$B$2:$D$4,3,FALSE)</f>
+        <v>15557000</v>
+      </c>
+      <c r="J56" s="7">
+        <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G56)</f>
+        <v>0</v>
+      </c>
+      <c r="K56" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" s="5">
+        <v>25</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57" s="6">
+        <v>44425</v>
+      </c>
+      <c r="G57" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="H57">
+        <v>2053</v>
+      </c>
+      <c r="I57" s="8">
+        <f>H57*VLOOKUP(G57,exchangeRate!$B$2:$D$4,3,FALSE)</f>
+        <v>48245500</v>
+      </c>
+      <c r="J57" s="7">
+        <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G57)</f>
+        <v>0</v>
+      </c>
+      <c r="K57" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" s="5">
+        <v>7</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="D58" s="6">
+        <v>43277</v>
+      </c>
+      <c r="G58" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="H58">
+        <v>646</v>
+      </c>
+      <c r="I58" s="8">
+        <f>H58*VLOOKUP(G58,exchangeRate!$B$2:$D$4,3,FALSE)</f>
+        <v>16842311.739999998</v>
+      </c>
+      <c r="J58" s="7">
+        <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G58)</f>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="K58" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" s="5">
+        <v>8</v>
+      </c>
+      <c r="D59" s="6">
+        <v>44312</v>
+      </c>
+      <c r="G59" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="H59">
+        <v>676</v>
+      </c>
+      <c r="I59" s="8">
+        <f>H59*VLOOKUP(G59,exchangeRate!$B$2:$D$4,3,FALSE)</f>
+        <v>17624462.439999998</v>
+      </c>
+      <c r="J59" s="7">
+        <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G59)</f>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="K59" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" s="5">
+        <v>9</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60" s="6">
+        <v>44407</v>
+      </c>
+      <c r="G60" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="H60">
+        <v>643</v>
+      </c>
+      <c r="I60" s="8">
+        <f>H60*VLOOKUP(G60,exchangeRate!$B$2:$D$4,3,FALSE)</f>
+        <v>16764096.67</v>
+      </c>
+      <c r="J60" s="7">
+        <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G60)</f>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="K60" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" s="5">
+        <v>10</v>
+      </c>
+      <c r="C61">
+        <v>3</v>
+      </c>
+      <c r="D61" s="6">
+        <v>44225</v>
+      </c>
+      <c r="G61" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="H61">
+        <v>710</v>
+      </c>
+      <c r="I61" s="8">
+        <f>H61*VLOOKUP(G61,exchangeRate!$B$2:$D$4,3,FALSE)</f>
+        <v>18510899.899999999</v>
+      </c>
+      <c r="J61" s="7">
+        <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G61)</f>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="K61" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" s="5">
+        <v>11</v>
+      </c>
+      <c r="C62">
+        <v>3</v>
+      </c>
+      <c r="D62" s="6">
+        <v>43860</v>
+      </c>
+      <c r="G62" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="H62">
+        <v>555</v>
+      </c>
+      <c r="I62" s="8">
+        <f>H62*VLOOKUP(G62,exchangeRate!$B$2:$D$4,3,FALSE)</f>
+        <v>14469787.949999999</v>
+      </c>
+      <c r="J62" s="7">
+        <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G62)</f>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="K62" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" s="5">
+        <v>12</v>
+      </c>
+      <c r="C63">
+        <v>2</v>
+      </c>
+      <c r="D63" s="6">
+        <v>43148</v>
+      </c>
+      <c r="G63" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="H63">
+        <v>445</v>
+      </c>
+      <c r="I63" s="8">
+        <f>H63*VLOOKUP(G63,exchangeRate!$B$2:$D$4,3,FALSE)</f>
+        <v>11601902.049999999</v>
+      </c>
+      <c r="J63" s="7">
+        <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G63)</f>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="K63" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" s="5">
+        <v>13</v>
+      </c>
+      <c r="C64">
+        <v>3</v>
+      </c>
+      <c r="D64" s="6">
+        <v>44407</v>
+      </c>
+      <c r="G64" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="H64">
+        <v>44</v>
+      </c>
+      <c r="I64" s="8">
+        <f>H64*VLOOKUP(G64,exchangeRate!$B$2:$D$4,3,FALSE)</f>
+        <v>1147154.3599999999</v>
+      </c>
+      <c r="J64" s="7">
+        <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G64)</f>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="K64" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" s="5">
+        <v>14</v>
+      </c>
+      <c r="C65">
+        <v>3</v>
+      </c>
+      <c r="D65" s="6">
+        <v>43845</v>
+      </c>
+      <c r="G65" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="H65">
+        <v>242</v>
+      </c>
+      <c r="I65" s="8">
+        <f>H65*VLOOKUP(G65,exchangeRate!$B$2:$D$4,3,FALSE)</f>
+        <v>6309348.9799999995</v>
+      </c>
+      <c r="J65" s="7">
+        <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G65)</f>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="K65" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" s="5">
+        <v>15</v>
+      </c>
+      <c r="C66">
+        <v>3</v>
+      </c>
+      <c r="D66" s="6">
+        <v>43287</v>
+      </c>
+      <c r="G66" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="H66">
+        <v>83</v>
+      </c>
+      <c r="I66" s="8">
+        <f>H66*VLOOKUP(G66,exchangeRate!$B$2:$D$4,3,FALSE)</f>
+        <v>2163950.27</v>
+      </c>
+      <c r="J66" s="7">
+        <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G66)</f>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="K66" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" s="5">
+        <v>16</v>
+      </c>
+      <c r="C67">
+        <v>2</v>
+      </c>
+      <c r="D67" s="6">
+        <v>43744</v>
+      </c>
+      <c r="G67" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="H67">
+        <v>990</v>
+      </c>
+      <c r="I67" s="8">
+        <f>H67*VLOOKUP(G67,exchangeRate!$B$2:$D$4,3,FALSE)</f>
+        <v>25810973.099999998</v>
+      </c>
+      <c r="J67" s="7">
+        <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G67)</f>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="K67" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" s="5">
+        <v>17</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+      <c r="D68" s="6">
+        <v>43209</v>
+      </c>
+      <c r="G68" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="H68">
+        <v>973</v>
+      </c>
+      <c r="I68" s="8">
+        <f>H68*VLOOKUP(G68,exchangeRate!$B$2:$D$4,3,FALSE)</f>
+        <v>25367754.369999997</v>
+      </c>
+      <c r="J68" s="7">
+        <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G68)</f>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="K68" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" s="5">
+        <v>18</v>
+      </c>
+      <c r="C69">
+        <v>3</v>
+      </c>
+      <c r="D69" s="6">
+        <v>43609</v>
+      </c>
+      <c r="G69" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="H69">
+        <v>658</v>
+      </c>
+      <c r="I69" s="8">
+        <f>H69*VLOOKUP(G69,exchangeRate!$B$2:$D$4,3,FALSE)</f>
+        <v>17155172.02</v>
+      </c>
+      <c r="J69" s="7">
+        <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G69)</f>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="K69" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" s="5">
+        <v>19</v>
+      </c>
+      <c r="C70">
+        <v>3</v>
+      </c>
+      <c r="D70" s="6">
+        <v>43615</v>
+      </c>
+      <c r="G70" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="H70">
+        <v>814</v>
+      </c>
+      <c r="I70" s="8">
+        <f>H70*VLOOKUP(G70,exchangeRate!$B$2:$D$4,3,FALSE)</f>
+        <v>21222355.66</v>
+      </c>
+      <c r="J70" s="7">
+        <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G70)</f>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="K70" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" s="5">
+        <v>20</v>
+      </c>
+      <c r="C71">
+        <v>2</v>
+      </c>
+      <c r="D71" s="6">
+        <v>43638</v>
+      </c>
+      <c r="G71" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="H71">
+        <v>656</v>
+      </c>
+      <c r="I71" s="8">
+        <f>H71*VLOOKUP(G71,exchangeRate!$B$2:$D$4,3,FALSE)</f>
+        <v>17103028.640000001</v>
+      </c>
+      <c r="J71" s="7">
+        <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G71)</f>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="K71" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" s="5">
+        <v>21</v>
+      </c>
+      <c r="C72">
+        <v>2</v>
+      </c>
+      <c r="D72" s="6">
+        <v>44272</v>
+      </c>
+      <c r="G72" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="H72">
+        <v>90</v>
+      </c>
+      <c r="I72" s="8">
+        <f>H72*VLOOKUP(G72,exchangeRate!$B$2:$D$4,3,FALSE)</f>
+        <v>2346452.1</v>
+      </c>
+      <c r="J72" s="7">
+        <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G72)</f>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="K72" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" s="5">
+        <v>22</v>
+      </c>
+      <c r="C73">
+        <v>2</v>
+      </c>
+      <c r="D73" s="6">
+        <v>43325</v>
+      </c>
+      <c r="G73" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="H73">
+        <v>470</v>
+      </c>
+      <c r="I73" s="8">
+        <f>H73*VLOOKUP(G73,exchangeRate!$B$2:$D$4,3,FALSE)</f>
+        <v>12253694.299999999</v>
+      </c>
+      <c r="J73" s="7">
+        <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G73)</f>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="K73" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" s="5">
+        <v>23</v>
+      </c>
+      <c r="D74" s="6">
+        <v>44237</v>
+      </c>
+      <c r="G74" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="H74">
+        <v>740</v>
+      </c>
+      <c r="I74" s="8">
+        <f>H74*VLOOKUP(G74,exchangeRate!$B$2:$D$4,3,FALSE)</f>
+        <v>19293050.599999998</v>
+      </c>
+      <c r="J74" s="7">
+        <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G74)</f>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="K74" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" s="5">
+        <v>24</v>
+      </c>
+      <c r="C75">
+        <v>2</v>
+      </c>
+      <c r="D75" s="6">
+        <v>43356</v>
+      </c>
+      <c r="G75" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="H75">
+        <v>426</v>
+      </c>
+      <c r="I75" s="8">
+        <f>H75*VLOOKUP(G75,exchangeRate!$B$2:$D$4,3,FALSE)</f>
+        <v>11106539.939999999</v>
+      </c>
+      <c r="J75" s="7">
+        <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G75)</f>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="K75" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" s="5">
+        <v>25</v>
+      </c>
+      <c r="C76">
+        <v>2</v>
+      </c>
+      <c r="D76" s="6">
+        <v>43771</v>
+      </c>
+      <c r="G76" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="H76">
+        <v>389</v>
+      </c>
+      <c r="I76" s="8">
+        <f>H76*VLOOKUP(G76,exchangeRate!$B$2:$D$4,3,FALSE)</f>
+        <v>10141887.41</v>
+      </c>
+      <c r="J76" s="7">
+        <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G76)</f>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="K76" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46E00A1F-C9F6-4EB8-BE07-062FE55637D2}">
+  <dimension ref="A1:L21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="5.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.53125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.73046875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.46484375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.73046875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A1" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="6">
+        <v>43948</v>
+      </c>
+      <c r="E2" s="6">
+        <f>DATE(YEAR(D2),MONTH(D2)+F2,DAY(D2))</f>
+        <v>45774</v>
+      </c>
+      <c r="F2" s="8">
+        <v>60</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="H2" s="8">
+        <v>3000000000</v>
+      </c>
+      <c r="I2" s="8">
+        <f>VLOOKUP(G2,exchangeRate!$B$2:$D$13,3,FALSE)*H2</f>
+        <v>3000000000</v>
+      </c>
+      <c r="J2" s="7">
+        <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"LOAN",interestRate!$B:$B,Loan!G2,interestRate!$D:$D,Loan!F2,interestRate!$E:$E,Loan!L2)</f>
+        <v>0.11600000000000003</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="L2" t="str">
+        <f>VLOOKUP(B2,Customer!$A$2:$F$26,6)</f>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="6">
+        <v>43749</v>
+      </c>
+      <c r="E3" s="6">
+        <f t="shared" ref="E3:E21" si="0">DATE(YEAR(D3),MONTH(D3)+F3,DAY(D3))</f>
+        <v>51054</v>
+      </c>
+      <c r="F3" s="8">
+        <v>240</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="H3" s="8">
+        <v>10000000000</v>
+      </c>
+      <c r="I3" s="8">
+        <f>VLOOKUP(G3,exchangeRate!$B$2:$D$13,3,FALSE)*H3</f>
+        <v>10000000000</v>
+      </c>
+      <c r="J3" s="7">
+        <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"LOAN",interestRate!$B:$B,Loan!G3,interestRate!$D:$D,Loan!F3,interestRate!$E:$E,Loan!L3)</f>
+        <v>0.13300000000000003</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="L3" t="str">
+        <f>VLOOKUP(B3,Customer!$A$2:$F$26,6)</f>
+        <v>B</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2</v>
+      </c>
+      <c r="D4" s="6">
+        <v>44021</v>
+      </c>
+      <c r="E4" s="6">
+        <f t="shared" si="0"/>
+        <v>45482</v>
+      </c>
+      <c r="F4" s="8">
+        <v>48</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="H4" s="8">
+        <v>14000000000</v>
+      </c>
+      <c r="I4" s="8">
+        <f>VLOOKUP(G4,exchangeRate!$B$2:$D$13,3,FALSE)*H4</f>
+        <v>14000000000</v>
+      </c>
+      <c r="J4" s="7">
+        <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"LOAN",interestRate!$B:$B,Loan!G4,interestRate!$D:$D,Loan!F4,interestRate!$E:$E,Loan!L4)</f>
+        <v>0.12200000000000004</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="L4" t="str">
+        <f>VLOOKUP(B4,Customer!$A$2:$F$26,6)</f>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1">
+        <v>3</v>
+      </c>
+      <c r="D5" s="6">
+        <v>44237</v>
+      </c>
+      <c r="E5" s="6">
+        <f t="shared" si="0"/>
+        <v>46793</v>
+      </c>
+      <c r="F5" s="8">
+        <v>84</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="H5" s="8">
+        <v>38000000000</v>
+      </c>
+      <c r="I5" s="8">
+        <f>VLOOKUP(G5,exchangeRate!$B$2:$D$13,3,FALSE)*H5</f>
+        <v>38000000000</v>
+      </c>
+      <c r="J5" s="7">
+        <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"LOAN",interestRate!$B:$B,Loan!G5,interestRate!$D:$D,Loan!F5,interestRate!$E:$E,Loan!L5)</f>
+        <v>0.12000000000000004</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="L5" t="str">
+        <f>VLOOKUP(B5,Customer!$A$2:$F$26,6)</f>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="8">
+        <v>9</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="H6" s="8">
+        <v>30000000000</v>
+      </c>
+      <c r="I6" s="8">
+        <f>VLOOKUP(G6,exchangeRate!$B$2:$D$13,3,FALSE)*H6</f>
+        <v>30000000000</v>
+      </c>
+      <c r="J6" s="7">
+        <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"LOAN",interestRate!$B:$B,Loan!G6,interestRate!$D:$D,Loan!F6,interestRate!$E:$E,Loan!L6)</f>
+        <v>0</v>
+      </c>
+      <c r="K6" s="16" t="s">
+        <v>224</v>
+      </c>
+      <c r="L6" t="str">
+        <f>VLOOKUP(B6,Customer!$A$2:$F$26,6)</f>
+        <v>UNKNOWN</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2</v>
+      </c>
+      <c r="D7" s="6">
+        <v>44163</v>
+      </c>
+      <c r="E7" s="6">
+        <f t="shared" si="0"/>
+        <v>44344</v>
+      </c>
+      <c r="F7" s="8">
+        <v>6</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="H7" s="8">
+        <v>11000000000</v>
+      </c>
+      <c r="I7" s="8">
+        <f>VLOOKUP(G7,exchangeRate!$B$2:$D$13,3,FALSE)*H7</f>
+        <v>11000000000</v>
+      </c>
+      <c r="J7" s="7">
+        <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"LOAN",interestRate!$B:$B,Loan!G7,interestRate!$D:$D,Loan!F7,interestRate!$E:$E,Loan!L7)</f>
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="L7" t="str">
+        <f>VLOOKUP(B7,Customer!$A$2:$F$26,6)</f>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1">
+        <v>3</v>
+      </c>
+      <c r="D8" s="6">
+        <v>44101</v>
+      </c>
+      <c r="E8" s="6">
+        <f t="shared" si="0"/>
+        <v>47753</v>
+      </c>
+      <c r="F8" s="8">
+        <v>120</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="H8">
+        <v>628877</v>
+      </c>
+      <c r="I8" s="8">
+        <f>VLOOKUP(G8,exchangeRate!$B$2:$D$13,3,FALSE)*H8</f>
+        <v>14778609500</v>
+      </c>
+      <c r="J8" s="7">
+        <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"LOAN",interestRate!$B:$B,Loan!G8,interestRate!$D:$D,Loan!F8,interestRate!$E:$E,Loan!L8)</f>
+        <v>4.1000000000000009E-2</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="L8" t="str">
+        <f>VLOOKUP(B8,Customer!$A$2:$F$26,6)</f>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>2</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="6">
+        <v>43834</v>
+      </c>
+      <c r="E9" s="6">
+        <f t="shared" si="0"/>
+        <v>54792</v>
+      </c>
+      <c r="F9" s="8">
+        <v>360</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="H9">
+        <v>904812</v>
+      </c>
+      <c r="I9" s="8">
+        <f>VLOOKUP(G9,exchangeRate!$B$2:$D$13,3,FALSE)*H9</f>
+        <v>21263082000</v>
+      </c>
+      <c r="J9" s="7">
+        <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"LOAN",interestRate!$B:$B,Loan!G9,interestRate!$D:$D,Loan!F9,interestRate!$E:$E,Loan!L9)</f>
+        <v>4.8000000000000008E-2</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="L9" t="str">
+        <f>VLOOKUP(B9,Customer!$A$2:$F$26,6)</f>
+        <v>B</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <v>3</v>
+      </c>
+      <c r="C10" s="1">
+        <v>2</v>
+      </c>
+      <c r="D10" s="6">
+        <v>44427</v>
+      </c>
+      <c r="E10" s="6">
+        <f t="shared" si="0"/>
+        <v>45888</v>
+      </c>
+      <c r="F10" s="8">
+        <v>48</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="H10">
+        <v>112665</v>
+      </c>
+      <c r="I10" s="8">
+        <f>VLOOKUP(G10,exchangeRate!$B$2:$D$13,3,FALSE)*H10</f>
+        <v>2647627500</v>
+      </c>
+      <c r="J10" s="7">
+        <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"LOAN",interestRate!$B:$B,Loan!G10,interestRate!$D:$D,Loan!F10,interestRate!$E:$E,Loan!L10)</f>
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="L10" t="str">
+        <f>VLOOKUP(B10,Customer!$A$2:$F$26,6)</f>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1">
+        <v>4</v>
+      </c>
+      <c r="C11" s="1">
+        <v>3</v>
+      </c>
+      <c r="D11" s="6">
+        <v>43790</v>
+      </c>
+      <c r="E11" s="6">
+        <f t="shared" si="0"/>
+        <v>51095</v>
+      </c>
+      <c r="F11" s="8">
+        <v>240</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="H11">
+        <v>908493</v>
+      </c>
+      <c r="I11" s="8">
+        <f>VLOOKUP(G11,exchangeRate!$B$2:$D$13,3,FALSE)*H11</f>
+        <v>21349585500</v>
+      </c>
+      <c r="J11" s="7">
+        <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"LOAN",interestRate!$B:$B,Loan!G11,interestRate!$D:$D,Loan!F11,interestRate!$E:$E,Loan!L11)</f>
+        <v>4.200000000000001E-2</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="L11" t="str">
+        <f>VLOOKUP(B11,Customer!$A$2:$F$26,6)</f>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1">
+        <v>5</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="8">
+        <v>60</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="H12">
+        <v>230145</v>
+      </c>
+      <c r="I12" s="8">
+        <f>VLOOKUP(G12,exchangeRate!$B$2:$D$13,3,FALSE)*H12</f>
+        <v>5408407500</v>
+      </c>
+      <c r="J12" s="7">
+        <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"LOAN",interestRate!$B:$B,Loan!G12,interestRate!$D:$D,Loan!F12,interestRate!$E:$E,Loan!L12)</f>
+        <v>0</v>
+      </c>
+      <c r="K12" s="16" t="s">
+        <v>224</v>
+      </c>
+      <c r="L12" t="str">
+        <f>VLOOKUP(B12,Customer!$A$2:$F$26,6)</f>
+        <v>UNKNOWN</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1">
+        <v>6</v>
+      </c>
+      <c r="C13" s="1">
+        <v>2</v>
+      </c>
+      <c r="D13" s="6">
+        <v>43792</v>
+      </c>
+      <c r="E13" s="6">
+        <f t="shared" si="0"/>
+        <v>43884</v>
+      </c>
+      <c r="F13" s="8">
+        <v>3</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="H13">
+        <v>530446</v>
+      </c>
+      <c r="I13" s="8">
+        <f>VLOOKUP(G13,exchangeRate!$B$2:$D$13,3,FALSE)*H13</f>
+        <v>12465481000</v>
+      </c>
+      <c r="J13" s="7">
+        <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"LOAN",interestRate!$B:$B,Loan!G13,interestRate!$D:$D,Loan!F13,interestRate!$E:$E,Loan!L13)</f>
+        <v>0.03</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="L13" t="str">
+        <f>VLOOKUP(B13,Customer!$A$2:$F$26,6)</f>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1">
+        <v>3</v>
+      </c>
+      <c r="D14" s="6">
+        <v>44836</v>
+      </c>
+      <c r="E14" s="6">
+        <f t="shared" si="0"/>
+        <v>52141</v>
+      </c>
+      <c r="F14" s="8">
+        <v>240</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="H14" s="8">
+        <v>39000000000</v>
+      </c>
+      <c r="I14" s="8">
+        <f>VLOOKUP(G14,exchangeRate!$B$2:$D$13,3,FALSE)*H14</f>
+        <v>39000000000</v>
+      </c>
+      <c r="J14" s="7">
+        <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"LOAN",interestRate!$B:$B,Loan!G14,interestRate!$D:$D,Loan!F14,interestRate!$E:$E,Loan!L14)</f>
+        <v>0.12800000000000003</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="L14" t="str">
+        <f>VLOOKUP(B14,Customer!$A$2:$F$26,6)</f>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1">
+        <v>2</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
+      <c r="D15" s="6">
+        <v>44615</v>
+      </c>
+      <c r="E15" s="6">
+        <f t="shared" si="0"/>
+        <v>55572</v>
+      </c>
+      <c r="F15" s="8">
+        <v>360</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="H15" s="8">
+        <v>48000000000</v>
+      </c>
+      <c r="I15" s="8">
+        <f>VLOOKUP(G15,exchangeRate!$B$2:$D$13,3,FALSE)*H15</f>
+        <v>48000000000</v>
+      </c>
+      <c r="J15" s="7">
+        <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"LOAN",interestRate!$B:$B,Loan!G15,interestRate!$D:$D,Loan!F15,interestRate!$E:$E,Loan!L15)</f>
+        <v>0.13700000000000004</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="L15" t="str">
+        <f>VLOOKUP(B15,Customer!$A$2:$F$26,6)</f>
+        <v>B</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1">
+        <v>3</v>
+      </c>
+      <c r="C16" s="1">
+        <v>2</v>
+      </c>
+      <c r="D16" s="6">
+        <v>44700</v>
+      </c>
+      <c r="E16" s="6">
+        <f t="shared" si="0"/>
+        <v>48353</v>
+      </c>
+      <c r="F16" s="8">
+        <v>120</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="H16" s="8">
+        <v>31000000000</v>
+      </c>
+      <c r="I16" s="8">
+        <f>VLOOKUP(G16,exchangeRate!$B$2:$D$13,3,FALSE)*H16</f>
+        <v>31000000000</v>
+      </c>
+      <c r="J16" s="7">
+        <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"LOAN",interestRate!$B:$B,Loan!G16,interestRate!$D:$D,Loan!F16,interestRate!$E:$E,Loan!L16)</f>
+        <v>0.13400000000000004</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="L16" t="str">
+        <f>VLOOKUP(B16,Customer!$A$2:$F$26,6)</f>
+        <v>C</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1">
+        <v>4</v>
+      </c>
+      <c r="C17" s="1">
+        <v>3</v>
+      </c>
+      <c r="D17" s="6">
+        <v>44306</v>
+      </c>
+      <c r="E17" s="6">
+        <f t="shared" si="0"/>
+        <v>44671</v>
+      </c>
+      <c r="F17" s="8">
+        <v>12</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="H17" s="8">
+        <v>42000000000</v>
+      </c>
+      <c r="I17" s="8">
+        <f>VLOOKUP(G17,exchangeRate!$B$2:$D$13,3,FALSE)*H17</f>
+        <v>42000000000</v>
+      </c>
+      <c r="J17" s="7">
+        <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"LOAN",interestRate!$B:$B,Loan!G17,interestRate!$D:$D,Loan!F17,interestRate!$E:$E,Loan!L17)</f>
+        <v>9.2000000000000012E-2</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="L17" t="str">
+        <f>VLOOKUP(B17,Customer!$A$2:$F$26,6)</f>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1">
+        <v>5</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1</v>
+      </c>
+      <c r="F18" s="8">
+        <v>15</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="H18" s="8">
+        <v>45000000000</v>
+      </c>
+      <c r="I18" s="8">
+        <f>VLOOKUP(G18,exchangeRate!$B$2:$D$13,3,FALSE)*H18</f>
+        <v>45000000000</v>
+      </c>
+      <c r="J18" s="7">
+        <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"LOAN",interestRate!$B:$B,Loan!G18,interestRate!$D:$D,Loan!F18,interestRate!$E:$E,Loan!L18)</f>
+        <v>0</v>
+      </c>
+      <c r="K18" s="16" t="s">
+        <v>224</v>
+      </c>
+      <c r="L18" t="str">
+        <f>VLOOKUP(B18,Customer!$A$2:$F$26,6)</f>
+        <v>UNKNOWN</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1">
+        <v>6</v>
+      </c>
+      <c r="C19" s="1">
+        <v>2</v>
+      </c>
+      <c r="D19" s="6">
+        <v>44175</v>
+      </c>
+      <c r="E19" s="6">
+        <f t="shared" si="0"/>
+        <v>44905</v>
+      </c>
+      <c r="F19" s="8">
+        <v>24</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="H19" s="8">
+        <v>19000000000</v>
+      </c>
+      <c r="I19" s="8">
+        <f>VLOOKUP(G19,exchangeRate!$B$2:$D$13,3,FALSE)*H19</f>
+        <v>19000000000</v>
+      </c>
+      <c r="J19" s="7">
+        <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"LOAN",interestRate!$B:$B,Loan!G19,interestRate!$D:$D,Loan!F19,interestRate!$E:$E,Loan!L19)</f>
+        <v>0.10400000000000002</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="L19" t="str">
+        <f>VLOOKUP(B19,Customer!$A$2:$F$26,6)</f>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="5">
+        <v>1</v>
+      </c>
+      <c r="C20" s="1">
+        <v>3</v>
+      </c>
+      <c r="D20" s="6">
+        <v>44246</v>
+      </c>
+      <c r="E20" s="6">
+        <f t="shared" si="0"/>
+        <v>45341</v>
+      </c>
+      <c r="F20" s="8">
+        <v>36</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="H20" s="8">
+        <v>31000000000</v>
+      </c>
+      <c r="I20" s="8">
+        <f>VLOOKUP(G20,exchangeRate!$B$2:$D$13,3,FALSE)*H20</f>
+        <v>31000000000</v>
+      </c>
+      <c r="J20" s="7">
+        <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"LOAN",interestRate!$B:$B,Loan!G20,interestRate!$D:$D,Loan!F20,interestRate!$E:$E,Loan!L20)</f>
+        <v>0.10800000000000003</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="L20" t="str">
+        <f>VLOOKUP(B20,Customer!$A$2:$F$26,6)</f>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="5">
+        <v>2</v>
+      </c>
+      <c r="D21" s="6">
+        <v>44814</v>
+      </c>
+      <c r="E21" s="6">
+        <f t="shared" si="0"/>
+        <v>46275</v>
+      </c>
+      <c r="F21" s="8">
+        <v>48</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="H21" s="8">
+        <v>2000000000</v>
+      </c>
+      <c r="I21" s="8">
+        <f>VLOOKUP(G21,exchangeRate!$B$2:$D$13,3,FALSE)*H21</f>
+        <v>2000000000</v>
+      </c>
+      <c r="J21" s="7">
+        <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"LOAN",interestRate!$B:$B,Loan!G21,interestRate!$D:$D,Loan!F21,interestRate!$E:$E,Loan!L21)</f>
+        <v>0.11700000000000003</v>
+      </c>
+      <c r="K21" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="L21" t="str">
+        <f>VLOOKUP(B21,Customer!$A$2:$F$26,6)</f>
+        <v>B</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DB35AC3-6DBB-4728-A5E8-FCDA1B812037}">
+  <dimension ref="A1:K41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="7.1328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.53125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.73046875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.265625" customWidth="1"/>
+    <col min="7" max="7" width="7.46484375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.3984375" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.73046875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>16</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2" s="6">
+        <v>44855</v>
+      </c>
+      <c r="E2" s="6">
+        <f>DATE(YEAR(D2),MONTH(D2)+F2,DAY(D2))</f>
+        <v>45403</v>
+      </c>
+      <c r="F2">
+        <v>18</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="H2" s="8">
+        <v>300000000</v>
+      </c>
+      <c r="I2" s="8">
+        <v>300000000</v>
+      </c>
+      <c r="J2" s="7">
+        <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"SAVING",interestRate!$D:$D,Saving!F2,interestRate!$B:$B,Saving!G2)</f>
+        <v>6.5000000000000016E-2</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>9</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" s="6">
+        <v>44846</v>
+      </c>
+      <c r="E3" s="6">
+        <f t="shared" ref="E3:E41" si="0">DATE(YEAR(D3),MONTH(D3)+F3,DAY(D3))</f>
+        <v>45942</v>
+      </c>
+      <c r="F3">
+        <v>36</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="H3" s="8">
+        <v>1000000000</v>
+      </c>
+      <c r="I3" s="8">
+        <v>1000000000</v>
+      </c>
+      <c r="J3" s="7">
+        <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"SAVING",interestRate!$D:$D,Saving!F3,interestRate!$B:$B,Saving!G3)</f>
+        <v>7.1000000000000021E-2</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>20</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="6">
+        <v>44974</v>
+      </c>
+      <c r="E4" s="6">
+        <f t="shared" si="0"/>
+        <v>45339</v>
+      </c>
+      <c r="F4">
+        <v>12</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="H4" s="8">
+        <v>1400000000</v>
+      </c>
+      <c r="I4" s="8">
+        <v>1400000000</v>
+      </c>
+      <c r="J4" s="7">
+        <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"SAVING",interestRate!$D:$D,Saving!F4,interestRate!$B:$B,Saving!G4)</f>
+        <v>5.9000000000000011E-2</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>11</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5" s="6">
+        <v>44837</v>
+      </c>
+      <c r="E5" s="6">
+        <f t="shared" si="0"/>
+        <v>45933</v>
+      </c>
+      <c r="F5">
+        <v>36</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="H5" s="8">
+        <v>3800000000</v>
+      </c>
+      <c r="I5" s="8">
+        <v>3800000000</v>
+      </c>
+      <c r="J5" s="7">
+        <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"SAVING",interestRate!$D:$D,Saving!F5,interestRate!$B:$B,Saving!G5)</f>
+        <v>7.1000000000000021E-2</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>23</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" s="6">
+        <v>44889</v>
+      </c>
+      <c r="E6" s="6">
+        <f t="shared" si="0"/>
+        <v>45254</v>
+      </c>
+      <c r="F6">
+        <v>12</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="H6" s="8">
+        <v>3000000000</v>
+      </c>
+      <c r="I6" s="8">
+        <v>3000000000</v>
+      </c>
+      <c r="J6" s="7">
+        <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"SAVING",interestRate!$D:$D,Saving!F6,interestRate!$B:$B,Saving!G6)</f>
+        <v>5.9000000000000011E-2</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7" s="6">
+        <v>44894</v>
+      </c>
+      <c r="E7" s="6">
+        <f t="shared" si="0"/>
+        <v>45990</v>
+      </c>
+      <c r="F7">
+        <v>36</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="H7" s="8">
+        <v>1100000000</v>
+      </c>
+      <c r="I7" s="8">
+        <v>1100000000</v>
+      </c>
+      <c r="J7" s="7">
+        <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"SAVING",interestRate!$D:$D,Saving!F7,interestRate!$B:$B,Saving!G7)</f>
+        <v>7.1000000000000021E-2</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" s="6">
+        <v>44835</v>
+      </c>
+      <c r="E8" s="6">
+        <f t="shared" si="0"/>
+        <v>45108</v>
+      </c>
+      <c r="F8">
+        <v>9</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="H8" s="8">
+        <v>62887699999.999992</v>
+      </c>
+      <c r="I8" s="8">
+        <v>62887699999.999992</v>
+      </c>
+      <c r="J8" s="7">
+        <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"SAVING",interestRate!$D:$D,Saving!F8,interestRate!$B:$B,Saving!G8)</f>
+        <v>5.6000000000000008E-2</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>23</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9" s="6">
+        <v>45043</v>
+      </c>
+      <c r="E9" s="6">
+        <f t="shared" si="0"/>
+        <v>45500</v>
+      </c>
+      <c r="F9">
+        <v>15</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="H9" s="8">
+        <v>90481200000</v>
+      </c>
+      <c r="I9" s="8">
+        <v>90481200000</v>
+      </c>
+      <c r="J9" s="7">
+        <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"SAVING",interestRate!$D:$D,Saving!F9,interestRate!$B:$B,Saving!G9)</f>
+        <v>6.2000000000000013E-2</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <v>13</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10" s="6">
+        <v>44875</v>
+      </c>
+      <c r="E10" s="6">
+        <f t="shared" si="0"/>
+        <v>45240</v>
+      </c>
+      <c r="F10">
+        <v>12</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="H10" s="8">
+        <v>11266500000</v>
+      </c>
+      <c r="I10" s="8">
+        <v>11266500000</v>
+      </c>
+      <c r="J10" s="7">
+        <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"SAVING",interestRate!$D:$D,Saving!F10,interestRate!$B:$B,Saving!G10)</f>
+        <v>5.9000000000000011E-2</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1">
+        <v>13</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" s="6">
+        <v>44857</v>
+      </c>
+      <c r="E11" s="6">
+        <f t="shared" si="0"/>
+        <v>45130</v>
+      </c>
+      <c r="F11">
+        <v>9</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="H11" s="8">
+        <v>90849300000</v>
+      </c>
+      <c r="I11" s="8">
+        <v>90849300000</v>
+      </c>
+      <c r="J11" s="7">
+        <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"SAVING",interestRate!$D:$D,Saving!F11,interestRate!$B:$B,Saving!G11)</f>
+        <v>5.6000000000000008E-2</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1">
+        <v>14</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12" s="6">
+        <v>44953</v>
+      </c>
+      <c r="E12" s="6">
+        <f t="shared" si="0"/>
+        <v>45226</v>
+      </c>
+      <c r="F12">
+        <v>9</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="H12" s="8">
+        <v>23014500000</v>
+      </c>
+      <c r="I12" s="8">
+        <v>23014500000</v>
+      </c>
+      <c r="J12" s="7">
+        <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"SAVING",interestRate!$D:$D,Saving!F12,interestRate!$B:$B,Saving!G12)</f>
+        <v>5.6000000000000008E-2</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1">
+        <v>9</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" s="6">
+        <v>45029</v>
+      </c>
+      <c r="E13" s="6">
+        <f t="shared" si="0"/>
+        <v>45486</v>
+      </c>
+      <c r="F13">
+        <v>15</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="H13" s="8">
+        <v>53044600000</v>
+      </c>
+      <c r="I13" s="8">
+        <v>53044600000</v>
+      </c>
+      <c r="J13" s="7">
+        <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"SAVING",interestRate!$D:$D,Saving!F13,interestRate!$B:$B,Saving!G13)</f>
+        <v>6.2000000000000013E-2</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1">
+        <v>16</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" s="6">
+        <v>44942</v>
+      </c>
+      <c r="E14" s="6">
+        <f t="shared" si="0"/>
+        <v>46038</v>
+      </c>
+      <c r="F14">
+        <v>36</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="H14" s="8">
+        <v>3900000000</v>
+      </c>
+      <c r="I14" s="8">
+        <v>3900000000</v>
+      </c>
+      <c r="J14" s="7">
+        <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"SAVING",interestRate!$D:$D,Saving!F14,interestRate!$B:$B,Saving!G14)</f>
+        <v>7.1000000000000021E-2</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1">
+        <v>14</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15" s="6">
+        <v>45006</v>
+      </c>
+      <c r="E15" s="6">
+        <f t="shared" si="0"/>
+        <v>46833</v>
+      </c>
+      <c r="F15">
+        <v>60</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="H15" s="8">
+        <v>4800000000</v>
+      </c>
+      <c r="I15" s="8">
+        <v>4800000000</v>
+      </c>
+      <c r="J15" s="7">
+        <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"SAVING",interestRate!$D:$D,Saving!F15,interestRate!$B:$B,Saving!G15)</f>
+        <v>7.7000000000000027E-2</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1">
+        <v>16</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16" s="6">
+        <v>44979</v>
+      </c>
+      <c r="E16" s="6">
+        <f t="shared" si="0"/>
+        <v>45252</v>
+      </c>
+      <c r="F16">
+        <v>9</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="H16" s="8">
+        <v>3100000000</v>
+      </c>
+      <c r="I16" s="8">
+        <v>3100000000</v>
+      </c>
+      <c r="J16" s="7">
+        <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"SAVING",interestRate!$D:$D,Saving!F16,interestRate!$B:$B,Saving!G16)</f>
+        <v>5.6000000000000008E-2</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1">
+        <v>19</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="D17" s="6">
+        <v>44962</v>
+      </c>
+      <c r="E17" s="6">
+        <f t="shared" si="0"/>
+        <v>45693</v>
+      </c>
+      <c r="F17">
+        <v>24</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="H17" s="8">
+        <v>4200000000</v>
+      </c>
+      <c r="I17" s="8">
+        <v>4200000000</v>
+      </c>
+      <c r="J17" s="7">
+        <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"SAVING",interestRate!$D:$D,Saving!F17,interestRate!$B:$B,Saving!G17)</f>
+        <v>6.8000000000000019E-2</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1">
+        <v>14</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+      <c r="D18" s="6">
+        <v>45025</v>
+      </c>
+      <c r="E18" s="6">
+        <f t="shared" si="0"/>
+        <v>45574</v>
+      </c>
+      <c r="F18">
+        <v>18</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="H18" s="8">
+        <v>4500000000</v>
+      </c>
+      <c r="I18" s="8">
+        <v>4500000000</v>
+      </c>
+      <c r="J18" s="7">
+        <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"SAVING",interestRate!$D:$D,Saving!F18,interestRate!$B:$B,Saving!G18)</f>
+        <v>6.5000000000000016E-2</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1">
+        <v>25</v>
+      </c>
+      <c r="C19">
+        <v>3</v>
+      </c>
+      <c r="D19" s="6">
+        <v>44872</v>
+      </c>
+      <c r="E19" s="6">
+        <f t="shared" si="0"/>
+        <v>45237</v>
+      </c>
+      <c r="F19">
+        <v>12</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="H19" s="8">
+        <v>1900000000</v>
+      </c>
+      <c r="I19" s="8">
+        <v>1900000000</v>
+      </c>
+      <c r="J19" s="7">
+        <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"SAVING",interestRate!$D:$D,Saving!F19,interestRate!$B:$B,Saving!G19)</f>
+        <v>5.9000000000000011E-2</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20" s="6">
+        <v>44997</v>
+      </c>
+      <c r="E20" s="6">
+        <f t="shared" si="0"/>
+        <v>46458</v>
+      </c>
+      <c r="F20">
+        <v>48</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="H20" s="8">
+        <v>3100000000</v>
+      </c>
+      <c r="I20" s="8">
+        <v>3100000000</v>
+      </c>
+      <c r="J20" s="7">
+        <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"SAVING",interestRate!$D:$D,Saving!F20,interestRate!$B:$B,Saving!G20)</f>
+        <v>7.4000000000000024E-2</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1">
+        <v>18</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21" s="6">
+        <v>44879</v>
+      </c>
+      <c r="E21" s="6">
+        <f t="shared" si="0"/>
+        <v>46340</v>
+      </c>
+      <c r="F21">
+        <v>48</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="H21" s="8">
+        <v>17000000000</v>
+      </c>
+      <c r="I21" s="8">
+        <v>17000000000</v>
+      </c>
+      <c r="J21" s="7">
+        <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"SAVING",interestRate!$D:$D,Saving!F21,interestRate!$B:$B,Saving!G21)</f>
+        <v>7.4000000000000024E-2</v>
+      </c>
+      <c r="K21" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1">
+        <v>12</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22" s="6">
+        <v>44912</v>
+      </c>
+      <c r="E22" s="6">
+        <f t="shared" si="0"/>
+        <v>46373</v>
+      </c>
+      <c r="F22">
+        <v>48</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="H22" s="8">
+        <v>1500000000</v>
+      </c>
+      <c r="I22" s="8">
+        <v>1500000000</v>
+      </c>
+      <c r="J22" s="7">
+        <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"SAVING",interestRate!$D:$D,Saving!F22,interestRate!$B:$B,Saving!G22)</f>
+        <v>7.4000000000000024E-2</v>
+      </c>
+      <c r="K22" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1">
+        <v>16</v>
+      </c>
+      <c r="C23">
+        <v>3</v>
+      </c>
+      <c r="D23" s="6">
+        <v>44901</v>
+      </c>
+      <c r="E23" s="6">
+        <f t="shared" si="0"/>
+        <v>46362</v>
+      </c>
+      <c r="F23">
+        <v>48</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="H23" s="8">
+        <v>15000000000</v>
+      </c>
+      <c r="I23" s="8">
+        <v>15000000000</v>
+      </c>
+      <c r="J23" s="7">
+        <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"SAVING",interestRate!$D:$D,Saving!F23,interestRate!$B:$B,Saving!G23)</f>
+        <v>7.4000000000000024E-2</v>
+      </c>
+      <c r="K23" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1">
+        <v>7</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24" s="6">
+        <v>44997</v>
+      </c>
+      <c r="E24" s="6">
+        <f t="shared" si="0"/>
+        <v>46093</v>
+      </c>
+      <c r="F24">
+        <v>36</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="H24" s="8">
+        <v>2000000000</v>
+      </c>
+      <c r="I24" s="8">
+        <v>2000000000</v>
+      </c>
+      <c r="J24" s="7">
+        <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"SAVING",interestRate!$D:$D,Saving!F24,interestRate!$B:$B,Saving!G24)</f>
+        <v>7.1000000000000021E-2</v>
+      </c>
+      <c r="K24" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1">
+        <v>7</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="D25" s="6">
+        <v>44918</v>
+      </c>
+      <c r="E25" s="6">
+        <f t="shared" si="0"/>
+        <v>46744</v>
+      </c>
+      <c r="F25">
+        <v>60</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="H25" s="8">
+        <v>20000000000</v>
+      </c>
+      <c r="I25" s="8">
+        <v>20000000000</v>
+      </c>
+      <c r="J25" s="7">
+        <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"SAVING",interestRate!$D:$D,Saving!F25,interestRate!$B:$B,Saving!G25)</f>
+        <v>7.7000000000000027E-2</v>
+      </c>
+      <c r="K25" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1">
+        <v>11</v>
+      </c>
+      <c r="C26">
+        <v>3</v>
+      </c>
+      <c r="D26" s="6">
+        <v>44982</v>
+      </c>
+      <c r="E26" s="6">
+        <f t="shared" si="0"/>
+        <v>46078</v>
+      </c>
+      <c r="F26">
+        <v>36</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="H26" s="8">
+        <v>6000000000</v>
+      </c>
+      <c r="I26" s="8">
+        <v>6000000000</v>
+      </c>
+      <c r="J26" s="7">
+        <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"SAVING",interestRate!$D:$D,Saving!F26,interestRate!$B:$B,Saving!G26)</f>
+        <v>7.1000000000000021E-2</v>
+      </c>
+      <c r="K26" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1">
+        <v>8</v>
+      </c>
+      <c r="C27">
+        <v>3</v>
+      </c>
+      <c r="D27" s="6">
+        <v>44927</v>
+      </c>
+      <c r="E27" s="6">
+        <f t="shared" si="0"/>
+        <v>45658</v>
+      </c>
+      <c r="F27">
+        <v>24</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="H27" s="8">
+        <v>200000000</v>
+      </c>
+      <c r="I27" s="8">
+        <v>200000000</v>
+      </c>
+      <c r="J27" s="7">
+        <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"SAVING",interestRate!$D:$D,Saving!F27,interestRate!$B:$B,Saving!G27)</f>
+        <v>6.8000000000000019E-2</v>
+      </c>
+      <c r="K27" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1">
+        <v>23</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28" s="6">
+        <v>44846</v>
+      </c>
+      <c r="E28" s="6">
+        <f t="shared" si="0"/>
+        <v>45211</v>
+      </c>
+      <c r="F28">
+        <v>12</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="H28" s="8">
+        <v>8500000000</v>
+      </c>
+      <c r="I28" s="8">
+        <v>8500000000</v>
+      </c>
+      <c r="J28" s="7">
+        <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"SAVING",interestRate!$D:$D,Saving!F28,interestRate!$B:$B,Saving!G28)</f>
+        <v>5.9000000000000011E-2</v>
+      </c>
+      <c r="K28" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1">
+        <v>11</v>
+      </c>
+      <c r="C29">
+        <v>3</v>
+      </c>
+      <c r="D29" s="6">
+        <v>44970</v>
+      </c>
+      <c r="E29" s="6">
+        <f t="shared" si="0"/>
+        <v>45517</v>
+      </c>
+      <c r="F29">
+        <v>18</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="H29" s="8">
+        <v>6000000000</v>
+      </c>
+      <c r="I29" s="8">
+        <v>6000000000</v>
+      </c>
+      <c r="J29" s="7">
+        <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"SAVING",interestRate!$D:$D,Saving!F29,interestRate!$B:$B,Saving!G29)</f>
+        <v>6.5000000000000016E-2</v>
+      </c>
+      <c r="K29" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1">
+        <v>24</v>
+      </c>
+      <c r="C30">
+        <v>3</v>
+      </c>
+      <c r="D30" s="6">
+        <v>44884</v>
+      </c>
+      <c r="E30" s="6">
+        <f t="shared" si="0"/>
+        <v>45249</v>
+      </c>
+      <c r="F30">
+        <v>12</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="H30" s="8">
+        <v>200000</v>
+      </c>
+      <c r="I30" s="8">
+        <v>4700000000</v>
+      </c>
+      <c r="J30" s="7">
+        <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"SAVING",interestRate!$D:$D,Saving!F30,interestRate!$B:$B,Saving!G30)</f>
+        <v>0</v>
+      </c>
+      <c r="K30" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1">
+        <v>16</v>
+      </c>
+      <c r="C31">
+        <v>3</v>
+      </c>
+      <c r="D31" s="6">
+        <v>44906</v>
+      </c>
+      <c r="E31" s="6">
+        <f t="shared" si="0"/>
+        <v>45271</v>
+      </c>
+      <c r="F31">
+        <v>12</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="H31" s="8">
+        <v>200001</v>
+      </c>
+      <c r="I31" s="8">
+        <v>4700023500</v>
+      </c>
+      <c r="J31" s="7">
+        <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"SAVING",interestRate!$D:$D,Saving!F31,interestRate!$B:$B,Saving!G31)</f>
+        <v>0</v>
+      </c>
+      <c r="K31" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1">
+        <v>25</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32" s="6">
+        <v>44849</v>
+      </c>
+      <c r="E32" s="6">
+        <f t="shared" si="0"/>
+        <v>45031</v>
+      </c>
+      <c r="F32">
+        <v>6</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="H32" s="8">
+        <v>200002</v>
+      </c>
+      <c r="I32" s="8">
+        <v>4700047000</v>
+      </c>
+      <c r="J32" s="7">
+        <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"SAVING",interestRate!$D:$D,Saving!F32,interestRate!$B:$B,Saving!G32)</f>
+        <v>0</v>
+      </c>
+      <c r="K32" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1">
+        <v>10</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+      <c r="D33" s="6">
+        <v>44887</v>
+      </c>
+      <c r="E33" s="6">
+        <f t="shared" si="0"/>
+        <v>46348</v>
+      </c>
+      <c r="F33">
+        <v>48</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="H33" s="8">
+        <v>200003</v>
+      </c>
+      <c r="I33" s="8">
+        <v>4700070500</v>
+      </c>
+      <c r="J33" s="7">
+        <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"SAVING",interestRate!$D:$D,Saving!F33,interestRate!$B:$B,Saving!G33)</f>
+        <v>0</v>
+      </c>
+      <c r="K33" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1">
+        <v>24</v>
+      </c>
+      <c r="C34">
+        <v>3</v>
+      </c>
+      <c r="D34" s="6">
+        <v>45029</v>
+      </c>
+      <c r="E34" s="6">
+        <f t="shared" si="0"/>
+        <v>45486</v>
+      </c>
+      <c r="F34">
+        <v>15</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="H34" s="8">
+        <v>200004</v>
+      </c>
+      <c r="I34" s="8">
+        <v>4700094000</v>
+      </c>
+      <c r="J34" s="7">
+        <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"SAVING",interestRate!$D:$D,Saving!F34,interestRate!$B:$B,Saving!G34)</f>
+        <v>0</v>
+      </c>
+      <c r="K34" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1">
+        <v>22</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35" s="6">
+        <v>44841</v>
+      </c>
+      <c r="E35" s="6">
+        <f t="shared" si="0"/>
+        <v>45023</v>
+      </c>
+      <c r="F35">
+        <v>6</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="H35" s="8">
+        <v>200005</v>
+      </c>
+      <c r="I35" s="8">
+        <v>4700117500</v>
+      </c>
+      <c r="J35" s="7">
+        <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"SAVING",interestRate!$D:$D,Saving!F35,interestRate!$B:$B,Saving!G35)</f>
+        <v>0</v>
+      </c>
+      <c r="K35" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1">
+        <v>25</v>
+      </c>
+      <c r="C36">
+        <v>2</v>
+      </c>
+      <c r="D36" s="6">
+        <v>45026</v>
+      </c>
+      <c r="E36" s="6">
+        <f t="shared" si="0"/>
+        <v>45117</v>
+      </c>
+      <c r="F36">
+        <v>3</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="H36" s="8">
+        <v>200006</v>
+      </c>
+      <c r="I36" s="8">
+        <v>4700141000</v>
+      </c>
+      <c r="J36" s="7">
+        <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"SAVING",interestRate!$D:$D,Saving!F36,interestRate!$B:$B,Saving!G36)</f>
+        <v>0</v>
+      </c>
+      <c r="K36" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1">
+        <v>16</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37" s="6">
+        <v>45024</v>
+      </c>
+      <c r="E37" s="6">
+        <f t="shared" si="0"/>
+        <v>45755</v>
+      </c>
+      <c r="F37">
+        <v>24</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="H37" s="8">
+        <v>200007</v>
+      </c>
+      <c r="I37" s="8">
+        <v>4700164500</v>
+      </c>
+      <c r="J37" s="7">
+        <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"SAVING",interestRate!$D:$D,Saving!F37,interestRate!$B:$B,Saving!G37)</f>
+        <v>0</v>
+      </c>
+      <c r="K37" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1">
+        <v>21</v>
+      </c>
+      <c r="C38">
+        <v>3</v>
+      </c>
+      <c r="D38" s="6">
+        <v>44859</v>
+      </c>
+      <c r="E38" s="6">
+        <f t="shared" si="0"/>
+        <v>45955</v>
+      </c>
+      <c r="F38">
+        <v>36</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="H38" s="8">
+        <v>200008</v>
+      </c>
+      <c r="I38" s="8">
+        <v>4700188000</v>
+      </c>
+      <c r="J38" s="7">
+        <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"SAVING",interestRate!$D:$D,Saving!F38,interestRate!$B:$B,Saving!G38)</f>
+        <v>0</v>
+      </c>
+      <c r="K38" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1">
+        <v>23</v>
+      </c>
+      <c r="C39">
+        <v>3</v>
+      </c>
+      <c r="D39" s="6">
+        <v>45023</v>
+      </c>
+      <c r="E39" s="6">
+        <f t="shared" si="0"/>
+        <v>46484</v>
+      </c>
+      <c r="F39">
+        <v>48</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="H39" s="8">
+        <v>200009</v>
+      </c>
+      <c r="I39" s="8">
+        <v>4700211500</v>
+      </c>
+      <c r="J39" s="7">
+        <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"SAVING",interestRate!$D:$D,Saving!F39,interestRate!$B:$B,Saving!G39)</f>
+        <v>0</v>
+      </c>
+      <c r="K39" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1">
+        <v>13</v>
+      </c>
+      <c r="C40">
+        <v>3</v>
+      </c>
+      <c r="D40" s="6">
+        <v>45034</v>
+      </c>
+      <c r="E40" s="6">
+        <f t="shared" si="0"/>
+        <v>46861</v>
+      </c>
+      <c r="F40">
+        <v>60</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="H40" s="8">
+        <v>200010</v>
+      </c>
+      <c r="I40" s="8">
+        <v>4700235000</v>
+      </c>
+      <c r="J40" s="7">
+        <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"SAVING",interestRate!$D:$D,Saving!F40,interestRate!$B:$B,Saving!G40)</f>
+        <v>0</v>
+      </c>
+      <c r="K40" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1">
+        <v>7</v>
+      </c>
+      <c r="C41">
+        <v>2</v>
+      </c>
+      <c r="D41" s="6">
+        <v>44854</v>
+      </c>
+      <c r="E41" s="6">
+        <f t="shared" si="0"/>
+        <v>45585</v>
+      </c>
+      <c r="F41">
+        <v>24</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="H41" s="8">
+        <v>200011</v>
+      </c>
+      <c r="I41" s="8">
+        <v>4700258500</v>
+      </c>
+      <c r="J41" s="7">
+        <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"SAVING",interestRate!$D:$D,Saving!F41,interestRate!$B:$B,Saving!G41)</f>
+        <v>0</v>
+      </c>
+      <c r="K41" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7CEEA2A-F762-4182-90A3-86784995BC41}">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.46484375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2" s="6">
+        <v>44926</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3" s="6">
+        <v>44926</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3">
+        <v>23500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4" s="6">
+        <v>44926</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>213</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4">
+        <v>26071.69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A5" s="6">
+        <v>44926</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5">
+        <v>22035.58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A6" s="6">
+        <v>44926</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6">
+        <v>30379</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A7" s="6">
+        <v>44926</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7">
+        <v>16271</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A8" s="6">
+        <v>44926</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A9" s="6">
+        <v>44926</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9">
+        <v>23032.799999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A10" s="6">
+        <v>44926</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10">
+        <v>3416.69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A11" s="6">
+        <v>44926</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11">
+        <v>2576.69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A12" s="6">
+        <v>44926</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>222</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12">
+        <v>18.89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A13" s="6">
+        <v>44926</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D13">
+        <v>15281.28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{146A3E06-B983-43B3-A43F-658D5B96467C}">
+  <dimension ref="A1:F127"/>
+  <sheetViews>
+    <sheetView topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="F69" sqref="F69"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="12.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.19921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.53125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.59765625" style="7" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="B1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D1" t="s">
+        <v>209</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A2" s="6">
+        <v>44926</v>
+      </c>
+      <c r="B2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="7">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3" s="6">
+        <v>44926</v>
+      </c>
+      <c r="B3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" t="s">
+        <v>210</v>
+      </c>
+      <c r="D3">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="7">
+        <f t="shared" ref="F3:F15" si="0">F2+0.4%</f>
+        <v>8.4000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A4" s="6">
+        <v>44926</v>
+      </c>
+      <c r="B4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" t="s">
+        <v>210</v>
+      </c>
+      <c r="D4">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="7">
+        <f t="shared" si="0"/>
+        <v>8.8000000000000009E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A5" s="6">
+        <v>44926</v>
+      </c>
+      <c r="B5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" t="s">
+        <v>210</v>
+      </c>
+      <c r="D5">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="7">
+        <f t="shared" si="0"/>
+        <v>9.2000000000000012E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A6" s="6">
+        <v>44926</v>
+      </c>
+      <c r="B6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" t="s">
+        <v>210</v>
+      </c>
+      <c r="D6">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="7">
+        <f t="shared" si="0"/>
+        <v>9.6000000000000016E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A7" s="6">
+        <v>44926</v>
+      </c>
+      <c r="B7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7" t="s">
+        <v>210</v>
+      </c>
+      <c r="D7">
+        <v>18</v>
+      </c>
+      <c r="E7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="7">
+        <f t="shared" si="0"/>
+        <v>0.10000000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A8" s="6">
+        <v>44926</v>
+      </c>
+      <c r="B8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C8" t="s">
+        <v>210</v>
+      </c>
+      <c r="D8">
+        <v>24</v>
+      </c>
+      <c r="E8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="7">
+        <f t="shared" si="0"/>
+        <v>0.10400000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A9" s="6">
+        <v>44926</v>
+      </c>
+      <c r="B9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C9" t="s">
+        <v>210</v>
+      </c>
+      <c r="D9">
+        <v>36</v>
+      </c>
+      <c r="E9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="7">
+        <f t="shared" si="0"/>
+        <v>0.10800000000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A10" s="6">
+        <v>44926</v>
+      </c>
+      <c r="B10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10" t="s">
+        <v>210</v>
+      </c>
+      <c r="D10">
+        <v>48</v>
+      </c>
+      <c r="E10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="7">
+        <f t="shared" si="0"/>
+        <v>0.11200000000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A11" s="6">
+        <v>44926</v>
+      </c>
+      <c r="B11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C11" t="s">
+        <v>210</v>
+      </c>
+      <c r="D11">
+        <v>60</v>
+      </c>
+      <c r="E11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="7">
+        <f t="shared" si="0"/>
+        <v>0.11600000000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A12" s="6">
+        <v>44926</v>
+      </c>
+      <c r="B12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C12" t="s">
+        <v>210</v>
+      </c>
+      <c r="D12">
+        <v>84</v>
+      </c>
+      <c r="E12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="7">
+        <f t="shared" si="0"/>
+        <v>0.12000000000000004</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A13" s="6">
+        <v>44926</v>
+      </c>
+      <c r="B13" t="s">
+        <v>81</v>
+      </c>
+      <c r="C13" t="s">
+        <v>210</v>
+      </c>
+      <c r="D13">
+        <v>120</v>
+      </c>
+      <c r="E13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" s="7">
+        <f t="shared" si="0"/>
+        <v>0.12400000000000004</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A14" s="6">
+        <v>44926</v>
+      </c>
+      <c r="B14" t="s">
+        <v>81</v>
+      </c>
+      <c r="C14" t="s">
+        <v>210</v>
+      </c>
+      <c r="D14">
+        <v>240</v>
+      </c>
+      <c r="E14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" s="7">
+        <f t="shared" si="0"/>
+        <v>0.12800000000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A15" s="6">
+        <v>44926</v>
+      </c>
+      <c r="B15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C15" t="s">
+        <v>210</v>
+      </c>
+      <c r="D15">
+        <v>360</v>
+      </c>
+      <c r="E15" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="7">
+        <f t="shared" si="0"/>
+        <v>0.13200000000000003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A16" s="6">
+        <v>44926</v>
+      </c>
+      <c r="B16" t="s">
+        <v>81</v>
+      </c>
+      <c r="C16" t="s">
+        <v>210</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="7">
+        <f t="shared" ref="F16:F43" si="1">F2+0.5%</f>
+        <v>8.5000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A17" s="6">
+        <v>44926</v>
+      </c>
+      <c r="B17" t="s">
+        <v>81</v>
+      </c>
+      <c r="C17" t="s">
+        <v>210</v>
+      </c>
+      <c r="D17">
+        <v>6</v>
+      </c>
+      <c r="E17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="7">
+        <f t="shared" si="1"/>
+        <v>8.900000000000001E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A18" s="6">
+        <v>44926</v>
+      </c>
+      <c r="B18" t="s">
+        <v>81</v>
+      </c>
+      <c r="C18" t="s">
+        <v>210</v>
+      </c>
+      <c r="D18">
+        <v>9</v>
+      </c>
+      <c r="E18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="7">
+        <f t="shared" si="1"/>
+        <v>9.3000000000000013E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A19" s="6">
+        <v>44926</v>
+      </c>
+      <c r="B19" t="s">
+        <v>81</v>
+      </c>
+      <c r="C19" t="s">
+        <v>210</v>
+      </c>
+      <c r="D19">
+        <v>12</v>
+      </c>
+      <c r="E19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="7">
+        <f t="shared" si="1"/>
+        <v>9.7000000000000017E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A20" s="6">
+        <v>44926</v>
+      </c>
+      <c r="B20" t="s">
+        <v>81</v>
+      </c>
+      <c r="C20" t="s">
+        <v>210</v>
+      </c>
+      <c r="D20">
+        <v>15</v>
+      </c>
+      <c r="E20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" s="7">
+        <f t="shared" si="1"/>
+        <v>0.10100000000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A21" s="6">
+        <v>44926</v>
+      </c>
+      <c r="B21" t="s">
+        <v>81</v>
+      </c>
+      <c r="C21" t="s">
+        <v>210</v>
+      </c>
+      <c r="D21">
+        <v>18</v>
+      </c>
+      <c r="E21" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" s="7">
+        <f t="shared" si="1"/>
+        <v>0.10500000000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A22" s="6">
+        <v>44926</v>
+      </c>
+      <c r="B22" t="s">
+        <v>81</v>
+      </c>
+      <c r="C22" t="s">
+        <v>210</v>
+      </c>
+      <c r="D22">
+        <v>24</v>
+      </c>
+      <c r="E22" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="7">
+        <f t="shared" si="1"/>
+        <v>0.10900000000000003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A23" s="6">
+        <v>44926</v>
+      </c>
+      <c r="B23" t="s">
+        <v>81</v>
+      </c>
+      <c r="C23" t="s">
+        <v>210</v>
+      </c>
+      <c r="D23">
+        <v>36</v>
+      </c>
+      <c r="E23" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" s="7">
+        <f t="shared" si="1"/>
+        <v>0.11300000000000003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A24" s="6">
+        <v>44926</v>
+      </c>
+      <c r="B24" t="s">
+        <v>81</v>
+      </c>
+      <c r="C24" t="s">
+        <v>210</v>
+      </c>
+      <c r="D24">
+        <v>48</v>
+      </c>
+      <c r="E24" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" s="7">
+        <f t="shared" si="1"/>
+        <v>0.11700000000000003</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A25" s="6">
+        <v>44926</v>
+      </c>
+      <c r="B25" t="s">
+        <v>81</v>
+      </c>
+      <c r="C25" t="s">
+        <v>210</v>
+      </c>
+      <c r="D25">
+        <v>60</v>
+      </c>
+      <c r="E25" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" s="7">
+        <f t="shared" si="1"/>
+        <v>0.12100000000000004</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A26" s="6">
+        <v>44926</v>
+      </c>
+      <c r="B26" t="s">
+        <v>81</v>
+      </c>
+      <c r="C26" t="s">
+        <v>210</v>
+      </c>
+      <c r="D26">
+        <v>84</v>
+      </c>
+      <c r="E26" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" s="7">
+        <f t="shared" si="1"/>
+        <v>0.12500000000000003</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A27" s="6">
+        <v>44926</v>
+      </c>
+      <c r="B27" t="s">
+        <v>81</v>
+      </c>
+      <c r="C27" t="s">
+        <v>210</v>
+      </c>
+      <c r="D27">
+        <v>120</v>
+      </c>
+      <c r="E27" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" s="7">
+        <f t="shared" si="1"/>
+        <v>0.12900000000000003</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A28" s="6">
+        <v>44926</v>
+      </c>
+      <c r="B28" t="s">
+        <v>81</v>
+      </c>
+      <c r="C28" t="s">
+        <v>210</v>
+      </c>
+      <c r="D28">
+        <v>240</v>
+      </c>
+      <c r="E28" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" s="7">
+        <f t="shared" si="1"/>
+        <v>0.13300000000000003</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A29" s="6">
+        <v>44926</v>
+      </c>
+      <c r="B29" t="s">
+        <v>81</v>
+      </c>
+      <c r="C29" t="s">
+        <v>210</v>
+      </c>
+      <c r="D29">
+        <v>360</v>
+      </c>
+      <c r="E29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29" s="7">
+        <f t="shared" si="1"/>
+        <v>0.13700000000000004</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A30" s="6">
+        <v>44926</v>
+      </c>
+      <c r="B30" t="s">
+        <v>81</v>
+      </c>
+      <c r="C30" t="s">
+        <v>210</v>
+      </c>
+      <c r="D30">
+        <v>3</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" s="7">
+        <f t="shared" si="1"/>
+        <v>9.0000000000000011E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A31" s="6">
+        <v>44926</v>
+      </c>
+      <c r="B31" t="s">
+        <v>81</v>
+      </c>
+      <c r="C31" t="s">
+        <v>210</v>
+      </c>
+      <c r="D31">
+        <v>6</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31" s="7">
+        <f t="shared" si="1"/>
+        <v>9.4000000000000014E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A32" s="6">
+        <v>44926</v>
+      </c>
+      <c r="B32" t="s">
+        <v>81</v>
+      </c>
+      <c r="C32" t="s">
+        <v>210</v>
+      </c>
+      <c r="D32">
+        <v>9</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F32" s="7">
+        <f t="shared" si="1"/>
+        <v>9.8000000000000018E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A33" s="6">
+        <v>44926</v>
+      </c>
+      <c r="B33" t="s">
+        <v>81</v>
+      </c>
+      <c r="C33" t="s">
+        <v>210</v>
+      </c>
+      <c r="D33">
+        <v>12</v>
+      </c>
+      <c r="E33" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F33" s="7">
+        <f t="shared" si="1"/>
+        <v>0.10200000000000002</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A34" s="6">
+        <v>44926</v>
+      </c>
+      <c r="B34" t="s">
+        <v>81</v>
+      </c>
+      <c r="C34" t="s">
+        <v>210</v>
+      </c>
+      <c r="D34">
+        <v>15</v>
+      </c>
+      <c r="E34" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F34" s="7">
+        <f t="shared" si="1"/>
+        <v>0.10600000000000002</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A35" s="6">
+        <v>44926</v>
+      </c>
+      <c r="B35" t="s">
+        <v>81</v>
+      </c>
+      <c r="C35" t="s">
+        <v>210</v>
+      </c>
+      <c r="D35">
+        <v>18</v>
+      </c>
+      <c r="E35" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F35" s="7">
+        <f t="shared" si="1"/>
+        <v>0.11000000000000003</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A36" s="6">
+        <v>44926</v>
+      </c>
+      <c r="B36" t="s">
+        <v>81</v>
+      </c>
+      <c r="C36" t="s">
+        <v>210</v>
+      </c>
+      <c r="D36">
+        <v>24</v>
+      </c>
+      <c r="E36" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F36" s="7">
+        <f t="shared" si="1"/>
+        <v>0.11400000000000003</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A37" s="6">
+        <v>44926</v>
+      </c>
+      <c r="B37" t="s">
+        <v>81</v>
+      </c>
+      <c r="C37" t="s">
+        <v>210</v>
+      </c>
+      <c r="D37">
+        <v>36</v>
+      </c>
+      <c r="E37" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F37" s="7">
+        <f t="shared" si="1"/>
+        <v>0.11800000000000004</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A38" s="6">
+        <v>44926</v>
+      </c>
+      <c r="B38" t="s">
+        <v>81</v>
+      </c>
+      <c r="C38" t="s">
+        <v>210</v>
+      </c>
+      <c r="D38">
+        <v>48</v>
+      </c>
+      <c r="E38" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F38" s="7">
+        <f t="shared" si="1"/>
+        <v>0.12200000000000004</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A39" s="6">
+        <v>44926</v>
+      </c>
+      <c r="B39" t="s">
+        <v>81</v>
+      </c>
+      <c r="C39" t="s">
+        <v>210</v>
+      </c>
+      <c r="D39">
+        <v>60</v>
+      </c>
+      <c r="E39" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F39" s="7">
+        <f t="shared" si="1"/>
+        <v>0.12600000000000003</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A40" s="6">
+        <v>44926</v>
+      </c>
+      <c r="B40" t="s">
+        <v>81</v>
+      </c>
+      <c r="C40" t="s">
+        <v>210</v>
+      </c>
+      <c r="D40">
+        <v>84</v>
+      </c>
+      <c r="E40" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F40" s="7">
+        <f t="shared" si="1"/>
+        <v>0.13000000000000003</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A41" s="6">
+        <v>44926</v>
+      </c>
+      <c r="B41" t="s">
+        <v>81</v>
+      </c>
+      <c r="C41" t="s">
+        <v>210</v>
+      </c>
+      <c r="D41">
+        <v>120</v>
+      </c>
+      <c r="E41" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F41" s="7">
+        <f t="shared" si="1"/>
+        <v>0.13400000000000004</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A42" s="6">
+        <v>44926</v>
+      </c>
+      <c r="B42" t="s">
+        <v>81</v>
+      </c>
+      <c r="C42" t="s">
+        <v>210</v>
+      </c>
+      <c r="D42">
+        <v>240</v>
+      </c>
+      <c r="E42" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F42" s="7">
+        <f t="shared" si="1"/>
+        <v>0.13800000000000004</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A43" s="6">
+        <v>44926</v>
+      </c>
+      <c r="B43" t="s">
+        <v>81</v>
+      </c>
+      <c r="C43" t="s">
+        <v>210</v>
+      </c>
+      <c r="D43">
+        <v>360</v>
+      </c>
+      <c r="E43" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F43" s="7">
+        <f t="shared" si="1"/>
+        <v>0.14200000000000004</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A44" s="6">
+        <v>44926</v>
+      </c>
+      <c r="B44" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C44" t="s">
+        <v>210</v>
+      </c>
+      <c r="D44">
+        <v>3</v>
+      </c>
+      <c r="E44" t="s">
+        <v>6</v>
+      </c>
+      <c r="F44" s="7">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A45" s="6">
+        <v>44926</v>
+      </c>
+      <c r="B45" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C45" t="s">
+        <v>210</v>
+      </c>
+      <c r="D45">
+        <v>6</v>
+      </c>
+      <c r="E45" t="s">
+        <v>6</v>
+      </c>
+      <c r="F45" s="7">
+        <f t="shared" ref="F45:F57" si="2">F44+0.1%</f>
+        <v>3.1E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A46" s="6">
+        <v>44926</v>
+      </c>
+      <c r="B46" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C46" t="s">
+        <v>210</v>
+      </c>
+      <c r="D46">
+        <v>9</v>
+      </c>
+      <c r="E46" t="s">
+        <v>6</v>
+      </c>
+      <c r="F46" s="7">
+        <f t="shared" si="2"/>
+        <v>3.2000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A47" s="6">
+        <v>44926</v>
+      </c>
+      <c r="B47" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C47" t="s">
+        <v>210</v>
+      </c>
+      <c r="D47">
+        <v>12</v>
+      </c>
+      <c r="E47" t="s">
+        <v>6</v>
+      </c>
+      <c r="F47" s="7">
+        <f t="shared" si="2"/>
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A48" s="6">
+        <v>44926</v>
+      </c>
+      <c r="B48" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C48" t="s">
+        <v>210</v>
+      </c>
+      <c r="D48">
+        <v>15</v>
+      </c>
+      <c r="E48" t="s">
+        <v>6</v>
+      </c>
+      <c r="F48" s="7">
+        <f t="shared" si="2"/>
+        <v>3.4000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A49" s="6">
+        <v>44926</v>
+      </c>
+      <c r="B49" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C49" t="s">
+        <v>210</v>
+      </c>
+      <c r="D49">
+        <v>18</v>
+      </c>
+      <c r="E49" t="s">
+        <v>6</v>
+      </c>
+      <c r="F49" s="7">
+        <f t="shared" si="2"/>
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A50" s="6">
+        <v>44926</v>
+      </c>
+      <c r="B50" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C50" t="s">
+        <v>210</v>
+      </c>
+      <c r="D50">
+        <v>24</v>
+      </c>
+      <c r="E50" t="s">
+        <v>6</v>
+      </c>
+      <c r="F50" s="7">
+        <f t="shared" si="2"/>
+        <v>3.6000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A51" s="6">
+        <v>44926</v>
+      </c>
+      <c r="B51" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C51" t="s">
+        <v>210</v>
+      </c>
+      <c r="D51">
+        <v>36</v>
+      </c>
+      <c r="E51" t="s">
+        <v>6</v>
+      </c>
+      <c r="F51" s="7">
+        <f t="shared" si="2"/>
+        <v>3.7000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A52" s="6">
+        <v>44926</v>
+      </c>
+      <c r="B52" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C52" t="s">
+        <v>210</v>
+      </c>
+      <c r="D52">
+        <v>48</v>
+      </c>
+      <c r="E52" t="s">
+        <v>6</v>
+      </c>
+      <c r="F52" s="7">
+        <f t="shared" si="2"/>
+        <v>3.8000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A53" s="6">
+        <v>44926</v>
+      </c>
+      <c r="B53" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C53" t="s">
+        <v>210</v>
+      </c>
+      <c r="D53">
+        <v>60</v>
+      </c>
+      <c r="E53" t="s">
+        <v>6</v>
+      </c>
+      <c r="F53" s="7">
+        <f t="shared" si="2"/>
+        <v>3.9000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A54" s="6">
+        <v>44926</v>
+      </c>
+      <c r="B54" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C54" t="s">
+        <v>210</v>
+      </c>
+      <c r="D54">
+        <v>84</v>
+      </c>
+      <c r="E54" t="s">
+        <v>6</v>
+      </c>
+      <c r="F54" s="7">
+        <f t="shared" si="2"/>
+        <v>4.0000000000000008E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A55" s="6">
+        <v>44926</v>
+      </c>
+      <c r="B55" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C55" t="s">
+        <v>210</v>
+      </c>
+      <c r="D55">
+        <v>120</v>
+      </c>
+      <c r="E55" t="s">
+        <v>6</v>
+      </c>
+      <c r="F55" s="7">
+        <f t="shared" si="2"/>
+        <v>4.1000000000000009E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A56" s="6">
+        <v>44926</v>
+      </c>
+      <c r="B56" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C56" t="s">
+        <v>210</v>
+      </c>
+      <c r="D56">
+        <v>240</v>
+      </c>
+      <c r="E56" t="s">
+        <v>6</v>
+      </c>
+      <c r="F56" s="7">
+        <f t="shared" si="2"/>
+        <v>4.200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A57" s="6">
+        <v>44926</v>
+      </c>
+      <c r="B57" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57" t="s">
+        <v>210</v>
+      </c>
+      <c r="D57">
+        <v>360</v>
+      </c>
+      <c r="E57" t="s">
+        <v>6</v>
+      </c>
+      <c r="F57" s="7">
+        <f t="shared" si="2"/>
+        <v>4.300000000000001E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A58" s="6">
+        <v>44926</v>
+      </c>
+      <c r="B58" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C58" t="s">
+        <v>210</v>
+      </c>
+      <c r="D58">
+        <v>3</v>
+      </c>
+      <c r="E58" t="s">
+        <v>9</v>
+      </c>
+      <c r="F58" s="7">
+        <f t="shared" ref="F58:F85" si="3">F44+0.5%</f>
+        <v>3.4999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A59" s="6">
+        <v>44926</v>
+      </c>
+      <c r="B59" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C59" t="s">
+        <v>210</v>
+      </c>
+      <c r="D59">
+        <v>6</v>
+      </c>
+      <c r="E59" t="s">
+        <v>9</v>
+      </c>
+      <c r="F59" s="7">
+        <f t="shared" si="3"/>
+        <v>3.5999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A60" s="6">
+        <v>44926</v>
+      </c>
+      <c r="B60" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C60" t="s">
+        <v>210</v>
+      </c>
+      <c r="D60">
+        <v>9</v>
+      </c>
+      <c r="E60" t="s">
+        <v>9</v>
+      </c>
+      <c r="F60" s="7">
+        <f t="shared" si="3"/>
+        <v>3.6999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A61" s="6">
+        <v>44926</v>
+      </c>
+      <c r="B61" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C61" t="s">
+        <v>210</v>
+      </c>
+      <c r="D61">
+        <v>12</v>
+      </c>
+      <c r="E61" t="s">
+        <v>9</v>
+      </c>
+      <c r="F61" s="7">
+        <f t="shared" si="3"/>
+        <v>3.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A62" s="6">
+        <v>44926</v>
+      </c>
+      <c r="B62" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C62" t="s">
+        <v>210</v>
+      </c>
+      <c r="D62">
+        <v>15</v>
+      </c>
+      <c r="E62" t="s">
+        <v>9</v>
+      </c>
+      <c r="F62" s="7">
+        <f t="shared" si="3"/>
+        <v>3.9E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A63" s="6">
+        <v>44926</v>
+      </c>
+      <c r="B63" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C63" t="s">
+        <v>210</v>
+      </c>
+      <c r="D63">
+        <v>18</v>
+      </c>
+      <c r="E63" t="s">
+        <v>9</v>
+      </c>
+      <c r="F63" s="7">
+        <f t="shared" si="3"/>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A64" s="6">
+        <v>44926</v>
+      </c>
+      <c r="B64" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C64" t="s">
+        <v>210</v>
+      </c>
+      <c r="D64">
+        <v>24</v>
+      </c>
+      <c r="E64" t="s">
+        <v>9</v>
+      </c>
+      <c r="F64" s="7">
+        <f t="shared" si="3"/>
+        <v>4.1000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A65" s="6">
+        <v>44926</v>
+      </c>
+      <c r="B65" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C65" t="s">
+        <v>210</v>
+      </c>
+      <c r="D65">
+        <v>36</v>
+      </c>
+      <c r="E65" t="s">
+        <v>9</v>
+      </c>
+      <c r="F65" s="7">
+        <f t="shared" si="3"/>
+        <v>4.2000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A66" s="6">
+        <v>44926</v>
+      </c>
+      <c r="B66" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C66" t="s">
+        <v>210</v>
+      </c>
+      <c r="D66">
+        <v>48</v>
+      </c>
+      <c r="E66" t="s">
+        <v>9</v>
+      </c>
+      <c r="F66" s="7">
+        <f t="shared" si="3"/>
+        <v>4.3000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A67" s="6">
+        <v>44926</v>
+      </c>
+      <c r="B67" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C67" t="s">
+        <v>210</v>
+      </c>
+      <c r="D67">
+        <v>60</v>
+      </c>
+      <c r="E67" t="s">
+        <v>9</v>
+      </c>
+      <c r="F67" s="7">
+        <f t="shared" si="3"/>
+        <v>4.4000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A68" s="6">
+        <v>44926</v>
+      </c>
+      <c r="B68" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C68" t="s">
+        <v>210</v>
+      </c>
+      <c r="D68">
+        <v>84</v>
+      </c>
+      <c r="E68" t="s">
+        <v>9</v>
+      </c>
+      <c r="F68" s="7">
+        <f t="shared" si="3"/>
+        <v>4.5000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A69" s="6">
+        <v>44926</v>
+      </c>
+      <c r="B69" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C69" t="s">
+        <v>210</v>
+      </c>
+      <c r="D69">
+        <v>120</v>
+      </c>
+      <c r="E69" t="s">
+        <v>9</v>
+      </c>
+      <c r="F69" s="7">
+        <f t="shared" si="3"/>
+        <v>4.6000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A70" s="6">
+        <v>44926</v>
+      </c>
+      <c r="B70" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C70" t="s">
+        <v>210</v>
+      </c>
+      <c r="D70">
+        <v>240</v>
+      </c>
+      <c r="E70" t="s">
+        <v>9</v>
+      </c>
+      <c r="F70" s="7">
+        <f t="shared" si="3"/>
+        <v>4.7000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A71" s="6">
+        <v>44926</v>
+      </c>
+      <c r="B71" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C71" t="s">
+        <v>210</v>
+      </c>
+      <c r="D71">
+        <v>360</v>
+      </c>
+      <c r="E71" t="s">
+        <v>9</v>
+      </c>
+      <c r="F71" s="7">
+        <f t="shared" si="3"/>
+        <v>4.8000000000000008E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A72" s="6">
+        <v>44926</v>
+      </c>
+      <c r="B72" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C72" t="s">
+        <v>210</v>
+      </c>
+      <c r="D72">
+        <v>3</v>
+      </c>
+      <c r="E72" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F72" s="7">
+        <f t="shared" si="3"/>
+        <v>3.9999999999999994E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A73" s="6">
+        <v>44926</v>
+      </c>
+      <c r="B73" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C73" t="s">
+        <v>210</v>
+      </c>
+      <c r="D73">
+        <v>6</v>
+      </c>
+      <c r="E73" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F73" s="7">
+        <f t="shared" si="3"/>
+        <v>4.0999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A74" s="6">
+        <v>44926</v>
+      </c>
+      <c r="B74" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C74" t="s">
+        <v>210</v>
+      </c>
+      <c r="D74">
+        <v>9</v>
+      </c>
+      <c r="E74" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F74" s="7">
+        <f t="shared" si="3"/>
+        <v>4.1999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A75" s="6">
+        <v>44926</v>
+      </c>
+      <c r="B75" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C75" t="s">
+        <v>210</v>
+      </c>
+      <c r="D75">
+        <v>12</v>
+      </c>
+      <c r="E75" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F75" s="7">
+        <f t="shared" si="3"/>
+        <v>4.2999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A76" s="6">
+        <v>44926</v>
+      </c>
+      <c r="B76" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C76" t="s">
+        <v>210</v>
+      </c>
+      <c r="D76">
+        <v>15</v>
+      </c>
+      <c r="E76" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F76" s="7">
+        <f t="shared" si="3"/>
+        <v>4.3999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A77" s="6">
+        <v>44926</v>
+      </c>
+      <c r="B77" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C77" t="s">
+        <v>210</v>
+      </c>
+      <c r="D77">
+        <v>18</v>
+      </c>
+      <c r="E77" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F77" s="7">
+        <f t="shared" si="3"/>
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A78" s="6">
+        <v>44926</v>
+      </c>
+      <c r="B78" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C78" t="s">
+        <v>210</v>
+      </c>
+      <c r="D78">
+        <v>24</v>
+      </c>
+      <c r="E78" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F78" s="7">
+        <f t="shared" si="3"/>
+        <v>4.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A79" s="6">
+        <v>44926</v>
+      </c>
+      <c r="B79" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C79" t="s">
+        <v>210</v>
+      </c>
+      <c r="D79">
+        <v>36</v>
+      </c>
+      <c r="E79" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F79" s="7">
+        <f t="shared" si="3"/>
+        <v>4.7E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A80" s="6">
+        <v>44926</v>
+      </c>
+      <c r="B80" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C80" t="s">
+        <v>210</v>
+      </c>
+      <c r="D80">
+        <v>48</v>
+      </c>
+      <c r="E80" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F80" s="7">
+        <f t="shared" si="3"/>
+        <v>4.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A81" s="6">
+        <v>44926</v>
+      </c>
+      <c r="B81" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C81" t="s">
+        <v>210</v>
+      </c>
+      <c r="D81">
+        <v>60</v>
+      </c>
+      <c r="E81" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F81" s="7">
+        <f t="shared" si="3"/>
+        <v>4.9000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A82" s="6">
+        <v>44926</v>
+      </c>
+      <c r="B82" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C82" t="s">
+        <v>210</v>
+      </c>
+      <c r="D82">
+        <v>84</v>
+      </c>
+      <c r="E82" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F82" s="7">
+        <f t="shared" si="3"/>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A83" s="6">
+        <v>44926</v>
+      </c>
+      <c r="B83" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C83" t="s">
+        <v>210</v>
+      </c>
+      <c r="D83">
+        <v>120</v>
+      </c>
+      <c r="E83" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F83" s="7">
+        <f t="shared" si="3"/>
+        <v>5.1000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A84" s="6">
+        <v>44926</v>
+      </c>
+      <c r="B84" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C84" t="s">
+        <v>210</v>
+      </c>
+      <c r="D84">
+        <v>240</v>
+      </c>
+      <c r="E84" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F84" s="7">
+        <f t="shared" si="3"/>
+        <v>5.2000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A85" s="6">
+        <v>44926</v>
+      </c>
+      <c r="B85" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C85" t="s">
+        <v>210</v>
+      </c>
+      <c r="D85">
+        <v>360</v>
+      </c>
+      <c r="E85" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F85" s="7">
+        <f t="shared" si="3"/>
+        <v>5.3000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A86" s="6">
+        <v>44926</v>
+      </c>
+      <c r="B86" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="C86" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="D86">
+        <v>3</v>
+      </c>
+      <c r="F86" s="7">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A87" s="6">
+        <v>44926</v>
+      </c>
+      <c r="B87" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="C87" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="D87">
+        <v>6</v>
+      </c>
+      <c r="F87" s="7">
+        <f>F86+0.3%</f>
+        <v>5.3000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A88" s="6">
+        <v>44926</v>
+      </c>
+      <c r="B88" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="C88" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="D88">
+        <v>9</v>
+      </c>
+      <c r="F88" s="7">
+        <f t="shared" ref="F88:F95" si="4">F87+0.3%</f>
+        <v>5.6000000000000008E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A89" s="6">
+        <v>44926</v>
+      </c>
+      <c r="B89" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="C89" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="D89">
+        <v>12</v>
+      </c>
+      <c r="F89" s="7">
+        <f t="shared" si="4"/>
+        <v>5.9000000000000011E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A90" s="6">
+        <v>44926</v>
+      </c>
+      <c r="B90" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="C90" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="D90">
+        <v>15</v>
+      </c>
+      <c r="F90" s="7">
+        <f t="shared" si="4"/>
+        <v>6.2000000000000013E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A91" s="6">
+        <v>44926</v>
+      </c>
+      <c r="B91" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="C91" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="D91">
+        <v>18</v>
+      </c>
+      <c r="F91" s="7">
+        <f t="shared" si="4"/>
+        <v>6.5000000000000016E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A92" s="6">
+        <v>44926</v>
+      </c>
+      <c r="B92" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="C92" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="D92">
+        <v>24</v>
+      </c>
+      <c r="F92" s="7">
+        <f t="shared" si="4"/>
+        <v>6.8000000000000019E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A93" s="6">
+        <v>44926</v>
+      </c>
+      <c r="B93" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="C93" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="D93">
+        <v>36</v>
+      </c>
+      <c r="F93" s="7">
+        <f t="shared" si="4"/>
+        <v>7.1000000000000021E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A94" s="6">
+        <v>44926</v>
+      </c>
+      <c r="B94" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="C94" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="D94">
+        <v>48</v>
+      </c>
+      <c r="F94" s="7">
+        <f t="shared" si="4"/>
+        <v>7.4000000000000024E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A95" s="6">
+        <v>44926</v>
+      </c>
+      <c r="B95" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="C95" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="D95">
+        <v>60</v>
+      </c>
+      <c r="F95" s="7">
+        <f t="shared" si="4"/>
+        <v>7.7000000000000027E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A96" s="6">
+        <v>44926</v>
+      </c>
+      <c r="B96" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C96" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="D96">
+        <v>3</v>
+      </c>
+      <c r="F96" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A97" s="6">
+        <v>44926</v>
+      </c>
+      <c r="B97" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C97" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="D97">
+        <v>6</v>
+      </c>
+      <c r="F97" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A98" s="6">
+        <v>44926</v>
+      </c>
+      <c r="B98" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C98" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="D98">
+        <v>9</v>
+      </c>
+      <c r="F98" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A99" s="6">
+        <v>44926</v>
+      </c>
+      <c r="B99" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C99" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="D99">
+        <v>12</v>
+      </c>
+      <c r="F99" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A100" s="6">
+        <v>44926</v>
+      </c>
+      <c r="B100" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C100" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="D100">
+        <v>15</v>
+      </c>
+      <c r="F100" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A101" s="6">
+        <v>44926</v>
+      </c>
+      <c r="B101" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C101" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="D101">
+        <v>18</v>
+      </c>
+      <c r="F101" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A102" s="6">
+        <v>44926</v>
+      </c>
+      <c r="B102" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C102" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="D102">
+        <v>24</v>
+      </c>
+      <c r="F102" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A103" s="6">
+        <v>44926</v>
+      </c>
+      <c r="B103" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C103" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="D103">
+        <v>36</v>
+      </c>
+      <c r="F103" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A104" s="6">
+        <v>44926</v>
+      </c>
+      <c r="B104" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C104" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="D104">
+        <v>48</v>
+      </c>
+      <c r="F104" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A105" s="6">
+        <v>44926</v>
+      </c>
+      <c r="B105" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C105" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="D105">
+        <v>60</v>
+      </c>
+      <c r="F105" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A106" s="6">
+        <v>44926</v>
+      </c>
+      <c r="B106" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="C106" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="D106">
+        <v>3</v>
+      </c>
+      <c r="F106" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A107" s="6">
+        <v>44926</v>
+      </c>
+      <c r="B107" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="C107" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="D107">
+        <v>6</v>
+      </c>
+      <c r="F107" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A108" s="6">
+        <v>44926</v>
+      </c>
+      <c r="B108" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="C108" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="D108">
+        <v>9</v>
+      </c>
+      <c r="F108" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A109" s="6">
+        <v>44926</v>
+      </c>
+      <c r="B109" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="C109" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="D109">
+        <v>12</v>
+      </c>
+      <c r="F109" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A110" s="6">
+        <v>44926</v>
+      </c>
+      <c r="B110" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="C110" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="D110">
+        <v>15</v>
+      </c>
+      <c r="F110" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A111" s="6">
+        <v>44926</v>
+      </c>
+      <c r="B111" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="C111" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="D111">
+        <v>18</v>
+      </c>
+      <c r="F111" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A112" s="6">
+        <v>44926</v>
+      </c>
+      <c r="B112" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="C112" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="D112">
+        <v>24</v>
+      </c>
+      <c r="F112" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A113" s="6">
+        <v>44926</v>
+      </c>
+      <c r="B113" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="C113" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="D113">
+        <v>36</v>
+      </c>
+      <c r="F113" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A114" s="6">
+        <v>44926</v>
+      </c>
+      <c r="B114" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="C114" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="D114">
+        <v>48</v>
+      </c>
+      <c r="F114" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A115" s="6">
+        <v>44926</v>
+      </c>
+      <c r="B115" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="C115" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="D115">
+        <v>60</v>
+      </c>
+      <c r="F115" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A116" s="6">
+        <v>44926</v>
+      </c>
+      <c r="B116" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="C116" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="F116" s="7">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A117" s="6">
+        <v>44926</v>
+      </c>
+      <c r="B117" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C117" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="F117" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A118" s="6">
+        <v>44926</v>
+      </c>
+      <c r="B118" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="C118" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="F118" s="7">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A119" s="6">
+        <v>44926</v>
+      </c>
+      <c r="B119" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="C119" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="F119" s="7">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A120" s="6">
+        <v>44926</v>
+      </c>
+      <c r="B120" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="C120" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="F120" s="7">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A121" s="6">
+        <v>44926</v>
+      </c>
+      <c r="B121" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C121" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="F121" s="7">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A122" s="6">
+        <v>44926</v>
+      </c>
+      <c r="B122" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="C122" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="F122" s="7">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A123" s="6">
+        <v>44926</v>
+      </c>
+      <c r="B123" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="C123" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="F123" s="7">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A124" s="6">
+        <v>44926</v>
+      </c>
+      <c r="B124" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="C124" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="F124" s="7">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A125" s="6">
+        <v>44926</v>
+      </c>
+      <c r="B125" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="C125" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="F125" s="7">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A126" s="6">
+        <v>44926</v>
+      </c>
+      <c r="B126" s="15" t="s">
+        <v>222</v>
+      </c>
+      <c r="C126" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="F126" s="7">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A127" s="6">
+        <v>44926</v>
+      </c>
+      <c r="B127" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="C127" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="F127" s="7">
+        <v>1E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:F15" xr:uid="{146A3E06-B983-43B3-A43F-658D5B96467C}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F100">
+      <sortCondition ref="D1:D15"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/java/project-JavaBank/src/io/data.xlsx
+++ b/java/project-JavaBank/src/io/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Huy Binh\Documents\GitHub\nguyenhuybinh2604.github.io\java\project-JavaBank\src\io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{427A39B6-9476-4079-9D39-E3CA1744C551}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0891CEF8-CC59-40FF-880B-0256A91E9E3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Customer" sheetId="1" r:id="rId1"/>
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="962" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="994" uniqueCount="226">
   <si>
     <t>customerId</t>
   </si>
@@ -754,23 +754,32 @@
   </si>
   <si>
     <t>LOCKED</t>
+  </si>
+  <si>
+    <t>userStatus</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.0%"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0\ _₫_-;\-* #,##0\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@"/>
     <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -858,23 +867,23 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1096,10 +1105,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -1113,7 +1122,7 @@
     <col min="7" max="8" width="8.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1132,8 +1141,11 @@
       <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="G1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1152,8 +1164,11 @@
       <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="G2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1172,8 +1187,11 @@
       <c r="F3" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="G3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1192,8 +1210,11 @@
       <c r="F4" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="G4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1212,8 +1233,11 @@
       <c r="F5" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="G5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1229,11 +1253,14 @@
       <c r="E6" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="12" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="G6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1252,8 +1279,11 @@
       <c r="F7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1266,14 +1296,17 @@
       <c r="D8" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1286,14 +1319,17 @@
       <c r="D9" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1306,14 +1342,17 @@
       <c r="D10" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="11" t="s">
         <v>191</v>
       </c>
       <c r="F10" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1326,14 +1365,17 @@
       <c r="D11" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="11" t="s">
         <v>192</v>
       </c>
       <c r="F11" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1346,14 +1388,17 @@
       <c r="D12" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="11" t="s">
         <v>193</v>
       </c>
       <c r="F12" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G12" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1366,14 +1411,17 @@
       <c r="D13" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="E13" s="12" t="s">
+      <c r="E13" s="11" t="s">
         <v>194</v>
       </c>
       <c r="F13" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G13" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1386,14 +1434,17 @@
       <c r="D14" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="E14" s="12" t="s">
+      <c r="E14" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="F14" s="13" t="s">
+      <c r="F14" s="12" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G14" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1406,14 +1457,17 @@
       <c r="D15" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="E15" s="12" t="s">
+      <c r="E15" s="11" t="s">
         <v>196</v>
       </c>
       <c r="F15" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1426,14 +1480,17 @@
       <c r="D16" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="E16" s="12" t="s">
+      <c r="E16" s="11" t="s">
         <v>197</v>
       </c>
       <c r="F16" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G16" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1446,14 +1503,17 @@
       <c r="D17" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="E17" s="12" t="s">
+      <c r="E17" s="11" t="s">
         <v>198</v>
       </c>
       <c r="F17" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G17" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1466,14 +1526,17 @@
       <c r="D18" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="E18" s="12" t="s">
+      <c r="E18" s="11" t="s">
         <v>199</v>
       </c>
       <c r="F18" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G18" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1486,14 +1549,17 @@
       <c r="D19" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="E19" s="12" t="s">
+      <c r="E19" s="11" t="s">
         <v>200</v>
       </c>
-      <c r="F19" s="13" t="s">
+      <c r="F19" s="12" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G19" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1506,14 +1572,17 @@
       <c r="D20" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="E20" s="12" t="s">
+      <c r="E20" s="11" t="s">
         <v>201</v>
       </c>
       <c r="F20" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G20" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1526,14 +1595,17 @@
       <c r="D21" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="E21" s="12" t="s">
+      <c r="E21" s="11" t="s">
         <v>202</v>
       </c>
       <c r="F21" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G21" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1546,14 +1618,17 @@
       <c r="D22" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="E22" s="12" t="s">
+      <c r="E22" s="11" t="s">
         <v>203</v>
       </c>
       <c r="F22" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G22" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1566,14 +1641,17 @@
       <c r="D23" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="E23" s="12" t="s">
+      <c r="E23" s="11" t="s">
         <v>204</v>
       </c>
       <c r="F23" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G23" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1586,14 +1664,17 @@
       <c r="D24" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="E24" s="12" t="s">
+      <c r="E24" s="11" t="s">
         <v>205</v>
       </c>
       <c r="F24" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G24" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -1606,14 +1687,17 @@
       <c r="D25" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="E25" s="12" t="s">
+      <c r="E25" s="11" t="s">
         <v>206</v>
       </c>
       <c r="F25" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G25" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -1626,15 +1710,18 @@
       <c r="D26" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="E26" s="12" t="s">
+      <c r="E26" s="11" t="s">
         <v>207</v>
       </c>
       <c r="F26" t="s">
         <v>9</v>
       </c>
+      <c r="G26" t="s">
+        <v>86</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
@@ -1671,63 +1758,63 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="8">
         <f>C5-C4</f>
         <v>360753754923.08008</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="7">
         <f>SUM(Loan!I:I)</f>
         <v>440912793000</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="7">
         <f>C9</f>
         <v>801666547923.08008</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="7">
         <f>SUM(Account!I:I)</f>
         <v>1421196923.0799999</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="7">
         <f>SUM(Saving!I:I)</f>
         <v>500245351000</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="7">
         <v>300000000000</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="8">
         <f>SUM(C6:C8)</f>
         <v>801666547923.08008</v>
       </c>
@@ -1742,7 +1829,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -1780,6 +1867,9 @@
       <c r="G1" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="H1" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="2" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
@@ -1803,6 +1893,9 @@
       <c r="G2" s="3">
         <v>8.5000000000000006E-2</v>
       </c>
+      <c r="H2" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="3" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
@@ -1826,7 +1919,9 @@
       <c r="G3" s="3">
         <v>0.06</v>
       </c>
-      <c r="H3" s="4"/>
+      <c r="H3" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="4" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
@@ -1849,6 +1944,9 @@
       </c>
       <c r="G4" s="3">
         <v>0.06</v>
+      </c>
+      <c r="H4" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1859,10 +1957,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -1874,7 +1972,7 @@
     <col min="6" max="25" width="8.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>26</v>
       </c>
@@ -1893,8 +1991,11 @@
       <c r="F1" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="G1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>68</v>
       </c>
@@ -1912,6 +2013,9 @@
       </c>
       <c r="F2" s="3">
         <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="G2" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1925,7 +2029,7 @@
   <dimension ref="A1:E1013"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -1935,7 +2039,7 @@
     <col min="3" max="3" width="6.19921875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.1328125" customWidth="1"/>
     <col min="5" max="5" width="12.53125" customWidth="1"/>
-    <col min="6" max="16" width="8.73046875" customWidth="1"/>
+    <col min="6" max="15" width="8.73046875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
@@ -2061,16 +2165,16 @@
       <c r="A8" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>100</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="9">
         <v>30</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="4" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2078,16 +2182,16 @@
       <c r="A9" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="9">
         <v>29</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="4" t="s">
         <v>105</v>
       </c>
     </row>
@@ -2095,16 +2199,16 @@
       <c r="A10" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>101</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="9">
         <v>28</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="4" t="s">
         <v>103</v>
       </c>
     </row>
@@ -2112,16 +2216,16 @@
       <c r="A11" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>102</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="9">
         <v>31</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="4" t="s">
         <v>103</v>
       </c>
     </row>
@@ -2129,16 +2233,16 @@
       <c r="A12" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="9">
         <v>46</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="4" t="s">
         <v>138</v>
       </c>
     </row>
@@ -2146,16 +2250,16 @@
       <c r="A13" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="9">
         <v>47</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="4" t="s">
         <v>139</v>
       </c>
     </row>
@@ -2163,16 +2267,16 @@
       <c r="A14" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="9">
         <v>45</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="4" t="s">
         <v>140</v>
       </c>
     </row>
@@ -2180,16 +2284,16 @@
       <c r="A15" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D15" s="9">
         <v>50</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="4" t="s">
         <v>141</v>
       </c>
     </row>
@@ -2197,16 +2301,16 @@
       <c r="A16" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D16" s="9">
         <v>48</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="4" t="s">
         <v>142</v>
       </c>
     </row>
@@ -2214,16 +2318,16 @@
       <c r="A17" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="10">
+      <c r="D17" s="9">
         <v>32</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="4" t="s">
         <v>143</v>
       </c>
     </row>
@@ -2231,16 +2335,16 @@
       <c r="A18" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="10">
+      <c r="D18" s="9">
         <v>27</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="4" t="s">
         <v>144</v>
       </c>
     </row>
@@ -2248,16 +2352,16 @@
       <c r="A19" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D19" s="10">
+      <c r="D19" s="9">
         <v>42</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="4" t="s">
         <v>145</v>
       </c>
     </row>
@@ -2265,16 +2369,16 @@
       <c r="A20" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D20" s="10">
+      <c r="D20" s="9">
         <v>41</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="4" t="s">
         <v>146</v>
       </c>
     </row>
@@ -2282,16 +2386,16 @@
       <c r="A21" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D21" s="10">
+      <c r="D21" s="9">
         <v>36</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="4" t="s">
         <v>147</v>
       </c>
     </row>
@@ -2299,16 +2403,16 @@
       <c r="A22" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D22" s="10">
+      <c r="D22" s="9">
         <v>50</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E22" s="4" t="s">
         <v>148</v>
       </c>
     </row>
@@ -2316,16 +2420,16 @@
       <c r="A23" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D23" s="10">
+      <c r="D23" s="9">
         <v>30</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E23" s="4" t="s">
         <v>149</v>
       </c>
     </row>
@@ -2333,16 +2437,16 @@
       <c r="A24" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D24" s="10">
+      <c r="D24" s="9">
         <v>49</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="E24" s="4" t="s">
         <v>150</v>
       </c>
     </row>
@@ -2350,16 +2454,16 @@
       <c r="A25" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D25" s="10">
+      <c r="D25" s="9">
         <v>43</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="E25" s="4" t="s">
         <v>151</v>
       </c>
     </row>
@@ -2367,16 +2471,16 @@
       <c r="A26" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D26" s="10">
+      <c r="D26" s="9">
         <v>26</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="E26" s="4" t="s">
         <v>152</v>
       </c>
     </row>
@@ -3429,7 +3533,7 @@
     <row r="1012" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="1013" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
@@ -3439,7 +3543,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF21B7AB-93DC-4751-874C-8807C9FDCFB9}">
   <dimension ref="A1:K76"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
@@ -3465,31 +3569,31 @@
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="4" t="s">
         <v>80</v>
       </c>
     </row>
@@ -3500,24 +3604,24 @@
       <c r="B2" s="1">
         <v>1</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="5">
         <v>41092</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>81</v>
       </c>
       <c r="H2">
         <v>537251</v>
       </c>
-      <c r="I2" s="8">
+      <c r="I2" s="7">
         <f>H2*VLOOKUP(G2,exchangeRate!$B$2:$D$4,3,FALSE)</f>
         <v>537251</v>
       </c>
-      <c r="J2" s="7">
+      <c r="J2" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G2)</f>
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -3531,24 +3635,24 @@
       <c r="C3" s="1">
         <v>1</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="5">
         <v>43316</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>81</v>
       </c>
       <c r="H3">
         <v>238237</v>
       </c>
-      <c r="I3" s="8">
+      <c r="I3" s="7">
         <f>H3*VLOOKUP(G3,exchangeRate!$B$2:$D$4,3,FALSE)</f>
         <v>238237</v>
       </c>
-      <c r="J3" s="7">
+      <c r="J3" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G3)</f>
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -3562,24 +3666,24 @@
       <c r="C4" s="1">
         <v>2</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="5">
         <v>41334</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="4" t="s">
         <v>81</v>
       </c>
       <c r="H4">
         <v>536806</v>
       </c>
-      <c r="I4" s="8">
+      <c r="I4" s="7">
         <f>H4*VLOOKUP(G4,exchangeRate!$B$2:$D$4,3,FALSE)</f>
         <v>536806</v>
       </c>
-      <c r="J4" s="7">
+      <c r="J4" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G4)</f>
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="K4" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -3593,24 +3697,24 @@
       <c r="C5" s="1">
         <v>3</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="5">
         <v>42255</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="4" t="s">
         <v>81</v>
       </c>
       <c r="H5">
         <v>75604</v>
       </c>
-      <c r="I5" s="8">
+      <c r="I5" s="7">
         <f>H5*VLOOKUP(G5,exchangeRate!$B$2:$D$4,3,FALSE)</f>
         <v>75604</v>
       </c>
-      <c r="J5" s="7">
+      <c r="J5" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G5)</f>
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="K5" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -3624,24 +3728,24 @@
       <c r="C6" s="1">
         <v>1</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="5">
         <v>42469</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="4" t="s">
         <v>81</v>
       </c>
       <c r="H6">
         <v>113622</v>
       </c>
-      <c r="I6" s="8">
+      <c r="I6" s="7">
         <f>H6*VLOOKUP(G6,exchangeRate!$B$2:$D$4,3,FALSE)</f>
         <v>113622</v>
       </c>
-      <c r="J6" s="7">
+      <c r="J6" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G6)</f>
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="K6" s="5" t="s">
+      <c r="K6" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -3655,24 +3759,24 @@
       <c r="C7" s="1">
         <v>2</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="5">
         <v>40723</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="4" t="s">
         <v>81</v>
       </c>
       <c r="H7">
         <v>287474</v>
       </c>
-      <c r="I7" s="8">
+      <c r="I7" s="7">
         <f>H7*VLOOKUP(G7,exchangeRate!$B$2:$D$4,3,FALSE)</f>
         <v>287474</v>
       </c>
-      <c r="J7" s="7">
+      <c r="J7" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G7)</f>
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="K7" s="5" t="s">
+      <c r="K7" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -3686,24 +3790,24 @@
       <c r="C8" s="1">
         <v>3</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="5">
         <v>40590</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="4" t="s">
         <v>82</v>
       </c>
       <c r="H8">
         <v>4113</v>
       </c>
-      <c r="I8" s="8">
+      <c r="I8" s="7">
         <f>H8*VLOOKUP(G8,exchangeRate!$B$2:$D$4,3,FALSE)</f>
         <v>96655500</v>
       </c>
-      <c r="J8" s="7">
+      <c r="J8" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G8)</f>
         <v>0</v>
       </c>
-      <c r="K8" s="5" t="s">
+      <c r="K8" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -3717,24 +3821,24 @@
       <c r="C9" s="1">
         <v>1</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="5">
         <v>41097</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="4" t="s">
         <v>82</v>
       </c>
       <c r="H9">
         <v>4172</v>
       </c>
-      <c r="I9" s="8">
+      <c r="I9" s="7">
         <f>H9*VLOOKUP(G9,exchangeRate!$B$2:$D$4,3,FALSE)</f>
         <v>98042000</v>
       </c>
-      <c r="J9" s="7">
+      <c r="J9" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G9)</f>
         <v>0</v>
       </c>
-      <c r="K9" s="5" t="s">
+      <c r="K9" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -3748,24 +3852,24 @@
       <c r="C10" s="1">
         <v>2</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="5">
         <v>42263</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="4" t="s">
         <v>82</v>
       </c>
       <c r="H10">
         <v>1626</v>
       </c>
-      <c r="I10" s="8">
+      <c r="I10" s="7">
         <f>H10*VLOOKUP(G10,exchangeRate!$B$2:$D$4,3,FALSE)</f>
         <v>38211000</v>
       </c>
-      <c r="J10" s="7">
+      <c r="J10" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G10)</f>
         <v>0</v>
       </c>
-      <c r="K10" s="5" t="s">
+      <c r="K10" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -3779,24 +3883,24 @@
       <c r="C11" s="1">
         <v>3</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="5">
         <v>41451</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="4" t="s">
         <v>82</v>
       </c>
       <c r="H11">
         <v>3420</v>
       </c>
-      <c r="I11" s="8">
+      <c r="I11" s="7">
         <f>H11*VLOOKUP(G11,exchangeRate!$B$2:$D$4,3,FALSE)</f>
         <v>80370000</v>
       </c>
-      <c r="J11" s="7">
+      <c r="J11" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G11)</f>
         <v>0</v>
       </c>
-      <c r="K11" s="5" t="s">
+      <c r="K11" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -3810,24 +3914,24 @@
       <c r="C12" s="1">
         <v>1</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="5">
         <v>43745</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="G12" s="4" t="s">
         <v>82</v>
       </c>
       <c r="H12">
         <v>3742</v>
       </c>
-      <c r="I12" s="8">
+      <c r="I12" s="7">
         <f>H12*VLOOKUP(G12,exchangeRate!$B$2:$D$4,3,FALSE)</f>
         <v>87937000</v>
       </c>
-      <c r="J12" s="7">
+      <c r="J12" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G12)</f>
         <v>0</v>
       </c>
-      <c r="K12" s="5" t="s">
+      <c r="K12" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -3841,24 +3945,24 @@
       <c r="C13" s="1">
         <v>2</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="5">
         <v>40997</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G13" s="4" t="s">
         <v>82</v>
       </c>
       <c r="H13">
         <v>4345</v>
       </c>
-      <c r="I13" s="8">
+      <c r="I13" s="7">
         <f>H13*VLOOKUP(G13,exchangeRate!$B$2:$D$4,3,FALSE)</f>
         <v>102107500</v>
       </c>
-      <c r="J13" s="7">
+      <c r="J13" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G13)</f>
         <v>0</v>
       </c>
-      <c r="K13" s="5" t="s">
+      <c r="K13" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -3872,24 +3976,24 @@
       <c r="C14" s="1">
         <v>3</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="5">
         <v>43422</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="G14" s="4" t="s">
         <v>213</v>
       </c>
       <c r="H14">
         <v>323</v>
       </c>
-      <c r="I14" s="8">
+      <c r="I14" s="7">
         <f>H14*VLOOKUP(G14,exchangeRate!$B$2:$D$4,3,FALSE)</f>
         <v>8421155.8699999992</v>
       </c>
-      <c r="J14" s="7">
+      <c r="J14" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G14)</f>
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="K14" s="5" t="s">
+      <c r="K14" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -3903,24 +4007,24 @@
       <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="5">
         <v>41168</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="G15" s="4" t="s">
         <v>213</v>
       </c>
       <c r="H15">
         <v>210</v>
       </c>
-      <c r="I15" s="8">
+      <c r="I15" s="7">
         <f>H15*VLOOKUP(G15,exchangeRate!$B$2:$D$4,3,FALSE)</f>
         <v>5475054.8999999994</v>
       </c>
-      <c r="J15" s="7">
+      <c r="J15" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G15)</f>
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="K15" s="5" t="s">
+      <c r="K15" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -3934,24 +4038,24 @@
       <c r="C16" s="1">
         <v>2</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="5">
         <v>40835</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="G16" s="4" t="s">
         <v>213</v>
       </c>
       <c r="H16">
         <v>490</v>
       </c>
-      <c r="I16" s="8">
+      <c r="I16" s="7">
         <f>H16*VLOOKUP(G16,exchangeRate!$B$2:$D$4,3,FALSE)</f>
         <v>12775128.1</v>
       </c>
-      <c r="J16" s="7">
+      <c r="J16" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G16)</f>
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="K16" s="5" t="s">
+      <c r="K16" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -3965,24 +4069,24 @@
       <c r="C17" s="1">
         <v>3</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="5">
         <v>44123</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="G17" s="4" t="s">
         <v>213</v>
       </c>
       <c r="H17">
         <v>481</v>
       </c>
-      <c r="I17" s="8">
+      <c r="I17" s="7">
         <f>H17*VLOOKUP(G17,exchangeRate!$B$2:$D$4,3,FALSE)</f>
         <v>12540482.889999999</v>
       </c>
-      <c r="J17" s="7">
+      <c r="J17" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G17)</f>
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="K17" s="5" t="s">
+      <c r="K17" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -3996,24 +4100,24 @@
       <c r="C18">
         <v>3</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="5">
         <v>41981</v>
       </c>
-      <c r="G18" s="5" t="s">
+      <c r="G18" s="4" t="s">
         <v>213</v>
       </c>
       <c r="H18">
         <v>287</v>
       </c>
-      <c r="I18" s="8">
+      <c r="I18" s="7">
         <f>H18*VLOOKUP(G18,exchangeRate!$B$2:$D$4,3,FALSE)</f>
         <v>7482575.0299999993</v>
       </c>
-      <c r="J18" s="7">
+      <c r="J18" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G18)</f>
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="K18" s="5" t="s">
+      <c r="K18" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -4027,24 +4131,24 @@
       <c r="C19">
         <v>3</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="5">
         <v>41004</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="G19" s="4" t="s">
         <v>213</v>
       </c>
       <c r="H19">
         <v>491</v>
       </c>
-      <c r="I19" s="8">
+      <c r="I19" s="7">
         <f>H19*VLOOKUP(G19,exchangeRate!$B$2:$D$4,3,FALSE)</f>
         <v>12801199.789999999</v>
       </c>
-      <c r="J19" s="7">
+      <c r="J19" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G19)</f>
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="K19" s="5" t="s">
+      <c r="K19" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -4052,30 +4156,30 @@
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="4">
         <v>7</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20" s="5">
         <v>42846</v>
       </c>
-      <c r="G20" s="5" t="s">
+      <c r="G20" s="4" t="s">
         <v>81</v>
       </c>
       <c r="H20">
         <v>9980102</v>
       </c>
-      <c r="I20" s="8">
+      <c r="I20" s="7">
         <f>H20*VLOOKUP(G20,exchangeRate!$B$2:$D$4,3,FALSE)</f>
         <v>9980102</v>
       </c>
-      <c r="J20" s="7">
+      <c r="J20" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G20)</f>
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="K20" s="5" t="s">
+      <c r="K20" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -4083,30 +4187,30 @@
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B21" s="4">
         <v>8</v>
       </c>
       <c r="C21">
         <v>3</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D21" s="5">
         <v>44145</v>
       </c>
-      <c r="G21" s="5" t="s">
+      <c r="G21" s="4" t="s">
         <v>81</v>
       </c>
       <c r="H21">
         <v>5476967</v>
       </c>
-      <c r="I21" s="8">
+      <c r="I21" s="7">
         <f>H21*VLOOKUP(G21,exchangeRate!$B$2:$D$4,3,FALSE)</f>
         <v>5476967</v>
       </c>
-      <c r="J21" s="7">
+      <c r="J21" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G21)</f>
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="K21" s="5" t="s">
+      <c r="K21" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -4114,30 +4218,30 @@
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22" s="4">
         <v>9</v>
       </c>
       <c r="C22">
         <v>3</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D22" s="5">
         <v>44904</v>
       </c>
-      <c r="G22" s="5" t="s">
+      <c r="G22" s="4" t="s">
         <v>81</v>
       </c>
       <c r="H22">
         <v>4549845</v>
       </c>
-      <c r="I22" s="8">
+      <c r="I22" s="7">
         <f>H22*VLOOKUP(G22,exchangeRate!$B$2:$D$4,3,FALSE)</f>
         <v>4549845</v>
       </c>
-      <c r="J22" s="7">
+      <c r="J22" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G22)</f>
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="K22" s="5" t="s">
+      <c r="K22" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -4145,30 +4249,30 @@
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B23" s="4">
         <v>10</v>
       </c>
       <c r="C23">
         <v>2</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D23" s="5">
         <v>43775</v>
       </c>
-      <c r="G23" s="5" t="s">
+      <c r="G23" s="4" t="s">
         <v>81</v>
       </c>
       <c r="H23">
         <v>5863377</v>
       </c>
-      <c r="I23" s="8">
+      <c r="I23" s="7">
         <f>H23*VLOOKUP(G23,exchangeRate!$B$2:$D$4,3,FALSE)</f>
         <v>5863377</v>
       </c>
-      <c r="J23" s="7">
+      <c r="J23" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G23)</f>
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="K23" s="5" t="s">
+      <c r="K23" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -4176,30 +4280,30 @@
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="5">
+      <c r="B24" s="4">
         <v>11</v>
       </c>
       <c r="C24">
         <v>3</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D24" s="5">
         <v>43591</v>
       </c>
-      <c r="G24" s="5" t="s">
+      <c r="G24" s="4" t="s">
         <v>81</v>
       </c>
       <c r="H24">
         <v>8448457</v>
       </c>
-      <c r="I24" s="8">
+      <c r="I24" s="7">
         <f>H24*VLOOKUP(G24,exchangeRate!$B$2:$D$4,3,FALSE)</f>
         <v>8448457</v>
       </c>
-      <c r="J24" s="7">
+      <c r="J24" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G24)</f>
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="K24" s="5" t="s">
+      <c r="K24" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -4207,30 +4311,30 @@
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" s="5">
+      <c r="B25" s="4">
         <v>12</v>
       </c>
       <c r="C25">
         <v>2</v>
       </c>
-      <c r="D25" s="6">
+      <c r="D25" s="5">
         <v>44831</v>
       </c>
-      <c r="G25" s="5" t="s">
+      <c r="G25" s="4" t="s">
         <v>81</v>
       </c>
       <c r="H25">
         <v>3872282</v>
       </c>
-      <c r="I25" s="8">
+      <c r="I25" s="7">
         <f>H25*VLOOKUP(G25,exchangeRate!$B$2:$D$4,3,FALSE)</f>
         <v>3872282</v>
       </c>
-      <c r="J25" s="7">
+      <c r="J25" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G25)</f>
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="K25" s="5" t="s">
+      <c r="K25" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -4238,30 +4342,30 @@
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" s="5">
+      <c r="B26" s="4">
         <v>13</v>
       </c>
       <c r="C26">
         <v>2</v>
       </c>
-      <c r="D26" s="6">
+      <c r="D26" s="5">
         <v>42794</v>
       </c>
-      <c r="G26" s="5" t="s">
+      <c r="G26" s="4" t="s">
         <v>81</v>
       </c>
       <c r="H26">
         <v>5739796</v>
       </c>
-      <c r="I26" s="8">
+      <c r="I26" s="7">
         <f>H26*VLOOKUP(G26,exchangeRate!$B$2:$D$4,3,FALSE)</f>
         <v>5739796</v>
       </c>
-      <c r="J26" s="7">
+      <c r="J26" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G26)</f>
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="K26" s="5" t="s">
+      <c r="K26" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -4269,30 +4373,30 @@
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" s="5">
+      <c r="B27" s="4">
         <v>14</v>
       </c>
       <c r="C27">
         <v>1</v>
       </c>
-      <c r="D27" s="6">
+      <c r="D27" s="5">
         <v>43645</v>
       </c>
-      <c r="G27" s="5" t="s">
+      <c r="G27" s="4" t="s">
         <v>81</v>
       </c>
       <c r="H27">
         <v>7755939</v>
       </c>
-      <c r="I27" s="8">
+      <c r="I27" s="7">
         <f>H27*VLOOKUP(G27,exchangeRate!$B$2:$D$4,3,FALSE)</f>
         <v>7755939</v>
       </c>
-      <c r="J27" s="7">
+      <c r="J27" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G27)</f>
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="K27" s="5" t="s">
+      <c r="K27" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -4300,30 +4404,30 @@
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" s="5">
+      <c r="B28" s="4">
         <v>15</v>
       </c>
       <c r="C28">
         <v>3</v>
       </c>
-      <c r="D28" s="6">
+      <c r="D28" s="5">
         <v>44874</v>
       </c>
-      <c r="G28" s="5" t="s">
+      <c r="G28" s="4" t="s">
         <v>81</v>
       </c>
       <c r="H28">
         <v>7213398</v>
       </c>
-      <c r="I28" s="8">
+      <c r="I28" s="7">
         <f>H28*VLOOKUP(G28,exchangeRate!$B$2:$D$4,3,FALSE)</f>
         <v>7213398</v>
       </c>
-      <c r="J28" s="7">
+      <c r="J28" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G28)</f>
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="K28" s="5" t="s">
+      <c r="K28" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -4331,30 +4435,30 @@
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" s="5">
+      <c r="B29" s="4">
         <v>16</v>
       </c>
       <c r="C29">
         <v>3</v>
       </c>
-      <c r="D29" s="6">
+      <c r="D29" s="5">
         <v>44413</v>
       </c>
-      <c r="G29" s="5" t="s">
+      <c r="G29" s="4" t="s">
         <v>81</v>
       </c>
       <c r="H29">
         <v>6577462</v>
       </c>
-      <c r="I29" s="8">
+      <c r="I29" s="7">
         <f>H29*VLOOKUP(G29,exchangeRate!$B$2:$D$4,3,FALSE)</f>
         <v>6577462</v>
       </c>
-      <c r="J29" s="7">
+      <c r="J29" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G29)</f>
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="K29" s="5" t="s">
+      <c r="K29" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -4362,30 +4466,30 @@
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" s="5">
+      <c r="B30" s="4">
         <v>17</v>
       </c>
       <c r="C30">
         <v>1</v>
       </c>
-      <c r="D30" s="6">
+      <c r="D30" s="5">
         <v>43560</v>
       </c>
-      <c r="G30" s="5" t="s">
+      <c r="G30" s="4" t="s">
         <v>81</v>
       </c>
       <c r="H30">
         <v>2960169</v>
       </c>
-      <c r="I30" s="8">
+      <c r="I30" s="7">
         <f>H30*VLOOKUP(G30,exchangeRate!$B$2:$D$4,3,FALSE)</f>
         <v>2960169</v>
       </c>
-      <c r="J30" s="7">
+      <c r="J30" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G30)</f>
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="K30" s="5" t="s">
+      <c r="K30" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -4393,30 +4497,30 @@
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" s="5">
+      <c r="B31" s="4">
         <v>18</v>
       </c>
       <c r="C31">
         <v>3</v>
       </c>
-      <c r="D31" s="6">
+      <c r="D31" s="5">
         <v>44453</v>
       </c>
-      <c r="G31" s="5" t="s">
+      <c r="G31" s="4" t="s">
         <v>81</v>
       </c>
       <c r="H31">
         <v>8009206</v>
       </c>
-      <c r="I31" s="8">
+      <c r="I31" s="7">
         <f>H31*VLOOKUP(G31,exchangeRate!$B$2:$D$4,3,FALSE)</f>
         <v>8009206</v>
       </c>
-      <c r="J31" s="7">
+      <c r="J31" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G31)</f>
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="K31" s="5" t="s">
+      <c r="K31" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -4424,30 +4528,30 @@
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" s="5">
+      <c r="B32" s="4">
         <v>19</v>
       </c>
       <c r="C32">
         <v>1</v>
       </c>
-      <c r="D32" s="6">
+      <c r="D32" s="5">
         <v>44206</v>
       </c>
-      <c r="G32" s="5" t="s">
+      <c r="G32" s="4" t="s">
         <v>81</v>
       </c>
       <c r="H32">
         <v>7747227</v>
       </c>
-      <c r="I32" s="8">
+      <c r="I32" s="7">
         <f>H32*VLOOKUP(G32,exchangeRate!$B$2:$D$4,3,FALSE)</f>
         <v>7747227</v>
       </c>
-      <c r="J32" s="7">
+      <c r="J32" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G32)</f>
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="K32" s="5" t="s">
+      <c r="K32" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -4455,30 +4559,30 @@
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" s="5">
+      <c r="B33" s="4">
         <v>20</v>
       </c>
       <c r="C33">
         <v>2</v>
       </c>
-      <c r="D33" s="6">
+      <c r="D33" s="5">
         <v>44862</v>
       </c>
-      <c r="G33" s="5" t="s">
+      <c r="G33" s="4" t="s">
         <v>81</v>
       </c>
       <c r="H33">
         <v>8563947</v>
       </c>
-      <c r="I33" s="8">
+      <c r="I33" s="7">
         <f>H33*VLOOKUP(G33,exchangeRate!$B$2:$D$4,3,FALSE)</f>
         <v>8563947</v>
       </c>
-      <c r="J33" s="7">
+      <c r="J33" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G33)</f>
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="K33" s="5" t="s">
+      <c r="K33" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -4486,30 +4590,30 @@
       <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34" s="5">
+      <c r="B34" s="4">
         <v>21</v>
       </c>
       <c r="C34">
         <v>2</v>
       </c>
-      <c r="D34" s="6">
+      <c r="D34" s="5">
         <v>43873</v>
       </c>
-      <c r="G34" s="5" t="s">
+      <c r="G34" s="4" t="s">
         <v>81</v>
       </c>
       <c r="H34">
         <v>9371489</v>
       </c>
-      <c r="I34" s="8">
+      <c r="I34" s="7">
         <f>H34*VLOOKUP(G34,exchangeRate!$B$2:$D$4,3,FALSE)</f>
         <v>9371489</v>
       </c>
-      <c r="J34" s="7">
+      <c r="J34" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G34)</f>
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="K34" s="5" t="s">
+      <c r="K34" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -4517,30 +4621,30 @@
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35" s="5">
+      <c r="B35" s="4">
         <v>22</v>
       </c>
       <c r="C35">
         <v>2</v>
       </c>
-      <c r="D35" s="6">
+      <c r="D35" s="5">
         <v>43135</v>
       </c>
-      <c r="G35" s="5" t="s">
+      <c r="G35" s="4" t="s">
         <v>81</v>
       </c>
       <c r="H35">
         <v>5359387</v>
       </c>
-      <c r="I35" s="8">
+      <c r="I35" s="7">
         <f>H35*VLOOKUP(G35,exchangeRate!$B$2:$D$4,3,FALSE)</f>
         <v>5359387</v>
       </c>
-      <c r="J35" s="7">
+      <c r="J35" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G35)</f>
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="K35" s="5" t="s">
+      <c r="K35" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -4548,27 +4652,27 @@
       <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36" s="5">
+      <c r="B36" s="4">
         <v>23</v>
       </c>
-      <c r="D36" s="6">
+      <c r="D36" s="5">
         <v>43851</v>
       </c>
-      <c r="G36" s="5" t="s">
+      <c r="G36" s="4" t="s">
         <v>81</v>
       </c>
       <c r="H36">
         <v>7487506</v>
       </c>
-      <c r="I36" s="8">
+      <c r="I36" s="7">
         <f>H36*VLOOKUP(G36,exchangeRate!$B$2:$D$4,3,FALSE)</f>
         <v>7487506</v>
       </c>
-      <c r="J36" s="7">
+      <c r="J36" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G36)</f>
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="K36" s="5" t="s">
+      <c r="K36" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -4576,30 +4680,30 @@
       <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37" s="5">
+      <c r="B37" s="4">
         <v>24</v>
       </c>
       <c r="C37">
         <v>2</v>
       </c>
-      <c r="D37" s="6">
+      <c r="D37" s="5">
         <v>44812</v>
       </c>
-      <c r="G37" s="5" t="s">
+      <c r="G37" s="4" t="s">
         <v>81</v>
       </c>
       <c r="H37">
         <v>1603258</v>
       </c>
-      <c r="I37" s="8">
+      <c r="I37" s="7">
         <f>H37*VLOOKUP(G37,exchangeRate!$B$2:$D$4,3,FALSE)</f>
         <v>1603258</v>
       </c>
-      <c r="J37" s="7">
+      <c r="J37" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G37)</f>
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="K37" s="5" t="s">
+      <c r="K37" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -4607,30 +4711,30 @@
       <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38" s="5">
+      <c r="B38" s="4">
         <v>25</v>
       </c>
       <c r="C38">
         <v>1</v>
       </c>
-      <c r="D38" s="6">
+      <c r="D38" s="5">
         <v>44040</v>
       </c>
-      <c r="G38" s="5" t="s">
+      <c r="G38" s="4" t="s">
         <v>81</v>
       </c>
       <c r="H38">
         <v>2798196</v>
       </c>
-      <c r="I38" s="8">
+      <c r="I38" s="7">
         <f>H38*VLOOKUP(G38,exchangeRate!$B$2:$D$4,3,FALSE)</f>
         <v>2798196</v>
       </c>
-      <c r="J38" s="7">
+      <c r="J38" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G38)</f>
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="K38" s="5" t="s">
+      <c r="K38" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -4638,30 +4742,30 @@
       <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39" s="5">
+      <c r="B39" s="4">
         <v>7</v>
       </c>
       <c r="C39">
         <v>2</v>
       </c>
-      <c r="D39" s="6">
+      <c r="D39" s="5">
         <v>43760</v>
       </c>
-      <c r="G39" s="5" t="s">
+      <c r="G39" s="4" t="s">
         <v>82</v>
       </c>
       <c r="H39">
         <v>150</v>
       </c>
-      <c r="I39" s="8">
+      <c r="I39" s="7">
         <f>H39*VLOOKUP(G39,exchangeRate!$B$2:$D$4,3,FALSE)</f>
         <v>3525000</v>
       </c>
-      <c r="J39" s="7">
+      <c r="J39" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G39)</f>
         <v>0</v>
       </c>
-      <c r="K39" s="5" t="s">
+      <c r="K39" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -4669,30 +4773,30 @@
       <c r="A40">
         <v>39</v>
       </c>
-      <c r="B40" s="5">
+      <c r="B40" s="4">
         <v>8</v>
       </c>
       <c r="C40">
         <v>1</v>
       </c>
-      <c r="D40" s="6">
+      <c r="D40" s="5">
         <v>44115</v>
       </c>
-      <c r="G40" s="5" t="s">
+      <c r="G40" s="4" t="s">
         <v>82</v>
       </c>
       <c r="H40">
         <v>2967</v>
       </c>
-      <c r="I40" s="8">
+      <c r="I40" s="7">
         <f>H40*VLOOKUP(G40,exchangeRate!$B$2:$D$4,3,FALSE)</f>
         <v>69724500</v>
       </c>
-      <c r="J40" s="7">
+      <c r="J40" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G40)</f>
         <v>0</v>
       </c>
-      <c r="K40" s="5" t="s">
+      <c r="K40" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -4700,30 +4804,30 @@
       <c r="A41">
         <v>40</v>
       </c>
-      <c r="B41" s="5">
+      <c r="B41" s="4">
         <v>9</v>
       </c>
       <c r="C41">
         <v>3</v>
       </c>
-      <c r="D41" s="6">
+      <c r="D41" s="5">
         <v>44188</v>
       </c>
-      <c r="G41" s="5" t="s">
+      <c r="G41" s="4" t="s">
         <v>82</v>
       </c>
       <c r="H41">
         <v>214</v>
       </c>
-      <c r="I41" s="8">
+      <c r="I41" s="7">
         <f>H41*VLOOKUP(G41,exchangeRate!$B$2:$D$4,3,FALSE)</f>
         <v>5029000</v>
       </c>
-      <c r="J41" s="7">
+      <c r="J41" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G41)</f>
         <v>0</v>
       </c>
-      <c r="K41" s="5" t="s">
+      <c r="K41" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -4731,30 +4835,30 @@
       <c r="A42">
         <v>41</v>
       </c>
-      <c r="B42" s="5">
+      <c r="B42" s="4">
         <v>10</v>
       </c>
       <c r="C42">
         <v>3</v>
       </c>
-      <c r="D42" s="6">
+      <c r="D42" s="5">
         <v>43139</v>
       </c>
-      <c r="G42" s="5" t="s">
+      <c r="G42" s="4" t="s">
         <v>82</v>
       </c>
       <c r="H42">
         <v>2850</v>
       </c>
-      <c r="I42" s="8">
+      <c r="I42" s="7">
         <f>H42*VLOOKUP(G42,exchangeRate!$B$2:$D$4,3,FALSE)</f>
         <v>66975000</v>
       </c>
-      <c r="J42" s="7">
+      <c r="J42" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G42)</f>
         <v>0</v>
       </c>
-      <c r="K42" s="5" t="s">
+      <c r="K42" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -4762,30 +4866,30 @@
       <c r="A43">
         <v>42</v>
       </c>
-      <c r="B43" s="5">
+      <c r="B43" s="4">
         <v>11</v>
       </c>
       <c r="C43">
         <v>1</v>
       </c>
-      <c r="D43" s="6">
+      <c r="D43" s="5">
         <v>44198</v>
       </c>
-      <c r="G43" s="5" t="s">
+      <c r="G43" s="4" t="s">
         <v>82</v>
       </c>
       <c r="H43">
         <v>2852</v>
       </c>
-      <c r="I43" s="8">
+      <c r="I43" s="7">
         <f>H43*VLOOKUP(G43,exchangeRate!$B$2:$D$4,3,FALSE)</f>
         <v>67022000</v>
       </c>
-      <c r="J43" s="7">
+      <c r="J43" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G43)</f>
         <v>0</v>
       </c>
-      <c r="K43" s="5" t="s">
+      <c r="K43" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -4793,30 +4897,30 @@
       <c r="A44">
         <v>43</v>
       </c>
-      <c r="B44" s="5">
+      <c r="B44" s="4">
         <v>12</v>
       </c>
       <c r="C44">
         <v>2</v>
       </c>
-      <c r="D44" s="6">
+      <c r="D44" s="5">
         <v>44371</v>
       </c>
-      <c r="G44" s="5" t="s">
+      <c r="G44" s="4" t="s">
         <v>82</v>
       </c>
       <c r="H44">
         <v>351</v>
       </c>
-      <c r="I44" s="8">
+      <c r="I44" s="7">
         <f>H44*VLOOKUP(G44,exchangeRate!$B$2:$D$4,3,FALSE)</f>
         <v>8248500</v>
       </c>
-      <c r="J44" s="7">
+      <c r="J44" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G44)</f>
         <v>0</v>
       </c>
-      <c r="K44" s="5" t="s">
+      <c r="K44" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -4824,30 +4928,30 @@
       <c r="A45">
         <v>44</v>
       </c>
-      <c r="B45" s="5">
+      <c r="B45" s="4">
         <v>13</v>
       </c>
       <c r="C45">
         <v>3</v>
       </c>
-      <c r="D45" s="6">
+      <c r="D45" s="5">
         <v>44043</v>
       </c>
-      <c r="G45" s="5" t="s">
+      <c r="G45" s="4" t="s">
         <v>82</v>
       </c>
       <c r="H45">
         <v>124</v>
       </c>
-      <c r="I45" s="8">
+      <c r="I45" s="7">
         <f>H45*VLOOKUP(G45,exchangeRate!$B$2:$D$4,3,FALSE)</f>
         <v>2914000</v>
       </c>
-      <c r="J45" s="7">
+      <c r="J45" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G45)</f>
         <v>0</v>
       </c>
-      <c r="K45" s="5" t="s">
+      <c r="K45" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -4855,30 +4959,30 @@
       <c r="A46">
         <v>45</v>
       </c>
-      <c r="B46" s="5">
+      <c r="B46" s="4">
         <v>14</v>
       </c>
       <c r="C46">
         <v>2</v>
       </c>
-      <c r="D46" s="6">
+      <c r="D46" s="5">
         <v>43807</v>
       </c>
-      <c r="G46" s="5" t="s">
+      <c r="G46" s="4" t="s">
         <v>82</v>
       </c>
       <c r="H46">
         <v>1990</v>
       </c>
-      <c r="I46" s="8">
+      <c r="I46" s="7">
         <f>H46*VLOOKUP(G46,exchangeRate!$B$2:$D$4,3,FALSE)</f>
         <v>46765000</v>
       </c>
-      <c r="J46" s="7">
+      <c r="J46" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G46)</f>
         <v>0</v>
       </c>
-      <c r="K46" s="5" t="s">
+      <c r="K46" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -4886,30 +4990,30 @@
       <c r="A47">
         <v>46</v>
       </c>
-      <c r="B47" s="5">
+      <c r="B47" s="4">
         <v>15</v>
       </c>
       <c r="C47">
         <v>2</v>
       </c>
-      <c r="D47" s="6">
+      <c r="D47" s="5">
         <v>44072</v>
       </c>
-      <c r="G47" s="5" t="s">
+      <c r="G47" s="4" t="s">
         <v>82</v>
       </c>
       <c r="H47">
         <v>434</v>
       </c>
-      <c r="I47" s="8">
+      <c r="I47" s="7">
         <f>H47*VLOOKUP(G47,exchangeRate!$B$2:$D$4,3,FALSE)</f>
         <v>10199000</v>
       </c>
-      <c r="J47" s="7">
+      <c r="J47" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G47)</f>
         <v>0</v>
       </c>
-      <c r="K47" s="5" t="s">
+      <c r="K47" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -4917,30 +5021,30 @@
       <c r="A48">
         <v>47</v>
       </c>
-      <c r="B48" s="5">
+      <c r="B48" s="4">
         <v>16</v>
       </c>
       <c r="C48">
         <v>2</v>
       </c>
-      <c r="D48" s="6">
+      <c r="D48" s="5">
         <v>44302</v>
       </c>
-      <c r="G48" s="5" t="s">
+      <c r="G48" s="4" t="s">
         <v>82</v>
       </c>
       <c r="H48">
         <v>1177</v>
       </c>
-      <c r="I48" s="8">
+      <c r="I48" s="7">
         <f>H48*VLOOKUP(G48,exchangeRate!$B$2:$D$4,3,FALSE)</f>
         <v>27659500</v>
       </c>
-      <c r="J48" s="7">
+      <c r="J48" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G48)</f>
         <v>0</v>
       </c>
-      <c r="K48" s="5" t="s">
+      <c r="K48" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -4948,30 +5052,30 @@
       <c r="A49">
         <v>48</v>
       </c>
-      <c r="B49" s="5">
+      <c r="B49" s="4">
         <v>17</v>
       </c>
       <c r="C49">
         <v>2</v>
       </c>
-      <c r="D49" s="6">
+      <c r="D49" s="5">
         <v>43405</v>
       </c>
-      <c r="G49" s="5" t="s">
+      <c r="G49" s="4" t="s">
         <v>82</v>
       </c>
       <c r="H49">
         <v>779</v>
       </c>
-      <c r="I49" s="8">
+      <c r="I49" s="7">
         <f>H49*VLOOKUP(G49,exchangeRate!$B$2:$D$4,3,FALSE)</f>
         <v>18306500</v>
       </c>
-      <c r="J49" s="7">
+      <c r="J49" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G49)</f>
         <v>0</v>
       </c>
-      <c r="K49" s="5" t="s">
+      <c r="K49" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -4979,30 +5083,30 @@
       <c r="A50">
         <v>49</v>
       </c>
-      <c r="B50" s="5">
+      <c r="B50" s="4">
         <v>18</v>
       </c>
       <c r="C50">
         <v>3</v>
       </c>
-      <c r="D50" s="6">
+      <c r="D50" s="5">
         <v>43605</v>
       </c>
-      <c r="G50" s="5" t="s">
+      <c r="G50" s="4" t="s">
         <v>82</v>
       </c>
       <c r="H50">
         <v>360</v>
       </c>
-      <c r="I50" s="8">
+      <c r="I50" s="7">
         <f>H50*VLOOKUP(G50,exchangeRate!$B$2:$D$4,3,FALSE)</f>
         <v>8460000</v>
       </c>
-      <c r="J50" s="7">
+      <c r="J50" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G50)</f>
         <v>0</v>
       </c>
-      <c r="K50" s="5" t="s">
+      <c r="K50" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -5010,27 +5114,27 @@
       <c r="A51">
         <v>50</v>
       </c>
-      <c r="B51" s="5">
+      <c r="B51" s="4">
         <v>19</v>
       </c>
-      <c r="D51" s="6">
+      <c r="D51" s="5">
         <v>44204</v>
       </c>
-      <c r="G51" s="5" t="s">
+      <c r="G51" s="4" t="s">
         <v>82</v>
       </c>
       <c r="H51">
         <v>270</v>
       </c>
-      <c r="I51" s="8">
+      <c r="I51" s="7">
         <f>H51*VLOOKUP(G51,exchangeRate!$B$2:$D$4,3,FALSE)</f>
         <v>6345000</v>
       </c>
-      <c r="J51" s="7">
+      <c r="J51" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G51)</f>
         <v>0</v>
       </c>
-      <c r="K51" s="5" t="s">
+      <c r="K51" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -5038,30 +5142,30 @@
       <c r="A52">
         <v>51</v>
       </c>
-      <c r="B52" s="5">
+      <c r="B52" s="4">
         <v>20</v>
       </c>
       <c r="C52">
         <v>1</v>
       </c>
-      <c r="D52" s="6">
+      <c r="D52" s="5">
         <v>43202</v>
       </c>
-      <c r="G52" s="5" t="s">
+      <c r="G52" s="4" t="s">
         <v>82</v>
       </c>
       <c r="H52">
         <v>194</v>
       </c>
-      <c r="I52" s="8">
+      <c r="I52" s="7">
         <f>H52*VLOOKUP(G52,exchangeRate!$B$2:$D$4,3,FALSE)</f>
         <v>4559000</v>
       </c>
-      <c r="J52" s="7">
+      <c r="J52" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G52)</f>
         <v>0</v>
       </c>
-      <c r="K52" s="5" t="s">
+      <c r="K52" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -5069,30 +5173,30 @@
       <c r="A53">
         <v>52</v>
       </c>
-      <c r="B53" s="5">
+      <c r="B53" s="4">
         <v>21</v>
       </c>
       <c r="C53">
         <v>1</v>
       </c>
-      <c r="D53" s="6">
+      <c r="D53" s="5">
         <v>43331</v>
       </c>
-      <c r="G53" s="5" t="s">
+      <c r="G53" s="4" t="s">
         <v>82</v>
       </c>
       <c r="H53">
         <v>420</v>
       </c>
-      <c r="I53" s="8">
+      <c r="I53" s="7">
         <f>H53*VLOOKUP(G53,exchangeRate!$B$2:$D$4,3,FALSE)</f>
         <v>9870000</v>
       </c>
-      <c r="J53" s="7">
+      <c r="J53" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G53)</f>
         <v>0</v>
       </c>
-      <c r="K53" s="5" t="s">
+      <c r="K53" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -5100,27 +5204,27 @@
       <c r="A54">
         <v>53</v>
       </c>
-      <c r="B54" s="5">
+      <c r="B54" s="4">
         <v>22</v>
       </c>
-      <c r="D54" s="6">
+      <c r="D54" s="5">
         <v>44422</v>
       </c>
-      <c r="G54" s="5" t="s">
+      <c r="G54" s="4" t="s">
         <v>82</v>
       </c>
       <c r="H54">
         <v>277</v>
       </c>
-      <c r="I54" s="8">
+      <c r="I54" s="7">
         <f>H54*VLOOKUP(G54,exchangeRate!$B$2:$D$4,3,FALSE)</f>
         <v>6509500</v>
       </c>
-      <c r="J54" s="7">
+      <c r="J54" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G54)</f>
         <v>0</v>
       </c>
-      <c r="K54" s="5" t="s">
+      <c r="K54" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -5128,30 +5232,30 @@
       <c r="A55">
         <v>54</v>
       </c>
-      <c r="B55" s="5">
+      <c r="B55" s="4">
         <v>23</v>
       </c>
       <c r="C55">
         <v>3</v>
       </c>
-      <c r="D55" s="6">
+      <c r="D55" s="5">
         <v>43798</v>
       </c>
-      <c r="G55" s="5" t="s">
+      <c r="G55" s="4" t="s">
         <v>82</v>
       </c>
       <c r="H55">
         <v>1875</v>
       </c>
-      <c r="I55" s="8">
+      <c r="I55" s="7">
         <f>H55*VLOOKUP(G55,exchangeRate!$B$2:$D$4,3,FALSE)</f>
         <v>44062500</v>
       </c>
-      <c r="J55" s="7">
+      <c r="J55" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G55)</f>
         <v>0</v>
       </c>
-      <c r="K55" s="5" t="s">
+      <c r="K55" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -5159,30 +5263,30 @@
       <c r="A56">
         <v>55</v>
       </c>
-      <c r="B56" s="5">
+      <c r="B56" s="4">
         <v>24</v>
       </c>
       <c r="C56">
         <v>1</v>
       </c>
-      <c r="D56" s="6">
+      <c r="D56" s="5">
         <v>43490</v>
       </c>
-      <c r="G56" s="5" t="s">
+      <c r="G56" s="4" t="s">
         <v>82</v>
       </c>
       <c r="H56">
         <v>662</v>
       </c>
-      <c r="I56" s="8">
+      <c r="I56" s="7">
         <f>H56*VLOOKUP(G56,exchangeRate!$B$2:$D$4,3,FALSE)</f>
         <v>15557000</v>
       </c>
-      <c r="J56" s="7">
+      <c r="J56" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G56)</f>
         <v>0</v>
       </c>
-      <c r="K56" s="5" t="s">
+      <c r="K56" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -5190,30 +5294,30 @@
       <c r="A57">
         <v>56</v>
       </c>
-      <c r="B57" s="5">
+      <c r="B57" s="4">
         <v>25</v>
       </c>
       <c r="C57">
         <v>1</v>
       </c>
-      <c r="D57" s="6">
+      <c r="D57" s="5">
         <v>44425</v>
       </c>
-      <c r="G57" s="5" t="s">
+      <c r="G57" s="4" t="s">
         <v>82</v>
       </c>
       <c r="H57">
         <v>2053</v>
       </c>
-      <c r="I57" s="8">
+      <c r="I57" s="7">
         <f>H57*VLOOKUP(G57,exchangeRate!$B$2:$D$4,3,FALSE)</f>
         <v>48245500</v>
       </c>
-      <c r="J57" s="7">
+      <c r="J57" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G57)</f>
         <v>0</v>
       </c>
-      <c r="K57" s="5" t="s">
+      <c r="K57" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -5221,30 +5325,30 @@
       <c r="A58">
         <v>57</v>
       </c>
-      <c r="B58" s="5">
+      <c r="B58" s="4">
         <v>7</v>
       </c>
       <c r="C58">
         <v>1</v>
       </c>
-      <c r="D58" s="6">
+      <c r="D58" s="5">
         <v>43277</v>
       </c>
-      <c r="G58" s="5" t="s">
+      <c r="G58" s="4" t="s">
         <v>213</v>
       </c>
       <c r="H58">
         <v>646</v>
       </c>
-      <c r="I58" s="8">
+      <c r="I58" s="7">
         <f>H58*VLOOKUP(G58,exchangeRate!$B$2:$D$4,3,FALSE)</f>
         <v>16842311.739999998</v>
       </c>
-      <c r="J58" s="7">
+      <c r="J58" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G58)</f>
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="K58" s="5" t="s">
+      <c r="K58" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -5252,27 +5356,27 @@
       <c r="A59">
         <v>58</v>
       </c>
-      <c r="B59" s="5">
+      <c r="B59" s="4">
         <v>8</v>
       </c>
-      <c r="D59" s="6">
+      <c r="D59" s="5">
         <v>44312</v>
       </c>
-      <c r="G59" s="5" t="s">
+      <c r="G59" s="4" t="s">
         <v>213</v>
       </c>
       <c r="H59">
         <v>676</v>
       </c>
-      <c r="I59" s="8">
+      <c r="I59" s="7">
         <f>H59*VLOOKUP(G59,exchangeRate!$B$2:$D$4,3,FALSE)</f>
         <v>17624462.439999998</v>
       </c>
-      <c r="J59" s="7">
+      <c r="J59" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G59)</f>
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="K59" s="5" t="s">
+      <c r="K59" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -5280,30 +5384,30 @@
       <c r="A60">
         <v>59</v>
       </c>
-      <c r="B60" s="5">
+      <c r="B60" s="4">
         <v>9</v>
       </c>
       <c r="C60">
         <v>1</v>
       </c>
-      <c r="D60" s="6">
+      <c r="D60" s="5">
         <v>44407</v>
       </c>
-      <c r="G60" s="5" t="s">
+      <c r="G60" s="4" t="s">
         <v>213</v>
       </c>
       <c r="H60">
         <v>643</v>
       </c>
-      <c r="I60" s="8">
+      <c r="I60" s="7">
         <f>H60*VLOOKUP(G60,exchangeRate!$B$2:$D$4,3,FALSE)</f>
         <v>16764096.67</v>
       </c>
-      <c r="J60" s="7">
+      <c r="J60" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G60)</f>
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="K60" s="5" t="s">
+      <c r="K60" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -5311,30 +5415,30 @@
       <c r="A61">
         <v>60</v>
       </c>
-      <c r="B61" s="5">
+      <c r="B61" s="4">
         <v>10</v>
       </c>
       <c r="C61">
         <v>3</v>
       </c>
-      <c r="D61" s="6">
+      <c r="D61" s="5">
         <v>44225</v>
       </c>
-      <c r="G61" s="5" t="s">
+      <c r="G61" s="4" t="s">
         <v>213</v>
       </c>
       <c r="H61">
         <v>710</v>
       </c>
-      <c r="I61" s="8">
+      <c r="I61" s="7">
         <f>H61*VLOOKUP(G61,exchangeRate!$B$2:$D$4,3,FALSE)</f>
         <v>18510899.899999999</v>
       </c>
-      <c r="J61" s="7">
+      <c r="J61" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G61)</f>
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="K61" s="5" t="s">
+      <c r="K61" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -5342,30 +5446,30 @@
       <c r="A62">
         <v>61</v>
       </c>
-      <c r="B62" s="5">
+      <c r="B62" s="4">
         <v>11</v>
       </c>
       <c r="C62">
         <v>3</v>
       </c>
-      <c r="D62" s="6">
+      <c r="D62" s="5">
         <v>43860</v>
       </c>
-      <c r="G62" s="5" t="s">
+      <c r="G62" s="4" t="s">
         <v>213</v>
       </c>
       <c r="H62">
         <v>555</v>
       </c>
-      <c r="I62" s="8">
+      <c r="I62" s="7">
         <f>H62*VLOOKUP(G62,exchangeRate!$B$2:$D$4,3,FALSE)</f>
         <v>14469787.949999999</v>
       </c>
-      <c r="J62" s="7">
+      <c r="J62" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G62)</f>
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="K62" s="5" t="s">
+      <c r="K62" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -5373,30 +5477,30 @@
       <c r="A63">
         <v>62</v>
       </c>
-      <c r="B63" s="5">
+      <c r="B63" s="4">
         <v>12</v>
       </c>
       <c r="C63">
         <v>2</v>
       </c>
-      <c r="D63" s="6">
+      <c r="D63" s="5">
         <v>43148</v>
       </c>
-      <c r="G63" s="5" t="s">
+      <c r="G63" s="4" t="s">
         <v>213</v>
       </c>
       <c r="H63">
         <v>445</v>
       </c>
-      <c r="I63" s="8">
+      <c r="I63" s="7">
         <f>H63*VLOOKUP(G63,exchangeRate!$B$2:$D$4,3,FALSE)</f>
         <v>11601902.049999999</v>
       </c>
-      <c r="J63" s="7">
+      <c r="J63" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G63)</f>
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="K63" s="5" t="s">
+      <c r="K63" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -5404,30 +5508,30 @@
       <c r="A64">
         <v>63</v>
       </c>
-      <c r="B64" s="5">
+      <c r="B64" s="4">
         <v>13</v>
       </c>
       <c r="C64">
         <v>3</v>
       </c>
-      <c r="D64" s="6">
+      <c r="D64" s="5">
         <v>44407</v>
       </c>
-      <c r="G64" s="5" t="s">
+      <c r="G64" s="4" t="s">
         <v>213</v>
       </c>
       <c r="H64">
         <v>44</v>
       </c>
-      <c r="I64" s="8">
+      <c r="I64" s="7">
         <f>H64*VLOOKUP(G64,exchangeRate!$B$2:$D$4,3,FALSE)</f>
         <v>1147154.3599999999</v>
       </c>
-      <c r="J64" s="7">
+      <c r="J64" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G64)</f>
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="K64" s="5" t="s">
+      <c r="K64" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -5435,30 +5539,30 @@
       <c r="A65">
         <v>64</v>
       </c>
-      <c r="B65" s="5">
+      <c r="B65" s="4">
         <v>14</v>
       </c>
       <c r="C65">
         <v>3</v>
       </c>
-      <c r="D65" s="6">
+      <c r="D65" s="5">
         <v>43845</v>
       </c>
-      <c r="G65" s="5" t="s">
+      <c r="G65" s="4" t="s">
         <v>213</v>
       </c>
       <c r="H65">
         <v>242</v>
       </c>
-      <c r="I65" s="8">
+      <c r="I65" s="7">
         <f>H65*VLOOKUP(G65,exchangeRate!$B$2:$D$4,3,FALSE)</f>
         <v>6309348.9799999995</v>
       </c>
-      <c r="J65" s="7">
+      <c r="J65" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G65)</f>
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="K65" s="5" t="s">
+      <c r="K65" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -5466,30 +5570,30 @@
       <c r="A66">
         <v>65</v>
       </c>
-      <c r="B66" s="5">
+      <c r="B66" s="4">
         <v>15</v>
       </c>
       <c r="C66">
         <v>3</v>
       </c>
-      <c r="D66" s="6">
+      <c r="D66" s="5">
         <v>43287</v>
       </c>
-      <c r="G66" s="5" t="s">
+      <c r="G66" s="4" t="s">
         <v>213</v>
       </c>
       <c r="H66">
         <v>83</v>
       </c>
-      <c r="I66" s="8">
+      <c r="I66" s="7">
         <f>H66*VLOOKUP(G66,exchangeRate!$B$2:$D$4,3,FALSE)</f>
         <v>2163950.27</v>
       </c>
-      <c r="J66" s="7">
+      <c r="J66" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G66)</f>
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="K66" s="5" t="s">
+      <c r="K66" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -5497,30 +5601,30 @@
       <c r="A67">
         <v>66</v>
       </c>
-      <c r="B67" s="5">
+      <c r="B67" s="4">
         <v>16</v>
       </c>
       <c r="C67">
         <v>2</v>
       </c>
-      <c r="D67" s="6">
+      <c r="D67" s="5">
         <v>43744</v>
       </c>
-      <c r="G67" s="5" t="s">
+      <c r="G67" s="4" t="s">
         <v>213</v>
       </c>
       <c r="H67">
         <v>990</v>
       </c>
-      <c r="I67" s="8">
+      <c r="I67" s="7">
         <f>H67*VLOOKUP(G67,exchangeRate!$B$2:$D$4,3,FALSE)</f>
         <v>25810973.099999998</v>
       </c>
-      <c r="J67" s="7">
+      <c r="J67" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G67)</f>
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="K67" s="5" t="s">
+      <c r="K67" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -5528,30 +5632,30 @@
       <c r="A68">
         <v>67</v>
       </c>
-      <c r="B68" s="5">
+      <c r="B68" s="4">
         <v>17</v>
       </c>
       <c r="C68">
         <v>1</v>
       </c>
-      <c r="D68" s="6">
+      <c r="D68" s="5">
         <v>43209</v>
       </c>
-      <c r="G68" s="5" t="s">
+      <c r="G68" s="4" t="s">
         <v>213</v>
       </c>
       <c r="H68">
         <v>973</v>
       </c>
-      <c r="I68" s="8">
+      <c r="I68" s="7">
         <f>H68*VLOOKUP(G68,exchangeRate!$B$2:$D$4,3,FALSE)</f>
         <v>25367754.369999997</v>
       </c>
-      <c r="J68" s="7">
+      <c r="J68" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G68)</f>
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="K68" s="5" t="s">
+      <c r="K68" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -5559,30 +5663,30 @@
       <c r="A69">
         <v>68</v>
       </c>
-      <c r="B69" s="5">
+      <c r="B69" s="4">
         <v>18</v>
       </c>
       <c r="C69">
         <v>3</v>
       </c>
-      <c r="D69" s="6">
+      <c r="D69" s="5">
         <v>43609</v>
       </c>
-      <c r="G69" s="5" t="s">
+      <c r="G69" s="4" t="s">
         <v>213</v>
       </c>
       <c r="H69">
         <v>658</v>
       </c>
-      <c r="I69" s="8">
+      <c r="I69" s="7">
         <f>H69*VLOOKUP(G69,exchangeRate!$B$2:$D$4,3,FALSE)</f>
         <v>17155172.02</v>
       </c>
-      <c r="J69" s="7">
+      <c r="J69" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G69)</f>
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="K69" s="5" t="s">
+      <c r="K69" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -5590,30 +5694,30 @@
       <c r="A70">
         <v>69</v>
       </c>
-      <c r="B70" s="5">
+      <c r="B70" s="4">
         <v>19</v>
       </c>
       <c r="C70">
         <v>3</v>
       </c>
-      <c r="D70" s="6">
+      <c r="D70" s="5">
         <v>43615</v>
       </c>
-      <c r="G70" s="5" t="s">
+      <c r="G70" s="4" t="s">
         <v>213</v>
       </c>
       <c r="H70">
         <v>814</v>
       </c>
-      <c r="I70" s="8">
+      <c r="I70" s="7">
         <f>H70*VLOOKUP(G70,exchangeRate!$B$2:$D$4,3,FALSE)</f>
         <v>21222355.66</v>
       </c>
-      <c r="J70" s="7">
+      <c r="J70" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G70)</f>
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="K70" s="5" t="s">
+      <c r="K70" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -5621,30 +5725,30 @@
       <c r="A71">
         <v>70</v>
       </c>
-      <c r="B71" s="5">
+      <c r="B71" s="4">
         <v>20</v>
       </c>
       <c r="C71">
         <v>2</v>
       </c>
-      <c r="D71" s="6">
+      <c r="D71" s="5">
         <v>43638</v>
       </c>
-      <c r="G71" s="5" t="s">
+      <c r="G71" s="4" t="s">
         <v>213</v>
       </c>
       <c r="H71">
         <v>656</v>
       </c>
-      <c r="I71" s="8">
+      <c r="I71" s="7">
         <f>H71*VLOOKUP(G71,exchangeRate!$B$2:$D$4,3,FALSE)</f>
         <v>17103028.640000001</v>
       </c>
-      <c r="J71" s="7">
+      <c r="J71" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G71)</f>
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="K71" s="5" t="s">
+      <c r="K71" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -5652,30 +5756,30 @@
       <c r="A72">
         <v>71</v>
       </c>
-      <c r="B72" s="5">
+      <c r="B72" s="4">
         <v>21</v>
       </c>
       <c r="C72">
         <v>2</v>
       </c>
-      <c r="D72" s="6">
+      <c r="D72" s="5">
         <v>44272</v>
       </c>
-      <c r="G72" s="5" t="s">
+      <c r="G72" s="4" t="s">
         <v>213</v>
       </c>
       <c r="H72">
         <v>90</v>
       </c>
-      <c r="I72" s="8">
+      <c r="I72" s="7">
         <f>H72*VLOOKUP(G72,exchangeRate!$B$2:$D$4,3,FALSE)</f>
         <v>2346452.1</v>
       </c>
-      <c r="J72" s="7">
+      <c r="J72" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G72)</f>
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="K72" s="5" t="s">
+      <c r="K72" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -5683,30 +5787,30 @@
       <c r="A73">
         <v>72</v>
       </c>
-      <c r="B73" s="5">
+      <c r="B73" s="4">
         <v>22</v>
       </c>
       <c r="C73">
         <v>2</v>
       </c>
-      <c r="D73" s="6">
+      <c r="D73" s="5">
         <v>43325</v>
       </c>
-      <c r="G73" s="5" t="s">
+      <c r="G73" s="4" t="s">
         <v>213</v>
       </c>
       <c r="H73">
         <v>470</v>
       </c>
-      <c r="I73" s="8">
+      <c r="I73" s="7">
         <f>H73*VLOOKUP(G73,exchangeRate!$B$2:$D$4,3,FALSE)</f>
         <v>12253694.299999999</v>
       </c>
-      <c r="J73" s="7">
+      <c r="J73" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G73)</f>
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="K73" s="5" t="s">
+      <c r="K73" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -5714,27 +5818,27 @@
       <c r="A74">
         <v>73</v>
       </c>
-      <c r="B74" s="5">
+      <c r="B74" s="4">
         <v>23</v>
       </c>
-      <c r="D74" s="6">
+      <c r="D74" s="5">
         <v>44237</v>
       </c>
-      <c r="G74" s="5" t="s">
+      <c r="G74" s="4" t="s">
         <v>213</v>
       </c>
       <c r="H74">
         <v>740</v>
       </c>
-      <c r="I74" s="8">
+      <c r="I74" s="7">
         <f>H74*VLOOKUP(G74,exchangeRate!$B$2:$D$4,3,FALSE)</f>
         <v>19293050.599999998</v>
       </c>
-      <c r="J74" s="7">
+      <c r="J74" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G74)</f>
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="K74" s="5" t="s">
+      <c r="K74" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -5742,30 +5846,30 @@
       <c r="A75">
         <v>74</v>
       </c>
-      <c r="B75" s="5">
+      <c r="B75" s="4">
         <v>24</v>
       </c>
       <c r="C75">
         <v>2</v>
       </c>
-      <c r="D75" s="6">
+      <c r="D75" s="5">
         <v>43356</v>
       </c>
-      <c r="G75" s="5" t="s">
+      <c r="G75" s="4" t="s">
         <v>213</v>
       </c>
       <c r="H75">
         <v>426</v>
       </c>
-      <c r="I75" s="8">
+      <c r="I75" s="7">
         <f>H75*VLOOKUP(G75,exchangeRate!$B$2:$D$4,3,FALSE)</f>
         <v>11106539.939999999</v>
       </c>
-      <c r="J75" s="7">
+      <c r="J75" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G75)</f>
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="K75" s="5" t="s">
+      <c r="K75" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -5773,35 +5877,35 @@
       <c r="A76">
         <v>75</v>
       </c>
-      <c r="B76" s="5">
+      <c r="B76" s="4">
         <v>25</v>
       </c>
       <c r="C76">
         <v>2</v>
       </c>
-      <c r="D76" s="6">
+      <c r="D76" s="5">
         <v>43771</v>
       </c>
-      <c r="G76" s="5" t="s">
+      <c r="G76" s="4" t="s">
         <v>213</v>
       </c>
       <c r="H76">
         <v>389</v>
       </c>
-      <c r="I76" s="8">
+      <c r="I76" s="7">
         <f>H76*VLOOKUP(G76,exchangeRate!$B$2:$D$4,3,FALSE)</f>
         <v>10141887.41</v>
       </c>
-      <c r="J76" s="7">
+      <c r="J76" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"ACCOUNT",interestRate!$B:$B,Account!G76)</f>
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="K76" s="5" t="s">
+      <c r="K76" s="4" t="s">
         <v>86</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -5811,8 +5915,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46E00A1F-C9F6-4EB8-BE07-062FE55637D2}">
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5832,40 +5936,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>87</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="L1" s="12" t="s">
         <v>3</v>
       </c>
     </row>
@@ -5876,31 +5980,31 @@
       <c r="B2" s="1">
         <v>1</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="5">
         <v>43948</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="5">
         <f>DATE(YEAR(D2),MONTH(D2)+F2,DAY(D2))</f>
         <v>45774</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="7">
         <v>60</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="H2" s="8">
+      <c r="G2" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H2" s="7">
         <v>3000000000</v>
       </c>
-      <c r="I2" s="8">
+      <c r="I2" s="7">
         <f>VLOOKUP(G2,exchangeRate!$B$2:$D$13,3,FALSE)*H2</f>
         <v>3000000000</v>
       </c>
-      <c r="J2" s="7">
-        <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"LOAN",interestRate!$B:$B,Loan!G2,interestRate!$D:$D,Loan!F2,interestRate!$E:$E,Loan!L2)</f>
+      <c r="J2" s="6">
+        <f>IF(K2="LOCKED",0,SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"LOAN",interestRate!$B:$B,Loan!G2,interestRate!$D:$D,Loan!F2,interestRate!$E:$E,Loan!L2))</f>
         <v>0.11600000000000003</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="4" t="s">
         <v>86</v>
       </c>
       <c r="L2" t="str">
@@ -5918,31 +6022,31 @@
       <c r="C3" s="1">
         <v>1</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="5">
         <v>43749</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="5">
         <f t="shared" ref="E3:E21" si="0">DATE(YEAR(D3),MONTH(D3)+F3,DAY(D3))</f>
         <v>51054</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="7">
         <v>240</v>
       </c>
-      <c r="G3" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="H3" s="8">
+      <c r="G3" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H3" s="7">
         <v>10000000000</v>
       </c>
-      <c r="I3" s="8">
+      <c r="I3" s="7">
         <f>VLOOKUP(G3,exchangeRate!$B$2:$D$13,3,FALSE)*H3</f>
         <v>10000000000</v>
       </c>
-      <c r="J3" s="7">
-        <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"LOAN",interestRate!$B:$B,Loan!G3,interestRate!$D:$D,Loan!F3,interestRate!$E:$E,Loan!L3)</f>
+      <c r="J3" s="6">
+        <f>IF(K3="LOCKED",0,SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"LOAN",interestRate!$B:$B,Loan!G3,interestRate!$D:$D,Loan!F3,interestRate!$E:$E,Loan!L3))</f>
         <v>0.13300000000000003</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="4" t="s">
         <v>86</v>
       </c>
       <c r="L3" t="str">
@@ -5960,31 +6064,31 @@
       <c r="C4" s="1">
         <v>2</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="5">
         <v>44021</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="5">
         <f t="shared" si="0"/>
         <v>45482</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="7">
         <v>48</v>
       </c>
-      <c r="G4" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="H4" s="8">
+      <c r="G4" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H4" s="7">
         <v>14000000000</v>
       </c>
-      <c r="I4" s="8">
+      <c r="I4" s="7">
         <f>VLOOKUP(G4,exchangeRate!$B$2:$D$13,3,FALSE)*H4</f>
         <v>14000000000</v>
       </c>
-      <c r="J4" s="7">
-        <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"LOAN",interestRate!$B:$B,Loan!G4,interestRate!$D:$D,Loan!F4,interestRate!$E:$E,Loan!L4)</f>
+      <c r="J4" s="6">
+        <f>IF(K4="LOCKED",0,SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"LOAN",interestRate!$B:$B,Loan!G4,interestRate!$D:$D,Loan!F4,interestRate!$E:$E,Loan!L4))</f>
         <v>0.12200000000000004</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="K4" s="4" t="s">
         <v>86</v>
       </c>
       <c r="L4" t="str">
@@ -6002,32 +6106,25 @@
       <c r="C5" s="1">
         <v>3</v>
       </c>
-      <c r="D5" s="6">
-        <v>44237</v>
-      </c>
-      <c r="E5" s="6">
-        <f t="shared" si="0"/>
-        <v>46793</v>
-      </c>
-      <c r="F5" s="8">
+      <c r="F5" s="7">
         <v>84</v>
       </c>
-      <c r="G5" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="H5" s="8">
+      <c r="G5" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H5" s="7">
         <v>38000000000</v>
       </c>
-      <c r="I5" s="8">
+      <c r="I5" s="7">
         <f>VLOOKUP(G5,exchangeRate!$B$2:$D$13,3,FALSE)*H5</f>
         <v>38000000000</v>
       </c>
-      <c r="J5" s="7">
-        <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"LOAN",interestRate!$B:$B,Loan!G5,interestRate!$D:$D,Loan!F5,interestRate!$E:$E,Loan!L5)</f>
-        <v>0.12000000000000004</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>86</v>
+      <c r="J5" s="6">
+        <f>IF(K5="LOCKED",0,SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"LOAN",interestRate!$B:$B,Loan!G5,interestRate!$D:$D,Loan!F5,interestRate!$E:$E,Loan!L5))</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="15" t="s">
+        <v>224</v>
       </c>
       <c r="L5" t="str">
         <f>VLOOKUP(B5,Customer!$A$2:$F$26,6)</f>
@@ -6044,24 +6141,24 @@
       <c r="C6" s="1">
         <v>1</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="7">
         <v>9</v>
       </c>
-      <c r="G6" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="H6" s="8">
+      <c r="G6" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H6" s="7">
         <v>30000000000</v>
       </c>
-      <c r="I6" s="8">
+      <c r="I6" s="7">
         <f>VLOOKUP(G6,exchangeRate!$B$2:$D$13,3,FALSE)*H6</f>
         <v>30000000000</v>
       </c>
-      <c r="J6" s="7">
-        <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"LOAN",interestRate!$B:$B,Loan!G6,interestRate!$D:$D,Loan!F6,interestRate!$E:$E,Loan!L6)</f>
+      <c r="J6" s="6">
+        <f>IF(K6="LOCKED",0,SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"LOAN",interestRate!$B:$B,Loan!G6,interestRate!$D:$D,Loan!F6,interestRate!$E:$E,Loan!L6))</f>
         <v>0</v>
       </c>
-      <c r="K6" s="16" t="s">
+      <c r="K6" s="15" t="s">
         <v>224</v>
       </c>
       <c r="L6" t="str">
@@ -6079,31 +6176,31 @@
       <c r="C7" s="1">
         <v>2</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="5">
         <v>44163</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="5">
         <f t="shared" si="0"/>
         <v>44344</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="7">
         <v>6</v>
       </c>
-      <c r="G7" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="H7" s="8">
+      <c r="G7" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H7" s="7">
         <v>11000000000</v>
       </c>
-      <c r="I7" s="8">
+      <c r="I7" s="7">
         <f>VLOOKUP(G7,exchangeRate!$B$2:$D$13,3,FALSE)*H7</f>
         <v>11000000000</v>
       </c>
-      <c r="J7" s="7">
-        <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"LOAN",interestRate!$B:$B,Loan!G7,interestRate!$D:$D,Loan!F7,interestRate!$E:$E,Loan!L7)</f>
+      <c r="J7" s="6">
+        <f>IF(K7="LOCKED",0,SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"LOAN",interestRate!$B:$B,Loan!G7,interestRate!$D:$D,Loan!F7,interestRate!$E:$E,Loan!L7))</f>
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="K7" s="5" t="s">
+      <c r="K7" s="4" t="s">
         <v>86</v>
       </c>
       <c r="L7" t="str">
@@ -6121,31 +6218,31 @@
       <c r="C8" s="1">
         <v>3</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="5">
         <v>44101</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="5">
         <f t="shared" si="0"/>
         <v>47753</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="7">
         <v>120</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="4" t="s">
         <v>82</v>
       </c>
       <c r="H8">
         <v>628877</v>
       </c>
-      <c r="I8" s="8">
+      <c r="I8" s="7">
         <f>VLOOKUP(G8,exchangeRate!$B$2:$D$13,3,FALSE)*H8</f>
         <v>14778609500</v>
       </c>
-      <c r="J8" s="7">
-        <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"LOAN",interestRate!$B:$B,Loan!G8,interestRate!$D:$D,Loan!F8,interestRate!$E:$E,Loan!L8)</f>
+      <c r="J8" s="6">
+        <f>IF(K8="LOCKED",0,SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"LOAN",interestRate!$B:$B,Loan!G8,interestRate!$D:$D,Loan!F8,interestRate!$E:$E,Loan!L8))</f>
         <v>4.1000000000000009E-2</v>
       </c>
-      <c r="K8" s="5" t="s">
+      <c r="K8" s="4" t="s">
         <v>86</v>
       </c>
       <c r="L8" t="str">
@@ -6163,31 +6260,31 @@
       <c r="C9" s="1">
         <v>1</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="5">
         <v>43834</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="5">
         <f t="shared" si="0"/>
         <v>54792</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="7">
         <v>360</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="4" t="s">
         <v>82</v>
       </c>
       <c r="H9">
         <v>904812</v>
       </c>
-      <c r="I9" s="8">
+      <c r="I9" s="7">
         <f>VLOOKUP(G9,exchangeRate!$B$2:$D$13,3,FALSE)*H9</f>
         <v>21263082000</v>
       </c>
-      <c r="J9" s="7">
-        <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"LOAN",interestRate!$B:$B,Loan!G9,interestRate!$D:$D,Loan!F9,interestRate!$E:$E,Loan!L9)</f>
+      <c r="J9" s="6">
+        <f>IF(K9="LOCKED",0,SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"LOAN",interestRate!$B:$B,Loan!G9,interestRate!$D:$D,Loan!F9,interestRate!$E:$E,Loan!L9))</f>
         <v>4.8000000000000008E-2</v>
       </c>
-      <c r="K9" s="5" t="s">
+      <c r="K9" s="4" t="s">
         <v>86</v>
       </c>
       <c r="L9" t="str">
@@ -6205,32 +6302,25 @@
       <c r="C10" s="1">
         <v>2</v>
       </c>
-      <c r="D10" s="6">
-        <v>44427</v>
-      </c>
-      <c r="E10" s="6">
-        <f t="shared" si="0"/>
-        <v>45888</v>
-      </c>
-      <c r="F10" s="8">
+      <c r="F10" s="7">
         <v>48</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="4" t="s">
         <v>82</v>
       </c>
       <c r="H10">
         <v>112665</v>
       </c>
-      <c r="I10" s="8">
+      <c r="I10" s="7">
         <f>VLOOKUP(G10,exchangeRate!$B$2:$D$13,3,FALSE)*H10</f>
         <v>2647627500</v>
       </c>
-      <c r="J10" s="7">
-        <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"LOAN",interestRate!$B:$B,Loan!G10,interestRate!$D:$D,Loan!F10,interestRate!$E:$E,Loan!L10)</f>
-        <v>4.8000000000000001E-2</v>
-      </c>
-      <c r="K10" s="5" t="s">
-        <v>86</v>
+      <c r="J10" s="6">
+        <f>IF(K10="LOCKED",0,SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"LOAN",interestRate!$B:$B,Loan!G10,interestRate!$D:$D,Loan!F10,interestRate!$E:$E,Loan!L10))</f>
+        <v>0</v>
+      </c>
+      <c r="K10" s="16" t="s">
+        <v>224</v>
       </c>
       <c r="L10" t="str">
         <f>VLOOKUP(B10,Customer!$A$2:$F$26,6)</f>
@@ -6247,31 +6337,31 @@
       <c r="C11" s="1">
         <v>3</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="5">
         <v>43790</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="5">
         <f t="shared" si="0"/>
         <v>51095</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="7">
         <v>240</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="4" t="s">
         <v>82</v>
       </c>
       <c r="H11">
         <v>908493</v>
       </c>
-      <c r="I11" s="8">
+      <c r="I11" s="7">
         <f>VLOOKUP(G11,exchangeRate!$B$2:$D$13,3,FALSE)*H11</f>
         <v>21349585500</v>
       </c>
-      <c r="J11" s="7">
-        <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"LOAN",interestRate!$B:$B,Loan!G11,interestRate!$D:$D,Loan!F11,interestRate!$E:$E,Loan!L11)</f>
+      <c r="J11" s="6">
+        <f>IF(K11="LOCKED",0,SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"LOAN",interestRate!$B:$B,Loan!G11,interestRate!$D:$D,Loan!F11,interestRate!$E:$E,Loan!L11))</f>
         <v>4.200000000000001E-2</v>
       </c>
-      <c r="K11" s="5" t="s">
+      <c r="K11" s="4" t="s">
         <v>86</v>
       </c>
       <c r="L11" t="str">
@@ -6289,24 +6379,24 @@
       <c r="C12" s="1">
         <v>1</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="7">
         <v>60</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="G12" s="4" t="s">
         <v>82</v>
       </c>
       <c r="H12">
         <v>230145</v>
       </c>
-      <c r="I12" s="8">
+      <c r="I12" s="7">
         <f>VLOOKUP(G12,exchangeRate!$B$2:$D$13,3,FALSE)*H12</f>
         <v>5408407500</v>
       </c>
-      <c r="J12" s="7">
-        <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"LOAN",interestRate!$B:$B,Loan!G12,interestRate!$D:$D,Loan!F12,interestRate!$E:$E,Loan!L12)</f>
+      <c r="J12" s="6">
+        <f>IF(K12="LOCKED",0,SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"LOAN",interestRate!$B:$B,Loan!G12,interestRate!$D:$D,Loan!F12,interestRate!$E:$E,Loan!L12))</f>
         <v>0</v>
       </c>
-      <c r="K12" s="16" t="s">
+      <c r="K12" s="15" t="s">
         <v>224</v>
       </c>
       <c r="L12" t="str">
@@ -6324,31 +6414,31 @@
       <c r="C13" s="1">
         <v>2</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="5">
         <v>43792</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="5">
         <f t="shared" si="0"/>
         <v>43884</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F13" s="7">
         <v>3</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G13" s="4" t="s">
         <v>82</v>
       </c>
       <c r="H13">
         <v>530446</v>
       </c>
-      <c r="I13" s="8">
+      <c r="I13" s="7">
         <f>VLOOKUP(G13,exchangeRate!$B$2:$D$13,3,FALSE)*H13</f>
         <v>12465481000</v>
       </c>
-      <c r="J13" s="7">
-        <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"LOAN",interestRate!$B:$B,Loan!G13,interestRate!$D:$D,Loan!F13,interestRate!$E:$E,Loan!L13)</f>
+      <c r="J13" s="6">
+        <f>IF(K13="LOCKED",0,SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"LOAN",interestRate!$B:$B,Loan!G13,interestRate!$D:$D,Loan!F13,interestRate!$E:$E,Loan!L13))</f>
         <v>0.03</v>
       </c>
-      <c r="K13" s="5" t="s">
+      <c r="K13" s="4" t="s">
         <v>86</v>
       </c>
       <c r="L13" t="str">
@@ -6366,31 +6456,31 @@
       <c r="C14" s="1">
         <v>3</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="5">
         <v>44836</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="5">
         <f t="shared" si="0"/>
         <v>52141</v>
       </c>
-      <c r="F14" s="8">
+      <c r="F14" s="7">
         <v>240</v>
       </c>
-      <c r="G14" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="H14" s="8">
+      <c r="G14" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H14" s="7">
         <v>39000000000</v>
       </c>
-      <c r="I14" s="8">
+      <c r="I14" s="7">
         <f>VLOOKUP(G14,exchangeRate!$B$2:$D$13,3,FALSE)*H14</f>
         <v>39000000000</v>
       </c>
-      <c r="J14" s="7">
-        <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"LOAN",interestRate!$B:$B,Loan!G14,interestRate!$D:$D,Loan!F14,interestRate!$E:$E,Loan!L14)</f>
+      <c r="J14" s="6">
+        <f>IF(K14="LOCKED",0,SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"LOAN",interestRate!$B:$B,Loan!G14,interestRate!$D:$D,Loan!F14,interestRate!$E:$E,Loan!L14))</f>
         <v>0.12800000000000003</v>
       </c>
-      <c r="K14" s="5" t="s">
+      <c r="K14" s="4" t="s">
         <v>86</v>
       </c>
       <c r="L14" t="str">
@@ -6408,31 +6498,31 @@
       <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="5">
         <v>44615</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="5">
         <f t="shared" si="0"/>
         <v>55572</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F15" s="7">
         <v>360</v>
       </c>
-      <c r="G15" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="H15" s="8">
+      <c r="G15" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H15" s="7">
         <v>48000000000</v>
       </c>
-      <c r="I15" s="8">
+      <c r="I15" s="7">
         <f>VLOOKUP(G15,exchangeRate!$B$2:$D$13,3,FALSE)*H15</f>
         <v>48000000000</v>
       </c>
-      <c r="J15" s="7">
-        <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"LOAN",interestRate!$B:$B,Loan!G15,interestRate!$D:$D,Loan!F15,interestRate!$E:$E,Loan!L15)</f>
+      <c r="J15" s="6">
+        <f>IF(K15="LOCKED",0,SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"LOAN",interestRate!$B:$B,Loan!G15,interestRate!$D:$D,Loan!F15,interestRate!$E:$E,Loan!L15))</f>
         <v>0.13700000000000004</v>
       </c>
-      <c r="K15" s="5" t="s">
+      <c r="K15" s="4" t="s">
         <v>86</v>
       </c>
       <c r="L15" t="str">
@@ -6450,31 +6540,31 @@
       <c r="C16" s="1">
         <v>2</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="5">
         <v>44700</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="5">
         <f t="shared" si="0"/>
         <v>48353</v>
       </c>
-      <c r="F16" s="8">
+      <c r="F16" s="7">
         <v>120</v>
       </c>
-      <c r="G16" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="H16" s="8">
+      <c r="G16" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H16" s="7">
         <v>31000000000</v>
       </c>
-      <c r="I16" s="8">
+      <c r="I16" s="7">
         <f>VLOOKUP(G16,exchangeRate!$B$2:$D$13,3,FALSE)*H16</f>
         <v>31000000000</v>
       </c>
-      <c r="J16" s="7">
-        <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"LOAN",interestRate!$B:$B,Loan!G16,interestRate!$D:$D,Loan!F16,interestRate!$E:$E,Loan!L16)</f>
+      <c r="J16" s="6">
+        <f>IF(K16="LOCKED",0,SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"LOAN",interestRate!$B:$B,Loan!G16,interestRate!$D:$D,Loan!F16,interestRate!$E:$E,Loan!L16))</f>
         <v>0.13400000000000004</v>
       </c>
-      <c r="K16" s="5" t="s">
+      <c r="K16" s="4" t="s">
         <v>86</v>
       </c>
       <c r="L16" t="str">
@@ -6492,31 +6582,31 @@
       <c r="C17" s="1">
         <v>3</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="5">
         <v>44306</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="5">
         <f t="shared" si="0"/>
         <v>44671</v>
       </c>
-      <c r="F17" s="8">
+      <c r="F17" s="7">
         <v>12</v>
       </c>
-      <c r="G17" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="H17" s="8">
+      <c r="G17" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H17" s="7">
         <v>42000000000</v>
       </c>
-      <c r="I17" s="8">
+      <c r="I17" s="7">
         <f>VLOOKUP(G17,exchangeRate!$B$2:$D$13,3,FALSE)*H17</f>
         <v>42000000000</v>
       </c>
-      <c r="J17" s="7">
-        <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"LOAN",interestRate!$B:$B,Loan!G17,interestRate!$D:$D,Loan!F17,interestRate!$E:$E,Loan!L17)</f>
+      <c r="J17" s="6">
+        <f>IF(K17="LOCKED",0,SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"LOAN",interestRate!$B:$B,Loan!G17,interestRate!$D:$D,Loan!F17,interestRate!$E:$E,Loan!L17))</f>
         <v>9.2000000000000012E-2</v>
       </c>
-      <c r="K17" s="5" t="s">
+      <c r="K17" s="4" t="s">
         <v>86</v>
       </c>
       <c r="L17" t="str">
@@ -6534,24 +6624,24 @@
       <c r="C18" s="1">
         <v>1</v>
       </c>
-      <c r="F18" s="8">
+      <c r="F18" s="7">
         <v>15</v>
       </c>
-      <c r="G18" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="H18" s="8">
+      <c r="G18" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H18" s="7">
         <v>45000000000</v>
       </c>
-      <c r="I18" s="8">
+      <c r="I18" s="7">
         <f>VLOOKUP(G18,exchangeRate!$B$2:$D$13,3,FALSE)*H18</f>
         <v>45000000000</v>
       </c>
-      <c r="J18" s="7">
-        <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"LOAN",interestRate!$B:$B,Loan!G18,interestRate!$D:$D,Loan!F18,interestRate!$E:$E,Loan!L18)</f>
+      <c r="J18" s="6">
+        <f>IF(K18="LOCKED",0,SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"LOAN",interestRate!$B:$B,Loan!G18,interestRate!$D:$D,Loan!F18,interestRate!$E:$E,Loan!L18))</f>
         <v>0</v>
       </c>
-      <c r="K18" s="16" t="s">
+      <c r="K18" s="15" t="s">
         <v>224</v>
       </c>
       <c r="L18" t="str">
@@ -6569,31 +6659,31 @@
       <c r="C19" s="1">
         <v>2</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="5">
         <v>44175</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19" s="5">
         <f t="shared" si="0"/>
         <v>44905</v>
       </c>
-      <c r="F19" s="8">
+      <c r="F19" s="7">
         <v>24</v>
       </c>
-      <c r="G19" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="H19" s="8">
+      <c r="G19" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H19" s="7">
         <v>19000000000</v>
       </c>
-      <c r="I19" s="8">
+      <c r="I19" s="7">
         <f>VLOOKUP(G19,exchangeRate!$B$2:$D$13,3,FALSE)*H19</f>
         <v>19000000000</v>
       </c>
-      <c r="J19" s="7">
-        <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"LOAN",interestRate!$B:$B,Loan!G19,interestRate!$D:$D,Loan!F19,interestRate!$E:$E,Loan!L19)</f>
+      <c r="J19" s="6">
+        <f>IF(K19="LOCKED",0,SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"LOAN",interestRate!$B:$B,Loan!G19,interestRate!$D:$D,Loan!F19,interestRate!$E:$E,Loan!L19))</f>
         <v>0.10400000000000002</v>
       </c>
-      <c r="K19" s="5" t="s">
+      <c r="K19" s="4" t="s">
         <v>86</v>
       </c>
       <c r="L19" t="str">
@@ -6605,37 +6695,37 @@
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="4">
         <v>1</v>
       </c>
       <c r="C20" s="1">
         <v>3</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20" s="5">
         <v>44246</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20" s="5">
         <f t="shared" si="0"/>
         <v>45341</v>
       </c>
-      <c r="F20" s="8">
+      <c r="F20" s="7">
         <v>36</v>
       </c>
-      <c r="G20" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="H20" s="8">
+      <c r="G20" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H20" s="7">
         <v>31000000000</v>
       </c>
-      <c r="I20" s="8">
+      <c r="I20" s="7">
         <f>VLOOKUP(G20,exchangeRate!$B$2:$D$13,3,FALSE)*H20</f>
         <v>31000000000</v>
       </c>
-      <c r="J20" s="7">
-        <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"LOAN",interestRate!$B:$B,Loan!G20,interestRate!$D:$D,Loan!F20,interestRate!$E:$E,Loan!L20)</f>
+      <c r="J20" s="6">
+        <f>IF(K20="LOCKED",0,SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"LOAN",interestRate!$B:$B,Loan!G20,interestRate!$D:$D,Loan!F20,interestRate!$E:$E,Loan!L20))</f>
         <v>0.10800000000000003</v>
       </c>
-      <c r="K20" s="5" t="s">
+      <c r="K20" s="4" t="s">
         <v>86</v>
       </c>
       <c r="L20" t="str">
@@ -6647,34 +6737,34 @@
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B21" s="4">
         <v>2</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D21" s="5">
         <v>44814</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E21" s="5">
         <f t="shared" si="0"/>
         <v>46275</v>
       </c>
-      <c r="F21" s="8">
+      <c r="F21" s="7">
         <v>48</v>
       </c>
-      <c r="G21" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="H21" s="8">
+      <c r="G21" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H21" s="7">
         <v>2000000000</v>
       </c>
-      <c r="I21" s="8">
+      <c r="I21" s="7">
         <f>VLOOKUP(G21,exchangeRate!$B$2:$D$13,3,FALSE)*H21</f>
         <v>2000000000</v>
       </c>
-      <c r="J21" s="7">
-        <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"LOAN",interestRate!$B:$B,Loan!G21,interestRate!$D:$D,Loan!F21,interestRate!$E:$E,Loan!L21)</f>
+      <c r="J21" s="6">
+        <f>IF(K21="LOCKED",0,SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"LOAN",interestRate!$B:$B,Loan!G21,interestRate!$D:$D,Loan!F21,interestRate!$E:$E,Loan!L21))</f>
         <v>0.11700000000000003</v>
       </c>
-      <c r="K21" s="5" t="s">
+      <c r="K21" s="4" t="s">
         <v>86</v>
       </c>
       <c r="L21" t="str">
@@ -6691,7 +6781,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DB35AC3-6DBB-4728-A5E8-FCDA1B812037}">
   <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
@@ -6704,44 +6794,44 @@
     <col min="5" max="5" width="11.265625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.265625" customWidth="1"/>
     <col min="7" max="7" width="7.46484375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.3984375" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.3984375" style="7" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.796875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.3984375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>106</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="4" t="s">
         <v>80</v>
       </c>
     </row>
@@ -6755,30 +6845,30 @@
       <c r="C2">
         <v>2</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="5">
         <v>44855</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="5">
         <f>DATE(YEAR(D2),MONTH(D2)+F2,DAY(D2))</f>
         <v>45403</v>
       </c>
       <c r="F2">
         <v>18</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="H2" s="8">
+      <c r="G2" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H2" s="7">
         <v>300000000</v>
       </c>
-      <c r="I2" s="8">
+      <c r="I2" s="7">
         <v>300000000</v>
       </c>
-      <c r="J2" s="7">
+      <c r="J2" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"SAVING",interestRate!$D:$D,Saving!F2,interestRate!$B:$B,Saving!G2)</f>
         <v>6.5000000000000016E-2</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -6792,30 +6882,30 @@
       <c r="C3">
         <v>2</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="5">
         <v>44846</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="5">
         <f t="shared" ref="E3:E41" si="0">DATE(YEAR(D3),MONTH(D3)+F3,DAY(D3))</f>
         <v>45942</v>
       </c>
       <c r="F3">
         <v>36</v>
       </c>
-      <c r="G3" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="H3" s="8">
+      <c r="G3" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H3" s="7">
         <v>1000000000</v>
       </c>
-      <c r="I3" s="8">
+      <c r="I3" s="7">
         <v>1000000000</v>
       </c>
-      <c r="J3" s="7">
+      <c r="J3" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"SAVING",interestRate!$D:$D,Saving!F3,interestRate!$B:$B,Saving!G3)</f>
         <v>7.1000000000000021E-2</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -6829,30 +6919,30 @@
       <c r="C4">
         <v>1</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="5">
         <v>44974</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="5">
         <f t="shared" si="0"/>
         <v>45339</v>
       </c>
       <c r="F4">
         <v>12</v>
       </c>
-      <c r="G4" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="H4" s="8">
+      <c r="G4" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H4" s="7">
         <v>1400000000</v>
       </c>
-      <c r="I4" s="8">
+      <c r="I4" s="7">
         <v>1400000000</v>
       </c>
-      <c r="J4" s="7">
+      <c r="J4" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"SAVING",interestRate!$D:$D,Saving!F4,interestRate!$B:$B,Saving!G4)</f>
         <v>5.9000000000000011E-2</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="K4" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -6866,30 +6956,30 @@
       <c r="C5">
         <v>3</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="5">
         <v>44837</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="5">
         <f t="shared" si="0"/>
         <v>45933</v>
       </c>
       <c r="F5">
         <v>36</v>
       </c>
-      <c r="G5" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="H5" s="8">
+      <c r="G5" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H5" s="7">
         <v>3800000000</v>
       </c>
-      <c r="I5" s="8">
+      <c r="I5" s="7">
         <v>3800000000</v>
       </c>
-      <c r="J5" s="7">
+      <c r="J5" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"SAVING",interestRate!$D:$D,Saving!F5,interestRate!$B:$B,Saving!G5)</f>
         <v>7.1000000000000021E-2</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="K5" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -6903,30 +6993,30 @@
       <c r="C6">
         <v>1</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="5">
         <v>44889</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="5">
         <f t="shared" si="0"/>
         <v>45254</v>
       </c>
       <c r="F6">
         <v>12</v>
       </c>
-      <c r="G6" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="H6" s="8">
+      <c r="G6" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H6" s="7">
         <v>3000000000</v>
       </c>
-      <c r="I6" s="8">
+      <c r="I6" s="7">
         <v>3000000000</v>
       </c>
-      <c r="J6" s="7">
+      <c r="J6" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"SAVING",interestRate!$D:$D,Saving!F6,interestRate!$B:$B,Saving!G6)</f>
         <v>5.9000000000000011E-2</v>
       </c>
-      <c r="K6" s="5" t="s">
+      <c r="K6" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -6940,30 +7030,30 @@
       <c r="C7">
         <v>3</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="5">
         <v>44894</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="5">
         <f t="shared" si="0"/>
         <v>45990</v>
       </c>
       <c r="F7">
         <v>36</v>
       </c>
-      <c r="G7" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="H7" s="8">
+      <c r="G7" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H7" s="7">
         <v>1100000000</v>
       </c>
-      <c r="I7" s="8">
+      <c r="I7" s="7">
         <v>1100000000</v>
       </c>
-      <c r="J7" s="7">
+      <c r="J7" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"SAVING",interestRate!$D:$D,Saving!F7,interestRate!$B:$B,Saving!G7)</f>
         <v>7.1000000000000021E-2</v>
       </c>
-      <c r="K7" s="5" t="s">
+      <c r="K7" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -6977,30 +7067,30 @@
       <c r="C8">
         <v>1</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="5">
         <v>44835</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="5">
         <f t="shared" si="0"/>
         <v>45108</v>
       </c>
       <c r="F8">
         <v>9</v>
       </c>
-      <c r="G8" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="H8" s="8">
+      <c r="G8" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H8" s="7">
         <v>62887699999.999992</v>
       </c>
-      <c r="I8" s="8">
+      <c r="I8" s="7">
         <v>62887699999.999992</v>
       </c>
-      <c r="J8" s="7">
+      <c r="J8" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"SAVING",interestRate!$D:$D,Saving!F8,interestRate!$B:$B,Saving!G8)</f>
         <v>5.6000000000000008E-2</v>
       </c>
-      <c r="K8" s="5" t="s">
+      <c r="K8" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -7014,30 +7104,30 @@
       <c r="C9">
         <v>2</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="5">
         <v>45043</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="5">
         <f t="shared" si="0"/>
         <v>45500</v>
       </c>
       <c r="F9">
         <v>15</v>
       </c>
-      <c r="G9" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="H9" s="8">
+      <c r="G9" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H9" s="7">
         <v>90481200000</v>
       </c>
-      <c r="I9" s="8">
+      <c r="I9" s="7">
         <v>90481200000</v>
       </c>
-      <c r="J9" s="7">
+      <c r="J9" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"SAVING",interestRate!$D:$D,Saving!F9,interestRate!$B:$B,Saving!G9)</f>
         <v>6.2000000000000013E-2</v>
       </c>
-      <c r="K9" s="5" t="s">
+      <c r="K9" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -7051,30 +7141,30 @@
       <c r="C10">
         <v>3</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="5">
         <v>44875</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="5">
         <f t="shared" si="0"/>
         <v>45240</v>
       </c>
       <c r="F10">
         <v>12</v>
       </c>
-      <c r="G10" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="H10" s="8">
+      <c r="G10" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H10" s="7">
         <v>11266500000</v>
       </c>
-      <c r="I10" s="8">
+      <c r="I10" s="7">
         <v>11266500000</v>
       </c>
-      <c r="J10" s="7">
+      <c r="J10" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"SAVING",interestRate!$D:$D,Saving!F10,interestRate!$B:$B,Saving!G10)</f>
         <v>5.9000000000000011E-2</v>
       </c>
-      <c r="K10" s="5" t="s">
+      <c r="K10" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -7088,30 +7178,30 @@
       <c r="C11">
         <v>1</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="5">
         <v>44857</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="5">
         <f t="shared" si="0"/>
         <v>45130</v>
       </c>
       <c r="F11">
         <v>9</v>
       </c>
-      <c r="G11" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="H11" s="8">
+      <c r="G11" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H11" s="7">
         <v>90849300000</v>
       </c>
-      <c r="I11" s="8">
+      <c r="I11" s="7">
         <v>90849300000</v>
       </c>
-      <c r="J11" s="7">
+      <c r="J11" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"SAVING",interestRate!$D:$D,Saving!F11,interestRate!$B:$B,Saving!G11)</f>
         <v>5.6000000000000008E-2</v>
       </c>
-      <c r="K11" s="5" t="s">
+      <c r="K11" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -7125,30 +7215,30 @@
       <c r="C12">
         <v>2</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="5">
         <v>44953</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="5">
         <f t="shared" si="0"/>
         <v>45226</v>
       </c>
       <c r="F12">
         <v>9</v>
       </c>
-      <c r="G12" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="H12" s="8">
+      <c r="G12" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H12" s="7">
         <v>23014500000</v>
       </c>
-      <c r="I12" s="8">
+      <c r="I12" s="7">
         <v>23014500000</v>
       </c>
-      <c r="J12" s="7">
+      <c r="J12" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"SAVING",interestRate!$D:$D,Saving!F12,interestRate!$B:$B,Saving!G12)</f>
         <v>5.6000000000000008E-2</v>
       </c>
-      <c r="K12" s="5" t="s">
+      <c r="K12" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -7162,30 +7252,30 @@
       <c r="C13">
         <v>1</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="5">
         <v>45029</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="5">
         <f t="shared" si="0"/>
         <v>45486</v>
       </c>
       <c r="F13">
         <v>15</v>
       </c>
-      <c r="G13" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="H13" s="8">
+      <c r="G13" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H13" s="7">
         <v>53044600000</v>
       </c>
-      <c r="I13" s="8">
+      <c r="I13" s="7">
         <v>53044600000</v>
       </c>
-      <c r="J13" s="7">
+      <c r="J13" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"SAVING",interestRate!$D:$D,Saving!F13,interestRate!$B:$B,Saving!G13)</f>
         <v>6.2000000000000013E-2</v>
       </c>
-      <c r="K13" s="5" t="s">
+      <c r="K13" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -7199,30 +7289,30 @@
       <c r="C14">
         <v>1</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="5">
         <v>44942</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="5">
         <f t="shared" si="0"/>
         <v>46038</v>
       </c>
       <c r="F14">
         <v>36</v>
       </c>
-      <c r="G14" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="H14" s="8">
+      <c r="G14" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H14" s="7">
         <v>3900000000</v>
       </c>
-      <c r="I14" s="8">
+      <c r="I14" s="7">
         <v>3900000000</v>
       </c>
-      <c r="J14" s="7">
+      <c r="J14" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"SAVING",interestRate!$D:$D,Saving!F14,interestRate!$B:$B,Saving!G14)</f>
         <v>7.1000000000000021E-2</v>
       </c>
-      <c r="K14" s="5" t="s">
+      <c r="K14" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -7236,30 +7326,30 @@
       <c r="C15">
         <v>2</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="5">
         <v>45006</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="5">
         <f t="shared" si="0"/>
         <v>46833</v>
       </c>
       <c r="F15">
         <v>60</v>
       </c>
-      <c r="G15" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="H15" s="8">
+      <c r="G15" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H15" s="7">
         <v>4800000000</v>
       </c>
-      <c r="I15" s="8">
+      <c r="I15" s="7">
         <v>4800000000</v>
       </c>
-      <c r="J15" s="7">
+      <c r="J15" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"SAVING",interestRate!$D:$D,Saving!F15,interestRate!$B:$B,Saving!G15)</f>
         <v>7.7000000000000027E-2</v>
       </c>
-      <c r="K15" s="5" t="s">
+      <c r="K15" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -7273,30 +7363,30 @@
       <c r="C16">
         <v>2</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="5">
         <v>44979</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="5">
         <f t="shared" si="0"/>
         <v>45252</v>
       </c>
       <c r="F16">
         <v>9</v>
       </c>
-      <c r="G16" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="H16" s="8">
+      <c r="G16" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H16" s="7">
         <v>3100000000</v>
       </c>
-      <c r="I16" s="8">
+      <c r="I16" s="7">
         <v>3100000000</v>
       </c>
-      <c r="J16" s="7">
+      <c r="J16" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"SAVING",interestRate!$D:$D,Saving!F16,interestRate!$B:$B,Saving!G16)</f>
         <v>5.6000000000000008E-2</v>
       </c>
-      <c r="K16" s="5" t="s">
+      <c r="K16" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -7310,30 +7400,30 @@
       <c r="C17">
         <v>3</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="5">
         <v>44962</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="5">
         <f t="shared" si="0"/>
         <v>45693</v>
       </c>
       <c r="F17">
         <v>24</v>
       </c>
-      <c r="G17" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="H17" s="8">
+      <c r="G17" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H17" s="7">
         <v>4200000000</v>
       </c>
-      <c r="I17" s="8">
+      <c r="I17" s="7">
         <v>4200000000</v>
       </c>
-      <c r="J17" s="7">
+      <c r="J17" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"SAVING",interestRate!$D:$D,Saving!F17,interestRate!$B:$B,Saving!G17)</f>
         <v>6.8000000000000019E-2</v>
       </c>
-      <c r="K17" s="5" t="s">
+      <c r="K17" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -7347,30 +7437,30 @@
       <c r="C18">
         <v>3</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="5">
         <v>45025</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18" s="5">
         <f t="shared" si="0"/>
         <v>45574</v>
       </c>
       <c r="F18">
         <v>18</v>
       </c>
-      <c r="G18" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="H18" s="8">
+      <c r="G18" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H18" s="7">
         <v>4500000000</v>
       </c>
-      <c r="I18" s="8">
+      <c r="I18" s="7">
         <v>4500000000</v>
       </c>
-      <c r="J18" s="7">
+      <c r="J18" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"SAVING",interestRate!$D:$D,Saving!F18,interestRate!$B:$B,Saving!G18)</f>
         <v>6.5000000000000016E-2</v>
       </c>
-      <c r="K18" s="5" t="s">
+      <c r="K18" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -7384,30 +7474,30 @@
       <c r="C19">
         <v>3</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="5">
         <v>44872</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19" s="5">
         <f t="shared" si="0"/>
         <v>45237</v>
       </c>
       <c r="F19">
         <v>12</v>
       </c>
-      <c r="G19" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="H19" s="8">
+      <c r="G19" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H19" s="7">
         <v>1900000000</v>
       </c>
-      <c r="I19" s="8">
+      <c r="I19" s="7">
         <v>1900000000</v>
       </c>
-      <c r="J19" s="7">
+      <c r="J19" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"SAVING",interestRate!$D:$D,Saving!F19,interestRate!$B:$B,Saving!G19)</f>
         <v>5.9000000000000011E-2</v>
       </c>
-      <c r="K19" s="5" t="s">
+      <c r="K19" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -7421,30 +7511,30 @@
       <c r="C20">
         <v>2</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20" s="5">
         <v>44997</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20" s="5">
         <f t="shared" si="0"/>
         <v>46458</v>
       </c>
       <c r="F20">
         <v>48</v>
       </c>
-      <c r="G20" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="H20" s="8">
+      <c r="G20" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H20" s="7">
         <v>3100000000</v>
       </c>
-      <c r="I20" s="8">
+      <c r="I20" s="7">
         <v>3100000000</v>
       </c>
-      <c r="J20" s="7">
+      <c r="J20" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"SAVING",interestRate!$D:$D,Saving!F20,interestRate!$B:$B,Saving!G20)</f>
         <v>7.4000000000000024E-2</v>
       </c>
-      <c r="K20" s="5" t="s">
+      <c r="K20" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -7458,30 +7548,30 @@
       <c r="C21">
         <v>1</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D21" s="5">
         <v>44879</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E21" s="5">
         <f t="shared" si="0"/>
         <v>46340</v>
       </c>
       <c r="F21">
         <v>48</v>
       </c>
-      <c r="G21" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="H21" s="8">
+      <c r="G21" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H21" s="7">
         <v>17000000000</v>
       </c>
-      <c r="I21" s="8">
+      <c r="I21" s="7">
         <v>17000000000</v>
       </c>
-      <c r="J21" s="7">
+      <c r="J21" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"SAVING",interestRate!$D:$D,Saving!F21,interestRate!$B:$B,Saving!G21)</f>
         <v>7.4000000000000024E-2</v>
       </c>
-      <c r="K21" s="5" t="s">
+      <c r="K21" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -7495,30 +7585,30 @@
       <c r="C22">
         <v>1</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D22" s="5">
         <v>44912</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E22" s="5">
         <f t="shared" si="0"/>
         <v>46373</v>
       </c>
       <c r="F22">
         <v>48</v>
       </c>
-      <c r="G22" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="H22" s="8">
+      <c r="G22" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H22" s="7">
         <v>1500000000</v>
       </c>
-      <c r="I22" s="8">
+      <c r="I22" s="7">
         <v>1500000000</v>
       </c>
-      <c r="J22" s="7">
+      <c r="J22" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"SAVING",interestRate!$D:$D,Saving!F22,interestRate!$B:$B,Saving!G22)</f>
         <v>7.4000000000000024E-2</v>
       </c>
-      <c r="K22" s="5" t="s">
+      <c r="K22" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -7532,30 +7622,30 @@
       <c r="C23">
         <v>3</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D23" s="5">
         <v>44901</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E23" s="5">
         <f t="shared" si="0"/>
         <v>46362</v>
       </c>
       <c r="F23">
         <v>48</v>
       </c>
-      <c r="G23" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="H23" s="8">
+      <c r="G23" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H23" s="7">
         <v>15000000000</v>
       </c>
-      <c r="I23" s="8">
+      <c r="I23" s="7">
         <v>15000000000</v>
       </c>
-      <c r="J23" s="7">
+      <c r="J23" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"SAVING",interestRate!$D:$D,Saving!F23,interestRate!$B:$B,Saving!G23)</f>
         <v>7.4000000000000024E-2</v>
       </c>
-      <c r="K23" s="5" t="s">
+      <c r="K23" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -7569,30 +7659,30 @@
       <c r="C24">
         <v>1</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D24" s="5">
         <v>44997</v>
       </c>
-      <c r="E24" s="6">
+      <c r="E24" s="5">
         <f t="shared" si="0"/>
         <v>46093</v>
       </c>
       <c r="F24">
         <v>36</v>
       </c>
-      <c r="G24" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="H24" s="8">
+      <c r="G24" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H24" s="7">
         <v>2000000000</v>
       </c>
-      <c r="I24" s="8">
+      <c r="I24" s="7">
         <v>2000000000</v>
       </c>
-      <c r="J24" s="7">
+      <c r="J24" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"SAVING",interestRate!$D:$D,Saving!F24,interestRate!$B:$B,Saving!G24)</f>
         <v>7.1000000000000021E-2</v>
       </c>
-      <c r="K24" s="5" t="s">
+      <c r="K24" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -7606,30 +7696,30 @@
       <c r="C25">
         <v>2</v>
       </c>
-      <c r="D25" s="6">
+      <c r="D25" s="5">
         <v>44918</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E25" s="5">
         <f t="shared" si="0"/>
         <v>46744</v>
       </c>
       <c r="F25">
         <v>60</v>
       </c>
-      <c r="G25" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="H25" s="8">
+      <c r="G25" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H25" s="7">
         <v>20000000000</v>
       </c>
-      <c r="I25" s="8">
+      <c r="I25" s="7">
         <v>20000000000</v>
       </c>
-      <c r="J25" s="7">
+      <c r="J25" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"SAVING",interestRate!$D:$D,Saving!F25,interestRate!$B:$B,Saving!G25)</f>
         <v>7.7000000000000027E-2</v>
       </c>
-      <c r="K25" s="5" t="s">
+      <c r="K25" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -7643,30 +7733,30 @@
       <c r="C26">
         <v>3</v>
       </c>
-      <c r="D26" s="6">
+      <c r="D26" s="5">
         <v>44982</v>
       </c>
-      <c r="E26" s="6">
+      <c r="E26" s="5">
         <f t="shared" si="0"/>
         <v>46078</v>
       </c>
       <c r="F26">
         <v>36</v>
       </c>
-      <c r="G26" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="H26" s="8">
+      <c r="G26" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H26" s="7">
         <v>6000000000</v>
       </c>
-      <c r="I26" s="8">
+      <c r="I26" s="7">
         <v>6000000000</v>
       </c>
-      <c r="J26" s="7">
+      <c r="J26" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"SAVING",interestRate!$D:$D,Saving!F26,interestRate!$B:$B,Saving!G26)</f>
         <v>7.1000000000000021E-2</v>
       </c>
-      <c r="K26" s="5" t="s">
+      <c r="K26" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -7680,30 +7770,30 @@
       <c r="C27">
         <v>3</v>
       </c>
-      <c r="D27" s="6">
+      <c r="D27" s="5">
         <v>44927</v>
       </c>
-      <c r="E27" s="6">
+      <c r="E27" s="5">
         <f t="shared" si="0"/>
         <v>45658</v>
       </c>
       <c r="F27">
         <v>24</v>
       </c>
-      <c r="G27" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="H27" s="8">
+      <c r="G27" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H27" s="7">
         <v>200000000</v>
       </c>
-      <c r="I27" s="8">
+      <c r="I27" s="7">
         <v>200000000</v>
       </c>
-      <c r="J27" s="7">
+      <c r="J27" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"SAVING",interestRate!$D:$D,Saving!F27,interestRate!$B:$B,Saving!G27)</f>
         <v>6.8000000000000019E-2</v>
       </c>
-      <c r="K27" s="5" t="s">
+      <c r="K27" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -7717,30 +7807,30 @@
       <c r="C28">
         <v>1</v>
       </c>
-      <c r="D28" s="6">
+      <c r="D28" s="5">
         <v>44846</v>
       </c>
-      <c r="E28" s="6">
+      <c r="E28" s="5">
         <f t="shared" si="0"/>
         <v>45211</v>
       </c>
       <c r="F28">
         <v>12</v>
       </c>
-      <c r="G28" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="H28" s="8">
+      <c r="G28" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H28" s="7">
         <v>8500000000</v>
       </c>
-      <c r="I28" s="8">
+      <c r="I28" s="7">
         <v>8500000000</v>
       </c>
-      <c r="J28" s="7">
+      <c r="J28" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"SAVING",interestRate!$D:$D,Saving!F28,interestRate!$B:$B,Saving!G28)</f>
         <v>5.9000000000000011E-2</v>
       </c>
-      <c r="K28" s="5" t="s">
+      <c r="K28" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -7754,30 +7844,30 @@
       <c r="C29">
         <v>3</v>
       </c>
-      <c r="D29" s="6">
+      <c r="D29" s="5">
         <v>44970</v>
       </c>
-      <c r="E29" s="6">
+      <c r="E29" s="5">
         <f t="shared" si="0"/>
         <v>45517</v>
       </c>
       <c r="F29">
         <v>18</v>
       </c>
-      <c r="G29" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="H29" s="8">
+      <c r="G29" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H29" s="7">
         <v>6000000000</v>
       </c>
-      <c r="I29" s="8">
+      <c r="I29" s="7">
         <v>6000000000</v>
       </c>
-      <c r="J29" s="7">
+      <c r="J29" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"SAVING",interestRate!$D:$D,Saving!F29,interestRate!$B:$B,Saving!G29)</f>
         <v>6.5000000000000016E-2</v>
       </c>
-      <c r="K29" s="5" t="s">
+      <c r="K29" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -7791,30 +7881,30 @@
       <c r="C30">
         <v>3</v>
       </c>
-      <c r="D30" s="6">
+      <c r="D30" s="5">
         <v>44884</v>
       </c>
-      <c r="E30" s="6">
+      <c r="E30" s="5">
         <f t="shared" si="0"/>
         <v>45249</v>
       </c>
       <c r="F30">
         <v>12</v>
       </c>
-      <c r="G30" s="5" t="s">
+      <c r="G30" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="H30" s="8">
+      <c r="H30" s="7">
         <v>200000</v>
       </c>
-      <c r="I30" s="8">
+      <c r="I30" s="7">
         <v>4700000000</v>
       </c>
-      <c r="J30" s="7">
+      <c r="J30" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"SAVING",interestRate!$D:$D,Saving!F30,interestRate!$B:$B,Saving!G30)</f>
         <v>0</v>
       </c>
-      <c r="K30" s="5" t="s">
+      <c r="K30" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -7828,30 +7918,30 @@
       <c r="C31">
         <v>3</v>
       </c>
-      <c r="D31" s="6">
+      <c r="D31" s="5">
         <v>44906</v>
       </c>
-      <c r="E31" s="6">
+      <c r="E31" s="5">
         <f t="shared" si="0"/>
         <v>45271</v>
       </c>
       <c r="F31">
         <v>12</v>
       </c>
-      <c r="G31" s="5" t="s">
+      <c r="G31" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="H31" s="8">
+      <c r="H31" s="7">
         <v>200001</v>
       </c>
-      <c r="I31" s="8">
+      <c r="I31" s="7">
         <v>4700023500</v>
       </c>
-      <c r="J31" s="7">
+      <c r="J31" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"SAVING",interestRate!$D:$D,Saving!F31,interestRate!$B:$B,Saving!G31)</f>
         <v>0</v>
       </c>
-      <c r="K31" s="5" t="s">
+      <c r="K31" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -7865,30 +7955,30 @@
       <c r="C32">
         <v>1</v>
       </c>
-      <c r="D32" s="6">
+      <c r="D32" s="5">
         <v>44849</v>
       </c>
-      <c r="E32" s="6">
+      <c r="E32" s="5">
         <f t="shared" si="0"/>
         <v>45031</v>
       </c>
       <c r="F32">
         <v>6</v>
       </c>
-      <c r="G32" s="5" t="s">
+      <c r="G32" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="H32" s="8">
+      <c r="H32" s="7">
         <v>200002</v>
       </c>
-      <c r="I32" s="8">
+      <c r="I32" s="7">
         <v>4700047000</v>
       </c>
-      <c r="J32" s="7">
+      <c r="J32" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"SAVING",interestRate!$D:$D,Saving!F32,interestRate!$B:$B,Saving!G32)</f>
         <v>0</v>
       </c>
-      <c r="K32" s="5" t="s">
+      <c r="K32" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -7902,30 +7992,30 @@
       <c r="C33">
         <v>2</v>
       </c>
-      <c r="D33" s="6">
+      <c r="D33" s="5">
         <v>44887</v>
       </c>
-      <c r="E33" s="6">
+      <c r="E33" s="5">
         <f t="shared" si="0"/>
         <v>46348</v>
       </c>
       <c r="F33">
         <v>48</v>
       </c>
-      <c r="G33" s="5" t="s">
+      <c r="G33" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="H33" s="8">
+      <c r="H33" s="7">
         <v>200003</v>
       </c>
-      <c r="I33" s="8">
+      <c r="I33" s="7">
         <v>4700070500</v>
       </c>
-      <c r="J33" s="7">
+      <c r="J33" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"SAVING",interestRate!$D:$D,Saving!F33,interestRate!$B:$B,Saving!G33)</f>
         <v>0</v>
       </c>
-      <c r="K33" s="5" t="s">
+      <c r="K33" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -7939,30 +8029,30 @@
       <c r="C34">
         <v>3</v>
       </c>
-      <c r="D34" s="6">
+      <c r="D34" s="5">
         <v>45029</v>
       </c>
-      <c r="E34" s="6">
+      <c r="E34" s="5">
         <f t="shared" si="0"/>
         <v>45486</v>
       </c>
       <c r="F34">
         <v>15</v>
       </c>
-      <c r="G34" s="5" t="s">
+      <c r="G34" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="H34" s="8">
+      <c r="H34" s="7">
         <v>200004</v>
       </c>
-      <c r="I34" s="8">
+      <c r="I34" s="7">
         <v>4700094000</v>
       </c>
-      <c r="J34" s="7">
+      <c r="J34" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"SAVING",interestRate!$D:$D,Saving!F34,interestRate!$B:$B,Saving!G34)</f>
         <v>0</v>
       </c>
-      <c r="K34" s="5" t="s">
+      <c r="K34" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -7976,30 +8066,30 @@
       <c r="C35">
         <v>1</v>
       </c>
-      <c r="D35" s="6">
+      <c r="D35" s="5">
         <v>44841</v>
       </c>
-      <c r="E35" s="6">
+      <c r="E35" s="5">
         <f t="shared" si="0"/>
         <v>45023</v>
       </c>
       <c r="F35">
         <v>6</v>
       </c>
-      <c r="G35" s="5" t="s">
+      <c r="G35" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="H35" s="8">
+      <c r="H35" s="7">
         <v>200005</v>
       </c>
-      <c r="I35" s="8">
+      <c r="I35" s="7">
         <v>4700117500</v>
       </c>
-      <c r="J35" s="7">
+      <c r="J35" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"SAVING",interestRate!$D:$D,Saving!F35,interestRate!$B:$B,Saving!G35)</f>
         <v>0</v>
       </c>
-      <c r="K35" s="5" t="s">
+      <c r="K35" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -8013,30 +8103,30 @@
       <c r="C36">
         <v>2</v>
       </c>
-      <c r="D36" s="6">
+      <c r="D36" s="5">
         <v>45026</v>
       </c>
-      <c r="E36" s="6">
+      <c r="E36" s="5">
         <f t="shared" si="0"/>
         <v>45117</v>
       </c>
       <c r="F36">
         <v>3</v>
       </c>
-      <c r="G36" s="5" t="s">
+      <c r="G36" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="H36" s="8">
+      <c r="H36" s="7">
         <v>200006</v>
       </c>
-      <c r="I36" s="8">
+      <c r="I36" s="7">
         <v>4700141000</v>
       </c>
-      <c r="J36" s="7">
+      <c r="J36" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"SAVING",interestRate!$D:$D,Saving!F36,interestRate!$B:$B,Saving!G36)</f>
         <v>0</v>
       </c>
-      <c r="K36" s="5" t="s">
+      <c r="K36" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -8050,30 +8140,30 @@
       <c r="C37">
         <v>1</v>
       </c>
-      <c r="D37" s="6">
+      <c r="D37" s="5">
         <v>45024</v>
       </c>
-      <c r="E37" s="6">
+      <c r="E37" s="5">
         <f t="shared" si="0"/>
         <v>45755</v>
       </c>
       <c r="F37">
         <v>24</v>
       </c>
-      <c r="G37" s="5" t="s">
+      <c r="G37" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="H37" s="8">
+      <c r="H37" s="7">
         <v>200007</v>
       </c>
-      <c r="I37" s="8">
+      <c r="I37" s="7">
         <v>4700164500</v>
       </c>
-      <c r="J37" s="7">
+      <c r="J37" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"SAVING",interestRate!$D:$D,Saving!F37,interestRate!$B:$B,Saving!G37)</f>
         <v>0</v>
       </c>
-      <c r="K37" s="5" t="s">
+      <c r="K37" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -8087,30 +8177,30 @@
       <c r="C38">
         <v>3</v>
       </c>
-      <c r="D38" s="6">
+      <c r="D38" s="5">
         <v>44859</v>
       </c>
-      <c r="E38" s="6">
+      <c r="E38" s="5">
         <f t="shared" si="0"/>
         <v>45955</v>
       </c>
       <c r="F38">
         <v>36</v>
       </c>
-      <c r="G38" s="5" t="s">
+      <c r="G38" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="H38" s="8">
+      <c r="H38" s="7">
         <v>200008</v>
       </c>
-      <c r="I38" s="8">
+      <c r="I38" s="7">
         <v>4700188000</v>
       </c>
-      <c r="J38" s="7">
+      <c r="J38" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"SAVING",interestRate!$D:$D,Saving!F38,interestRate!$B:$B,Saving!G38)</f>
         <v>0</v>
       </c>
-      <c r="K38" s="5" t="s">
+      <c r="K38" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -8124,30 +8214,30 @@
       <c r="C39">
         <v>3</v>
       </c>
-      <c r="D39" s="6">
+      <c r="D39" s="5">
         <v>45023</v>
       </c>
-      <c r="E39" s="6">
+      <c r="E39" s="5">
         <f t="shared" si="0"/>
         <v>46484</v>
       </c>
       <c r="F39">
         <v>48</v>
       </c>
-      <c r="G39" s="5" t="s">
+      <c r="G39" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="H39" s="8">
+      <c r="H39" s="7">
         <v>200009</v>
       </c>
-      <c r="I39" s="8">
+      <c r="I39" s="7">
         <v>4700211500</v>
       </c>
-      <c r="J39" s="7">
+      <c r="J39" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"SAVING",interestRate!$D:$D,Saving!F39,interestRate!$B:$B,Saving!G39)</f>
         <v>0</v>
       </c>
-      <c r="K39" s="5" t="s">
+      <c r="K39" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -8161,30 +8251,30 @@
       <c r="C40">
         <v>3</v>
       </c>
-      <c r="D40" s="6">
+      <c r="D40" s="5">
         <v>45034</v>
       </c>
-      <c r="E40" s="6">
+      <c r="E40" s="5">
         <f t="shared" si="0"/>
         <v>46861</v>
       </c>
       <c r="F40">
         <v>60</v>
       </c>
-      <c r="G40" s="5" t="s">
+      <c r="G40" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="H40" s="8">
+      <c r="H40" s="7">
         <v>200010</v>
       </c>
-      <c r="I40" s="8">
+      <c r="I40" s="7">
         <v>4700235000</v>
       </c>
-      <c r="J40" s="7">
+      <c r="J40" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"SAVING",interestRate!$D:$D,Saving!F40,interestRate!$B:$B,Saving!G40)</f>
         <v>0</v>
       </c>
-      <c r="K40" s="5" t="s">
+      <c r="K40" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -8198,30 +8288,30 @@
       <c r="C41">
         <v>2</v>
       </c>
-      <c r="D41" s="6">
+      <c r="D41" s="5">
         <v>44854</v>
       </c>
-      <c r="E41" s="6">
+      <c r="E41" s="5">
         <f t="shared" si="0"/>
         <v>45585</v>
       </c>
       <c r="F41">
         <v>24</v>
       </c>
-      <c r="G41" s="5" t="s">
+      <c r="G41" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="H41" s="8">
+      <c r="H41" s="7">
         <v>200011</v>
       </c>
-      <c r="I41" s="8">
+      <c r="I41" s="7">
         <v>4700258500</v>
       </c>
-      <c r="J41" s="7">
+      <c r="J41" s="6">
         <f>SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"SAVING",interestRate!$D:$D,Saving!F41,interestRate!$B:$B,Saving!G41)</f>
         <v>0</v>
       </c>
-      <c r="K41" s="5" t="s">
+      <c r="K41" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -8247,27 +8337,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>215</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A2" s="6">
-        <v>44926</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="C2" s="5" t="s">
+      <c r="A2" s="5">
+        <v>44926</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>81</v>
       </c>
       <c r="D2">
@@ -8275,13 +8365,13 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A3" s="6">
-        <v>44926</v>
-      </c>
-      <c r="B3" s="5" t="s">
+      <c r="A3" s="5">
+        <v>44926</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>81</v>
       </c>
       <c r="D3">
@@ -8289,13 +8379,13 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A4" s="6">
-        <v>44926</v>
-      </c>
-      <c r="B4" s="14" t="s">
+      <c r="A4" s="5">
+        <v>44926</v>
+      </c>
+      <c r="B4" s="13" t="s">
         <v>213</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>81</v>
       </c>
       <c r="D4">
@@ -8303,13 +8393,13 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A5" s="6">
-        <v>44926</v>
-      </c>
-      <c r="B5" s="15" t="s">
+      <c r="A5" s="5">
+        <v>44926</v>
+      </c>
+      <c r="B5" s="14" t="s">
         <v>216</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>81</v>
       </c>
       <c r="D5">
@@ -8317,13 +8407,13 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A6" s="6">
-        <v>44926</v>
-      </c>
-      <c r="B6" s="15" t="s">
+      <c r="A6" s="5">
+        <v>44926</v>
+      </c>
+      <c r="B6" s="14" t="s">
         <v>217</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>81</v>
       </c>
       <c r="D6">
@@ -8331,13 +8421,13 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A7" s="6">
-        <v>44926</v>
-      </c>
-      <c r="B7" s="15" t="s">
+      <c r="A7" s="5">
+        <v>44926</v>
+      </c>
+      <c r="B7" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>81</v>
       </c>
       <c r="D7">
@@ -8345,13 +8435,13 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A8" s="6">
-        <v>44926</v>
-      </c>
-      <c r="B8" s="15" t="s">
+      <c r="A8" s="5">
+        <v>44926</v>
+      </c>
+      <c r="B8" s="14" t="s">
         <v>218</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>81</v>
       </c>
       <c r="D8">
@@ -8359,13 +8449,13 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A9" s="6">
-        <v>44926</v>
-      </c>
-      <c r="B9" s="15" t="s">
+      <c r="A9" s="5">
+        <v>44926</v>
+      </c>
+      <c r="B9" s="14" t="s">
         <v>219</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>81</v>
       </c>
       <c r="D9">
@@ -8373,13 +8463,13 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A10" s="6">
-        <v>44926</v>
-      </c>
-      <c r="B10" s="15" t="s">
+      <c r="A10" s="5">
+        <v>44926</v>
+      </c>
+      <c r="B10" s="14" t="s">
         <v>220</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="4" t="s">
         <v>81</v>
       </c>
       <c r="D10">
@@ -8387,13 +8477,13 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A11" s="6">
-        <v>44926</v>
-      </c>
-      <c r="B11" s="15" t="s">
+      <c r="A11" s="5">
+        <v>44926</v>
+      </c>
+      <c r="B11" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="4" t="s">
         <v>81</v>
       </c>
       <c r="D11">
@@ -8401,13 +8491,13 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A12" s="6">
-        <v>44926</v>
-      </c>
-      <c r="B12" s="15" t="s">
+      <c r="A12" s="5">
+        <v>44926</v>
+      </c>
+      <c r="B12" s="14" t="s">
         <v>222</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="4" t="s">
         <v>81</v>
       </c>
       <c r="D12">
@@ -8415,13 +8505,13 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A13" s="6">
-        <v>44926</v>
-      </c>
-      <c r="B13" s="15" t="s">
+      <c r="A13" s="5">
+        <v>44926</v>
+      </c>
+      <c r="B13" s="14" t="s">
         <v>223</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="4" t="s">
         <v>81</v>
       </c>
       <c r="D13">
@@ -8448,11 +8538,11 @@
     <col min="3" max="3" width="12.796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.19921875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.53125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.59765625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.59765625" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>215</v>
       </c>
       <c r="B1" t="s">
@@ -8467,12 +8557,12 @@
       <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A2" s="6">
+      <c r="A2" s="5">
         <v>44926</v>
       </c>
       <c r="B2" t="s">
@@ -8487,12 +8577,12 @@
       <c r="E2" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="6">
         <v>0.08</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A3" s="6">
+      <c r="A3" s="5">
         <v>44926</v>
       </c>
       <c r="B3" t="s">
@@ -8507,13 +8597,13 @@
       <c r="E3" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="6">
         <f t="shared" ref="F3:F15" si="0">F2+0.4%</f>
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A4" s="6">
+      <c r="A4" s="5">
         <v>44926</v>
       </c>
       <c r="B4" t="s">
@@ -8528,13 +8618,13 @@
       <c r="E4" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="6">
         <f t="shared" si="0"/>
         <v>8.8000000000000009E-2</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A5" s="6">
+      <c r="A5" s="5">
         <v>44926</v>
       </c>
       <c r="B5" t="s">
@@ -8549,13 +8639,13 @@
       <c r="E5" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="6">
         <f t="shared" si="0"/>
         <v>9.2000000000000012E-2</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A6" s="6">
+      <c r="A6" s="5">
         <v>44926</v>
       </c>
       <c r="B6" t="s">
@@ -8570,13 +8660,13 @@
       <c r="E6" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="6">
         <f t="shared" si="0"/>
         <v>9.6000000000000016E-2</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A7" s="6">
+      <c r="A7" s="5">
         <v>44926</v>
       </c>
       <c r="B7" t="s">
@@ -8591,13 +8681,13 @@
       <c r="E7" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="6">
         <f t="shared" si="0"/>
         <v>0.10000000000000002</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A8" s="6">
+      <c r="A8" s="5">
         <v>44926</v>
       </c>
       <c r="B8" t="s">
@@ -8612,13 +8702,13 @@
       <c r="E8" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="6">
         <f t="shared" si="0"/>
         <v>0.10400000000000002</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A9" s="6">
+      <c r="A9" s="5">
         <v>44926</v>
       </c>
       <c r="B9" t="s">
@@ -8633,13 +8723,13 @@
       <c r="E9" t="s">
         <v>6</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="6">
         <f t="shared" si="0"/>
         <v>0.10800000000000003</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A10" s="6">
+      <c r="A10" s="5">
         <v>44926</v>
       </c>
       <c r="B10" t="s">
@@ -8654,13 +8744,13 @@
       <c r="E10" t="s">
         <v>6</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="6">
         <f t="shared" si="0"/>
         <v>0.11200000000000003</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A11" s="6">
+      <c r="A11" s="5">
         <v>44926</v>
       </c>
       <c r="B11" t="s">
@@ -8675,13 +8765,13 @@
       <c r="E11" t="s">
         <v>6</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="6">
         <f t="shared" si="0"/>
         <v>0.11600000000000003</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A12" s="6">
+      <c r="A12" s="5">
         <v>44926</v>
       </c>
       <c r="B12" t="s">
@@ -8696,13 +8786,13 @@
       <c r="E12" t="s">
         <v>6</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="6">
         <f t="shared" si="0"/>
         <v>0.12000000000000004</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A13" s="6">
+      <c r="A13" s="5">
         <v>44926</v>
       </c>
       <c r="B13" t="s">
@@ -8717,13 +8807,13 @@
       <c r="E13" t="s">
         <v>6</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13" s="6">
         <f t="shared" si="0"/>
         <v>0.12400000000000004</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A14" s="6">
+      <c r="A14" s="5">
         <v>44926</v>
       </c>
       <c r="B14" t="s">
@@ -8738,13 +8828,13 @@
       <c r="E14" t="s">
         <v>6</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="6">
         <f t="shared" si="0"/>
         <v>0.12800000000000003</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A15" s="6">
+      <c r="A15" s="5">
         <v>44926</v>
       </c>
       <c r="B15" t="s">
@@ -8759,13 +8849,13 @@
       <c r="E15" t="s">
         <v>6</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F15" s="6">
         <f t="shared" si="0"/>
         <v>0.13200000000000003</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A16" s="6">
+      <c r="A16" s="5">
         <v>44926</v>
       </c>
       <c r="B16" t="s">
@@ -8780,13 +8870,13 @@
       <c r="E16" t="s">
         <v>9</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16" s="6">
         <f t="shared" ref="F16:F43" si="1">F2+0.5%</f>
         <v>8.5000000000000006E-2</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A17" s="6">
+      <c r="A17" s="5">
         <v>44926</v>
       </c>
       <c r="B17" t="s">
@@ -8801,13 +8891,13 @@
       <c r="E17" t="s">
         <v>9</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F17" s="6">
         <f t="shared" si="1"/>
         <v>8.900000000000001E-2</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A18" s="6">
+      <c r="A18" s="5">
         <v>44926</v>
       </c>
       <c r="B18" t="s">
@@ -8822,13 +8912,13 @@
       <c r="E18" t="s">
         <v>9</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F18" s="6">
         <f t="shared" si="1"/>
         <v>9.3000000000000013E-2</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A19" s="6">
+      <c r="A19" s="5">
         <v>44926</v>
       </c>
       <c r="B19" t="s">
@@ -8843,13 +8933,13 @@
       <c r="E19" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="7">
+      <c r="F19" s="6">
         <f t="shared" si="1"/>
         <v>9.7000000000000017E-2</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A20" s="6">
+      <c r="A20" s="5">
         <v>44926</v>
       </c>
       <c r="B20" t="s">
@@ -8864,13 +8954,13 @@
       <c r="E20" t="s">
         <v>9</v>
       </c>
-      <c r="F20" s="7">
+      <c r="F20" s="6">
         <f t="shared" si="1"/>
         <v>0.10100000000000002</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A21" s="6">
+      <c r="A21" s="5">
         <v>44926</v>
       </c>
       <c r="B21" t="s">
@@ -8885,13 +8975,13 @@
       <c r="E21" t="s">
         <v>9</v>
       </c>
-      <c r="F21" s="7">
+      <c r="F21" s="6">
         <f t="shared" si="1"/>
         <v>0.10500000000000002</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A22" s="6">
+      <c r="A22" s="5">
         <v>44926</v>
       </c>
       <c r="B22" t="s">
@@ -8906,13 +8996,13 @@
       <c r="E22" t="s">
         <v>9</v>
       </c>
-      <c r="F22" s="7">
+      <c r="F22" s="6">
         <f t="shared" si="1"/>
         <v>0.10900000000000003</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A23" s="6">
+      <c r="A23" s="5">
         <v>44926</v>
       </c>
       <c r="B23" t="s">
@@ -8927,13 +9017,13 @@
       <c r="E23" t="s">
         <v>9</v>
       </c>
-      <c r="F23" s="7">
+      <c r="F23" s="6">
         <f t="shared" si="1"/>
         <v>0.11300000000000003</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A24" s="6">
+      <c r="A24" s="5">
         <v>44926</v>
       </c>
       <c r="B24" t="s">
@@ -8948,13 +9038,13 @@
       <c r="E24" t="s">
         <v>9</v>
       </c>
-      <c r="F24" s="7">
+      <c r="F24" s="6">
         <f t="shared" si="1"/>
         <v>0.11700000000000003</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A25" s="6">
+      <c r="A25" s="5">
         <v>44926</v>
       </c>
       <c r="B25" t="s">
@@ -8969,13 +9059,13 @@
       <c r="E25" t="s">
         <v>9</v>
       </c>
-      <c r="F25" s="7">
+      <c r="F25" s="6">
         <f t="shared" si="1"/>
         <v>0.12100000000000004</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A26" s="6">
+      <c r="A26" s="5">
         <v>44926</v>
       </c>
       <c r="B26" t="s">
@@ -8990,13 +9080,13 @@
       <c r="E26" t="s">
         <v>9</v>
       </c>
-      <c r="F26" s="7">
+      <c r="F26" s="6">
         <f t="shared" si="1"/>
         <v>0.12500000000000003</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A27" s="6">
+      <c r="A27" s="5">
         <v>44926</v>
       </c>
       <c r="B27" t="s">
@@ -9011,13 +9101,13 @@
       <c r="E27" t="s">
         <v>9</v>
       </c>
-      <c r="F27" s="7">
+      <c r="F27" s="6">
         <f t="shared" si="1"/>
         <v>0.12900000000000003</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A28" s="6">
+      <c r="A28" s="5">
         <v>44926</v>
       </c>
       <c r="B28" t="s">
@@ -9032,13 +9122,13 @@
       <c r="E28" t="s">
         <v>9</v>
       </c>
-      <c r="F28" s="7">
+      <c r="F28" s="6">
         <f t="shared" si="1"/>
         <v>0.13300000000000003</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A29" s="6">
+      <c r="A29" s="5">
         <v>44926</v>
       </c>
       <c r="B29" t="s">
@@ -9053,13 +9143,13 @@
       <c r="E29" t="s">
         <v>9</v>
       </c>
-      <c r="F29" s="7">
+      <c r="F29" s="6">
         <f t="shared" si="1"/>
         <v>0.13700000000000004</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A30" s="6">
+      <c r="A30" s="5">
         <v>44926</v>
       </c>
       <c r="B30" t="s">
@@ -9071,16 +9161,16 @@
       <c r="D30">
         <v>3</v>
       </c>
-      <c r="E30" s="13" t="s">
+      <c r="E30" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F30" s="7">
+      <c r="F30" s="6">
         <f t="shared" si="1"/>
         <v>9.0000000000000011E-2</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A31" s="6">
+      <c r="A31" s="5">
         <v>44926</v>
       </c>
       <c r="B31" t="s">
@@ -9092,16 +9182,16 @@
       <c r="D31">
         <v>6</v>
       </c>
-      <c r="E31" s="13" t="s">
+      <c r="E31" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F31" s="7">
+      <c r="F31" s="6">
         <f t="shared" si="1"/>
         <v>9.4000000000000014E-2</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A32" s="6">
+      <c r="A32" s="5">
         <v>44926</v>
       </c>
       <c r="B32" t="s">
@@ -9113,16 +9203,16 @@
       <c r="D32">
         <v>9</v>
       </c>
-      <c r="E32" s="13" t="s">
+      <c r="E32" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F32" s="7">
+      <c r="F32" s="6">
         <f t="shared" si="1"/>
         <v>9.8000000000000018E-2</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A33" s="6">
+      <c r="A33" s="5">
         <v>44926</v>
       </c>
       <c r="B33" t="s">
@@ -9134,16 +9224,16 @@
       <c r="D33">
         <v>12</v>
       </c>
-      <c r="E33" s="13" t="s">
+      <c r="E33" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F33" s="7">
+      <c r="F33" s="6">
         <f t="shared" si="1"/>
         <v>0.10200000000000002</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A34" s="6">
+      <c r="A34" s="5">
         <v>44926</v>
       </c>
       <c r="B34" t="s">
@@ -9155,16 +9245,16 @@
       <c r="D34">
         <v>15</v>
       </c>
-      <c r="E34" s="13" t="s">
+      <c r="E34" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F34" s="7">
+      <c r="F34" s="6">
         <f t="shared" si="1"/>
         <v>0.10600000000000002</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A35" s="6">
+      <c r="A35" s="5">
         <v>44926</v>
       </c>
       <c r="B35" t="s">
@@ -9176,16 +9266,16 @@
       <c r="D35">
         <v>18</v>
       </c>
-      <c r="E35" s="13" t="s">
+      <c r="E35" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F35" s="7">
+      <c r="F35" s="6">
         <f t="shared" si="1"/>
         <v>0.11000000000000003</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A36" s="6">
+      <c r="A36" s="5">
         <v>44926</v>
       </c>
       <c r="B36" t="s">
@@ -9197,16 +9287,16 @@
       <c r="D36">
         <v>24</v>
       </c>
-      <c r="E36" s="13" t="s">
+      <c r="E36" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F36" s="7">
+      <c r="F36" s="6">
         <f t="shared" si="1"/>
         <v>0.11400000000000003</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A37" s="6">
+      <c r="A37" s="5">
         <v>44926</v>
       </c>
       <c r="B37" t="s">
@@ -9218,16 +9308,16 @@
       <c r="D37">
         <v>36</v>
       </c>
-      <c r="E37" s="13" t="s">
+      <c r="E37" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F37" s="7">
+      <c r="F37" s="6">
         <f t="shared" si="1"/>
         <v>0.11800000000000004</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A38" s="6">
+      <c r="A38" s="5">
         <v>44926</v>
       </c>
       <c r="B38" t="s">
@@ -9239,16 +9329,16 @@
       <c r="D38">
         <v>48</v>
       </c>
-      <c r="E38" s="13" t="s">
+      <c r="E38" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F38" s="7">
+      <c r="F38" s="6">
         <f t="shared" si="1"/>
         <v>0.12200000000000004</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A39" s="6">
+      <c r="A39" s="5">
         <v>44926</v>
       </c>
       <c r="B39" t="s">
@@ -9260,16 +9350,16 @@
       <c r="D39">
         <v>60</v>
       </c>
-      <c r="E39" s="13" t="s">
+      <c r="E39" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F39" s="7">
+      <c r="F39" s="6">
         <f t="shared" si="1"/>
         <v>0.12600000000000003</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A40" s="6">
+      <c r="A40" s="5">
         <v>44926</v>
       </c>
       <c r="B40" t="s">
@@ -9281,16 +9371,16 @@
       <c r="D40">
         <v>84</v>
       </c>
-      <c r="E40" s="13" t="s">
+      <c r="E40" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F40" s="7">
+      <c r="F40" s="6">
         <f t="shared" si="1"/>
         <v>0.13000000000000003</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A41" s="6">
+      <c r="A41" s="5">
         <v>44926</v>
       </c>
       <c r="B41" t="s">
@@ -9302,16 +9392,16 @@
       <c r="D41">
         <v>120</v>
       </c>
-      <c r="E41" s="13" t="s">
+      <c r="E41" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F41" s="7">
+      <c r="F41" s="6">
         <f t="shared" si="1"/>
         <v>0.13400000000000004</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A42" s="6">
+      <c r="A42" s="5">
         <v>44926</v>
       </c>
       <c r="B42" t="s">
@@ -9323,16 +9413,16 @@
       <c r="D42">
         <v>240</v>
       </c>
-      <c r="E42" s="13" t="s">
+      <c r="E42" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F42" s="7">
+      <c r="F42" s="6">
         <f t="shared" si="1"/>
         <v>0.13800000000000004</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A43" s="6">
+      <c r="A43" s="5">
         <v>44926</v>
       </c>
       <c r="B43" t="s">
@@ -9344,19 +9434,19 @@
       <c r="D43">
         <v>360</v>
       </c>
-      <c r="E43" s="13" t="s">
+      <c r="E43" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F43" s="7">
+      <c r="F43" s="6">
         <f t="shared" si="1"/>
         <v>0.14200000000000004</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A44" s="6">
-        <v>44926</v>
-      </c>
-      <c r="B44" s="13" t="s">
+      <c r="A44" s="5">
+        <v>44926</v>
+      </c>
+      <c r="B44" s="12" t="s">
         <v>82</v>
       </c>
       <c r="C44" t="s">
@@ -9368,15 +9458,15 @@
       <c r="E44" t="s">
         <v>6</v>
       </c>
-      <c r="F44" s="7">
+      <c r="F44" s="6">
         <v>0.03</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A45" s="6">
-        <v>44926</v>
-      </c>
-      <c r="B45" s="13" t="s">
+      <c r="A45" s="5">
+        <v>44926</v>
+      </c>
+      <c r="B45" s="12" t="s">
         <v>82</v>
       </c>
       <c r="C45" t="s">
@@ -9388,16 +9478,16 @@
       <c r="E45" t="s">
         <v>6</v>
       </c>
-      <c r="F45" s="7">
+      <c r="F45" s="6">
         <f t="shared" ref="F45:F57" si="2">F44+0.1%</f>
         <v>3.1E-2</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A46" s="6">
-        <v>44926</v>
-      </c>
-      <c r="B46" s="13" t="s">
+      <c r="A46" s="5">
+        <v>44926</v>
+      </c>
+      <c r="B46" s="12" t="s">
         <v>82</v>
       </c>
       <c r="C46" t="s">
@@ -9409,16 +9499,16 @@
       <c r="E46" t="s">
         <v>6</v>
       </c>
-      <c r="F46" s="7">
+      <c r="F46" s="6">
         <f t="shared" si="2"/>
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A47" s="6">
-        <v>44926</v>
-      </c>
-      <c r="B47" s="13" t="s">
+      <c r="A47" s="5">
+        <v>44926</v>
+      </c>
+      <c r="B47" s="12" t="s">
         <v>82</v>
       </c>
       <c r="C47" t="s">
@@ -9430,16 +9520,16 @@
       <c r="E47" t="s">
         <v>6</v>
       </c>
-      <c r="F47" s="7">
+      <c r="F47" s="6">
         <f t="shared" si="2"/>
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A48" s="6">
-        <v>44926</v>
-      </c>
-      <c r="B48" s="13" t="s">
+      <c r="A48" s="5">
+        <v>44926</v>
+      </c>
+      <c r="B48" s="12" t="s">
         <v>82</v>
       </c>
       <c r="C48" t="s">
@@ -9451,16 +9541,16 @@
       <c r="E48" t="s">
         <v>6</v>
       </c>
-      <c r="F48" s="7">
+      <c r="F48" s="6">
         <f t="shared" si="2"/>
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A49" s="6">
-        <v>44926</v>
-      </c>
-      <c r="B49" s="13" t="s">
+      <c r="A49" s="5">
+        <v>44926</v>
+      </c>
+      <c r="B49" s="12" t="s">
         <v>82</v>
       </c>
       <c r="C49" t="s">
@@ -9472,16 +9562,16 @@
       <c r="E49" t="s">
         <v>6</v>
       </c>
-      <c r="F49" s="7">
+      <c r="F49" s="6">
         <f t="shared" si="2"/>
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A50" s="6">
-        <v>44926</v>
-      </c>
-      <c r="B50" s="13" t="s">
+      <c r="A50" s="5">
+        <v>44926</v>
+      </c>
+      <c r="B50" s="12" t="s">
         <v>82</v>
       </c>
       <c r="C50" t="s">
@@ -9493,16 +9583,16 @@
       <c r="E50" t="s">
         <v>6</v>
       </c>
-      <c r="F50" s="7">
+      <c r="F50" s="6">
         <f t="shared" si="2"/>
         <v>3.6000000000000004E-2</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A51" s="6">
-        <v>44926</v>
-      </c>
-      <c r="B51" s="13" t="s">
+      <c r="A51" s="5">
+        <v>44926</v>
+      </c>
+      <c r="B51" s="12" t="s">
         <v>82</v>
       </c>
       <c r="C51" t="s">
@@ -9514,16 +9604,16 @@
       <c r="E51" t="s">
         <v>6</v>
       </c>
-      <c r="F51" s="7">
+      <c r="F51" s="6">
         <f t="shared" si="2"/>
         <v>3.7000000000000005E-2</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A52" s="6">
-        <v>44926</v>
-      </c>
-      <c r="B52" s="13" t="s">
+      <c r="A52" s="5">
+        <v>44926</v>
+      </c>
+      <c r="B52" s="12" t="s">
         <v>82</v>
       </c>
       <c r="C52" t="s">
@@ -9535,16 +9625,16 @@
       <c r="E52" t="s">
         <v>6</v>
       </c>
-      <c r="F52" s="7">
+      <c r="F52" s="6">
         <f t="shared" si="2"/>
         <v>3.8000000000000006E-2</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A53" s="6">
-        <v>44926</v>
-      </c>
-      <c r="B53" s="13" t="s">
+      <c r="A53" s="5">
+        <v>44926</v>
+      </c>
+      <c r="B53" s="12" t="s">
         <v>82</v>
       </c>
       <c r="C53" t="s">
@@ -9556,16 +9646,16 @@
       <c r="E53" t="s">
         <v>6</v>
       </c>
-      <c r="F53" s="7">
+      <c r="F53" s="6">
         <f t="shared" si="2"/>
         <v>3.9000000000000007E-2</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A54" s="6">
-        <v>44926</v>
-      </c>
-      <c r="B54" s="13" t="s">
+      <c r="A54" s="5">
+        <v>44926</v>
+      </c>
+      <c r="B54" s="12" t="s">
         <v>82</v>
       </c>
       <c r="C54" t="s">
@@ -9577,16 +9667,16 @@
       <c r="E54" t="s">
         <v>6</v>
       </c>
-      <c r="F54" s="7">
+      <c r="F54" s="6">
         <f t="shared" si="2"/>
         <v>4.0000000000000008E-2</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A55" s="6">
-        <v>44926</v>
-      </c>
-      <c r="B55" s="13" t="s">
+      <c r="A55" s="5">
+        <v>44926</v>
+      </c>
+      <c r="B55" s="12" t="s">
         <v>82</v>
       </c>
       <c r="C55" t="s">
@@ -9598,16 +9688,16 @@
       <c r="E55" t="s">
         <v>6</v>
       </c>
-      <c r="F55" s="7">
+      <c r="F55" s="6">
         <f t="shared" si="2"/>
         <v>4.1000000000000009E-2</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A56" s="6">
-        <v>44926</v>
-      </c>
-      <c r="B56" s="13" t="s">
+      <c r="A56" s="5">
+        <v>44926</v>
+      </c>
+      <c r="B56" s="12" t="s">
         <v>82</v>
       </c>
       <c r="C56" t="s">
@@ -9619,16 +9709,16 @@
       <c r="E56" t="s">
         <v>6</v>
       </c>
-      <c r="F56" s="7">
+      <c r="F56" s="6">
         <f t="shared" si="2"/>
         <v>4.200000000000001E-2</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A57" s="6">
-        <v>44926</v>
-      </c>
-      <c r="B57" s="13" t="s">
+      <c r="A57" s="5">
+        <v>44926</v>
+      </c>
+      <c r="B57" s="12" t="s">
         <v>82</v>
       </c>
       <c r="C57" t="s">
@@ -9640,16 +9730,16 @@
       <c r="E57" t="s">
         <v>6</v>
       </c>
-      <c r="F57" s="7">
+      <c r="F57" s="6">
         <f t="shared" si="2"/>
         <v>4.300000000000001E-2</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A58" s="6">
-        <v>44926</v>
-      </c>
-      <c r="B58" s="13" t="s">
+      <c r="A58" s="5">
+        <v>44926</v>
+      </c>
+      <c r="B58" s="12" t="s">
         <v>82</v>
       </c>
       <c r="C58" t="s">
@@ -9661,16 +9751,16 @@
       <c r="E58" t="s">
         <v>9</v>
       </c>
-      <c r="F58" s="7">
+      <c r="F58" s="6">
         <f t="shared" ref="F58:F85" si="3">F44+0.5%</f>
         <v>3.4999999999999996E-2</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A59" s="6">
-        <v>44926</v>
-      </c>
-      <c r="B59" s="13" t="s">
+      <c r="A59" s="5">
+        <v>44926</v>
+      </c>
+      <c r="B59" s="12" t="s">
         <v>82</v>
       </c>
       <c r="C59" t="s">
@@ -9682,16 +9772,16 @@
       <c r="E59" t="s">
         <v>9</v>
       </c>
-      <c r="F59" s="7">
+      <c r="F59" s="6">
         <f t="shared" si="3"/>
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A60" s="6">
-        <v>44926</v>
-      </c>
-      <c r="B60" s="13" t="s">
+      <c r="A60" s="5">
+        <v>44926</v>
+      </c>
+      <c r="B60" s="12" t="s">
         <v>82</v>
       </c>
       <c r="C60" t="s">
@@ -9703,16 +9793,16 @@
       <c r="E60" t="s">
         <v>9</v>
       </c>
-      <c r="F60" s="7">
+      <c r="F60" s="6">
         <f t="shared" si="3"/>
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A61" s="6">
-        <v>44926</v>
-      </c>
-      <c r="B61" s="13" t="s">
+      <c r="A61" s="5">
+        <v>44926</v>
+      </c>
+      <c r="B61" s="12" t="s">
         <v>82</v>
       </c>
       <c r="C61" t="s">
@@ -9724,16 +9814,16 @@
       <c r="E61" t="s">
         <v>9</v>
       </c>
-      <c r="F61" s="7">
+      <c r="F61" s="6">
         <f t="shared" si="3"/>
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A62" s="6">
-        <v>44926</v>
-      </c>
-      <c r="B62" s="13" t="s">
+      <c r="A62" s="5">
+        <v>44926</v>
+      </c>
+      <c r="B62" s="12" t="s">
         <v>82</v>
       </c>
       <c r="C62" t="s">
@@ -9745,16 +9835,16 @@
       <c r="E62" t="s">
         <v>9</v>
       </c>
-      <c r="F62" s="7">
+      <c r="F62" s="6">
         <f t="shared" si="3"/>
         <v>3.9E-2</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A63" s="6">
-        <v>44926</v>
-      </c>
-      <c r="B63" s="13" t="s">
+      <c r="A63" s="5">
+        <v>44926</v>
+      </c>
+      <c r="B63" s="12" t="s">
         <v>82</v>
       </c>
       <c r="C63" t="s">
@@ -9766,16 +9856,16 @@
       <c r="E63" t="s">
         <v>9</v>
       </c>
-      <c r="F63" s="7">
+      <c r="F63" s="6">
         <f t="shared" si="3"/>
         <v>0.04</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A64" s="6">
-        <v>44926</v>
-      </c>
-      <c r="B64" s="13" t="s">
+      <c r="A64" s="5">
+        <v>44926</v>
+      </c>
+      <c r="B64" s="12" t="s">
         <v>82</v>
       </c>
       <c r="C64" t="s">
@@ -9787,16 +9877,16 @@
       <c r="E64" t="s">
         <v>9</v>
       </c>
-      <c r="F64" s="7">
+      <c r="F64" s="6">
         <f t="shared" si="3"/>
         <v>4.1000000000000002E-2</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A65" s="6">
-        <v>44926</v>
-      </c>
-      <c r="B65" s="13" t="s">
+      <c r="A65" s="5">
+        <v>44926</v>
+      </c>
+      <c r="B65" s="12" t="s">
         <v>82</v>
       </c>
       <c r="C65" t="s">
@@ -9808,16 +9898,16 @@
       <c r="E65" t="s">
         <v>9</v>
       </c>
-      <c r="F65" s="7">
+      <c r="F65" s="6">
         <f t="shared" si="3"/>
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A66" s="6">
-        <v>44926</v>
-      </c>
-      <c r="B66" s="13" t="s">
+      <c r="A66" s="5">
+        <v>44926</v>
+      </c>
+      <c r="B66" s="12" t="s">
         <v>82</v>
       </c>
       <c r="C66" t="s">
@@ -9829,16 +9919,16 @@
       <c r="E66" t="s">
         <v>9</v>
       </c>
-      <c r="F66" s="7">
+      <c r="F66" s="6">
         <f t="shared" si="3"/>
         <v>4.3000000000000003E-2</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A67" s="6">
-        <v>44926</v>
-      </c>
-      <c r="B67" s="13" t="s">
+      <c r="A67" s="5">
+        <v>44926</v>
+      </c>
+      <c r="B67" s="12" t="s">
         <v>82</v>
       </c>
       <c r="C67" t="s">
@@ -9850,16 +9940,16 @@
       <c r="E67" t="s">
         <v>9</v>
       </c>
-      <c r="F67" s="7">
+      <c r="F67" s="6">
         <f t="shared" si="3"/>
         <v>4.4000000000000004E-2</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A68" s="6">
-        <v>44926</v>
-      </c>
-      <c r="B68" s="13" t="s">
+      <c r="A68" s="5">
+        <v>44926</v>
+      </c>
+      <c r="B68" s="12" t="s">
         <v>82</v>
       </c>
       <c r="C68" t="s">
@@ -9871,16 +9961,16 @@
       <c r="E68" t="s">
         <v>9</v>
       </c>
-      <c r="F68" s="7">
+      <c r="F68" s="6">
         <f t="shared" si="3"/>
         <v>4.5000000000000005E-2</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A69" s="6">
-        <v>44926</v>
-      </c>
-      <c r="B69" s="13" t="s">
+      <c r="A69" s="5">
+        <v>44926</v>
+      </c>
+      <c r="B69" s="12" t="s">
         <v>82</v>
       </c>
       <c r="C69" t="s">
@@ -9892,16 +9982,16 @@
       <c r="E69" t="s">
         <v>9</v>
       </c>
-      <c r="F69" s="7">
+      <c r="F69" s="6">
         <f t="shared" si="3"/>
         <v>4.6000000000000006E-2</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A70" s="6">
-        <v>44926</v>
-      </c>
-      <c r="B70" s="13" t="s">
+      <c r="A70" s="5">
+        <v>44926</v>
+      </c>
+      <c r="B70" s="12" t="s">
         <v>82</v>
       </c>
       <c r="C70" t="s">
@@ -9913,16 +10003,16 @@
       <c r="E70" t="s">
         <v>9</v>
       </c>
-      <c r="F70" s="7">
+      <c r="F70" s="6">
         <f t="shared" si="3"/>
         <v>4.7000000000000007E-2</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A71" s="6">
-        <v>44926</v>
-      </c>
-      <c r="B71" s="13" t="s">
+      <c r="A71" s="5">
+        <v>44926</v>
+      </c>
+      <c r="B71" s="12" t="s">
         <v>82</v>
       </c>
       <c r="C71" t="s">
@@ -9934,16 +10024,16 @@
       <c r="E71" t="s">
         <v>9</v>
       </c>
-      <c r="F71" s="7">
+      <c r="F71" s="6">
         <f t="shared" si="3"/>
         <v>4.8000000000000008E-2</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A72" s="6">
-        <v>44926</v>
-      </c>
-      <c r="B72" s="13" t="s">
+      <c r="A72" s="5">
+        <v>44926</v>
+      </c>
+      <c r="B72" s="12" t="s">
         <v>82</v>
       </c>
       <c r="C72" t="s">
@@ -9952,19 +10042,19 @@
       <c r="D72">
         <v>3</v>
       </c>
-      <c r="E72" s="13" t="s">
+      <c r="E72" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F72" s="7">
+      <c r="F72" s="6">
         <f t="shared" si="3"/>
         <v>3.9999999999999994E-2</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A73" s="6">
-        <v>44926</v>
-      </c>
-      <c r="B73" s="13" t="s">
+      <c r="A73" s="5">
+        <v>44926</v>
+      </c>
+      <c r="B73" s="12" t="s">
         <v>82</v>
       </c>
       <c r="C73" t="s">
@@ -9973,19 +10063,19 @@
       <c r="D73">
         <v>6</v>
       </c>
-      <c r="E73" s="13" t="s">
+      <c r="E73" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F73" s="7">
+      <c r="F73" s="6">
         <f t="shared" si="3"/>
         <v>4.0999999999999995E-2</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A74" s="6">
-        <v>44926</v>
-      </c>
-      <c r="B74" s="13" t="s">
+      <c r="A74" s="5">
+        <v>44926</v>
+      </c>
+      <c r="B74" s="12" t="s">
         <v>82</v>
       </c>
       <c r="C74" t="s">
@@ -9994,19 +10084,19 @@
       <c r="D74">
         <v>9</v>
       </c>
-      <c r="E74" s="13" t="s">
+      <c r="E74" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F74" s="7">
+      <c r="F74" s="6">
         <f t="shared" si="3"/>
         <v>4.1999999999999996E-2</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A75" s="6">
-        <v>44926</v>
-      </c>
-      <c r="B75" s="13" t="s">
+      <c r="A75" s="5">
+        <v>44926</v>
+      </c>
+      <c r="B75" s="12" t="s">
         <v>82</v>
       </c>
       <c r="C75" t="s">
@@ -10015,19 +10105,19 @@
       <c r="D75">
         <v>12</v>
       </c>
-      <c r="E75" s="13" t="s">
+      <c r="E75" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F75" s="7">
+      <c r="F75" s="6">
         <f t="shared" si="3"/>
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A76" s="6">
-        <v>44926</v>
-      </c>
-      <c r="B76" s="13" t="s">
+      <c r="A76" s="5">
+        <v>44926</v>
+      </c>
+      <c r="B76" s="12" t="s">
         <v>82</v>
       </c>
       <c r="C76" t="s">
@@ -10036,19 +10126,19 @@
       <c r="D76">
         <v>15</v>
       </c>
-      <c r="E76" s="13" t="s">
+      <c r="E76" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F76" s="7">
+      <c r="F76" s="6">
         <f t="shared" si="3"/>
         <v>4.3999999999999997E-2</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A77" s="6">
-        <v>44926</v>
-      </c>
-      <c r="B77" s="13" t="s">
+      <c r="A77" s="5">
+        <v>44926</v>
+      </c>
+      <c r="B77" s="12" t="s">
         <v>82</v>
       </c>
       <c r="C77" t="s">
@@ -10057,19 +10147,19 @@
       <c r="D77">
         <v>18</v>
       </c>
-      <c r="E77" s="13" t="s">
+      <c r="E77" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F77" s="7">
+      <c r="F77" s="6">
         <f t="shared" si="3"/>
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A78" s="6">
-        <v>44926</v>
-      </c>
-      <c r="B78" s="13" t="s">
+      <c r="A78" s="5">
+        <v>44926</v>
+      </c>
+      <c r="B78" s="12" t="s">
         <v>82</v>
       </c>
       <c r="C78" t="s">
@@ -10078,19 +10168,19 @@
       <c r="D78">
         <v>24</v>
       </c>
-      <c r="E78" s="13" t="s">
+      <c r="E78" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F78" s="7">
+      <c r="F78" s="6">
         <f t="shared" si="3"/>
         <v>4.5999999999999999E-2</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A79" s="6">
-        <v>44926</v>
-      </c>
-      <c r="B79" s="13" t="s">
+      <c r="A79" s="5">
+        <v>44926</v>
+      </c>
+      <c r="B79" s="12" t="s">
         <v>82</v>
       </c>
       <c r="C79" t="s">
@@ -10099,19 +10189,19 @@
       <c r="D79">
         <v>36</v>
       </c>
-      <c r="E79" s="13" t="s">
+      <c r="E79" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F79" s="7">
+      <c r="F79" s="6">
         <f t="shared" si="3"/>
         <v>4.7E-2</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A80" s="6">
-        <v>44926</v>
-      </c>
-      <c r="B80" s="13" t="s">
+      <c r="A80" s="5">
+        <v>44926</v>
+      </c>
+      <c r="B80" s="12" t="s">
         <v>82</v>
       </c>
       <c r="C80" t="s">
@@ -10120,19 +10210,19 @@
       <c r="D80">
         <v>48</v>
       </c>
-      <c r="E80" s="13" t="s">
+      <c r="E80" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F80" s="7">
+      <c r="F80" s="6">
         <f t="shared" si="3"/>
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A81" s="6">
-        <v>44926</v>
-      </c>
-      <c r="B81" s="13" t="s">
+      <c r="A81" s="5">
+        <v>44926</v>
+      </c>
+      <c r="B81" s="12" t="s">
         <v>82</v>
       </c>
       <c r="C81" t="s">
@@ -10141,19 +10231,19 @@
       <c r="D81">
         <v>60</v>
       </c>
-      <c r="E81" s="13" t="s">
+      <c r="E81" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F81" s="7">
+      <c r="F81" s="6">
         <f t="shared" si="3"/>
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A82" s="6">
-        <v>44926</v>
-      </c>
-      <c r="B82" s="13" t="s">
+      <c r="A82" s="5">
+        <v>44926</v>
+      </c>
+      <c r="B82" s="12" t="s">
         <v>82</v>
       </c>
       <c r="C82" t="s">
@@ -10162,19 +10252,19 @@
       <c r="D82">
         <v>84</v>
       </c>
-      <c r="E82" s="13" t="s">
+      <c r="E82" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F82" s="7">
+      <c r="F82" s="6">
         <f t="shared" si="3"/>
         <v>0.05</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A83" s="6">
-        <v>44926</v>
-      </c>
-      <c r="B83" s="13" t="s">
+      <c r="A83" s="5">
+        <v>44926</v>
+      </c>
+      <c r="B83" s="12" t="s">
         <v>82</v>
       </c>
       <c r="C83" t="s">
@@ -10183,19 +10273,19 @@
       <c r="D83">
         <v>120</v>
       </c>
-      <c r="E83" s="13" t="s">
+      <c r="E83" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F83" s="7">
+      <c r="F83" s="6">
         <f t="shared" si="3"/>
         <v>5.1000000000000004E-2</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A84" s="6">
-        <v>44926</v>
-      </c>
-      <c r="B84" s="13" t="s">
+      <c r="A84" s="5">
+        <v>44926</v>
+      </c>
+      <c r="B84" s="12" t="s">
         <v>82</v>
       </c>
       <c r="C84" t="s">
@@ -10204,19 +10294,19 @@
       <c r="D84">
         <v>240</v>
       </c>
-      <c r="E84" s="13" t="s">
+      <c r="E84" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F84" s="7">
+      <c r="F84" s="6">
         <f t="shared" si="3"/>
         <v>5.2000000000000005E-2</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A85" s="6">
-        <v>44926</v>
-      </c>
-      <c r="B85" s="13" t="s">
+      <c r="A85" s="5">
+        <v>44926</v>
+      </c>
+      <c r="B85" s="12" t="s">
         <v>82</v>
       </c>
       <c r="C85" t="s">
@@ -10225,698 +10315,698 @@
       <c r="D85">
         <v>360</v>
       </c>
-      <c r="E85" s="13" t="s">
+      <c r="E85" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F85" s="7">
+      <c r="F85" s="6">
         <f t="shared" si="3"/>
         <v>5.3000000000000005E-2</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A86" s="6">
-        <v>44926</v>
-      </c>
-      <c r="B86" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="C86" s="13" t="s">
+      <c r="A86" s="5">
+        <v>44926</v>
+      </c>
+      <c r="B86" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C86" s="12" t="s">
         <v>212</v>
       </c>
       <c r="D86">
         <v>3</v>
       </c>
-      <c r="F86" s="7">
+      <c r="F86" s="6">
         <v>0.05</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A87" s="6">
-        <v>44926</v>
-      </c>
-      <c r="B87" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="C87" s="13" t="s">
+      <c r="A87" s="5">
+        <v>44926</v>
+      </c>
+      <c r="B87" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C87" s="12" t="s">
         <v>212</v>
       </c>
       <c r="D87">
         <v>6</v>
       </c>
-      <c r="F87" s="7">
+      <c r="F87" s="6">
         <f>F86+0.3%</f>
         <v>5.3000000000000005E-2</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A88" s="6">
-        <v>44926</v>
-      </c>
-      <c r="B88" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="C88" s="13" t="s">
+      <c r="A88" s="5">
+        <v>44926</v>
+      </c>
+      <c r="B88" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C88" s="12" t="s">
         <v>212</v>
       </c>
       <c r="D88">
         <v>9</v>
       </c>
-      <c r="F88" s="7">
+      <c r="F88" s="6">
         <f t="shared" ref="F88:F95" si="4">F87+0.3%</f>
         <v>5.6000000000000008E-2</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A89" s="6">
-        <v>44926</v>
-      </c>
-      <c r="B89" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="C89" s="13" t="s">
+      <c r="A89" s="5">
+        <v>44926</v>
+      </c>
+      <c r="B89" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C89" s="12" t="s">
         <v>212</v>
       </c>
       <c r="D89">
         <v>12</v>
       </c>
-      <c r="F89" s="7">
+      <c r="F89" s="6">
         <f t="shared" si="4"/>
         <v>5.9000000000000011E-2</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A90" s="6">
-        <v>44926</v>
-      </c>
-      <c r="B90" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="C90" s="13" t="s">
+      <c r="A90" s="5">
+        <v>44926</v>
+      </c>
+      <c r="B90" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C90" s="12" t="s">
         <v>212</v>
       </c>
       <c r="D90">
         <v>15</v>
       </c>
-      <c r="F90" s="7">
+      <c r="F90" s="6">
         <f t="shared" si="4"/>
         <v>6.2000000000000013E-2</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A91" s="6">
-        <v>44926</v>
-      </c>
-      <c r="B91" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="C91" s="13" t="s">
+      <c r="A91" s="5">
+        <v>44926</v>
+      </c>
+      <c r="B91" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C91" s="12" t="s">
         <v>212</v>
       </c>
       <c r="D91">
         <v>18</v>
       </c>
-      <c r="F91" s="7">
+      <c r="F91" s="6">
         <f t="shared" si="4"/>
         <v>6.5000000000000016E-2</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A92" s="6">
-        <v>44926</v>
-      </c>
-      <c r="B92" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="C92" s="13" t="s">
+      <c r="A92" s="5">
+        <v>44926</v>
+      </c>
+      <c r="B92" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C92" s="12" t="s">
         <v>212</v>
       </c>
       <c r="D92">
         <v>24</v>
       </c>
-      <c r="F92" s="7">
+      <c r="F92" s="6">
         <f t="shared" si="4"/>
         <v>6.8000000000000019E-2</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A93" s="6">
-        <v>44926</v>
-      </c>
-      <c r="B93" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="C93" s="13" t="s">
+      <c r="A93" s="5">
+        <v>44926</v>
+      </c>
+      <c r="B93" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C93" s="12" t="s">
         <v>212</v>
       </c>
       <c r="D93">
         <v>36</v>
       </c>
-      <c r="F93" s="7">
+      <c r="F93" s="6">
         <f t="shared" si="4"/>
         <v>7.1000000000000021E-2</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A94" s="6">
-        <v>44926</v>
-      </c>
-      <c r="B94" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="C94" s="13" t="s">
+      <c r="A94" s="5">
+        <v>44926</v>
+      </c>
+      <c r="B94" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C94" s="12" t="s">
         <v>212</v>
       </c>
       <c r="D94">
         <v>48</v>
       </c>
-      <c r="F94" s="7">
+      <c r="F94" s="6">
         <f t="shared" si="4"/>
         <v>7.4000000000000024E-2</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A95" s="6">
-        <v>44926</v>
-      </c>
-      <c r="B95" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="C95" s="13" t="s">
+      <c r="A95" s="5">
+        <v>44926</v>
+      </c>
+      <c r="B95" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C95" s="12" t="s">
         <v>212</v>
       </c>
       <c r="D95">
         <v>60</v>
       </c>
-      <c r="F95" s="7">
+      <c r="F95" s="6">
         <f t="shared" si="4"/>
         <v>7.7000000000000027E-2</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A96" s="6">
-        <v>44926</v>
-      </c>
-      <c r="B96" s="13" t="s">
+      <c r="A96" s="5">
+        <v>44926</v>
+      </c>
+      <c r="B96" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="C96" s="13" t="s">
+      <c r="C96" s="12" t="s">
         <v>212</v>
       </c>
       <c r="D96">
         <v>3</v>
       </c>
-      <c r="F96" s="7">
+      <c r="F96" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A97" s="6">
-        <v>44926</v>
-      </c>
-      <c r="B97" s="13" t="s">
+      <c r="A97" s="5">
+        <v>44926</v>
+      </c>
+      <c r="B97" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="C97" s="13" t="s">
+      <c r="C97" s="12" t="s">
         <v>212</v>
       </c>
       <c r="D97">
         <v>6</v>
       </c>
-      <c r="F97" s="7">
+      <c r="F97" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A98" s="6">
-        <v>44926</v>
-      </c>
-      <c r="B98" s="13" t="s">
+      <c r="A98" s="5">
+        <v>44926</v>
+      </c>
+      <c r="B98" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="C98" s="13" t="s">
+      <c r="C98" s="12" t="s">
         <v>212</v>
       </c>
       <c r="D98">
         <v>9</v>
       </c>
-      <c r="F98" s="7">
+      <c r="F98" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A99" s="6">
-        <v>44926</v>
-      </c>
-      <c r="B99" s="13" t="s">
+      <c r="A99" s="5">
+        <v>44926</v>
+      </c>
+      <c r="B99" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="C99" s="13" t="s">
+      <c r="C99" s="12" t="s">
         <v>212</v>
       </c>
       <c r="D99">
         <v>12</v>
       </c>
-      <c r="F99" s="7">
+      <c r="F99" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A100" s="6">
-        <v>44926</v>
-      </c>
-      <c r="B100" s="13" t="s">
+      <c r="A100" s="5">
+        <v>44926</v>
+      </c>
+      <c r="B100" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="C100" s="13" t="s">
+      <c r="C100" s="12" t="s">
         <v>212</v>
       </c>
       <c r="D100">
         <v>15</v>
       </c>
-      <c r="F100" s="7">
+      <c r="F100" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A101" s="6">
-        <v>44926</v>
-      </c>
-      <c r="B101" s="13" t="s">
+      <c r="A101" s="5">
+        <v>44926</v>
+      </c>
+      <c r="B101" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="C101" s="13" t="s">
+      <c r="C101" s="12" t="s">
         <v>212</v>
       </c>
       <c r="D101">
         <v>18</v>
       </c>
-      <c r="F101" s="7">
+      <c r="F101" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A102" s="6">
-        <v>44926</v>
-      </c>
-      <c r="B102" s="13" t="s">
+      <c r="A102" s="5">
+        <v>44926</v>
+      </c>
+      <c r="B102" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="C102" s="13" t="s">
+      <c r="C102" s="12" t="s">
         <v>212</v>
       </c>
       <c r="D102">
         <v>24</v>
       </c>
-      <c r="F102" s="7">
+      <c r="F102" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A103" s="6">
-        <v>44926</v>
-      </c>
-      <c r="B103" s="13" t="s">
+      <c r="A103" s="5">
+        <v>44926</v>
+      </c>
+      <c r="B103" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="C103" s="13" t="s">
+      <c r="C103" s="12" t="s">
         <v>212</v>
       </c>
       <c r="D103">
         <v>36</v>
       </c>
-      <c r="F103" s="7">
+      <c r="F103" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A104" s="6">
-        <v>44926</v>
-      </c>
-      <c r="B104" s="13" t="s">
+      <c r="A104" s="5">
+        <v>44926</v>
+      </c>
+      <c r="B104" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="C104" s="13" t="s">
+      <c r="C104" s="12" t="s">
         <v>212</v>
       </c>
       <c r="D104">
         <v>48</v>
       </c>
-      <c r="F104" s="7">
+      <c r="F104" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A105" s="6">
-        <v>44926</v>
-      </c>
-      <c r="B105" s="13" t="s">
+      <c r="A105" s="5">
+        <v>44926</v>
+      </c>
+      <c r="B105" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="C105" s="13" t="s">
+      <c r="C105" s="12" t="s">
         <v>212</v>
       </c>
       <c r="D105">
         <v>60</v>
       </c>
-      <c r="F105" s="7">
+      <c r="F105" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A106" s="6">
-        <v>44926</v>
-      </c>
-      <c r="B106" s="13" t="s">
+      <c r="A106" s="5">
+        <v>44926</v>
+      </c>
+      <c r="B106" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="C106" s="13" t="s">
+      <c r="C106" s="12" t="s">
         <v>212</v>
       </c>
       <c r="D106">
         <v>3</v>
       </c>
-      <c r="F106" s="7">
+      <c r="F106" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A107" s="6">
-        <v>44926</v>
-      </c>
-      <c r="B107" s="13" t="s">
+      <c r="A107" s="5">
+        <v>44926</v>
+      </c>
+      <c r="B107" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="C107" s="13" t="s">
+      <c r="C107" s="12" t="s">
         <v>212</v>
       </c>
       <c r="D107">
         <v>6</v>
       </c>
-      <c r="F107" s="7">
+      <c r="F107" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A108" s="6">
-        <v>44926</v>
-      </c>
-      <c r="B108" s="13" t="s">
+      <c r="A108" s="5">
+        <v>44926</v>
+      </c>
+      <c r="B108" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="C108" s="13" t="s">
+      <c r="C108" s="12" t="s">
         <v>212</v>
       </c>
       <c r="D108">
         <v>9</v>
       </c>
-      <c r="F108" s="7">
+      <c r="F108" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A109" s="6">
-        <v>44926</v>
-      </c>
-      <c r="B109" s="13" t="s">
+      <c r="A109" s="5">
+        <v>44926</v>
+      </c>
+      <c r="B109" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="C109" s="13" t="s">
+      <c r="C109" s="12" t="s">
         <v>212</v>
       </c>
       <c r="D109">
         <v>12</v>
       </c>
-      <c r="F109" s="7">
+      <c r="F109" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A110" s="6">
-        <v>44926</v>
-      </c>
-      <c r="B110" s="13" t="s">
+      <c r="A110" s="5">
+        <v>44926</v>
+      </c>
+      <c r="B110" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="C110" s="13" t="s">
+      <c r="C110" s="12" t="s">
         <v>212</v>
       </c>
       <c r="D110">
         <v>15</v>
       </c>
-      <c r="F110" s="7">
+      <c r="F110" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A111" s="6">
-        <v>44926</v>
-      </c>
-      <c r="B111" s="13" t="s">
+      <c r="A111" s="5">
+        <v>44926</v>
+      </c>
+      <c r="B111" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="C111" s="13" t="s">
+      <c r="C111" s="12" t="s">
         <v>212</v>
       </c>
       <c r="D111">
         <v>18</v>
       </c>
-      <c r="F111" s="7">
+      <c r="F111" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A112" s="6">
-        <v>44926</v>
-      </c>
-      <c r="B112" s="13" t="s">
+      <c r="A112" s="5">
+        <v>44926</v>
+      </c>
+      <c r="B112" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="C112" s="13" t="s">
+      <c r="C112" s="12" t="s">
         <v>212</v>
       </c>
       <c r="D112">
         <v>24</v>
       </c>
-      <c r="F112" s="7">
+      <c r="F112" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A113" s="6">
-        <v>44926</v>
-      </c>
-      <c r="B113" s="13" t="s">
+      <c r="A113" s="5">
+        <v>44926</v>
+      </c>
+      <c r="B113" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="C113" s="13" t="s">
+      <c r="C113" s="12" t="s">
         <v>212</v>
       </c>
       <c r="D113">
         <v>36</v>
       </c>
-      <c r="F113" s="7">
+      <c r="F113" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A114" s="6">
-        <v>44926</v>
-      </c>
-      <c r="B114" s="13" t="s">
+      <c r="A114" s="5">
+        <v>44926</v>
+      </c>
+      <c r="B114" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="C114" s="13" t="s">
+      <c r="C114" s="12" t="s">
         <v>212</v>
       </c>
       <c r="D114">
         <v>48</v>
       </c>
-      <c r="F114" s="7">
+      <c r="F114" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A115" s="6">
-        <v>44926</v>
-      </c>
-      <c r="B115" s="13" t="s">
+      <c r="A115" s="5">
+        <v>44926</v>
+      </c>
+      <c r="B115" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="C115" s="13" t="s">
+      <c r="C115" s="12" t="s">
         <v>212</v>
       </c>
       <c r="D115">
         <v>60</v>
       </c>
-      <c r="F115" s="7">
+      <c r="F115" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A116" s="6">
-        <v>44926</v>
-      </c>
-      <c r="B116" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="C116" s="13" t="s">
+      <c r="A116" s="5">
+        <v>44926</v>
+      </c>
+      <c r="B116" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C116" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="F116" s="7">
+      <c r="F116" s="6">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A117" s="6">
-        <v>44926</v>
-      </c>
-      <c r="B117" s="13" t="s">
+      <c r="A117" s="5">
+        <v>44926</v>
+      </c>
+      <c r="B117" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="C117" s="13" t="s">
+      <c r="C117" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="F117" s="7">
+      <c r="F117" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A118" s="6">
-        <v>44926</v>
-      </c>
-      <c r="B118" s="13" t="s">
+      <c r="A118" s="5">
+        <v>44926</v>
+      </c>
+      <c r="B118" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="C118" s="13" t="s">
+      <c r="C118" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="F118" s="7">
+      <c r="F118" s="6">
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A119" s="6">
-        <v>44926</v>
-      </c>
-      <c r="B119" s="15" t="s">
+      <c r="A119" s="5">
+        <v>44926</v>
+      </c>
+      <c r="B119" s="14" t="s">
         <v>216</v>
       </c>
-      <c r="C119" s="13" t="s">
+      <c r="C119" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="F119" s="7">
+      <c r="F119" s="6">
         <v>1E-3</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A120" s="6">
-        <v>44926</v>
-      </c>
-      <c r="B120" s="15" t="s">
+      <c r="A120" s="5">
+        <v>44926</v>
+      </c>
+      <c r="B120" s="14" t="s">
         <v>217</v>
       </c>
-      <c r="C120" s="13" t="s">
+      <c r="C120" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="F120" s="7">
+      <c r="F120" s="6">
         <v>1E-3</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A121" s="6">
-        <v>44926</v>
-      </c>
-      <c r="B121" s="15" t="s">
+      <c r="A121" s="5">
+        <v>44926</v>
+      </c>
+      <c r="B121" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="C121" s="13" t="s">
+      <c r="C121" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="F121" s="7">
+      <c r="F121" s="6">
         <v>1E-3</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A122" s="6">
-        <v>44926</v>
-      </c>
-      <c r="B122" s="15" t="s">
+      <c r="A122" s="5">
+        <v>44926</v>
+      </c>
+      <c r="B122" s="14" t="s">
         <v>218</v>
       </c>
-      <c r="C122" s="13" t="s">
+      <c r="C122" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="F122" s="7">
+      <c r="F122" s="6">
         <v>1E-3</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A123" s="6">
-        <v>44926</v>
-      </c>
-      <c r="B123" s="15" t="s">
+      <c r="A123" s="5">
+        <v>44926</v>
+      </c>
+      <c r="B123" s="14" t="s">
         <v>219</v>
       </c>
-      <c r="C123" s="13" t="s">
+      <c r="C123" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="F123" s="7">
+      <c r="F123" s="6">
         <v>2E-3</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A124" s="6">
-        <v>44926</v>
-      </c>
-      <c r="B124" s="15" t="s">
+      <c r="A124" s="5">
+        <v>44926</v>
+      </c>
+      <c r="B124" s="14" t="s">
         <v>220</v>
       </c>
-      <c r="C124" s="13" t="s">
+      <c r="C124" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="F124" s="7">
+      <c r="F124" s="6">
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A125" s="6">
-        <v>44926</v>
-      </c>
-      <c r="B125" s="15" t="s">
+      <c r="A125" s="5">
+        <v>44926</v>
+      </c>
+      <c r="B125" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="C125" s="13" t="s">
+      <c r="C125" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="F125" s="7">
+      <c r="F125" s="6">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A126" s="6">
-        <v>44926</v>
-      </c>
-      <c r="B126" s="15" t="s">
+      <c r="A126" s="5">
+        <v>44926</v>
+      </c>
+      <c r="B126" s="14" t="s">
         <v>222</v>
       </c>
-      <c r="C126" s="13" t="s">
+      <c r="C126" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="F126" s="7">
+      <c r="F126" s="6">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A127" s="6">
-        <v>44926</v>
-      </c>
-      <c r="B127" s="15" t="s">
+      <c r="A127" s="5">
+        <v>44926</v>
+      </c>
+      <c r="B127" s="14" t="s">
         <v>223</v>
       </c>
-      <c r="C127" s="13" t="s">
+      <c r="C127" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="F127" s="7">
+      <c r="F127" s="6">
         <v>1E-3</v>
       </c>
     </row>

--- a/java/project-JavaBank/src/io/data.xlsx
+++ b/java/project-JavaBank/src/io/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Huy Binh\Documents\GitHub\nguyenhuybinh2604.github.io\java\project-JavaBank\src\io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0891CEF8-CC59-40FF-880B-0256A91E9E3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7765D1C1-C47C-41D2-93A9-64107C904620}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Customer" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="Saving" sheetId="8" r:id="rId7"/>
     <sheet name="exchangeRate" sheetId="6" r:id="rId8"/>
     <sheet name="interestRate" sheetId="9" r:id="rId9"/>
-    <sheet name="Sheet1" sheetId="11" r:id="rId10"/>
+    <sheet name="transactionLog" sheetId="11" r:id="rId10"/>
     <sheet name="BS" sheetId="10" r:id="rId11"/>
   </sheets>
   <definedNames>
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="994" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="356">
   <si>
     <t>customerId</t>
   </si>
@@ -714,9 +714,6 @@
     <t>LOAN</t>
   </si>
   <si>
-    <t>UNKNOWN</t>
-  </si>
-  <si>
     <t>SAVING</t>
   </si>
   <si>
@@ -757,6 +754,399 @@
   </si>
   <si>
     <t>userStatus</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>IDs       Staff IDs   Value Date    Maturity Tenor (M)  Currency                       Balance                Balance in VND      IR    Status      Type</t>
+  </si>
+  <si>
+    <t>1         null        02/07/2012                  null       VND                    537,251.00                    537,251.00   0.50%    ACTIVE   ACCOUNT</t>
+  </si>
+  <si>
+    <t>2         1           04/08/2018                  null       VND                    238,237.00                    238,237.00   0.50%    ACTIVE   ACCOUNT</t>
+  </si>
+  <si>
+    <t>3         2           01/03/2013                  null       VND                    536,806.00                    536,806.00   0.50%    ACTIVE   ACCOUNT</t>
+  </si>
+  <si>
+    <t>4         3           08/09/2015                  null       VND                     75,604.00                     75,604.00   0.50%    ACTIVE   ACCOUNT</t>
+  </si>
+  <si>
+    <t>5         1           09/04/2016                  null       VND                    113,622.00                    113,622.00   0.50%    ACTIVE   ACCOUNT</t>
+  </si>
+  <si>
+    <t>6         2           29/06/2011                  null       VND                    287,474.00                    287,474.00   0.50%    ACTIVE   ACCOUNT</t>
+  </si>
+  <si>
+    <t>7         3           16/02/2011                  null       USD                      4,113.00                 96,655,500.00   0.00%    ACTIVE   ACCOUNT</t>
+  </si>
+  <si>
+    <t>8         1           07/07/2012                  null       USD                      4,172.00                 98,042,000.00   0.00%    ACTIVE   ACCOUNT</t>
+  </si>
+  <si>
+    <t>9         2           16/09/2015                  null       USD                      1,626.00                 38,211,000.00   0.00%    ACTIVE   ACCOUNT</t>
+  </si>
+  <si>
+    <t>10        3           26/06/2013                  null       USD                      3,420.00                 80,370,000.00   0.00%    ACTIVE   ACCOUNT</t>
+  </si>
+  <si>
+    <t>11        1           07/10/2019                  null       USD                      3,742.00                 87,937,000.00   0.00%    ACTIVE   ACCOUNT</t>
+  </si>
+  <si>
+    <t>12        2           29/03/2012                  null       USD                      4,345.00                102,107,500.00   0.00%    ACTIVE   ACCOUNT</t>
+  </si>
+  <si>
+    <t>13        3           18/11/2018                  null       EUR                        323.00                  8,421,155.87   0.40%    ACTIVE   ACCOUNT</t>
+  </si>
+  <si>
+    <t>14        1           16/09/2012                  null       EUR                        210.00                  5,475,054.90   0.40%    ACTIVE   ACCOUNT</t>
+  </si>
+  <si>
+    <t>15        2           19/10/2011                  null       EUR                        490.00                 12,775,128.10   0.40%    ACTIVE   ACCOUNT</t>
+  </si>
+  <si>
+    <t>16        3           19/10/2020                  null       EUR                        481.00                 12,540,482.89   0.40%    ACTIVE   ACCOUNT</t>
+  </si>
+  <si>
+    <t>17        3           08/12/2014                  null       EUR                        287.00                  7,482,575.03   0.40%    ACTIVE   ACCOUNT</t>
+  </si>
+  <si>
+    <t>18        3           05/04/2012                  null       EUR                        491.00                 12,801,199.79   0.40%    ACTIVE   ACCOUNT</t>
+  </si>
+  <si>
+    <t>19        1           21/04/2017                  null       VND                  9,980,102.00                  9,980,102.00   0.50%    ACTIVE   ACCOUNT</t>
+  </si>
+  <si>
+    <t>20        3           10/11/2020                  null       VND                  5,476,967.00                  5,476,967.00   0.50%    ACTIVE   ACCOUNT</t>
+  </si>
+  <si>
+    <t>21        3           09/12/2022                  null       VND                  4,549,845.00                  4,549,845.00   0.50%    ACTIVE   ACCOUNT</t>
+  </si>
+  <si>
+    <t>22        2           06/11/2019                  null       VND                  5,863,377.00                  5,863,377.00   0.50%    ACTIVE   ACCOUNT</t>
+  </si>
+  <si>
+    <t>23        3           06/05/2019                  null       VND                  8,448,457.00                  8,448,457.00   0.50%    ACTIVE   ACCOUNT</t>
+  </si>
+  <si>
+    <t>24        2           27/09/2022                  null       VND                  3,872,282.00                  3,872,282.00   0.50%    ACTIVE   ACCOUNT</t>
+  </si>
+  <si>
+    <t>25        2           28/02/2017                  null       VND                  5,739,796.00                  5,739,796.00   0.50%    ACTIVE   ACCOUNT</t>
+  </si>
+  <si>
+    <t>26        1           29/06/2019                  null       VND                  7,755,939.00                  7,755,939.00   0.50%    ACTIVE   ACCOUNT</t>
+  </si>
+  <si>
+    <t>27        3           09/11/2022                  null       VND                  7,213,398.00                  7,213,398.00   0.50%    ACTIVE   ACCOUNT</t>
+  </si>
+  <si>
+    <t>28        3           05/08/2021                  null       VND                  6,577,462.00                  6,577,462.00   0.50%    ACTIVE   ACCOUNT</t>
+  </si>
+  <si>
+    <t>29        1           05/04/2019                  null       VND                  2,960,169.00                  2,960,169.00   0.50%    ACTIVE   ACCOUNT</t>
+  </si>
+  <si>
+    <t>30        3           14/09/2021                  null       VND                  8,009,206.00                  8,009,206.00   0.50%    ACTIVE   ACCOUNT</t>
+  </si>
+  <si>
+    <t>31        1           10/01/2021                  null       VND                  7,747,227.00                  7,747,227.00   0.50%    ACTIVE   ACCOUNT</t>
+  </si>
+  <si>
+    <t>32        2           28/10/2022                  null       VND                  8,563,947.00                  8,563,947.00   0.50%    ACTIVE   ACCOUNT</t>
+  </si>
+  <si>
+    <t>33        2           12/02/2020                  null       VND                  9,371,489.00                  9,371,489.00   0.50%    ACTIVE   ACCOUNT</t>
+  </si>
+  <si>
+    <t>34        2           04/02/2018                  null       VND                  5,359,387.00                  5,359,387.00   0.50%    ACTIVE   ACCOUNT</t>
+  </si>
+  <si>
+    <t>35        null        21/01/2020                  null       VND                  7,487,506.00                  7,487,506.00   0.50%    ACTIVE   ACCOUNT</t>
+  </si>
+  <si>
+    <t>36        2           08/09/2022                  null       VND                  1,603,258.00                  1,603,258.00   0.50%    ACTIVE   ACCOUNT</t>
+  </si>
+  <si>
+    <t>37        1           28/07/2020                  null       VND                  2,798,196.00                  2,798,196.00   0.50%    ACTIVE   ACCOUNT</t>
+  </si>
+  <si>
+    <t>38        2           22/10/2019                  null       USD                        150.00                  3,525,000.00   0.00%    ACTIVE   ACCOUNT</t>
+  </si>
+  <si>
+    <t>39        1           11/10/2020                  null       USD                      2,967.00                 69,724,500.00   0.00%    ACTIVE   ACCOUNT</t>
+  </si>
+  <si>
+    <t>40        3           23/12/2020                  null       USD                        214.00                  5,029,000.00   0.00%    ACTIVE   ACCOUNT</t>
+  </si>
+  <si>
+    <t>41        3           08/02/2018                  null       USD                      2,850.00                 66,975,000.00   0.00%    ACTIVE   ACCOUNT</t>
+  </si>
+  <si>
+    <t>42        1           02/01/2021                  null       USD                      2,852.00                 67,022,000.00   0.00%    ACTIVE   ACCOUNT</t>
+  </si>
+  <si>
+    <t>43        2           24/06/2021                  null       USD                        351.00                  8,248,500.00   0.00%    ACTIVE   ACCOUNT</t>
+  </si>
+  <si>
+    <t>44        3           31/07/2020                  null       USD                        124.00                  2,914,000.00   0.00%    ACTIVE   ACCOUNT</t>
+  </si>
+  <si>
+    <t>45        2           08/12/2019                  null       USD                      1,990.00                 46,765,000.00   0.00%    ACTIVE   ACCOUNT</t>
+  </si>
+  <si>
+    <t>46        2           29/08/2020                  null       USD                        434.00                 10,199,000.00   0.00%    ACTIVE   ACCOUNT</t>
+  </si>
+  <si>
+    <t>47        2           16/04/2021                  null       USD                      1,177.00                 27,659,500.00   0.00%    ACTIVE   ACCOUNT</t>
+  </si>
+  <si>
+    <t>48        2           01/11/2018                  null       USD                        779.00                 18,306,500.00   0.00%    ACTIVE   ACCOUNT</t>
+  </si>
+  <si>
+    <t>49        3           20/05/2019                  null       USD                        360.00                  8,460,000.00   0.00%    ACTIVE   ACCOUNT</t>
+  </si>
+  <si>
+    <t>50        null        08/01/2021                  null       USD                        270.00                  6,345,000.00   0.00%    ACTIVE   ACCOUNT</t>
+  </si>
+  <si>
+    <t>51        1           12/04/2018                  null       USD                        194.00                  4,559,000.00   0.00%    ACTIVE   ACCOUNT</t>
+  </si>
+  <si>
+    <t>52        1           19/08/2018                  null       USD                        420.00                  9,870,000.00   0.00%    ACTIVE   ACCOUNT</t>
+  </si>
+  <si>
+    <t>53        null        14/08/2021                  null       USD                        277.00                  6,509,500.00   0.00%    ACTIVE   ACCOUNT</t>
+  </si>
+  <si>
+    <t>54        3           29/11/2019                  null       USD                      1,875.00                 44,062,500.00   0.00%    ACTIVE   ACCOUNT</t>
+  </si>
+  <si>
+    <t>55        1           25/01/2019                  null       USD                        662.00                 15,557,000.00   0.00%    ACTIVE   ACCOUNT</t>
+  </si>
+  <si>
+    <t>56        1           17/08/2021                  null       USD                      2,053.00                 48,245,500.00   0.00%    ACTIVE   ACCOUNT</t>
+  </si>
+  <si>
+    <t>57        1           26/06/2018                  null       EUR                        646.00                 16,842,311.74   0.40%    ACTIVE   ACCOUNT</t>
+  </si>
+  <si>
+    <t>58        null        26/04/2021                  null       EUR                        676.00                 17,624,462.44   0.40%    ACTIVE   ACCOUNT</t>
+  </si>
+  <si>
+    <t>59        1           30/07/2021                  null       EUR                        643.00                 16,764,096.67   0.40%    ACTIVE   ACCOUNT</t>
+  </si>
+  <si>
+    <t>60        3           29/01/2021                  null       EUR                        710.00                 18,510,899.90   0.40%    ACTIVE   ACCOUNT</t>
+  </si>
+  <si>
+    <t>61        3           30/01/2020                  null       EUR                        555.00                 14,469,787.95   0.40%    ACTIVE   ACCOUNT</t>
+  </si>
+  <si>
+    <t>62        2           17/02/2018                  null       EUR                        445.00                 11,601,902.05   0.40%    ACTIVE   ACCOUNT</t>
+  </si>
+  <si>
+    <t>63        3           30/07/2021                  null       EUR                         44.00                  1,147,154.36   0.40%    ACTIVE   ACCOUNT</t>
+  </si>
+  <si>
+    <t>64        3           15/01/2020                  null       EUR                        242.00                  6,309,348.98   0.40%    ACTIVE   ACCOUNT</t>
+  </si>
+  <si>
+    <t>65        3           06/07/2018                  null       EUR                         83.00                  2,163,950.27   0.40%    ACTIVE   ACCOUNT</t>
+  </si>
+  <si>
+    <t>66        2           06/10/2019                  null       EUR                        990.00                 25,810,973.10   0.40%    ACTIVE   ACCOUNT</t>
+  </si>
+  <si>
+    <t>67        1           19/04/2018                  null       EUR                        973.00                 25,367,754.37   0.40%    ACTIVE   ACCOUNT</t>
+  </si>
+  <si>
+    <t>68        3           24/05/2019                  null       EUR                        658.00                 17,155,172.02   0.40%    ACTIVE   ACCOUNT</t>
+  </si>
+  <si>
+    <t>69        3           30/05/2019                  null       EUR                        814.00                 21,222,355.66   0.40%    ACTIVE   ACCOUNT</t>
+  </si>
+  <si>
+    <t>70        2           22/06/2019                  null       EUR                        656.00                 17,103,028.64   0.40%    ACTIVE   ACCOUNT</t>
+  </si>
+  <si>
+    <t>71        2           17/03/2021                  null       EUR                         90.00                  2,346,452.10   0.40%    ACTIVE   ACCOUNT</t>
+  </si>
+  <si>
+    <t>72        2           13/08/2018                  null       EUR                        470.00                 12,253,694.30   0.40%    ACTIVE   ACCOUNT</t>
+  </si>
+  <si>
+    <t>73        null        10/02/2021                  null       EUR                        740.00                 19,293,050.60   0.40%    ACTIVE   ACCOUNT</t>
+  </si>
+  <si>
+    <t>74        2           13/09/2018                  null       EUR                        426.00                 11,106,539.94   0.40%    ACTIVE   ACCOUNT</t>
+  </si>
+  <si>
+    <t>75        2           02/11/2019                  null       EUR                        389.00                 10,141,887.41   0.40%    ACTIVE   ACCOUNT</t>
+  </si>
+  <si>
+    <t>1         null        27/04/2020  27/04/2020        60       VND              3,000,000,000.00              3,000,000,000.00  11.60%    ACTIVE      LOAN</t>
+  </si>
+  <si>
+    <t>2         1           11/10/2019  11/10/2019       240       VND             10,000,000,000.00             10,000,000,000.00  13.30%    ACTIVE      LOAN</t>
+  </si>
+  <si>
+    <t>3         2           09/07/2020  09/07/2020        48       VND             14,000,000,000.00             14,000,000,000.00  12.20%    ACTIVE      LOAN</t>
+  </si>
+  <si>
+    <t>4         3                                         84       VND             38,000,000,000.00             38,000,000,000.00   0.00%    LOCKED      LOAN</t>
+  </si>
+  <si>
+    <t>5         1                                          9       VND             30,000,000,000.00             30,000,000,000.00   0.00%    LOCKED      LOAN</t>
+  </si>
+  <si>
+    <t>7         3           27/09/2020  27/09/2020       120       USD                    628,877.00             14,778,609,500.00   4.10%    ACTIVE      LOAN</t>
+  </si>
+  <si>
+    <t>8         1           04/01/2020  04/01/2020       360       USD                    904,812.00             21,263,082,000.00   4.80%    ACTIVE      LOAN</t>
+  </si>
+  <si>
+    <t>9         2                                         48       USD                    112,665.00              2,647,627,500.00   0.00%    LOCKED      LOAN</t>
+  </si>
+  <si>
+    <t>10        3           21/11/2019  21/11/2019       240       USD                    908,493.00             21,349,585,500.00   4.20%    ACTIVE      LOAN</t>
+  </si>
+  <si>
+    <t>11        1                                         60       USD                    230,145.00              5,408,407,500.00   0.00%    LOCKED      LOAN</t>
+  </si>
+  <si>
+    <t>13        3           02/10/2022  02/10/2022       240       VND             39,000,000,000.00             39,000,000,000.00  12.80%    ACTIVE      LOAN</t>
+  </si>
+  <si>
+    <t>14        1           23/02/2022  23/02/2022       360       VND             48,000,000,000.00             48,000,000,000.00  13.70%    ACTIVE      LOAN</t>
+  </si>
+  <si>
+    <t>15        2           19/05/2022  19/05/2022       120       VND             31,000,000,000.00             31,000,000,000.00  13.40%    ACTIVE      LOAN</t>
+  </si>
+  <si>
+    <t>17        1                                         15       VND             45,000,000,000.00             45,000,000,000.00   0.00%    LOCKED      LOAN</t>
+  </si>
+  <si>
+    <t>19        3           19/02/2021  19/02/2021        36       VND             31,000,000,000.00             31,000,000,000.00  10.80%    ACTIVE      LOAN</t>
+  </si>
+  <si>
+    <t>20        null        10/09/2022  10/09/2022        48       VND              2,000,000,000.00              2,000,000,000.00  11.70%    ACTIVE      LOAN</t>
+  </si>
+  <si>
+    <t>1         2           21/10/2022  21/10/2022        18       VND                300,000,000.00                300,000,000.00   6.50%    ACTIVE    SAVING</t>
+  </si>
+  <si>
+    <t>2         2           12/10/2022  12/10/2022        36       VND              1,000,000,000.00              1,000,000,000.00   7.10%    ACTIVE    SAVING</t>
+  </si>
+  <si>
+    <t>3         1           17/02/2023  17/02/2023        12       VND              1,400,000,000.00              1,400,000,000.00   5.90%    ACTIVE    SAVING</t>
+  </si>
+  <si>
+    <t>4         3           03/10/2022  03/10/2022        36       VND              3,800,000,000.00              3,800,000,000.00   7.10%    ACTIVE    SAVING</t>
+  </si>
+  <si>
+    <t>5         1           24/11/2022  24/11/2022        12       VND              3,000,000,000.00              3,000,000,000.00   5.90%    ACTIVE    SAVING</t>
+  </si>
+  <si>
+    <t>6         3           29/11/2022  29/11/2022        36       VND              1,100,000,000.00              1,100,000,000.00   7.10%    ACTIVE    SAVING</t>
+  </si>
+  <si>
+    <t>7         1           01/10/2022  01/10/2022         9       VND             62,887,700,000.00             62,887,700,000.00   5.60%    ACTIVE    SAVING</t>
+  </si>
+  <si>
+    <t>8         2           27/04/2023  27/04/2023        15       VND             90,481,200,000.00             90,481,200,000.00   6.20%    ACTIVE    SAVING</t>
+  </si>
+  <si>
+    <t>9         3           10/11/2022  10/11/2022        12       VND             11,266,500,000.00             11,266,500,000.00   5.90%    ACTIVE    SAVING</t>
+  </si>
+  <si>
+    <t>10        1           23/10/2022  23/10/2022         9       VND             90,849,300,000.00             90,849,300,000.00   5.60%    ACTIVE    SAVING</t>
+  </si>
+  <si>
+    <t>11        2           27/01/2023  27/01/2023         9       VND             23,014,500,000.00             23,014,500,000.00   5.60%    ACTIVE    SAVING</t>
+  </si>
+  <si>
+    <t>12        1           13/04/2023  13/04/2023        15       VND             53,044,600,000.00             53,044,600,000.00   6.20%    ACTIVE    SAVING</t>
+  </si>
+  <si>
+    <t>13        1           16/01/2023  16/01/2023        36       VND              3,900,000,000.00              3,900,000,000.00   7.10%    ACTIVE    SAVING</t>
+  </si>
+  <si>
+    <t>14        2           21/03/2023  21/03/2023        60       VND              4,800,000,000.00              4,800,000,000.00   7.70%    ACTIVE    SAVING</t>
+  </si>
+  <si>
+    <t>15        2           22/02/2023  22/02/2023         9       VND              3,100,000,000.00              3,100,000,000.00   5.60%    ACTIVE    SAVING</t>
+  </si>
+  <si>
+    <t>16        3           05/02/2023  05/02/2023        24       VND              4,200,000,000.00              4,200,000,000.00   6.80%    ACTIVE    SAVING</t>
+  </si>
+  <si>
+    <t>17        3           09/04/2023  09/04/2023        18       VND              4,500,000,000.00              4,500,000,000.00   6.50%    ACTIVE    SAVING</t>
+  </si>
+  <si>
+    <t>18        3           07/11/2022  07/11/2022        12       VND              1,900,000,000.00              1,900,000,000.00   5.90%    ACTIVE    SAVING</t>
+  </si>
+  <si>
+    <t>19        2           12/03/2023  12/03/2023        48       VND              3,100,000,000.00              3,100,000,000.00   7.40%    ACTIVE    SAVING</t>
+  </si>
+  <si>
+    <t>20        1           14/11/2022  14/11/2022        48       VND             17,000,000,000.00             17,000,000,000.00   7.40%    ACTIVE    SAVING</t>
+  </si>
+  <si>
+    <t>21        1           17/12/2022  17/12/2022        48       VND              1,500,000,000.00              1,500,000,000.00   7.40%    ACTIVE    SAVING</t>
+  </si>
+  <si>
+    <t>22        3           06/12/2022  06/12/2022        48       VND             15,000,000,000.00             15,000,000,000.00   7.40%    ACTIVE    SAVING</t>
+  </si>
+  <si>
+    <t>23        1           12/03/2023  12/03/2023        36       VND              2,000,000,000.00              2,000,000,000.00   7.10%    ACTIVE    SAVING</t>
+  </si>
+  <si>
+    <t>24        2           23/12/2022  23/12/2022        60       VND             20,000,000,000.00             20,000,000,000.00   7.70%    ACTIVE    SAVING</t>
+  </si>
+  <si>
+    <t>25        3           25/02/2023  25/02/2023        36       VND              6,000,000,000.00              6,000,000,000.00   7.10%    ACTIVE    SAVING</t>
+  </si>
+  <si>
+    <t>26        3           01/01/2023  01/01/2023        24       VND                200,000,000.00                200,000,000.00   6.80%    ACTIVE    SAVING</t>
+  </si>
+  <si>
+    <t>27        1           12/10/2022  12/10/2022        12       VND              8,500,000,000.00              8,500,000,000.00   5.90%    ACTIVE    SAVING</t>
+  </si>
+  <si>
+    <t>28        3           13/02/2023  13/02/2023        18       VND              6,000,000,000.00              6,000,000,000.00   6.50%    ACTIVE    SAVING</t>
+  </si>
+  <si>
+    <t>29        3           19/11/2022  19/11/2022        12       USD                    200,000.00              4,700,000,000.00   0.00%    ACTIVE    SAVING</t>
+  </si>
+  <si>
+    <t>30        3           11/12/2022  11/12/2022        12       USD                    200,001.00              4,700,023,500.00   0.00%    ACTIVE    SAVING</t>
+  </si>
+  <si>
+    <t>32        2           22/11/2022  22/11/2022        48       USD                    200,003.00              4,700,070,500.00   0.00%    ACTIVE    SAVING</t>
+  </si>
+  <si>
+    <t>33        3           13/04/2023  13/04/2023        15       USD                    200,004.00              4,700,094,000.00   0.00%    ACTIVE    SAVING</t>
+  </si>
+  <si>
+    <t>35        2           10/04/2023  10/04/2023         3       USD                    200,006.00              4,700,141,000.00   0.00%    ACTIVE    SAVING</t>
+  </si>
+  <si>
+    <t>36        1           08/04/2023  08/04/2023        24       USD                    200,007.00              4,700,164,500.00   0.00%    ACTIVE    SAVING</t>
+  </si>
+  <si>
+    <t>37        3           25/10/2022  25/10/2022        36       USD                    200,008.00              4,700,188,000.00   0.00%    ACTIVE    SAVING</t>
+  </si>
+  <si>
+    <t>38        3           07/04/2023  07/04/2023        48       USD                    200,009.00              4,700,211,500.00   0.00%    ACTIVE    SAVING</t>
+  </si>
+  <si>
+    <t>39        3           18/04/2023  18/04/2023        60       USD                    200,010.00              4,700,235,000.00   0.00%    ACTIVE    SAVING</t>
+  </si>
+  <si>
+    <t>40        2           20/10/2022  20/10/2022        24       USD                    200,011.00              4,700,258,500.00   0.00%    ACTIVE    SAVING</t>
   </si>
 </sst>
 </file>
@@ -766,13 +1156,20 @@
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.0%"/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -847,6 +1244,11 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -867,27 +1269,30 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1107,8 +1512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -1142,7 +1547,7 @@
         <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
@@ -1253,8 +1658,8 @@
       <c r="E6" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F6" s="12" t="s">
-        <v>211</v>
+      <c r="F6" s="17" t="s">
+        <v>225</v>
       </c>
       <c r="G6" t="s">
         <v>86</v>
@@ -1438,7 +1843,7 @@
         <v>195</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>211</v>
+        <v>225</v>
       </c>
       <c r="G14" t="s">
         <v>86</v>
@@ -1553,7 +1958,7 @@
         <v>200</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>211</v>
+        <v>225</v>
       </c>
       <c r="G19" t="s">
         <v>86</v>
@@ -1721,7 +2126,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
@@ -1729,17 +2134,680 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEF66A9F-C555-407B-AFB1-FA9ED92A7166}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A130"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="A81" sqref="A81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <sheetData/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:A34">
-    <sortCondition ref="A1:A34"/>
+  <cols>
+    <col min="3" max="3" width="7.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.53125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.86328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.9296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.46484375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.19921875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.73046875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A37" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A38" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A39" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A40" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A41" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A42" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A43" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A44" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A45" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A46" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A47" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A48" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A49" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A50" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A51" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A52" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A53" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A54" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A55" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A56" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A57" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A58" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A59" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A60" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A61" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A62" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A63" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A64" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A65" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A66" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A67" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A68" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A69" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A70" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A71" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A72" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A73" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A74" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A75" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A76" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A77" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A78" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A79" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A80" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A81" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A82" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A83" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A84" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A85" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A86" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A87" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A88" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A89" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A90" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A91" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A92" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A93" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A94" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A95" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A96" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A97" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A98" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A99" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A100" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A101" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A102" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A103" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A104" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A105" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A106" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A107" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A108" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A109" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A110" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A111" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A112" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A113" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A114" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A115" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A116" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A117" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A118" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A119" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A120" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A121" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A122" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A123" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A124" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A125" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A126" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A127" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A128" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A129" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A130" t="s">
+        <v>355</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:A36">
+    <sortCondition ref="A1:A36"/>
   </sortState>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1749,7 +2817,7 @@
   <dimension ref="B3:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1763,7 +2831,7 @@
       </c>
       <c r="C3" s="8">
         <f>C5-C4</f>
-        <v>360753754923.08008</v>
+        <v>481809789923.08008</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.45">
@@ -1771,8 +2839,8 @@
         <v>153</v>
       </c>
       <c r="C4" s="7">
-        <f>SUM(Loan!I:I)</f>
-        <v>440912793000</v>
+        <f>SUMIFS(Loan!$I:$I,Loan!$K:$K,"ACTIVE")</f>
+        <v>319856758000</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.45">
@@ -1829,7 +2897,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -1868,7 +2936,7 @@
         <v>21</v>
       </c>
       <c r="H1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
@@ -1960,7 +3028,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -1992,7 +3060,7 @@
         <v>21</v>
       </c>
       <c r="G1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
@@ -2029,7 +3097,7 @@
   <dimension ref="A1:E1013"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -3533,7 +4601,7 @@
     <row r="1012" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="1013" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
@@ -3543,8 +4611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF21B7AB-93DC-4751-874C-8807C9FDCFB9}">
   <dimension ref="A1:K76"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A76" sqref="A76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3980,7 +5048,7 @@
         <v>43422</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H14">
         <v>323</v>
@@ -4011,7 +5079,7 @@
         <v>41168</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H15">
         <v>210</v>
@@ -4042,7 +5110,7 @@
         <v>40835</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H16">
         <v>490</v>
@@ -4073,7 +5141,7 @@
         <v>44123</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H17">
         <v>481</v>
@@ -4104,7 +5172,7 @@
         <v>41981</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H18">
         <v>287</v>
@@ -4135,7 +5203,7 @@
         <v>41004</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H19">
         <v>491</v>
@@ -5335,7 +6403,7 @@
         <v>43277</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H58">
         <v>646</v>
@@ -5363,7 +6431,7 @@
         <v>44312</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H59">
         <v>676</v>
@@ -5394,7 +6462,7 @@
         <v>44407</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H60">
         <v>643</v>
@@ -5425,7 +6493,7 @@
         <v>44225</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H61">
         <v>710</v>
@@ -5456,7 +6524,7 @@
         <v>43860</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H62">
         <v>555</v>
@@ -5487,7 +6555,7 @@
         <v>43148</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H63">
         <v>445</v>
@@ -5518,7 +6586,7 @@
         <v>44407</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H64">
         <v>44</v>
@@ -5549,7 +6617,7 @@
         <v>43845</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H65">
         <v>242</v>
@@ -5580,7 +6648,7 @@
         <v>43287</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H66">
         <v>83</v>
@@ -5611,7 +6679,7 @@
         <v>43744</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H67">
         <v>990</v>
@@ -5642,7 +6710,7 @@
         <v>43209</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H68">
         <v>973</v>
@@ -5673,7 +6741,7 @@
         <v>43609</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H69">
         <v>658</v>
@@ -5704,7 +6772,7 @@
         <v>43615</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H70">
         <v>814</v>
@@ -5735,7 +6803,7 @@
         <v>43638</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H71">
         <v>656</v>
@@ -5766,7 +6834,7 @@
         <v>44272</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H72">
         <v>90</v>
@@ -5797,7 +6865,7 @@
         <v>43325</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H73">
         <v>470</v>
@@ -5825,7 +6893,7 @@
         <v>44237</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H74">
         <v>740</v>
@@ -5856,7 +6924,7 @@
         <v>43356</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H75">
         <v>426</v>
@@ -5887,7 +6955,7 @@
         <v>43771</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H76">
         <v>389</v>
@@ -5905,7 +6973,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -5916,12 +6984,12 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="5.59765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.59765625" style="19" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.53125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.73046875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.19921875" bestFit="1" customWidth="1"/>
@@ -5929,14 +6997,14 @@
     <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.46484375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.3984375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.3984375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.3984375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.73046875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="18" t="s">
         <v>87</v>
       </c>
       <c r="B1" t="s">
@@ -5974,7 +7042,7 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A2">
+      <c r="A2" s="19">
         <v>1</v>
       </c>
       <c r="B2" s="1">
@@ -6013,7 +7081,7 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A3">
+      <c r="A3" s="19">
         <v>2</v>
       </c>
       <c r="B3" s="1">
@@ -6055,7 +7123,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A4">
+      <c r="A4" s="19">
         <v>3</v>
       </c>
       <c r="B4" s="1">
@@ -6097,7 +7165,7 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A5">
+      <c r="A5" s="19">
         <v>4</v>
       </c>
       <c r="B5" s="1">
@@ -6124,7 +7192,7 @@
         <v>0</v>
       </c>
       <c r="K5" s="15" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="L5" t="str">
         <f>VLOOKUP(B5,Customer!$A$2:$F$26,6)</f>
@@ -6132,7 +7200,7 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A6">
+      <c r="A6" s="19">
         <v>5</v>
       </c>
       <c r="B6" s="1">
@@ -6159,15 +7227,15 @@
         <v>0</v>
       </c>
       <c r="K6" s="15" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="L6" t="str">
         <f>VLOOKUP(B6,Customer!$A$2:$F$26,6)</f>
-        <v>UNKNOWN</v>
+        <v>NA</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A7">
+      <c r="A7" s="19">
         <v>6</v>
       </c>
       <c r="B7" s="1">
@@ -6181,10 +7249,10 @@
       </c>
       <c r="E7" s="5">
         <f t="shared" si="0"/>
-        <v>44344</v>
+        <v>45258</v>
       </c>
       <c r="F7" s="7">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>81</v>
@@ -6198,7 +7266,7 @@
       </c>
       <c r="J7" s="6">
         <f>IF(K7="LOCKED",0,SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"LOAN",interestRate!$B:$B,Loan!G7,interestRate!$D:$D,Loan!F7,interestRate!$E:$E,Loan!L7))</f>
-        <v>8.4000000000000005E-2</v>
+        <v>0.10800000000000003</v>
       </c>
       <c r="K7" s="4" t="s">
         <v>86</v>
@@ -6209,7 +7277,7 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A8">
+      <c r="A8" s="19">
         <v>7</v>
       </c>
       <c r="B8" s="1">
@@ -6251,7 +7319,7 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A9">
+      <c r="A9" s="19">
         <v>8</v>
       </c>
       <c r="B9" s="1">
@@ -6293,7 +7361,7 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A10">
+      <c r="A10" s="19">
         <v>9</v>
       </c>
       <c r="B10" s="1">
@@ -6320,7 +7388,7 @@
         <v>0</v>
       </c>
       <c r="K10" s="16" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="L10" t="str">
         <f>VLOOKUP(B10,Customer!$A$2:$F$26,6)</f>
@@ -6328,7 +7396,7 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A11">
+      <c r="A11" s="19">
         <v>10</v>
       </c>
       <c r="B11" s="1">
@@ -6370,7 +7438,7 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A12">
+      <c r="A12" s="19">
         <v>11</v>
       </c>
       <c r="B12" s="1">
@@ -6397,15 +7465,15 @@
         <v>0</v>
       </c>
       <c r="K12" s="15" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="L12" t="str">
         <f>VLOOKUP(B12,Customer!$A$2:$F$26,6)</f>
-        <v>UNKNOWN</v>
+        <v>NA</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A13">
+      <c r="A13" s="19">
         <v>12</v>
       </c>
       <c r="B13" s="1">
@@ -6419,10 +7487,10 @@
       </c>
       <c r="E13" s="5">
         <f t="shared" si="0"/>
-        <v>43884</v>
+        <v>45619</v>
       </c>
       <c r="F13" s="7">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>82</v>
@@ -6436,7 +7504,7 @@
       </c>
       <c r="J13" s="6">
         <f>IF(K13="LOCKED",0,SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"LOAN",interestRate!$B:$B,Loan!G13,interestRate!$D:$D,Loan!F13,interestRate!$E:$E,Loan!L13))</f>
-        <v>0.03</v>
+        <v>3.9000000000000007E-2</v>
       </c>
       <c r="K13" s="4" t="s">
         <v>86</v>
@@ -6447,7 +7515,7 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A14">
+      <c r="A14" s="19">
         <v>13</v>
       </c>
       <c r="B14" s="1">
@@ -6489,7 +7557,7 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A15">
+      <c r="A15" s="19">
         <v>14</v>
       </c>
       <c r="B15" s="1">
@@ -6531,7 +7599,7 @@
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A16">
+      <c r="A16" s="19">
         <v>15</v>
       </c>
       <c r="B16" s="1">
@@ -6573,7 +7641,7 @@
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A17">
+      <c r="A17" s="19">
         <v>16</v>
       </c>
       <c r="B17" s="1">
@@ -6587,10 +7655,10 @@
       </c>
       <c r="E17" s="5">
         <f t="shared" si="0"/>
-        <v>44671</v>
+        <v>45767</v>
       </c>
       <c r="F17" s="7">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>81</v>
@@ -6604,7 +7672,7 @@
       </c>
       <c r="J17" s="6">
         <f>IF(K17="LOCKED",0,SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"LOAN",interestRate!$B:$B,Loan!G17,interestRate!$D:$D,Loan!F17,interestRate!$E:$E,Loan!L17))</f>
-        <v>9.2000000000000012E-2</v>
+        <v>0.11200000000000003</v>
       </c>
       <c r="K17" s="4" t="s">
         <v>86</v>
@@ -6615,7 +7683,7 @@
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A18">
+      <c r="A18" s="19">
         <v>17</v>
       </c>
       <c r="B18" s="1">
@@ -6642,15 +7710,15 @@
         <v>0</v>
       </c>
       <c r="K18" s="15" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="L18" t="str">
         <f>VLOOKUP(B18,Customer!$A$2:$F$26,6)</f>
-        <v>UNKNOWN</v>
+        <v>NA</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A19">
+      <c r="A19" s="19">
         <v>18</v>
       </c>
       <c r="B19" s="1">
@@ -6664,10 +7732,10 @@
       </c>
       <c r="E19" s="5">
         <f t="shared" si="0"/>
-        <v>44905</v>
+        <v>45270</v>
       </c>
       <c r="F19" s="7">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>81</v>
@@ -6681,7 +7749,7 @@
       </c>
       <c r="J19" s="6">
         <f>IF(K19="LOCKED",0,SUMIFS(interestRate!$F:$F,interestRate!$C:$C,"LOAN",interestRate!$B:$B,Loan!G19,interestRate!$D:$D,Loan!F19,interestRate!$E:$E,Loan!L19))</f>
-        <v>0.10400000000000002</v>
+        <v>0.10800000000000003</v>
       </c>
       <c r="K19" s="4" t="s">
         <v>86</v>
@@ -6692,7 +7760,7 @@
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A20">
+      <c r="A20" s="19">
         <v>19</v>
       </c>
       <c r="B20" s="4">
@@ -6734,7 +7802,7 @@
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A21">
+      <c r="A21" s="19">
         <v>20</v>
       </c>
       <c r="B21" s="4">
@@ -6781,13 +7849,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DB35AC3-6DBB-4728-A5E8-FCDA1B812037}">
   <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="7.1328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.1328125" style="19" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.53125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.73046875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.19921875" bestFit="1" customWidth="1"/>
@@ -6801,7 +7869,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="18" t="s">
         <v>106</v>
       </c>
       <c r="B1" t="s">
@@ -6836,7 +7904,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A2">
+      <c r="A2" s="19">
         <v>1</v>
       </c>
       <c r="B2" s="1">
@@ -6873,7 +7941,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A3">
+      <c r="A3" s="19">
         <v>2</v>
       </c>
       <c r="B3" s="1">
@@ -6910,7 +7978,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A4">
+      <c r="A4" s="19">
         <v>3</v>
       </c>
       <c r="B4" s="1">
@@ -6947,7 +8015,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A5">
+      <c r="A5" s="19">
         <v>4</v>
       </c>
       <c r="B5" s="1">
@@ -6984,7 +8052,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A6">
+      <c r="A6" s="19">
         <v>5</v>
       </c>
       <c r="B6" s="1">
@@ -7021,7 +8089,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A7">
+      <c r="A7" s="19">
         <v>6</v>
       </c>
       <c r="B7" s="1">
@@ -7058,7 +8126,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A8">
+      <c r="A8" s="19">
         <v>7</v>
       </c>
       <c r="B8" s="1">
@@ -7095,7 +8163,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A9">
+      <c r="A9" s="19">
         <v>8</v>
       </c>
       <c r="B9" s="1">
@@ -7132,7 +8200,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A10">
+      <c r="A10" s="19">
         <v>9</v>
       </c>
       <c r="B10" s="1">
@@ -7169,7 +8237,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A11">
+      <c r="A11" s="19">
         <v>10</v>
       </c>
       <c r="B11" s="1">
@@ -7206,7 +8274,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A12">
+      <c r="A12" s="19">
         <v>11</v>
       </c>
       <c r="B12" s="1">
@@ -7243,7 +8311,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A13">
+      <c r="A13" s="19">
         <v>12</v>
       </c>
       <c r="B13" s="1">
@@ -7280,7 +8348,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A14">
+      <c r="A14" s="19">
         <v>13</v>
       </c>
       <c r="B14" s="1">
@@ -7317,7 +8385,7 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A15">
+      <c r="A15" s="19">
         <v>14</v>
       </c>
       <c r="B15" s="1">
@@ -7354,7 +8422,7 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A16">
+      <c r="A16" s="19">
         <v>15</v>
       </c>
       <c r="B16" s="1">
@@ -7391,7 +8459,7 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A17">
+      <c r="A17" s="19">
         <v>16</v>
       </c>
       <c r="B17" s="1">
@@ -7428,7 +8496,7 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A18">
+      <c r="A18" s="19">
         <v>17</v>
       </c>
       <c r="B18" s="1">
@@ -7465,7 +8533,7 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A19">
+      <c r="A19" s="19">
         <v>18</v>
       </c>
       <c r="B19" s="1">
@@ -7502,7 +8570,7 @@
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A20">
+      <c r="A20" s="19">
         <v>19</v>
       </c>
       <c r="B20" s="1">
@@ -7539,7 +8607,7 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A21">
+      <c r="A21" s="19">
         <v>20</v>
       </c>
       <c r="B21" s="1">
@@ -7576,7 +8644,7 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A22">
+      <c r="A22" s="19">
         <v>21</v>
       </c>
       <c r="B22" s="1">
@@ -7613,7 +8681,7 @@
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A23">
+      <c r="A23" s="19">
         <v>22</v>
       </c>
       <c r="B23" s="1">
@@ -7650,7 +8718,7 @@
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A24">
+      <c r="A24" s="19">
         <v>23</v>
       </c>
       <c r="B24" s="1">
@@ -7687,7 +8755,7 @@
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A25">
+      <c r="A25" s="19">
         <v>24</v>
       </c>
       <c r="B25" s="1">
@@ -7724,7 +8792,7 @@
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A26">
+      <c r="A26" s="19">
         <v>25</v>
       </c>
       <c r="B26" s="1">
@@ -7761,7 +8829,7 @@
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A27">
+      <c r="A27" s="19">
         <v>26</v>
       </c>
       <c r="B27" s="1">
@@ -7798,7 +8866,7 @@
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A28">
+      <c r="A28" s="19">
         <v>27</v>
       </c>
       <c r="B28" s="1">
@@ -7835,7 +8903,7 @@
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A29">
+      <c r="A29" s="19">
         <v>28</v>
       </c>
       <c r="B29" s="1">
@@ -7872,7 +8940,7 @@
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A30">
+      <c r="A30" s="19">
         <v>29</v>
       </c>
       <c r="B30" s="1">
@@ -7909,7 +8977,7 @@
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A31">
+      <c r="A31" s="19">
         <v>30</v>
       </c>
       <c r="B31" s="1">
@@ -7946,7 +9014,7 @@
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A32">
+      <c r="A32" s="19">
         <v>31</v>
       </c>
       <c r="B32" s="1">
@@ -7960,10 +9028,10 @@
       </c>
       <c r="E32" s="5">
         <f t="shared" si="0"/>
-        <v>45031</v>
+        <v>45122</v>
       </c>
       <c r="F32">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G32" s="4" t="s">
         <v>82</v>
@@ -7983,7 +9051,7 @@
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A33">
+      <c r="A33" s="19">
         <v>32</v>
       </c>
       <c r="B33" s="1">
@@ -8020,7 +9088,7 @@
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A34">
+      <c r="A34" s="19">
         <v>33</v>
       </c>
       <c r="B34" s="1">
@@ -8057,7 +9125,7 @@
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A35">
+      <c r="A35" s="19">
         <v>34</v>
       </c>
       <c r="B35" s="1">
@@ -8071,10 +9139,10 @@
       </c>
       <c r="E35" s="5">
         <f t="shared" si="0"/>
-        <v>45023</v>
+        <v>45114</v>
       </c>
       <c r="F35">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G35" s="4" t="s">
         <v>82</v>
@@ -8094,7 +9162,7 @@
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A36">
+      <c r="A36" s="19">
         <v>35</v>
       </c>
       <c r="B36" s="1">
@@ -8131,7 +9199,7 @@
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A37">
+      <c r="A37" s="19">
         <v>36</v>
       </c>
       <c r="B37" s="1">
@@ -8168,7 +9236,7 @@
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A38">
+      <c r="A38" s="19">
         <v>37</v>
       </c>
       <c r="B38" s="1">
@@ -8205,7 +9273,7 @@
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A39">
+      <c r="A39" s="19">
         <v>38</v>
       </c>
       <c r="B39" s="1">
@@ -8242,7 +9310,7 @@
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A40">
+      <c r="A40" s="19">
         <v>39</v>
       </c>
       <c r="B40" s="1">
@@ -8279,7 +9347,7 @@
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A41">
+      <c r="A41" s="19">
         <v>40</v>
       </c>
       <c r="B41" s="1">
@@ -8325,7 +9393,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -8338,7 +9406,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>84</v>
@@ -8383,7 +9451,7 @@
         <v>44926</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>81</v>
@@ -8397,7 +9465,7 @@
         <v>44926</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>81</v>
@@ -8411,7 +9479,7 @@
         <v>44926</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>81</v>
@@ -8439,7 +9507,7 @@
         <v>44926</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>81</v>
@@ -8453,7 +9521,7 @@
         <v>44926</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>81</v>
@@ -8467,7 +9535,7 @@
         <v>44926</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>81</v>
@@ -8481,7 +9549,7 @@
         <v>44926</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>81</v>
@@ -8495,7 +9563,7 @@
         <v>44926</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>81</v>
@@ -8509,7 +9577,7 @@
         <v>44926</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>81</v>
@@ -8527,8 +9595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{146A3E06-B983-43B3-A43F-658D5B96467C}">
   <dimension ref="A1:F127"/>
   <sheetViews>
-    <sheetView topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="F69" sqref="F69"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -8543,7 +9611,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B1" t="s">
         <v>76</v>
@@ -10331,7 +11399,7 @@
         <v>81</v>
       </c>
       <c r="C86" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D86">
         <v>3</v>
@@ -10348,7 +11416,7 @@
         <v>81</v>
       </c>
       <c r="C87" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D87">
         <v>6</v>
@@ -10366,7 +11434,7 @@
         <v>81</v>
       </c>
       <c r="C88" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D88">
         <v>9</v>
@@ -10384,7 +11452,7 @@
         <v>81</v>
       </c>
       <c r="C89" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D89">
         <v>12</v>
@@ -10402,7 +11470,7 @@
         <v>81</v>
       </c>
       <c r="C90" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D90">
         <v>15</v>
@@ -10420,7 +11488,7 @@
         <v>81</v>
       </c>
       <c r="C91" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D91">
         <v>18</v>
@@ -10438,7 +11506,7 @@
         <v>81</v>
       </c>
       <c r="C92" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D92">
         <v>24</v>
@@ -10456,7 +11524,7 @@
         <v>81</v>
       </c>
       <c r="C93" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D93">
         <v>36</v>
@@ -10474,7 +11542,7 @@
         <v>81</v>
       </c>
       <c r="C94" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D94">
         <v>48</v>
@@ -10492,7 +11560,7 @@
         <v>81</v>
       </c>
       <c r="C95" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D95">
         <v>60</v>
@@ -10510,7 +11578,7 @@
         <v>82</v>
       </c>
       <c r="C96" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D96">
         <v>3</v>
@@ -10527,7 +11595,7 @@
         <v>82</v>
       </c>
       <c r="C97" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D97">
         <v>6</v>
@@ -10544,7 +11612,7 @@
         <v>82</v>
       </c>
       <c r="C98" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D98">
         <v>9</v>
@@ -10561,7 +11629,7 @@
         <v>82</v>
       </c>
       <c r="C99" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D99">
         <v>12</v>
@@ -10578,7 +11646,7 @@
         <v>82</v>
       </c>
       <c r="C100" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D100">
         <v>15</v>
@@ -10595,7 +11663,7 @@
         <v>82</v>
       </c>
       <c r="C101" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D101">
         <v>18</v>
@@ -10612,7 +11680,7 @@
         <v>82</v>
       </c>
       <c r="C102" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D102">
         <v>24</v>
@@ -10629,7 +11697,7 @@
         <v>82</v>
       </c>
       <c r="C103" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D103">
         <v>36</v>
@@ -10646,7 +11714,7 @@
         <v>82</v>
       </c>
       <c r="C104" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D104">
         <v>48</v>
@@ -10663,7 +11731,7 @@
         <v>82</v>
       </c>
       <c r="C105" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D105">
         <v>60</v>
@@ -10677,10 +11745,10 @@
         <v>44926</v>
       </c>
       <c r="B106" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C106" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D106">
         <v>3</v>
@@ -10694,10 +11762,10 @@
         <v>44926</v>
       </c>
       <c r="B107" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C107" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D107">
         <v>6</v>
@@ -10711,10 +11779,10 @@
         <v>44926</v>
       </c>
       <c r="B108" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C108" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D108">
         <v>9</v>
@@ -10728,10 +11796,10 @@
         <v>44926</v>
       </c>
       <c r="B109" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C109" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D109">
         <v>12</v>
@@ -10745,10 +11813,10 @@
         <v>44926</v>
       </c>
       <c r="B110" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C110" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D110">
         <v>15</v>
@@ -10762,10 +11830,10 @@
         <v>44926</v>
       </c>
       <c r="B111" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C111" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D111">
         <v>18</v>
@@ -10779,10 +11847,10 @@
         <v>44926</v>
       </c>
       <c r="B112" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C112" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D112">
         <v>24</v>
@@ -10796,10 +11864,10 @@
         <v>44926</v>
       </c>
       <c r="B113" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C113" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D113">
         <v>36</v>
@@ -10813,10 +11881,10 @@
         <v>44926</v>
       </c>
       <c r="B114" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C114" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D114">
         <v>48</v>
@@ -10830,10 +11898,10 @@
         <v>44926</v>
       </c>
       <c r="B115" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C115" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D115">
         <v>60</v>
@@ -10850,7 +11918,7 @@
         <v>81</v>
       </c>
       <c r="C116" s="12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F116" s="6">
         <v>5.0000000000000001E-3</v>
@@ -10864,7 +11932,7 @@
         <v>82</v>
       </c>
       <c r="C117" s="12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F117" s="6">
         <v>0</v>
@@ -10875,10 +11943,10 @@
         <v>44926</v>
       </c>
       <c r="B118" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="C118" s="12" t="s">
         <v>213</v>
-      </c>
-      <c r="C118" s="12" t="s">
-        <v>214</v>
       </c>
       <c r="F118" s="6">
         <v>4.0000000000000001E-3</v>
@@ -10889,10 +11957,10 @@
         <v>44926</v>
       </c>
       <c r="B119" s="14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C119" s="12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F119" s="6">
         <v>1E-3</v>
@@ -10903,10 +11971,10 @@
         <v>44926</v>
       </c>
       <c r="B120" s="14" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C120" s="12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F120" s="6">
         <v>1E-3</v>
@@ -10920,7 +11988,7 @@
         <v>83</v>
       </c>
       <c r="C121" s="12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F121" s="6">
         <v>1E-3</v>
@@ -10931,10 +11999,10 @@
         <v>44926</v>
       </c>
       <c r="B122" s="14" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C122" s="12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F122" s="6">
         <v>1E-3</v>
@@ -10945,10 +12013,10 @@
         <v>44926</v>
       </c>
       <c r="B123" s="14" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C123" s="12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F123" s="6">
         <v>2E-3</v>
@@ -10959,10 +12027,10 @@
         <v>44926</v>
       </c>
       <c r="B124" s="14" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C124" s="12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F124" s="6">
         <v>4.0000000000000001E-3</v>
@@ -10973,10 +12041,10 @@
         <v>44926</v>
       </c>
       <c r="B125" s="14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C125" s="12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F125" s="6">
         <v>3.0000000000000001E-3</v>
@@ -10987,10 +12055,10 @@
         <v>44926</v>
       </c>
       <c r="B126" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C126" s="12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F126" s="6">
         <v>3.0000000000000001E-3</v>
@@ -11001,10 +12069,10 @@
         <v>44926</v>
       </c>
       <c r="B127" s="14" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C127" s="12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F127" s="6">
         <v>1E-3</v>

--- a/java/project-JavaBank/src/io/data.xlsx
+++ b/java/project-JavaBank/src/io/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Huy Binh\Documents\GitHub\nguyenhuybinh2604.github.io\java\project-JavaBank\src\io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7765D1C1-C47C-41D2-93A9-64107C904620}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{972EF1FD-864D-4CAD-8EA7-559EFED6C20E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Customer" sheetId="1" r:id="rId1"/>
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1003" uniqueCount="232">
   <si>
     <t>customerId</t>
   </si>
@@ -759,394 +759,22 @@
     <t>NA</t>
   </si>
   <si>
-    <t>IDs       Staff IDs   Value Date    Maturity Tenor (M)  Currency                       Balance                Balance in VND      IR    Status      Type</t>
-  </si>
-  <si>
-    <t>1         null        02/07/2012                  null       VND                    537,251.00                    537,251.00   0.50%    ACTIVE   ACCOUNT</t>
-  </si>
-  <si>
-    <t>2         1           04/08/2018                  null       VND                    238,237.00                    238,237.00   0.50%    ACTIVE   ACCOUNT</t>
-  </si>
-  <si>
-    <t>3         2           01/03/2013                  null       VND                    536,806.00                    536,806.00   0.50%    ACTIVE   ACCOUNT</t>
-  </si>
-  <si>
-    <t>4         3           08/09/2015                  null       VND                     75,604.00                     75,604.00   0.50%    ACTIVE   ACCOUNT</t>
-  </si>
-  <si>
-    <t>5         1           09/04/2016                  null       VND                    113,622.00                    113,622.00   0.50%    ACTIVE   ACCOUNT</t>
-  </si>
-  <si>
-    <t>6         2           29/06/2011                  null       VND                    287,474.00                    287,474.00   0.50%    ACTIVE   ACCOUNT</t>
-  </si>
-  <si>
-    <t>7         3           16/02/2011                  null       USD                      4,113.00                 96,655,500.00   0.00%    ACTIVE   ACCOUNT</t>
-  </si>
-  <si>
-    <t>8         1           07/07/2012                  null       USD                      4,172.00                 98,042,000.00   0.00%    ACTIVE   ACCOUNT</t>
-  </si>
-  <si>
-    <t>9         2           16/09/2015                  null       USD                      1,626.00                 38,211,000.00   0.00%    ACTIVE   ACCOUNT</t>
-  </si>
-  <si>
-    <t>10        3           26/06/2013                  null       USD                      3,420.00                 80,370,000.00   0.00%    ACTIVE   ACCOUNT</t>
-  </si>
-  <si>
-    <t>11        1           07/10/2019                  null       USD                      3,742.00                 87,937,000.00   0.00%    ACTIVE   ACCOUNT</t>
-  </si>
-  <si>
-    <t>12        2           29/03/2012                  null       USD                      4,345.00                102,107,500.00   0.00%    ACTIVE   ACCOUNT</t>
-  </si>
-  <si>
-    <t>13        3           18/11/2018                  null       EUR                        323.00                  8,421,155.87   0.40%    ACTIVE   ACCOUNT</t>
-  </si>
-  <si>
-    <t>14        1           16/09/2012                  null       EUR                        210.00                  5,475,054.90   0.40%    ACTIVE   ACCOUNT</t>
-  </si>
-  <si>
-    <t>15        2           19/10/2011                  null       EUR                        490.00                 12,775,128.10   0.40%    ACTIVE   ACCOUNT</t>
-  </si>
-  <si>
-    <t>16        3           19/10/2020                  null       EUR                        481.00                 12,540,482.89   0.40%    ACTIVE   ACCOUNT</t>
-  </si>
-  <si>
-    <t>17        3           08/12/2014                  null       EUR                        287.00                  7,482,575.03   0.40%    ACTIVE   ACCOUNT</t>
-  </si>
-  <si>
-    <t>18        3           05/04/2012                  null       EUR                        491.00                 12,801,199.79   0.40%    ACTIVE   ACCOUNT</t>
-  </si>
-  <si>
-    <t>19        1           21/04/2017                  null       VND                  9,980,102.00                  9,980,102.00   0.50%    ACTIVE   ACCOUNT</t>
-  </si>
-  <si>
-    <t>20        3           10/11/2020                  null       VND                  5,476,967.00                  5,476,967.00   0.50%    ACTIVE   ACCOUNT</t>
-  </si>
-  <si>
-    <t>21        3           09/12/2022                  null       VND                  4,549,845.00                  4,549,845.00   0.50%    ACTIVE   ACCOUNT</t>
-  </si>
-  <si>
-    <t>22        2           06/11/2019                  null       VND                  5,863,377.00                  5,863,377.00   0.50%    ACTIVE   ACCOUNT</t>
-  </si>
-  <si>
-    <t>23        3           06/05/2019                  null       VND                  8,448,457.00                  8,448,457.00   0.50%    ACTIVE   ACCOUNT</t>
-  </si>
-  <si>
-    <t>24        2           27/09/2022                  null       VND                  3,872,282.00                  3,872,282.00   0.50%    ACTIVE   ACCOUNT</t>
-  </si>
-  <si>
-    <t>25        2           28/02/2017                  null       VND                  5,739,796.00                  5,739,796.00   0.50%    ACTIVE   ACCOUNT</t>
-  </si>
-  <si>
-    <t>26        1           29/06/2019                  null       VND                  7,755,939.00                  7,755,939.00   0.50%    ACTIVE   ACCOUNT</t>
-  </si>
-  <si>
-    <t>27        3           09/11/2022                  null       VND                  7,213,398.00                  7,213,398.00   0.50%    ACTIVE   ACCOUNT</t>
-  </si>
-  <si>
-    <t>28        3           05/08/2021                  null       VND                  6,577,462.00                  6,577,462.00   0.50%    ACTIVE   ACCOUNT</t>
-  </si>
-  <si>
-    <t>29        1           05/04/2019                  null       VND                  2,960,169.00                  2,960,169.00   0.50%    ACTIVE   ACCOUNT</t>
-  </si>
-  <si>
-    <t>30        3           14/09/2021                  null       VND                  8,009,206.00                  8,009,206.00   0.50%    ACTIVE   ACCOUNT</t>
-  </si>
-  <si>
-    <t>31        1           10/01/2021                  null       VND                  7,747,227.00                  7,747,227.00   0.50%    ACTIVE   ACCOUNT</t>
-  </si>
-  <si>
-    <t>32        2           28/10/2022                  null       VND                  8,563,947.00                  8,563,947.00   0.50%    ACTIVE   ACCOUNT</t>
-  </si>
-  <si>
-    <t>33        2           12/02/2020                  null       VND                  9,371,489.00                  9,371,489.00   0.50%    ACTIVE   ACCOUNT</t>
-  </si>
-  <si>
-    <t>34        2           04/02/2018                  null       VND                  5,359,387.00                  5,359,387.00   0.50%    ACTIVE   ACCOUNT</t>
-  </si>
-  <si>
-    <t>35        null        21/01/2020                  null       VND                  7,487,506.00                  7,487,506.00   0.50%    ACTIVE   ACCOUNT</t>
-  </si>
-  <si>
-    <t>36        2           08/09/2022                  null       VND                  1,603,258.00                  1,603,258.00   0.50%    ACTIVE   ACCOUNT</t>
-  </si>
-  <si>
-    <t>37        1           28/07/2020                  null       VND                  2,798,196.00                  2,798,196.00   0.50%    ACTIVE   ACCOUNT</t>
-  </si>
-  <si>
-    <t>38        2           22/10/2019                  null       USD                        150.00                  3,525,000.00   0.00%    ACTIVE   ACCOUNT</t>
-  </si>
-  <si>
-    <t>39        1           11/10/2020                  null       USD                      2,967.00                 69,724,500.00   0.00%    ACTIVE   ACCOUNT</t>
-  </si>
-  <si>
-    <t>40        3           23/12/2020                  null       USD                        214.00                  5,029,000.00   0.00%    ACTIVE   ACCOUNT</t>
-  </si>
-  <si>
-    <t>41        3           08/02/2018                  null       USD                      2,850.00                 66,975,000.00   0.00%    ACTIVE   ACCOUNT</t>
-  </si>
-  <si>
-    <t>42        1           02/01/2021                  null       USD                      2,852.00                 67,022,000.00   0.00%    ACTIVE   ACCOUNT</t>
-  </si>
-  <si>
-    <t>43        2           24/06/2021                  null       USD                        351.00                  8,248,500.00   0.00%    ACTIVE   ACCOUNT</t>
-  </si>
-  <si>
-    <t>44        3           31/07/2020                  null       USD                        124.00                  2,914,000.00   0.00%    ACTIVE   ACCOUNT</t>
-  </si>
-  <si>
-    <t>45        2           08/12/2019                  null       USD                      1,990.00                 46,765,000.00   0.00%    ACTIVE   ACCOUNT</t>
-  </si>
-  <si>
-    <t>46        2           29/08/2020                  null       USD                        434.00                 10,199,000.00   0.00%    ACTIVE   ACCOUNT</t>
-  </si>
-  <si>
-    <t>47        2           16/04/2021                  null       USD                      1,177.00                 27,659,500.00   0.00%    ACTIVE   ACCOUNT</t>
-  </si>
-  <si>
-    <t>48        2           01/11/2018                  null       USD                        779.00                 18,306,500.00   0.00%    ACTIVE   ACCOUNT</t>
-  </si>
-  <si>
-    <t>49        3           20/05/2019                  null       USD                        360.00                  8,460,000.00   0.00%    ACTIVE   ACCOUNT</t>
-  </si>
-  <si>
-    <t>50        null        08/01/2021                  null       USD                        270.00                  6,345,000.00   0.00%    ACTIVE   ACCOUNT</t>
-  </si>
-  <si>
-    <t>51        1           12/04/2018                  null       USD                        194.00                  4,559,000.00   0.00%    ACTIVE   ACCOUNT</t>
-  </si>
-  <si>
-    <t>52        1           19/08/2018                  null       USD                        420.00                  9,870,000.00   0.00%    ACTIVE   ACCOUNT</t>
-  </si>
-  <si>
-    <t>53        null        14/08/2021                  null       USD                        277.00                  6,509,500.00   0.00%    ACTIVE   ACCOUNT</t>
-  </si>
-  <si>
-    <t>54        3           29/11/2019                  null       USD                      1,875.00                 44,062,500.00   0.00%    ACTIVE   ACCOUNT</t>
-  </si>
-  <si>
-    <t>55        1           25/01/2019                  null       USD                        662.00                 15,557,000.00   0.00%    ACTIVE   ACCOUNT</t>
-  </si>
-  <si>
-    <t>56        1           17/08/2021                  null       USD                      2,053.00                 48,245,500.00   0.00%    ACTIVE   ACCOUNT</t>
-  </si>
-  <si>
-    <t>57        1           26/06/2018                  null       EUR                        646.00                 16,842,311.74   0.40%    ACTIVE   ACCOUNT</t>
-  </si>
-  <si>
-    <t>58        null        26/04/2021                  null       EUR                        676.00                 17,624,462.44   0.40%    ACTIVE   ACCOUNT</t>
-  </si>
-  <si>
-    <t>59        1           30/07/2021                  null       EUR                        643.00                 16,764,096.67   0.40%    ACTIVE   ACCOUNT</t>
-  </si>
-  <si>
-    <t>60        3           29/01/2021                  null       EUR                        710.00                 18,510,899.90   0.40%    ACTIVE   ACCOUNT</t>
-  </si>
-  <si>
-    <t>61        3           30/01/2020                  null       EUR                        555.00                 14,469,787.95   0.40%    ACTIVE   ACCOUNT</t>
-  </si>
-  <si>
-    <t>62        2           17/02/2018                  null       EUR                        445.00                 11,601,902.05   0.40%    ACTIVE   ACCOUNT</t>
-  </si>
-  <si>
-    <t>63        3           30/07/2021                  null       EUR                         44.00                  1,147,154.36   0.40%    ACTIVE   ACCOUNT</t>
-  </si>
-  <si>
-    <t>64        3           15/01/2020                  null       EUR                        242.00                  6,309,348.98   0.40%    ACTIVE   ACCOUNT</t>
-  </si>
-  <si>
-    <t>65        3           06/07/2018                  null       EUR                         83.00                  2,163,950.27   0.40%    ACTIVE   ACCOUNT</t>
-  </si>
-  <si>
-    <t>66        2           06/10/2019                  null       EUR                        990.00                 25,810,973.10   0.40%    ACTIVE   ACCOUNT</t>
-  </si>
-  <si>
-    <t>67        1           19/04/2018                  null       EUR                        973.00                 25,367,754.37   0.40%    ACTIVE   ACCOUNT</t>
-  </si>
-  <si>
-    <t>68        3           24/05/2019                  null       EUR                        658.00                 17,155,172.02   0.40%    ACTIVE   ACCOUNT</t>
-  </si>
-  <si>
-    <t>69        3           30/05/2019                  null       EUR                        814.00                 21,222,355.66   0.40%    ACTIVE   ACCOUNT</t>
-  </si>
-  <si>
-    <t>70        2           22/06/2019                  null       EUR                        656.00                 17,103,028.64   0.40%    ACTIVE   ACCOUNT</t>
-  </si>
-  <si>
-    <t>71        2           17/03/2021                  null       EUR                         90.00                  2,346,452.10   0.40%    ACTIVE   ACCOUNT</t>
-  </si>
-  <si>
-    <t>72        2           13/08/2018                  null       EUR                        470.00                 12,253,694.30   0.40%    ACTIVE   ACCOUNT</t>
-  </si>
-  <si>
-    <t>73        null        10/02/2021                  null       EUR                        740.00                 19,293,050.60   0.40%    ACTIVE   ACCOUNT</t>
-  </si>
-  <si>
-    <t>74        2           13/09/2018                  null       EUR                        426.00                 11,106,539.94   0.40%    ACTIVE   ACCOUNT</t>
-  </si>
-  <si>
-    <t>75        2           02/11/2019                  null       EUR                        389.00                 10,141,887.41   0.40%    ACTIVE   ACCOUNT</t>
-  </si>
-  <si>
-    <t>1         null        27/04/2020  27/04/2020        60       VND              3,000,000,000.00              3,000,000,000.00  11.60%    ACTIVE      LOAN</t>
-  </si>
-  <si>
-    <t>2         1           11/10/2019  11/10/2019       240       VND             10,000,000,000.00             10,000,000,000.00  13.30%    ACTIVE      LOAN</t>
-  </si>
-  <si>
-    <t>3         2           09/07/2020  09/07/2020        48       VND             14,000,000,000.00             14,000,000,000.00  12.20%    ACTIVE      LOAN</t>
-  </si>
-  <si>
-    <t>4         3                                         84       VND             38,000,000,000.00             38,000,000,000.00   0.00%    LOCKED      LOAN</t>
-  </si>
-  <si>
-    <t>5         1                                          9       VND             30,000,000,000.00             30,000,000,000.00   0.00%    LOCKED      LOAN</t>
-  </si>
-  <si>
-    <t>7         3           27/09/2020  27/09/2020       120       USD                    628,877.00             14,778,609,500.00   4.10%    ACTIVE      LOAN</t>
-  </si>
-  <si>
-    <t>8         1           04/01/2020  04/01/2020       360       USD                    904,812.00             21,263,082,000.00   4.80%    ACTIVE      LOAN</t>
-  </si>
-  <si>
-    <t>9         2                                         48       USD                    112,665.00              2,647,627,500.00   0.00%    LOCKED      LOAN</t>
-  </si>
-  <si>
-    <t>10        3           21/11/2019  21/11/2019       240       USD                    908,493.00             21,349,585,500.00   4.20%    ACTIVE      LOAN</t>
-  </si>
-  <si>
-    <t>11        1                                         60       USD                    230,145.00              5,408,407,500.00   0.00%    LOCKED      LOAN</t>
-  </si>
-  <si>
-    <t>13        3           02/10/2022  02/10/2022       240       VND             39,000,000,000.00             39,000,000,000.00  12.80%    ACTIVE      LOAN</t>
-  </si>
-  <si>
-    <t>14        1           23/02/2022  23/02/2022       360       VND             48,000,000,000.00             48,000,000,000.00  13.70%    ACTIVE      LOAN</t>
-  </si>
-  <si>
-    <t>15        2           19/05/2022  19/05/2022       120       VND             31,000,000,000.00             31,000,000,000.00  13.40%    ACTIVE      LOAN</t>
-  </si>
-  <si>
-    <t>17        1                                         15       VND             45,000,000,000.00             45,000,000,000.00   0.00%    LOCKED      LOAN</t>
-  </si>
-  <si>
-    <t>19        3           19/02/2021  19/02/2021        36       VND             31,000,000,000.00             31,000,000,000.00  10.80%    ACTIVE      LOAN</t>
-  </si>
-  <si>
-    <t>20        null        10/09/2022  10/09/2022        48       VND              2,000,000,000.00              2,000,000,000.00  11.70%    ACTIVE      LOAN</t>
-  </si>
-  <si>
-    <t>1         2           21/10/2022  21/10/2022        18       VND                300,000,000.00                300,000,000.00   6.50%    ACTIVE    SAVING</t>
-  </si>
-  <si>
-    <t>2         2           12/10/2022  12/10/2022        36       VND              1,000,000,000.00              1,000,000,000.00   7.10%    ACTIVE    SAVING</t>
-  </si>
-  <si>
-    <t>3         1           17/02/2023  17/02/2023        12       VND              1,400,000,000.00              1,400,000,000.00   5.90%    ACTIVE    SAVING</t>
-  </si>
-  <si>
-    <t>4         3           03/10/2022  03/10/2022        36       VND              3,800,000,000.00              3,800,000,000.00   7.10%    ACTIVE    SAVING</t>
-  </si>
-  <si>
-    <t>5         1           24/11/2022  24/11/2022        12       VND              3,000,000,000.00              3,000,000,000.00   5.90%    ACTIVE    SAVING</t>
-  </si>
-  <si>
-    <t>6         3           29/11/2022  29/11/2022        36       VND              1,100,000,000.00              1,100,000,000.00   7.10%    ACTIVE    SAVING</t>
-  </si>
-  <si>
-    <t>7         1           01/10/2022  01/10/2022         9       VND             62,887,700,000.00             62,887,700,000.00   5.60%    ACTIVE    SAVING</t>
-  </si>
-  <si>
-    <t>8         2           27/04/2023  27/04/2023        15       VND             90,481,200,000.00             90,481,200,000.00   6.20%    ACTIVE    SAVING</t>
-  </si>
-  <si>
-    <t>9         3           10/11/2022  10/11/2022        12       VND             11,266,500,000.00             11,266,500,000.00   5.90%    ACTIVE    SAVING</t>
-  </si>
-  <si>
-    <t>10        1           23/10/2022  23/10/2022         9       VND             90,849,300,000.00             90,849,300,000.00   5.60%    ACTIVE    SAVING</t>
-  </si>
-  <si>
-    <t>11        2           27/01/2023  27/01/2023         9       VND             23,014,500,000.00             23,014,500,000.00   5.60%    ACTIVE    SAVING</t>
-  </si>
-  <si>
-    <t>12        1           13/04/2023  13/04/2023        15       VND             53,044,600,000.00             53,044,600,000.00   6.20%    ACTIVE    SAVING</t>
-  </si>
-  <si>
-    <t>13        1           16/01/2023  16/01/2023        36       VND              3,900,000,000.00              3,900,000,000.00   7.10%    ACTIVE    SAVING</t>
-  </si>
-  <si>
-    <t>14        2           21/03/2023  21/03/2023        60       VND              4,800,000,000.00              4,800,000,000.00   7.70%    ACTIVE    SAVING</t>
-  </si>
-  <si>
-    <t>15        2           22/02/2023  22/02/2023         9       VND              3,100,000,000.00              3,100,000,000.00   5.60%    ACTIVE    SAVING</t>
-  </si>
-  <si>
-    <t>16        3           05/02/2023  05/02/2023        24       VND              4,200,000,000.00              4,200,000,000.00   6.80%    ACTIVE    SAVING</t>
-  </si>
-  <si>
-    <t>17        3           09/04/2023  09/04/2023        18       VND              4,500,000,000.00              4,500,000,000.00   6.50%    ACTIVE    SAVING</t>
-  </si>
-  <si>
-    <t>18        3           07/11/2022  07/11/2022        12       VND              1,900,000,000.00              1,900,000,000.00   5.90%    ACTIVE    SAVING</t>
-  </si>
-  <si>
-    <t>19        2           12/03/2023  12/03/2023        48       VND              3,100,000,000.00              3,100,000,000.00   7.40%    ACTIVE    SAVING</t>
-  </si>
-  <si>
-    <t>20        1           14/11/2022  14/11/2022        48       VND             17,000,000,000.00             17,000,000,000.00   7.40%    ACTIVE    SAVING</t>
-  </si>
-  <si>
-    <t>21        1           17/12/2022  17/12/2022        48       VND              1,500,000,000.00              1,500,000,000.00   7.40%    ACTIVE    SAVING</t>
-  </si>
-  <si>
-    <t>22        3           06/12/2022  06/12/2022        48       VND             15,000,000,000.00             15,000,000,000.00   7.40%    ACTIVE    SAVING</t>
-  </si>
-  <si>
-    <t>23        1           12/03/2023  12/03/2023        36       VND              2,000,000,000.00              2,000,000,000.00   7.10%    ACTIVE    SAVING</t>
-  </si>
-  <si>
-    <t>24        2           23/12/2022  23/12/2022        60       VND             20,000,000,000.00             20,000,000,000.00   7.70%    ACTIVE    SAVING</t>
-  </si>
-  <si>
-    <t>25        3           25/02/2023  25/02/2023        36       VND              6,000,000,000.00              6,000,000,000.00   7.10%    ACTIVE    SAVING</t>
-  </si>
-  <si>
-    <t>26        3           01/01/2023  01/01/2023        24       VND                200,000,000.00                200,000,000.00   6.80%    ACTIVE    SAVING</t>
-  </si>
-  <si>
-    <t>27        1           12/10/2022  12/10/2022        12       VND              8,500,000,000.00              8,500,000,000.00   5.90%    ACTIVE    SAVING</t>
-  </si>
-  <si>
-    <t>28        3           13/02/2023  13/02/2023        18       VND              6,000,000,000.00              6,000,000,000.00   6.50%    ACTIVE    SAVING</t>
-  </si>
-  <si>
-    <t>29        3           19/11/2022  19/11/2022        12       USD                    200,000.00              4,700,000,000.00   0.00%    ACTIVE    SAVING</t>
-  </si>
-  <si>
-    <t>30        3           11/12/2022  11/12/2022        12       USD                    200,001.00              4,700,023,500.00   0.00%    ACTIVE    SAVING</t>
-  </si>
-  <si>
-    <t>32        2           22/11/2022  22/11/2022        48       USD                    200,003.00              4,700,070,500.00   0.00%    ACTIVE    SAVING</t>
-  </si>
-  <si>
-    <t>33        3           13/04/2023  13/04/2023        15       USD                    200,004.00              4,700,094,000.00   0.00%    ACTIVE    SAVING</t>
-  </si>
-  <si>
-    <t>35        2           10/04/2023  10/04/2023         3       USD                    200,006.00              4,700,141,000.00   0.00%    ACTIVE    SAVING</t>
-  </si>
-  <si>
-    <t>36        1           08/04/2023  08/04/2023        24       USD                    200,007.00              4,700,164,500.00   0.00%    ACTIVE    SAVING</t>
-  </si>
-  <si>
-    <t>37        3           25/10/2022  25/10/2022        36       USD                    200,008.00              4,700,188,000.00   0.00%    ACTIVE    SAVING</t>
-  </si>
-  <si>
-    <t>38        3           07/04/2023  07/04/2023        48       USD                    200,009.00              4,700,211,500.00   0.00%    ACTIVE    SAVING</t>
-  </si>
-  <si>
-    <t>39        3           18/04/2023  18/04/2023        60       USD                    200,010.00              4,700,235,000.00   0.00%    ACTIVE    SAVING</t>
-  </si>
-  <si>
-    <t>40        2           20/10/2022  20/10/2022        24       USD                    200,011.00              4,700,258,500.00   0.00%    ACTIVE    SAVING</t>
+    <t>transactionTime</t>
+  </si>
+  <si>
+    <t>transactionType</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>debit</t>
+  </si>
+  <si>
+    <t>convertedCredit</t>
+  </si>
+  <si>
+    <t>convertedDebit</t>
   </si>
 </sst>
 </file>
@@ -1158,11 +786,18 @@
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1269,30 +904,31 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -2126,7 +1762,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
@@ -2134,681 +1770,63 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEF66A9F-C555-407B-AFB1-FA9ED92A7166}">
-  <dimension ref="A1:A130"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="A81" sqref="A81"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I1" sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="7.19921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.59765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.53125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.86328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.9296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.46484375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.53125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.53125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.46484375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.3984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.9296875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.19921875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="20.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A1" s="20" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
+      <c r="B1" s="20" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
+      <c r="C1" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="F1" s="20" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
+      <c r="G1" s="20" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
+      <c r="H1" s="20" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
+      <c r="I1" s="20" t="s">
         <v>231</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A18" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A19" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A20" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A21" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A22" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A23" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A24" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A25" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A26" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A27" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A28" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A29" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A30" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A31" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A32" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A33" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A34" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A35" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A36" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A37" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A38" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A39" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A40" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A41" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A42" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A43" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A44" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A45" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A46" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A47" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A48" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A49" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A50" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A51" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A52" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A53" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A54" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A55" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A56" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A57" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A58" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A59" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A60" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A61" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A62" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A63" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A64" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A65" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A66" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A67" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A68" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A69" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A70" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A71" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A72" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A73" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A74" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A75" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A76" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A77" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A78" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A79" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A80" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A81" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A82" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A83" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A84" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A85" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A86" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A87" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A88" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A89" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A90" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A91" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A92" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A93" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A94" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A95" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A96" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A97" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A98" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A99" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A100" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A101" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A102" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A103" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A104" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A105" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A106" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A107" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A108" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A109" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A110" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A111" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A112" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A113" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A114" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A115" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A116" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A117" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A118" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A119" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A120" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A121" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A122" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A123" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A124" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A125" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A126" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A127" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A128" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A129" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A130" t="s">
-        <v>355</v>
       </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:A36">
     <sortCondition ref="A1:A36"/>
   </sortState>
-  <phoneticPr fontId="13" type="noConversion"/>
+  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4601,7 +3619,7 @@
     <row r="1012" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="1013" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
@@ -4611,7 +3629,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF21B7AB-93DC-4751-874C-8807C9FDCFB9}">
   <dimension ref="A1:K76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A76" sqref="A76"/>
     </sheetView>
   </sheetViews>
@@ -6973,7 +5991,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/java/project-JavaBank/src/io/data.xlsx
+++ b/java/project-JavaBank/src/io/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Huy Binh\Documents\GitHub\nguyenhuybinh2604.github.io\java\project-JavaBank\src\io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD1A6BF5-A67B-41FD-A342-384F377E5095}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4569E567-2014-4D98-825A-25EEBB63A45F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" firstSheet="1" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Customer" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,8 @@
     <sheet name="exchangeRate" sheetId="6" r:id="rId8"/>
     <sheet name="interestRate" sheetId="9" r:id="rId9"/>
     <sheet name="transactionLog" sheetId="11" r:id="rId10"/>
-    <sheet name="BS" sheetId="10" r:id="rId11"/>
+    <sheet name="ratingUpdate" sheetId="12" r:id="rId11"/>
+    <sheet name="BS" sheetId="10" r:id="rId12"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">interestRate!$A$1:$F$15</definedName>
@@ -79,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1020" uniqueCount="246">
   <si>
     <t>customerId</t>
   </si>
@@ -144,9 +145,6 @@
     <t>basicSalary</t>
   </si>
   <si>
-    <t>rateOfBonus</t>
-  </si>
-  <si>
     <t>staff1</t>
   </si>
   <si>
@@ -799,6 +797,27 @@
   </si>
   <si>
     <t>last</t>
+  </si>
+  <si>
+    <t>rank</t>
+  </si>
+  <si>
+    <t>bonus</t>
+  </si>
+  <si>
+    <t>requestId</t>
+  </si>
+  <si>
+    <t>requestCreation</t>
+  </si>
+  <si>
+    <t>currentRating</t>
+  </si>
+  <si>
+    <t>proposedRating</t>
+  </si>
+  <si>
+    <t>isActive</t>
   </si>
 </sst>
 </file>
@@ -810,11 +829,18 @@
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -943,37 +969,38 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1213,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -1222,13 +1249,13 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
@@ -1236,7 +1263,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
@@ -1245,13 +1272,13 @@
         <v>5</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
@@ -1259,7 +1286,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
@@ -1268,13 +1295,13 @@
         <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
@@ -1282,7 +1309,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>10</v>
@@ -1291,13 +1318,13 @@
         <v>11</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
@@ -1305,7 +1332,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>13</v>
@@ -1314,13 +1341,13 @@
         <v>14</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="G5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
@@ -1328,7 +1355,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>15</v>
@@ -1337,13 +1364,13 @@
         <v>16</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
@@ -1351,7 +1378,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>17</v>
@@ -1360,13 +1387,13 @@
         <v>18</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F7" t="s">
         <v>6</v>
       </c>
       <c r="G7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -1374,22 +1401,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>89</v>
-      </c>
       <c r="D8" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>9</v>
       </c>
       <c r="G8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -1397,22 +1424,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>91</v>
-      </c>
       <c r="D9" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>9</v>
       </c>
       <c r="G9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -1420,22 +1447,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>93</v>
-      </c>
       <c r="D10" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F10" t="s">
         <v>6</v>
       </c>
       <c r="G10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -1443,22 +1470,22 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>95</v>
-      </c>
       <c r="D11" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F11" t="s">
         <v>6</v>
       </c>
       <c r="G11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -1466,22 +1493,22 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F12" t="s">
         <v>12</v>
       </c>
       <c r="G12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -1489,22 +1516,22 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F13" t="s">
         <v>9</v>
       </c>
       <c r="G13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -1512,22 +1539,22 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -1535,22 +1562,22 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F15" t="s">
         <v>9</v>
       </c>
       <c r="G15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -1558,22 +1585,22 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F16" t="s">
         <v>9</v>
       </c>
       <c r="G16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -1581,22 +1608,22 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F17" t="s">
         <v>9</v>
       </c>
       <c r="G17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -1604,22 +1631,22 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F18" t="s">
         <v>12</v>
       </c>
       <c r="G18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -1627,22 +1654,22 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -1650,22 +1677,22 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F20" t="s">
         <v>9</v>
       </c>
       <c r="G20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -1673,22 +1700,22 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F21" t="s">
         <v>9</v>
       </c>
       <c r="G21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -1696,22 +1723,22 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F22" t="s">
         <v>9</v>
       </c>
       <c r="G22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -1719,22 +1746,22 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F23" t="s">
         <v>9</v>
       </c>
       <c r="G23" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -1742,22 +1769,22 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F24" t="s">
         <v>6</v>
       </c>
       <c r="G24" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -1765,22 +1792,22 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F25" t="s">
         <v>6</v>
       </c>
       <c r="G25" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -1788,26 +1815,26 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F26" t="s">
         <v>9</v>
       </c>
       <c r="G26" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
@@ -1839,34 +1866,34 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B1" s="20" t="s">
+        <v>225</v>
+      </c>
+      <c r="C1" s="20" t="s">
         <v>226</v>
       </c>
-      <c r="C1" s="20" t="s">
-        <v>227</v>
-      </c>
       <c r="D1" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E1" s="20" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G1" s="20" t="s">
+        <v>227</v>
+      </c>
+      <c r="H1" s="20" t="s">
         <v>228</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="I1" s="20" t="s">
         <v>229</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="J1" s="20" t="s">
         <v>230</v>
-      </c>
-      <c r="J1" s="20" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.45">
@@ -1876,18 +1903,83 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B1:B36">
     <sortCondition ref="B1:B36"/>
   </sortState>
-  <phoneticPr fontId="15" type="noConversion"/>
+  <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2C236A0-EBEA-4274-B7D1-BA52EDA4A413}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="8.1328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.73046875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.53125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.53125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.19921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A1" s="27" t="s">
+        <v>241</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>242</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="27" t="s">
+        <v>243</v>
+      </c>
+      <c r="F1" s="27" t="s">
+        <v>244</v>
+      </c>
+      <c r="G1" s="27" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D353C15-BDD1-43C8-8E39-2FD10E2A33AF}">
   <dimension ref="B2:O27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1922,14 +2014,14 @@
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B3" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C3" s="8">
         <f>C5-C4</f>
         <v>481809789923.08008</v>
       </c>
       <c r="J3" s="25" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K3">
         <f>ROUNDUP(K2/3,0)</f>
@@ -1939,7 +2031,7 @@
         <v>2</v>
       </c>
       <c r="M3">
-        <f t="shared" ref="M3:M19" si="0">IF(L3&lt;$K$3+1,1,IF(L3&lt;$K$3+$K$4+1,2,3))</f>
+        <f t="shared" ref="M3:M18" si="0">IF(L3&lt;$K$3+1,1,IF(L3&lt;$K$3+$K$4+1,2,3))</f>
         <v>1</v>
       </c>
       <c r="N3" s="6">
@@ -1953,14 +2045,14 @@
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B4" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C4" s="7">
         <f>SUMIFS(Loan!$I:$I,Loan!$K:$K,"ACTIVE")</f>
         <v>319856758000</v>
       </c>
       <c r="J4" s="25" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K4">
         <f>K3</f>
@@ -1984,17 +2076,17 @@
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B5" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C5" s="7">
         <f>C9</f>
         <v>801666547923.08008</v>
       </c>
       <c r="F5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="J5" s="25" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K5">
         <f>K2-K3-K4</f>
@@ -2018,14 +2110,14 @@
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B6" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C6" s="7">
         <f>SUM(Account!I:I)</f>
         <v>1421196923.0799999</v>
       </c>
       <c r="F6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="L6">
         <v>5</v>
@@ -2045,14 +2137,14 @@
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B7" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C7" s="7">
         <f>SUM(Saving!I:I)</f>
         <v>500245351000</v>
       </c>
       <c r="F7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L7">
         <v>6</v>
@@ -2072,13 +2164,13 @@
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B8" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C8" s="7">
         <v>300000000000</v>
       </c>
       <c r="F8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L8">
         <v>7</v>
@@ -2098,7 +2190,7 @@
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B9" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C9" s="8">
         <f>SUM(C6:C8)</f>
@@ -2256,7 +2348,7 @@
         <v>3</v>
       </c>
       <c r="N16" s="6">
-        <f t="shared" ref="N16:N19" si="4">N15</f>
+        <f t="shared" ref="N16:N18" si="4">N15</f>
         <v>0.02</v>
       </c>
       <c r="O16" s="23">
@@ -2397,10 +2489,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F4"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -2411,17 +2503,18 @@
     <col min="4" max="4" width="8.59765625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.73046875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.59765625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.86328125" customWidth="1"/>
-    <col min="9" max="24" width="8.73046875" customWidth="1"/>
+    <col min="7" max="7" width="9.3984375" customWidth="1"/>
+    <col min="8" max="8" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.86328125" customWidth="1"/>
+    <col min="10" max="25" width="8.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -2430,94 +2523,94 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="G1" t="s">
+        <v>239</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="I1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F2" s="2">
         <v>7000000</v>
       </c>
-      <c r="G2" s="3">
-        <v>8.5000000000000006E-2</v>
-      </c>
-      <c r="H2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="G2" s="2"/>
+      <c r="H2" s="3"/>
+      <c r="I2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F3" s="2">
         <v>7500000</v>
       </c>
-      <c r="G3" s="3">
-        <v>0.06</v>
-      </c>
-      <c r="H3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="G3" s="2"/>
+      <c r="H3" s="3"/>
+      <c r="I3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F4" s="2">
         <v>6000000</v>
       </c>
-      <c r="G4" s="3">
-        <v>0.06</v>
-      </c>
-      <c r="H4" t="s">
-        <v>86</v>
+      <c r="G4" s="2"/>
+      <c r="H4" s="3"/>
+      <c r="I4" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -2531,7 +2624,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -2545,7 +2638,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -2554,30 +2647,30 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>21</v>
+        <v>240</v>
       </c>
       <c r="G1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E2" s="1">
         <v>17000000</v>
@@ -2586,7 +2679,7 @@
         <v>8.5000000000000006E-2</v>
       </c>
       <c r="G2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -2615,512 +2708,512 @@
   <sheetData>
     <row r="1" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="D2" s="2">
         <v>40</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="D3" s="2">
         <v>15</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="C4" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D4" s="2">
         <v>50</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="C5" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D5" s="2">
         <v>44</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="C6" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D6" s="2">
         <v>52</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="C7" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D7" s="2">
         <v>44</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D8" s="9">
         <v>30</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D9" s="9">
         <v>29</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D10" s="9">
         <v>28</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D11" s="9">
         <v>31</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D12" s="9">
         <v>46</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D13" s="9">
         <v>47</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D14" s="9">
         <v>45</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D15" s="9">
         <v>50</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D16" s="9">
         <v>48</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D17" s="9">
         <v>32</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D18" s="9">
         <v>27</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D19" s="9">
         <v>42</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D20" s="9">
         <v>41</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D21" s="9">
         <v>36</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D22" s="9">
         <v>50</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D23" s="9">
         <v>30</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D24" s="9">
         <v>49</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D25" s="9">
         <v>43</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D26" s="9">
         <v>26</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="C27" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D27" s="2">
         <v>33</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="C28" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D28" s="2">
         <v>29</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="C29" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D29" s="2">
         <v>31</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>69</v>
-      </c>
       <c r="C30" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D30" s="2">
         <v>43</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -4104,7 +4197,7 @@
     <row r="1012" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="1013" ht="15.75" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
@@ -4114,7 +4207,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF21B7AB-93DC-4751-874C-8807C9FDCFB9}">
   <dimension ref="A1:K76"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A55" workbookViewId="0">
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
@@ -4135,7 +4228,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -4144,28 +4237,28 @@
         <v>19</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="F1" s="12" t="s">
-        <v>209</v>
-      </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>79</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.45">
@@ -4179,7 +4272,7 @@
         <v>41092</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H2">
         <v>537251</v>
@@ -4193,7 +4286,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.45">
@@ -4210,7 +4303,7 @@
         <v>43316</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H3">
         <v>238237</v>
@@ -4224,7 +4317,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.45">
@@ -4241,7 +4334,7 @@
         <v>41334</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H4">
         <v>536806</v>
@@ -4255,7 +4348,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.45">
@@ -4272,7 +4365,7 @@
         <v>42255</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H5">
         <v>75604</v>
@@ -4286,7 +4379,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.45">
@@ -4303,7 +4396,7 @@
         <v>42469</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H6">
         <v>113622</v>
@@ -4317,7 +4410,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.45">
@@ -4334,7 +4427,7 @@
         <v>40723</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H7">
         <v>287474</v>
@@ -4348,7 +4441,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.45">
@@ -4365,7 +4458,7 @@
         <v>40590</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H8">
         <v>4113</v>
@@ -4379,7 +4472,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.45">
@@ -4396,7 +4489,7 @@
         <v>41097</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H9">
         <v>4172</v>
@@ -4410,7 +4503,7 @@
         <v>0</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.45">
@@ -4427,7 +4520,7 @@
         <v>42263</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H10">
         <v>1626</v>
@@ -4441,7 +4534,7 @@
         <v>0</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.45">
@@ -4458,7 +4551,7 @@
         <v>41451</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H11">
         <v>3420</v>
@@ -4472,7 +4565,7 @@
         <v>0</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.45">
@@ -4489,7 +4582,7 @@
         <v>43745</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H12">
         <v>3742</v>
@@ -4503,7 +4596,7 @@
         <v>0</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.45">
@@ -4520,7 +4613,7 @@
         <v>40997</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H13">
         <v>4345</v>
@@ -4534,7 +4627,7 @@
         <v>0</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.45">
@@ -4551,7 +4644,7 @@
         <v>43422</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H14">
         <v>323</v>
@@ -4565,7 +4658,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.45">
@@ -4582,7 +4675,7 @@
         <v>41168</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H15">
         <v>210</v>
@@ -4596,7 +4689,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.45">
@@ -4613,7 +4706,7 @@
         <v>40835</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H16">
         <v>490</v>
@@ -4627,7 +4720,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.45">
@@ -4644,7 +4737,7 @@
         <v>44123</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H17">
         <v>481</v>
@@ -4658,7 +4751,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.45">
@@ -4675,7 +4768,7 @@
         <v>41981</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H18">
         <v>287</v>
@@ -4689,7 +4782,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.45">
@@ -4706,7 +4799,7 @@
         <v>41004</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H19">
         <v>491</v>
@@ -4720,7 +4813,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.45">
@@ -4737,7 +4830,7 @@
         <v>42846</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H20">
         <v>9980102</v>
@@ -4751,7 +4844,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.45">
@@ -4768,7 +4861,7 @@
         <v>44145</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H21">
         <v>5476967</v>
@@ -4782,7 +4875,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.45">
@@ -4799,7 +4892,7 @@
         <v>44904</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H22">
         <v>4549845</v>
@@ -4813,7 +4906,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.45">
@@ -4830,7 +4923,7 @@
         <v>43775</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H23">
         <v>5863377</v>
@@ -4844,7 +4937,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.45">
@@ -4861,7 +4954,7 @@
         <v>43591</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H24">
         <v>8448457</v>
@@ -4875,7 +4968,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.45">
@@ -4892,7 +4985,7 @@
         <v>44831</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H25">
         <v>3872282</v>
@@ -4906,7 +4999,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.45">
@@ -4923,7 +5016,7 @@
         <v>42794</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H26">
         <v>5739796</v>
@@ -4937,7 +5030,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.45">
@@ -4954,7 +5047,7 @@
         <v>43645</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H27">
         <v>7755939</v>
@@ -4968,7 +5061,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="K27" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.45">
@@ -4985,7 +5078,7 @@
         <v>44874</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H28">
         <v>7213398</v>
@@ -4999,7 +5092,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="K28" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.45">
@@ -5016,7 +5109,7 @@
         <v>44413</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H29">
         <v>6577462</v>
@@ -5030,7 +5123,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="K29" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.45">
@@ -5047,7 +5140,7 @@
         <v>43560</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H30">
         <v>2960169</v>
@@ -5061,7 +5154,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="K30" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.45">
@@ -5078,7 +5171,7 @@
         <v>44453</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H31">
         <v>8009206</v>
@@ -5092,7 +5185,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="K31" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.45">
@@ -5109,7 +5202,7 @@
         <v>44206</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H32">
         <v>7747227</v>
@@ -5123,7 +5216,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="K32" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.45">
@@ -5140,7 +5233,7 @@
         <v>44862</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H33">
         <v>8563947</v>
@@ -5154,7 +5247,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="K33" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.45">
@@ -5171,7 +5264,7 @@
         <v>43873</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H34">
         <v>9371489</v>
@@ -5185,7 +5278,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="K34" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.45">
@@ -5202,7 +5295,7 @@
         <v>43135</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H35">
         <v>5359387</v>
@@ -5216,7 +5309,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="K35" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.45">
@@ -5230,7 +5323,7 @@
         <v>43851</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H36">
         <v>7487506</v>
@@ -5244,7 +5337,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="K36" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.45">
@@ -5261,7 +5354,7 @@
         <v>44812</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H37">
         <v>1603258</v>
@@ -5275,7 +5368,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="K37" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.45">
@@ -5292,7 +5385,7 @@
         <v>44040</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H38">
         <v>2798196</v>
@@ -5306,7 +5399,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="K38" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.45">
@@ -5323,7 +5416,7 @@
         <v>43760</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H39">
         <v>150</v>
@@ -5337,7 +5430,7 @@
         <v>0</v>
       </c>
       <c r="K39" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.45">
@@ -5354,7 +5447,7 @@
         <v>44115</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H40">
         <v>2967</v>
@@ -5368,7 +5461,7 @@
         <v>0</v>
       </c>
       <c r="K40" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.45">
@@ -5385,7 +5478,7 @@
         <v>44188</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H41">
         <v>214</v>
@@ -5399,7 +5492,7 @@
         <v>0</v>
       </c>
       <c r="K41" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.45">
@@ -5416,7 +5509,7 @@
         <v>43139</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H42">
         <v>2850</v>
@@ -5430,7 +5523,7 @@
         <v>0</v>
       </c>
       <c r="K42" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.45">
@@ -5447,7 +5540,7 @@
         <v>44198</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H43">
         <v>2852</v>
@@ -5461,7 +5554,7 @@
         <v>0</v>
       </c>
       <c r="K43" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.45">
@@ -5478,7 +5571,7 @@
         <v>44371</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H44">
         <v>351</v>
@@ -5492,7 +5585,7 @@
         <v>0</v>
       </c>
       <c r="K44" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.45">
@@ -5509,7 +5602,7 @@
         <v>44043</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H45">
         <v>124</v>
@@ -5523,7 +5616,7 @@
         <v>0</v>
       </c>
       <c r="K45" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.45">
@@ -5540,7 +5633,7 @@
         <v>43807</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H46">
         <v>1990</v>
@@ -5554,7 +5647,7 @@
         <v>0</v>
       </c>
       <c r="K46" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.45">
@@ -5571,7 +5664,7 @@
         <v>44072</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H47">
         <v>434</v>
@@ -5585,7 +5678,7 @@
         <v>0</v>
       </c>
       <c r="K47" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.45">
@@ -5602,7 +5695,7 @@
         <v>44302</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H48">
         <v>1177</v>
@@ -5616,7 +5709,7 @@
         <v>0</v>
       </c>
       <c r="K48" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.45">
@@ -5633,7 +5726,7 @@
         <v>43405</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H49">
         <v>779</v>
@@ -5647,7 +5740,7 @@
         <v>0</v>
       </c>
       <c r="K49" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.45">
@@ -5664,7 +5757,7 @@
         <v>43605</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H50">
         <v>360</v>
@@ -5678,7 +5771,7 @@
         <v>0</v>
       </c>
       <c r="K50" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.45">
@@ -5692,7 +5785,7 @@
         <v>44204</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H51">
         <v>270</v>
@@ -5706,7 +5799,7 @@
         <v>0</v>
       </c>
       <c r="K51" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.45">
@@ -5723,7 +5816,7 @@
         <v>43202</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H52">
         <v>194</v>
@@ -5737,7 +5830,7 @@
         <v>0</v>
       </c>
       <c r="K52" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.45">
@@ -5754,7 +5847,7 @@
         <v>43331</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H53">
         <v>420</v>
@@ -5768,7 +5861,7 @@
         <v>0</v>
       </c>
       <c r="K53" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.45">
@@ -5782,7 +5875,7 @@
         <v>44422</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H54">
         <v>277</v>
@@ -5796,7 +5889,7 @@
         <v>0</v>
       </c>
       <c r="K54" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.45">
@@ -5813,7 +5906,7 @@
         <v>43798</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H55">
         <v>1875</v>
@@ -5827,7 +5920,7 @@
         <v>0</v>
       </c>
       <c r="K55" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.45">
@@ -5844,7 +5937,7 @@
         <v>43490</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H56">
         <v>662</v>
@@ -5858,7 +5951,7 @@
         <v>0</v>
       </c>
       <c r="K56" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.45">
@@ -5875,7 +5968,7 @@
         <v>44425</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H57">
         <v>2053</v>
@@ -5889,7 +5982,7 @@
         <v>0</v>
       </c>
       <c r="K57" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.45">
@@ -5906,7 +5999,7 @@
         <v>43277</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H58">
         <v>646</v>
@@ -5920,7 +6013,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="K58" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.45">
@@ -5934,7 +6027,7 @@
         <v>44312</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H59">
         <v>676</v>
@@ -5948,7 +6041,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="K59" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.45">
@@ -5965,7 +6058,7 @@
         <v>44407</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H60">
         <v>643</v>
@@ -5979,7 +6072,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="K60" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.45">
@@ -5996,7 +6089,7 @@
         <v>44225</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H61">
         <v>710</v>
@@ -6010,7 +6103,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="K61" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.45">
@@ -6027,7 +6120,7 @@
         <v>43860</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H62">
         <v>555</v>
@@ -6041,7 +6134,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="K62" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.45">
@@ -6058,7 +6151,7 @@
         <v>43148</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H63">
         <v>445</v>
@@ -6072,7 +6165,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="K63" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.45">
@@ -6089,7 +6182,7 @@
         <v>44407</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H64">
         <v>44</v>
@@ -6103,7 +6196,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="K64" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.45">
@@ -6120,7 +6213,7 @@
         <v>43845</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H65">
         <v>242</v>
@@ -6134,7 +6227,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="K65" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.45">
@@ -6151,7 +6244,7 @@
         <v>43287</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H66">
         <v>83</v>
@@ -6165,7 +6258,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="K66" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.45">
@@ -6182,7 +6275,7 @@
         <v>43744</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H67">
         <v>990</v>
@@ -6196,7 +6289,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="K67" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.45">
@@ -6213,7 +6306,7 @@
         <v>43209</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H68">
         <v>973</v>
@@ -6227,7 +6320,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="K68" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.45">
@@ -6244,7 +6337,7 @@
         <v>43609</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H69">
         <v>658</v>
@@ -6258,7 +6351,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="K69" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.45">
@@ -6275,7 +6368,7 @@
         <v>43615</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H70">
         <v>814</v>
@@ -6289,7 +6382,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="K70" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.45">
@@ -6306,7 +6399,7 @@
         <v>43638</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H71">
         <v>656</v>
@@ -6320,7 +6413,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="K71" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.45">
@@ -6337,7 +6430,7 @@
         <v>44272</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H72">
         <v>90</v>
@@ -6351,7 +6444,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="K72" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.45">
@@ -6368,7 +6461,7 @@
         <v>43325</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H73">
         <v>470</v>
@@ -6382,7 +6475,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="K73" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.45">
@@ -6396,7 +6489,7 @@
         <v>44237</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H74">
         <v>740</v>
@@ -6410,7 +6503,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="K74" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.45">
@@ -6427,7 +6520,7 @@
         <v>43356</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H75">
         <v>426</v>
@@ -6441,7 +6534,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="K75" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.45">
@@ -6458,7 +6551,7 @@
         <v>43771</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H76">
         <v>389</v>
@@ -6472,11 +6565,11 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="K76" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -6487,7 +6580,7 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -6508,7 +6601,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" s="18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -6517,28 +6610,28 @@
         <v>19</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="F1" s="12" t="s">
-        <v>209</v>
-      </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>79</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>80</v>
       </c>
       <c r="L1" s="12" t="s">
         <v>3</v>
@@ -6562,7 +6655,7 @@
         <v>60</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H2" s="7">
         <v>3000000000</v>
@@ -6576,7 +6669,7 @@
         <v>0.11600000000000003</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L2" t="str">
         <f>VLOOKUP(B2,Customer!$A$2:$F$26,6)</f>
@@ -6604,7 +6697,7 @@
         <v>240</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H3" s="7">
         <v>10000000000</v>
@@ -6618,7 +6711,7 @@
         <v>0.13300000000000003</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L3" t="str">
         <f>VLOOKUP(B3,Customer!$A$2:$F$26,6)</f>
@@ -6646,7 +6739,7 @@
         <v>48</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H4" s="7">
         <v>14000000000</v>
@@ -6660,7 +6753,7 @@
         <v>0.12200000000000004</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L4" t="str">
         <f>VLOOKUP(B4,Customer!$A$2:$F$26,6)</f>
@@ -6681,7 +6774,7 @@
         <v>84</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H5" s="7">
         <v>38000000000</v>
@@ -6695,7 +6788,7 @@
         <v>0</v>
       </c>
       <c r="K5" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="L5" t="str">
         <f>VLOOKUP(B5,Customer!$A$2:$F$26,6)</f>
@@ -6716,7 +6809,7 @@
         <v>9</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H6" s="7">
         <v>30000000000</v>
@@ -6730,7 +6823,7 @@
         <v>0</v>
       </c>
       <c r="K6" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="L6" t="str">
         <f>VLOOKUP(B6,Customer!$A$2:$F$26,6)</f>
@@ -6758,7 +6851,7 @@
         <v>36</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H7" s="7">
         <v>11000000000</v>
@@ -6772,7 +6865,7 @@
         <v>0.10800000000000003</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L7" t="str">
         <f>VLOOKUP(B7,Customer!$A$2:$F$26,6)</f>
@@ -6800,7 +6893,7 @@
         <v>120</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H8">
         <v>628877</v>
@@ -6814,7 +6907,7 @@
         <v>4.1000000000000009E-2</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L8" t="str">
         <f>VLOOKUP(B8,Customer!$A$2:$F$26,6)</f>
@@ -6842,7 +6935,7 @@
         <v>360</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H9">
         <v>904812</v>
@@ -6856,7 +6949,7 @@
         <v>4.8000000000000008E-2</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L9" t="str">
         <f>VLOOKUP(B9,Customer!$A$2:$F$26,6)</f>
@@ -6877,7 +6970,7 @@
         <v>48</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H10">
         <v>112665</v>
@@ -6891,7 +6984,7 @@
         <v>0</v>
       </c>
       <c r="K10" s="16" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="L10" t="str">
         <f>VLOOKUP(B10,Customer!$A$2:$F$26,6)</f>
@@ -6919,7 +7012,7 @@
         <v>240</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H11">
         <v>908493</v>
@@ -6933,7 +7026,7 @@
         <v>4.200000000000001E-2</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L11" t="str">
         <f>VLOOKUP(B11,Customer!$A$2:$F$26,6)</f>
@@ -6954,7 +7047,7 @@
         <v>60</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H12">
         <v>230145</v>
@@ -6968,7 +7061,7 @@
         <v>0</v>
       </c>
       <c r="K12" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="L12" t="str">
         <f>VLOOKUP(B12,Customer!$A$2:$F$26,6)</f>
@@ -6996,7 +7089,7 @@
         <v>60</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H13">
         <v>530446</v>
@@ -7010,7 +7103,7 @@
         <v>3.9000000000000007E-2</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L13" t="str">
         <f>VLOOKUP(B13,Customer!$A$2:$F$26,6)</f>
@@ -7038,7 +7131,7 @@
         <v>240</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H14" s="7">
         <v>39000000000</v>
@@ -7052,7 +7145,7 @@
         <v>0.12800000000000003</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L14" t="str">
         <f>VLOOKUP(B14,Customer!$A$2:$F$26,6)</f>
@@ -7080,7 +7173,7 @@
         <v>360</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H15" s="7">
         <v>48000000000</v>
@@ -7094,7 +7187,7 @@
         <v>0.13700000000000004</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L15" t="str">
         <f>VLOOKUP(B15,Customer!$A$2:$F$26,6)</f>
@@ -7122,7 +7215,7 @@
         <v>120</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H16" s="7">
         <v>31000000000</v>
@@ -7136,7 +7229,7 @@
         <v>0.13400000000000004</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L16" t="str">
         <f>VLOOKUP(B16,Customer!$A$2:$F$26,6)</f>
@@ -7164,7 +7257,7 @@
         <v>48</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H17" s="7">
         <v>42000000000</v>
@@ -7178,7 +7271,7 @@
         <v>0.11200000000000003</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L17" t="str">
         <f>VLOOKUP(B17,Customer!$A$2:$F$26,6)</f>
@@ -7199,7 +7292,7 @@
         <v>15</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H18" s="7">
         <v>45000000000</v>
@@ -7213,7 +7306,7 @@
         <v>0</v>
       </c>
       <c r="K18" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="L18" t="str">
         <f>VLOOKUP(B18,Customer!$A$2:$F$26,6)</f>
@@ -7241,7 +7334,7 @@
         <v>36</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H19" s="7">
         <v>19000000000</v>
@@ -7255,7 +7348,7 @@
         <v>0.10800000000000003</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L19" t="str">
         <f>VLOOKUP(B19,Customer!$A$2:$F$26,6)</f>
@@ -7283,7 +7376,7 @@
         <v>36</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H20" s="7">
         <v>31000000000</v>
@@ -7297,7 +7390,7 @@
         <v>0.10800000000000003</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L20" t="str">
         <f>VLOOKUP(B20,Customer!$A$2:$F$26,6)</f>
@@ -7322,7 +7415,7 @@
         <v>48</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H21" s="7">
         <v>2000000000</v>
@@ -7336,7 +7429,7 @@
         <v>0.11700000000000003</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L21" t="str">
         <f>VLOOKUP(B21,Customer!$A$2:$F$26,6)</f>
@@ -7352,7 +7445,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DB35AC3-6DBB-4728-A5E8-FCDA1B812037}">
   <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
@@ -7373,7 +7466,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" s="18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -7382,28 +7475,28 @@
         <v>19</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="F1" s="12" t="s">
-        <v>209</v>
-      </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="I1" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>79</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.45">
@@ -7427,7 +7520,7 @@
         <v>18</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H2" s="7">
         <v>300000000</v>
@@ -7440,7 +7533,7 @@
         <v>6.5000000000000016E-2</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.45">
@@ -7464,7 +7557,7 @@
         <v>36</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H3" s="7">
         <v>1000000000</v>
@@ -7477,7 +7570,7 @@
         <v>7.1000000000000021E-2</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.45">
@@ -7501,7 +7594,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H4" s="7">
         <v>1400000000</v>
@@ -7514,7 +7607,7 @@
         <v>5.9000000000000011E-2</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.45">
@@ -7538,7 +7631,7 @@
         <v>36</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H5" s="7">
         <v>3800000000</v>
@@ -7551,7 +7644,7 @@
         <v>7.1000000000000021E-2</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.45">
@@ -7575,7 +7668,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H6" s="7">
         <v>3000000000</v>
@@ -7588,7 +7681,7 @@
         <v>5.9000000000000011E-2</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.45">
@@ -7612,7 +7705,7 @@
         <v>36</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H7" s="7">
         <v>1100000000</v>
@@ -7625,7 +7718,7 @@
         <v>7.1000000000000021E-2</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.45">
@@ -7649,7 +7742,7 @@
         <v>9</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H8" s="7">
         <v>62887699999.999992</v>
@@ -7662,7 +7755,7 @@
         <v>5.6000000000000008E-2</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.45">
@@ -7686,7 +7779,7 @@
         <v>15</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H9" s="7">
         <v>90481200000</v>
@@ -7699,7 +7792,7 @@
         <v>6.2000000000000013E-2</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.45">
@@ -7723,7 +7816,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H10" s="7">
         <v>11266500000</v>
@@ -7736,7 +7829,7 @@
         <v>5.9000000000000011E-2</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.45">
@@ -7760,7 +7853,7 @@
         <v>9</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H11" s="7">
         <v>90849300000</v>
@@ -7773,7 +7866,7 @@
         <v>5.6000000000000008E-2</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.45">
@@ -7797,7 +7890,7 @@
         <v>9</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H12" s="7">
         <v>23014500000</v>
@@ -7810,7 +7903,7 @@
         <v>5.6000000000000008E-2</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.45">
@@ -7834,7 +7927,7 @@
         <v>15</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H13" s="7">
         <v>53044600000</v>
@@ -7847,7 +7940,7 @@
         <v>6.2000000000000013E-2</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.45">
@@ -7871,7 +7964,7 @@
         <v>36</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H14" s="7">
         <v>3900000000</v>
@@ -7884,7 +7977,7 @@
         <v>7.1000000000000021E-2</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.45">
@@ -7908,7 +8001,7 @@
         <v>60</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H15" s="7">
         <v>4800000000</v>
@@ -7921,7 +8014,7 @@
         <v>7.7000000000000027E-2</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.45">
@@ -7945,7 +8038,7 @@
         <v>9</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H16" s="7">
         <v>3100000000</v>
@@ -7958,7 +8051,7 @@
         <v>5.6000000000000008E-2</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.45">
@@ -7982,7 +8075,7 @@
         <v>24</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H17" s="7">
         <v>4200000000</v>
@@ -7995,7 +8088,7 @@
         <v>6.8000000000000019E-2</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.45">
@@ -8019,7 +8112,7 @@
         <v>18</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H18" s="7">
         <v>4500000000</v>
@@ -8032,7 +8125,7 @@
         <v>6.5000000000000016E-2</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.45">
@@ -8056,7 +8149,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H19" s="7">
         <v>1900000000</v>
@@ -8069,7 +8162,7 @@
         <v>5.9000000000000011E-2</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.45">
@@ -8093,7 +8186,7 @@
         <v>48</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H20" s="7">
         <v>3100000000</v>
@@ -8106,7 +8199,7 @@
         <v>7.4000000000000024E-2</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.45">
@@ -8130,7 +8223,7 @@
         <v>48</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H21" s="7">
         <v>17000000000</v>
@@ -8143,7 +8236,7 @@
         <v>7.4000000000000024E-2</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.45">
@@ -8167,7 +8260,7 @@
         <v>48</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H22" s="7">
         <v>1500000000</v>
@@ -8180,7 +8273,7 @@
         <v>7.4000000000000024E-2</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.45">
@@ -8204,7 +8297,7 @@
         <v>48</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H23" s="7">
         <v>15000000000</v>
@@ -8217,7 +8310,7 @@
         <v>7.4000000000000024E-2</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.45">
@@ -8241,7 +8334,7 @@
         <v>36</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H24" s="7">
         <v>2000000000</v>
@@ -8254,7 +8347,7 @@
         <v>7.1000000000000021E-2</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.45">
@@ -8278,7 +8371,7 @@
         <v>60</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H25" s="7">
         <v>20000000000</v>
@@ -8291,7 +8384,7 @@
         <v>7.7000000000000027E-2</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.45">
@@ -8315,7 +8408,7 @@
         <v>36</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H26" s="7">
         <v>6000000000</v>
@@ -8328,7 +8421,7 @@
         <v>7.1000000000000021E-2</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.45">
@@ -8352,7 +8445,7 @@
         <v>24</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H27" s="7">
         <v>200000000</v>
@@ -8365,7 +8458,7 @@
         <v>6.8000000000000019E-2</v>
       </c>
       <c r="K27" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.45">
@@ -8389,7 +8482,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H28" s="7">
         <v>8500000000</v>
@@ -8402,7 +8495,7 @@
         <v>5.9000000000000011E-2</v>
       </c>
       <c r="K28" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.45">
@@ -8426,7 +8519,7 @@
         <v>18</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H29" s="7">
         <v>6000000000</v>
@@ -8439,7 +8532,7 @@
         <v>6.5000000000000016E-2</v>
       </c>
       <c r="K29" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.45">
@@ -8463,7 +8556,7 @@
         <v>12</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H30" s="7">
         <v>200000</v>
@@ -8476,7 +8569,7 @@
         <v>0</v>
       </c>
       <c r="K30" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.45">
@@ -8500,7 +8593,7 @@
         <v>12</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H31" s="7">
         <v>200001</v>
@@ -8513,7 +8606,7 @@
         <v>0</v>
       </c>
       <c r="K31" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.45">
@@ -8537,7 +8630,7 @@
         <v>9</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H32" s="7">
         <v>200002</v>
@@ -8550,7 +8643,7 @@
         <v>0</v>
       </c>
       <c r="K32" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.45">
@@ -8574,7 +8667,7 @@
         <v>48</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H33" s="7">
         <v>200003</v>
@@ -8587,7 +8680,7 @@
         <v>0</v>
       </c>
       <c r="K33" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.45">
@@ -8611,7 +8704,7 @@
         <v>15</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H34" s="7">
         <v>200004</v>
@@ -8624,7 +8717,7 @@
         <v>0</v>
       </c>
       <c r="K34" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.45">
@@ -8648,7 +8741,7 @@
         <v>9</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H35" s="7">
         <v>200005</v>
@@ -8661,7 +8754,7 @@
         <v>0</v>
       </c>
       <c r="K35" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.45">
@@ -8685,7 +8778,7 @@
         <v>3</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H36" s="7">
         <v>200006</v>
@@ -8698,7 +8791,7 @@
         <v>0</v>
       </c>
       <c r="K36" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.45">
@@ -8722,7 +8815,7 @@
         <v>24</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H37" s="7">
         <v>200007</v>
@@ -8735,7 +8828,7 @@
         <v>0</v>
       </c>
       <c r="K37" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.45">
@@ -8759,7 +8852,7 @@
         <v>36</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H38" s="7">
         <v>200008</v>
@@ -8772,7 +8865,7 @@
         <v>0</v>
       </c>
       <c r="K38" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.45">
@@ -8796,7 +8889,7 @@
         <v>48</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H39" s="7">
         <v>200009</v>
@@ -8809,7 +8902,7 @@
         <v>0</v>
       </c>
       <c r="K39" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.45">
@@ -8833,7 +8926,7 @@
         <v>60</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H40" s="7">
         <v>200010</v>
@@ -8846,7 +8939,7 @@
         <v>0</v>
       </c>
       <c r="K40" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.45">
@@ -8870,7 +8963,7 @@
         <v>24</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H41" s="7">
         <v>200011</v>
@@ -8883,7 +8976,7 @@
         <v>0</v>
       </c>
       <c r="K41" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -8909,16 +9002,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="13" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>85</v>
-      </c>
       <c r="D1" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -8926,10 +9019,10 @@
         <v>44926</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -8940,10 +9033,10 @@
         <v>44926</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D3">
         <v>23500</v>
@@ -8954,10 +9047,10 @@
         <v>44926</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D4">
         <v>26071.69</v>
@@ -8968,10 +9061,10 @@
         <v>44926</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D5">
         <v>22035.58</v>
@@ -8982,10 +9075,10 @@
         <v>44926</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D6">
         <v>30379</v>
@@ -8996,10 +9089,10 @@
         <v>44926</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D7">
         <v>16271</v>
@@ -9010,10 +9103,10 @@
         <v>44926</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D8">
         <v>191</v>
@@ -9024,10 +9117,10 @@
         <v>44926</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D9">
         <v>23032.799999999999</v>
@@ -9038,10 +9131,10 @@
         <v>44926</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D10">
         <v>3416.69</v>
@@ -9052,10 +9145,10 @@
         <v>44926</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D11">
         <v>2576.69</v>
@@ -9066,10 +9159,10 @@
         <v>44926</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D12">
         <v>18.89</v>
@@ -9080,10 +9173,10 @@
         <v>44926</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D13">
         <v>15281.28</v>
@@ -9114,22 +9207,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="13" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D1" t="s">
         <v>208</v>
-      </c>
-      <c r="D1" t="s">
-        <v>209</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
@@ -9137,10 +9230,10 @@
         <v>44926</v>
       </c>
       <c r="B2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D2">
         <v>3</v>
@@ -9157,10 +9250,10 @@
         <v>44926</v>
       </c>
       <c r="B3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D3">
         <v>6</v>
@@ -9178,10 +9271,10 @@
         <v>44926</v>
       </c>
       <c r="B4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D4">
         <v>9</v>
@@ -9199,10 +9292,10 @@
         <v>44926</v>
       </c>
       <c r="B5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D5">
         <v>12</v>
@@ -9220,10 +9313,10 @@
         <v>44926</v>
       </c>
       <c r="B6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D6">
         <v>15</v>
@@ -9241,10 +9334,10 @@
         <v>44926</v>
       </c>
       <c r="B7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D7">
         <v>18</v>
@@ -9262,10 +9355,10 @@
         <v>44926</v>
       </c>
       <c r="B8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D8">
         <v>24</v>
@@ -9283,10 +9376,10 @@
         <v>44926</v>
       </c>
       <c r="B9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C9" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D9">
         <v>36</v>
@@ -9304,10 +9397,10 @@
         <v>44926</v>
       </c>
       <c r="B10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D10">
         <v>48</v>
@@ -9325,10 +9418,10 @@
         <v>44926</v>
       </c>
       <c r="B11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D11">
         <v>60</v>
@@ -9346,10 +9439,10 @@
         <v>44926</v>
       </c>
       <c r="B12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D12">
         <v>84</v>
@@ -9367,10 +9460,10 @@
         <v>44926</v>
       </c>
       <c r="B13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C13" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D13">
         <v>120</v>
@@ -9388,10 +9481,10 @@
         <v>44926</v>
       </c>
       <c r="B14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C14" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D14">
         <v>240</v>
@@ -9409,10 +9502,10 @@
         <v>44926</v>
       </c>
       <c r="B15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C15" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D15">
         <v>360</v>
@@ -9430,10 +9523,10 @@
         <v>44926</v>
       </c>
       <c r="B16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C16" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D16">
         <v>3</v>
@@ -9451,10 +9544,10 @@
         <v>44926</v>
       </c>
       <c r="B17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C17" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D17">
         <v>6</v>
@@ -9472,10 +9565,10 @@
         <v>44926</v>
       </c>
       <c r="B18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C18" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D18">
         <v>9</v>
@@ -9493,10 +9586,10 @@
         <v>44926</v>
       </c>
       <c r="B19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C19" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D19">
         <v>12</v>
@@ -9514,10 +9607,10 @@
         <v>44926</v>
       </c>
       <c r="B20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C20" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D20">
         <v>15</v>
@@ -9535,10 +9628,10 @@
         <v>44926</v>
       </c>
       <c r="B21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C21" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D21">
         <v>18</v>
@@ -9556,10 +9649,10 @@
         <v>44926</v>
       </c>
       <c r="B22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C22" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D22">
         <v>24</v>
@@ -9577,10 +9670,10 @@
         <v>44926</v>
       </c>
       <c r="B23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C23" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D23">
         <v>36</v>
@@ -9598,10 +9691,10 @@
         <v>44926</v>
       </c>
       <c r="B24" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C24" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D24">
         <v>48</v>
@@ -9619,10 +9712,10 @@
         <v>44926</v>
       </c>
       <c r="B25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C25" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D25">
         <v>60</v>
@@ -9640,10 +9733,10 @@
         <v>44926</v>
       </c>
       <c r="B26" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C26" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D26">
         <v>84</v>
@@ -9661,10 +9754,10 @@
         <v>44926</v>
       </c>
       <c r="B27" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C27" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D27">
         <v>120</v>
@@ -9682,10 +9775,10 @@
         <v>44926</v>
       </c>
       <c r="B28" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C28" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D28">
         <v>240</v>
@@ -9703,10 +9796,10 @@
         <v>44926</v>
       </c>
       <c r="B29" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C29" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D29">
         <v>360</v>
@@ -9724,10 +9817,10 @@
         <v>44926</v>
       </c>
       <c r="B30" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C30" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D30">
         <v>3</v>
@@ -9745,10 +9838,10 @@
         <v>44926</v>
       </c>
       <c r="B31" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C31" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D31">
         <v>6</v>
@@ -9766,10 +9859,10 @@
         <v>44926</v>
       </c>
       <c r="B32" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C32" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D32">
         <v>9</v>
@@ -9787,10 +9880,10 @@
         <v>44926</v>
       </c>
       <c r="B33" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C33" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D33">
         <v>12</v>
@@ -9808,10 +9901,10 @@
         <v>44926</v>
       </c>
       <c r="B34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C34" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D34">
         <v>15</v>
@@ -9829,10 +9922,10 @@
         <v>44926</v>
       </c>
       <c r="B35" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C35" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D35">
         <v>18</v>
@@ -9850,10 +9943,10 @@
         <v>44926</v>
       </c>
       <c r="B36" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C36" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D36">
         <v>24</v>
@@ -9871,10 +9964,10 @@
         <v>44926</v>
       </c>
       <c r="B37" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C37" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D37">
         <v>36</v>
@@ -9892,10 +9985,10 @@
         <v>44926</v>
       </c>
       <c r="B38" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C38" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D38">
         <v>48</v>
@@ -9913,10 +10006,10 @@
         <v>44926</v>
       </c>
       <c r="B39" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C39" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D39">
         <v>60</v>
@@ -9934,10 +10027,10 @@
         <v>44926</v>
       </c>
       <c r="B40" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C40" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D40">
         <v>84</v>
@@ -9955,10 +10048,10 @@
         <v>44926</v>
       </c>
       <c r="B41" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C41" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D41">
         <v>120</v>
@@ -9976,10 +10069,10 @@
         <v>44926</v>
       </c>
       <c r="B42" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C42" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D42">
         <v>240</v>
@@ -9997,10 +10090,10 @@
         <v>44926</v>
       </c>
       <c r="B43" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C43" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D43">
         <v>360</v>
@@ -10018,10 +10111,10 @@
         <v>44926</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C44" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D44">
         <v>3</v>
@@ -10038,10 +10131,10 @@
         <v>44926</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C45" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D45">
         <v>6</v>
@@ -10059,10 +10152,10 @@
         <v>44926</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C46" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D46">
         <v>9</v>
@@ -10080,10 +10173,10 @@
         <v>44926</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C47" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D47">
         <v>12</v>
@@ -10101,10 +10194,10 @@
         <v>44926</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C48" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D48">
         <v>15</v>
@@ -10122,10 +10215,10 @@
         <v>44926</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C49" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D49">
         <v>18</v>
@@ -10143,10 +10236,10 @@
         <v>44926</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C50" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D50">
         <v>24</v>
@@ -10164,10 +10257,10 @@
         <v>44926</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C51" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D51">
         <v>36</v>
@@ -10185,10 +10278,10 @@
         <v>44926</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C52" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D52">
         <v>48</v>
@@ -10206,10 +10299,10 @@
         <v>44926</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C53" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D53">
         <v>60</v>
@@ -10227,10 +10320,10 @@
         <v>44926</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C54" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D54">
         <v>84</v>
@@ -10248,10 +10341,10 @@
         <v>44926</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C55" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D55">
         <v>120</v>
@@ -10269,10 +10362,10 @@
         <v>44926</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C56" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D56">
         <v>240</v>
@@ -10290,10 +10383,10 @@
         <v>44926</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C57" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D57">
         <v>360</v>
@@ -10311,10 +10404,10 @@
         <v>44926</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C58" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D58">
         <v>3</v>
@@ -10332,10 +10425,10 @@
         <v>44926</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C59" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D59">
         <v>6</v>
@@ -10353,10 +10446,10 @@
         <v>44926</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C60" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D60">
         <v>9</v>
@@ -10374,10 +10467,10 @@
         <v>44926</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C61" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D61">
         <v>12</v>
@@ -10395,10 +10488,10 @@
         <v>44926</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C62" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D62">
         <v>15</v>
@@ -10416,10 +10509,10 @@
         <v>44926</v>
       </c>
       <c r="B63" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C63" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D63">
         <v>18</v>
@@ -10437,10 +10530,10 @@
         <v>44926</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C64" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D64">
         <v>24</v>
@@ -10458,10 +10551,10 @@
         <v>44926</v>
       </c>
       <c r="B65" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C65" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D65">
         <v>36</v>
@@ -10479,10 +10572,10 @@
         <v>44926</v>
       </c>
       <c r="B66" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C66" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D66">
         <v>48</v>
@@ -10500,10 +10593,10 @@
         <v>44926</v>
       </c>
       <c r="B67" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C67" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D67">
         <v>60</v>
@@ -10521,10 +10614,10 @@
         <v>44926</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C68" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D68">
         <v>84</v>
@@ -10542,10 +10635,10 @@
         <v>44926</v>
       </c>
       <c r="B69" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C69" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D69">
         <v>120</v>
@@ -10563,10 +10656,10 @@
         <v>44926</v>
       </c>
       <c r="B70" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C70" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D70">
         <v>240</v>
@@ -10584,10 +10677,10 @@
         <v>44926</v>
       </c>
       <c r="B71" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C71" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D71">
         <v>360</v>
@@ -10605,10 +10698,10 @@
         <v>44926</v>
       </c>
       <c r="B72" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C72" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D72">
         <v>3</v>
@@ -10626,10 +10719,10 @@
         <v>44926</v>
       </c>
       <c r="B73" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C73" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D73">
         <v>6</v>
@@ -10647,10 +10740,10 @@
         <v>44926</v>
       </c>
       <c r="B74" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C74" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D74">
         <v>9</v>
@@ -10668,10 +10761,10 @@
         <v>44926</v>
       </c>
       <c r="B75" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C75" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D75">
         <v>12</v>
@@ -10689,10 +10782,10 @@
         <v>44926</v>
       </c>
       <c r="B76" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C76" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D76">
         <v>15</v>
@@ -10710,10 +10803,10 @@
         <v>44926</v>
       </c>
       <c r="B77" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C77" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D77">
         <v>18</v>
@@ -10731,10 +10824,10 @@
         <v>44926</v>
       </c>
       <c r="B78" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C78" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D78">
         <v>24</v>
@@ -10752,10 +10845,10 @@
         <v>44926</v>
       </c>
       <c r="B79" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C79" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D79">
         <v>36</v>
@@ -10773,10 +10866,10 @@
         <v>44926</v>
       </c>
       <c r="B80" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C80" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D80">
         <v>48</v>
@@ -10794,10 +10887,10 @@
         <v>44926</v>
       </c>
       <c r="B81" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C81" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D81">
         <v>60</v>
@@ -10815,10 +10908,10 @@
         <v>44926</v>
       </c>
       <c r="B82" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C82" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D82">
         <v>84</v>
@@ -10836,10 +10929,10 @@
         <v>44926</v>
       </c>
       <c r="B83" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C83" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D83">
         <v>120</v>
@@ -10857,10 +10950,10 @@
         <v>44926</v>
       </c>
       <c r="B84" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C84" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D84">
         <v>240</v>
@@ -10878,10 +10971,10 @@
         <v>44926</v>
       </c>
       <c r="B85" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C85" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D85">
         <v>360</v>
@@ -10899,10 +10992,10 @@
         <v>44926</v>
       </c>
       <c r="B86" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C86" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D86">
         <v>3</v>
@@ -10916,10 +11009,10 @@
         <v>44926</v>
       </c>
       <c r="B87" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C87" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D87">
         <v>6</v>
@@ -10934,10 +11027,10 @@
         <v>44926</v>
       </c>
       <c r="B88" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C88" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D88">
         <v>9</v>
@@ -10952,10 +11045,10 @@
         <v>44926</v>
       </c>
       <c r="B89" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C89" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D89">
         <v>12</v>
@@ -10970,10 +11063,10 @@
         <v>44926</v>
       </c>
       <c r="B90" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C90" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D90">
         <v>15</v>
@@ -10988,10 +11081,10 @@
         <v>44926</v>
       </c>
       <c r="B91" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C91" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D91">
         <v>18</v>
@@ -11006,10 +11099,10 @@
         <v>44926</v>
       </c>
       <c r="B92" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C92" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D92">
         <v>24</v>
@@ -11024,10 +11117,10 @@
         <v>44926</v>
       </c>
       <c r="B93" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C93" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D93">
         <v>36</v>
@@ -11042,10 +11135,10 @@
         <v>44926</v>
       </c>
       <c r="B94" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C94" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D94">
         <v>48</v>
@@ -11060,10 +11153,10 @@
         <v>44926</v>
       </c>
       <c r="B95" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C95" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D95">
         <v>60</v>
@@ -11078,10 +11171,10 @@
         <v>44926</v>
       </c>
       <c r="B96" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C96" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D96">
         <v>3</v>
@@ -11095,10 +11188,10 @@
         <v>44926</v>
       </c>
       <c r="B97" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C97" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D97">
         <v>6</v>
@@ -11112,10 +11205,10 @@
         <v>44926</v>
       </c>
       <c r="B98" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C98" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D98">
         <v>9</v>
@@ -11129,10 +11222,10 @@
         <v>44926</v>
       </c>
       <c r="B99" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C99" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D99">
         <v>12</v>
@@ -11146,10 +11239,10 @@
         <v>44926</v>
       </c>
       <c r="B100" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C100" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D100">
         <v>15</v>
@@ -11163,10 +11256,10 @@
         <v>44926</v>
       </c>
       <c r="B101" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C101" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D101">
         <v>18</v>
@@ -11180,10 +11273,10 @@
         <v>44926</v>
       </c>
       <c r="B102" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C102" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D102">
         <v>24</v>
@@ -11197,10 +11290,10 @@
         <v>44926</v>
       </c>
       <c r="B103" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C103" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D103">
         <v>36</v>
@@ -11214,10 +11307,10 @@
         <v>44926</v>
       </c>
       <c r="B104" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C104" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D104">
         <v>48</v>
@@ -11231,10 +11324,10 @@
         <v>44926</v>
       </c>
       <c r="B105" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C105" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D105">
         <v>60</v>
@@ -11248,10 +11341,10 @@
         <v>44926</v>
       </c>
       <c r="B106" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C106" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D106">
         <v>3</v>
@@ -11265,10 +11358,10 @@
         <v>44926</v>
       </c>
       <c r="B107" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C107" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D107">
         <v>6</v>
@@ -11282,10 +11375,10 @@
         <v>44926</v>
       </c>
       <c r="B108" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C108" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D108">
         <v>9</v>
@@ -11299,10 +11392,10 @@
         <v>44926</v>
       </c>
       <c r="B109" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C109" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D109">
         <v>12</v>
@@ -11316,10 +11409,10 @@
         <v>44926</v>
       </c>
       <c r="B110" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C110" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D110">
         <v>15</v>
@@ -11333,10 +11426,10 @@
         <v>44926</v>
       </c>
       <c r="B111" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C111" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D111">
         <v>18</v>
@@ -11350,10 +11443,10 @@
         <v>44926</v>
       </c>
       <c r="B112" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C112" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D112">
         <v>24</v>
@@ -11367,10 +11460,10 @@
         <v>44926</v>
       </c>
       <c r="B113" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C113" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D113">
         <v>36</v>
@@ -11384,10 +11477,10 @@
         <v>44926</v>
       </c>
       <c r="B114" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C114" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D114">
         <v>48</v>
@@ -11401,10 +11494,10 @@
         <v>44926</v>
       </c>
       <c r="B115" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C115" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D115">
         <v>60</v>
@@ -11418,10 +11511,10 @@
         <v>44926</v>
       </c>
       <c r="B116" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C116" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F116" s="6">
         <v>5.0000000000000001E-3</v>
@@ -11432,10 +11525,10 @@
         <v>44926</v>
       </c>
       <c r="B117" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C117" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F117" s="6">
         <v>0</v>
@@ -11446,10 +11539,10 @@
         <v>44926</v>
       </c>
       <c r="B118" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="C118" s="12" t="s">
         <v>212</v>
-      </c>
-      <c r="C118" s="12" t="s">
-        <v>213</v>
       </c>
       <c r="F118" s="6">
         <v>4.0000000000000001E-3</v>
@@ -11460,10 +11553,10 @@
         <v>44926</v>
       </c>
       <c r="B119" s="14" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C119" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F119" s="6">
         <v>1E-3</v>
@@ -11474,10 +11567,10 @@
         <v>44926</v>
       </c>
       <c r="B120" s="14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C120" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F120" s="6">
         <v>1E-3</v>
@@ -11488,10 +11581,10 @@
         <v>44926</v>
       </c>
       <c r="B121" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C121" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F121" s="6">
         <v>1E-3</v>
@@ -11502,10 +11595,10 @@
         <v>44926</v>
       </c>
       <c r="B122" s="14" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C122" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F122" s="6">
         <v>1E-3</v>
@@ -11516,10 +11609,10 @@
         <v>44926</v>
       </c>
       <c r="B123" s="14" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C123" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F123" s="6">
         <v>2E-3</v>
@@ -11530,10 +11623,10 @@
         <v>44926</v>
       </c>
       <c r="B124" s="14" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C124" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F124" s="6">
         <v>4.0000000000000001E-3</v>
@@ -11544,10 +11637,10 @@
         <v>44926</v>
       </c>
       <c r="B125" s="14" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C125" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F125" s="6">
         <v>3.0000000000000001E-3</v>
@@ -11558,10 +11651,10 @@
         <v>44926</v>
       </c>
       <c r="B126" s="14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C126" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F126" s="6">
         <v>3.0000000000000001E-3</v>
@@ -11572,10 +11665,10 @@
         <v>44926</v>
       </c>
       <c r="B127" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C127" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F127" s="6">
         <v>1E-3</v>

--- a/java/project-JavaBank/src/io/data.xlsx
+++ b/java/project-JavaBank/src/io/data.xlsx
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2258" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6216" uniqueCount="433">
   <si>
     <t>customerId</t>
   </si>
@@ -1344,6 +1344,42 @@
   </si>
   <si>
     <t>BALANCE</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>cusB</t>
+  </si>
+  <si>
+    <t>b@b.com</t>
+  </si>
+  <si>
+    <t>ABC</t>
+  </si>
+  <si>
+    <t>2023-05-14 00:49:12</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>staffN</t>
+  </si>
+  <si>
+    <t>d@d.com</t>
+  </si>
+  <si>
+    <t>newStaff</t>
+  </si>
+  <si>
+    <t>CFD</t>
+  </si>
+  <si>
+    <t>2023-05-14 00:50:21</t>
   </si>
 </sst>
 </file>
@@ -1723,7 +1759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
@@ -1731,13 +1767,13 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.3984375" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="9.53125" collapsed="false"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="7.53125" collapsed="false"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="8.46484375" collapsed="false"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="8.6640625" collapsed="false"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="23.1328125" collapsed="false"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="10.33203125" collapsed="false"/>
-    <col min="7" max="7" customWidth="true" width="8.73046875" collapsed="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="9.53125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="7.53125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="8.46484375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="8.6640625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="23.1328125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="10.33203125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="8.73046875" collapsed="true"/>
   </cols>
   <sheetData>
     <row ht="14.25" r="1" spans="1:7" x14ac:dyDescent="0.45">
@@ -1995,22 +2031,22 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>20.0</v>
+        <v>26.0</v>
       </c>
       <c r="B12" t="s">
-        <v>116</v>
+        <v>422</v>
       </c>
       <c r="C12" t="s">
-        <v>161</v>
+        <v>423</v>
       </c>
       <c r="D12" t="s">
-        <v>176</v>
+        <v>5</v>
       </c>
       <c r="E12" t="s">
-        <v>195</v>
+        <v>424</v>
       </c>
       <c r="F12" t="s">
-        <v>9</v>
+        <v>218</v>
       </c>
       <c r="G12" t="s">
         <v>85</v>
@@ -2018,19 +2054,19 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>22.0</v>
+        <v>20.0</v>
       </c>
       <c r="B13" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C13" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D13" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E13" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F13" t="s">
         <v>9</v>
@@ -2041,19 +2077,19 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="B14" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C14" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D14" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E14" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F14" t="s">
         <v>9</v>
@@ -2064,22 +2100,22 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>24.0</v>
+        <v>21.0</v>
       </c>
       <c r="B15" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C15" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D15" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E15" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F15" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G15" t="s">
         <v>85</v>
@@ -2087,19 +2123,19 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="B16" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C16" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D16" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E16" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F16" t="s">
         <v>6</v>
@@ -2110,22 +2146,22 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>25.0</v>
+        <v>23.0</v>
       </c>
       <c r="B17" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C17" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D17" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E17" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F17" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G17" t="s">
         <v>85</v>
@@ -2133,22 +2169,22 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>9.0</v>
+        <v>25.0</v>
       </c>
       <c r="B18" t="s">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="C18" t="s">
-        <v>92</v>
+        <v>166</v>
       </c>
       <c r="D18" t="s">
-        <v>97</v>
+        <v>181</v>
       </c>
       <c r="E18" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="F18" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G18" t="s">
         <v>85</v>
@@ -2156,22 +2192,22 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>7.0</v>
+        <v>9.0</v>
       </c>
       <c r="B19" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C19" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D19" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E19" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F19" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G19" t="s">
         <v>85</v>
@@ -2179,19 +2215,19 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="B20" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C20" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E20" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F20" t="s">
         <v>9</v>
@@ -2202,22 +2238,22 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="B21" t="s">
-        <v>48</v>
+        <v>89</v>
       </c>
       <c r="C21" t="s">
-        <v>15</v>
+        <v>90</v>
       </c>
       <c r="D21" t="s">
-        <v>16</v>
+        <v>96</v>
       </c>
       <c r="E21" t="s">
-        <v>51</v>
+        <v>183</v>
       </c>
       <c r="F21" t="s">
-        <v>218</v>
+        <v>9</v>
       </c>
       <c r="G21" t="s">
         <v>85</v>
@@ -2225,22 +2261,22 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="B22" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C22" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D22" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E22" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F22" t="s">
-        <v>6</v>
+        <v>218</v>
       </c>
       <c r="G22" t="s">
         <v>85</v>
@@ -2248,22 +2284,22 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="B23" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="C23" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D23" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E23" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F23" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="G23" t="s">
         <v>85</v>
@@ -2271,22 +2307,22 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="B24" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C24" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F24" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G24" t="s">
         <v>85</v>
@@ -2294,19 +2330,19 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="B25" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="C25" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D25" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E25" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="F25" t="s">
         <v>6</v>
@@ -2317,24 +2353,47 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" t="s">
+        <v>34</v>
+      </c>
+      <c r="F26" t="s">
+        <v>6</v>
+      </c>
+      <c r="G26" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
         <v>2.0</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B27" t="s">
         <v>35</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C27" t="s">
         <v>7</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D27" t="s">
         <v>8</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E27" t="s">
         <v>39</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F27" t="s">
         <v>9</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G27" t="s">
         <v>85</v>
       </c>
     </row>
@@ -2347,7 +2406,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEF66A9F-C555-407B-AFB1-FA9ED92A7166}">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I7" sqref="I7"/>
@@ -2355,18 +2414,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.06640625" collapsed="false"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="13.53125" collapsed="false"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="13.3984375" collapsed="false"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="8.3984375" collapsed="false"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="9.53125" collapsed="false"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="7.46484375" collapsed="false"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="5.265625" collapsed="false"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="4.796875" collapsed="false"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="13.3984375" collapsed="false"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="12.9296875" collapsed="false"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="16.19921875" collapsed="false"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="20.73046875" collapsed="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.06640625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="13.53125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="13.3984375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="8.3984375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="9.53125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="7.46484375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="5.265625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="4.796875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="13.3984375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="12.9296875" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="16.19921875" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="20.73046875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.45">
@@ -2406,14 +2465,18 @@
         <v>0.0</v>
       </c>
       <c r="B2"/>
-      <c r="C2"/>
+      <c r="C2" t="s">
+        <v>218</v>
+      </c>
       <c r="D2" t="n">
         <v>0.0</v>
       </c>
       <c r="E2" t="n">
         <v>0.0</v>
       </c>
-      <c r="F2"/>
+      <c r="F2" t="s">
+        <v>421</v>
+      </c>
       <c r="G2" t="n">
         <v>0.0</v>
       </c>
@@ -2456,6 +2519,70 @@
         <v>9.999999999E9</v>
       </c>
       <c r="J3" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>426</v>
+      </c>
+      <c r="C4" t="s">
+        <v>420</v>
+      </c>
+      <c r="D4" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>80</v>
+      </c>
+      <c r="G4" t="n">
+        <v>99999.0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>99999.0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>432</v>
+      </c>
+      <c r="C5" t="s">
+        <v>420</v>
+      </c>
+      <c r="D5" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>205</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1.23345456E8</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>3.2158244917406396E12</v>
+      </c>
+      <c r="J5" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -2479,13 +2606,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="8.1328125" collapsed="false"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="13.3984375" collapsed="false"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="5.73046875" collapsed="false"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="9.53125" collapsed="false"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="11.53125" collapsed="false"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="13.19921875" collapsed="false"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="6.796875" collapsed="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="8.1328125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="13.3984375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="5.73046875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="9.53125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="11.53125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="13.19921875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="6.796875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
@@ -2548,17 +2675,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="14.3984375" collapsed="false"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="18.9296875" collapsed="false"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="14.3984375" collapsed="false"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="15.3984375" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" width="15.3984375" collapsed="false"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="15.3984375" collapsed="false"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="16.9296875" collapsed="false"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="16.6640625" collapsed="false"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="11.86328125" collapsed="false"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="16.9296875" collapsed="false"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="13.3984375" collapsed="false"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="14.3984375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="18.9296875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="14.3984375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="15.3984375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="15.3984375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="15.3984375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="16.9296875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="16.6640625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="11.86328125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="16.9296875" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="13.3984375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.45">
@@ -2699,7 +2826,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
@@ -2707,16 +2834,16 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.3984375" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="5.73046875" collapsed="false"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="7.53125" collapsed="false"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="8.46484375" collapsed="false"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="8.59765625" collapsed="false"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="16.73046875" collapsed="false"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="9.3984375" collapsed="false"/>
-    <col min="7" max="7" customWidth="true" width="9.3984375" collapsed="false"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="10.59765625" collapsed="false"/>
-    <col min="9" max="9" customWidth="true" width="16.86328125" collapsed="false"/>
-    <col min="10" max="25" customWidth="true" width="8.73046875" collapsed="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="5.73046875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="7.53125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="8.46484375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="8.59765625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="16.73046875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="9.3984375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="9.3984375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="10.59765625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="16.86328125" collapsed="true"/>
+    <col min="10" max="25" customWidth="true" width="8.73046875" collapsed="true"/>
   </cols>
   <sheetData>
     <row ht="14.25" r="1" spans="1:9" x14ac:dyDescent="0.45">
@@ -2750,24 +2877,26 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>427</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>428</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>59</v>
+        <v>429</v>
       </c>
       <c r="F2" t="n">
-        <v>7000000.0</v>
-      </c>
-      <c r="G2"/>
+        <v>0.0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>3.0</v>
+      </c>
       <c r="H2"/>
       <c r="I2" t="s">
         <v>85</v>
@@ -2775,24 +2904,26 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="B3" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="F3" t="n">
-        <v>6000000.0</v>
-      </c>
-      <c r="G3"/>
+        <v>7000000.0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>2.0</v>
+      </c>
       <c r="H3"/>
       <c r="I3" t="s">
         <v>85</v>
@@ -2800,26 +2931,55 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="B4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F4" t="n">
-        <v>7500000.0</v>
-      </c>
-      <c r="G4"/>
+        <v>6000000.0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1.0</v>
+      </c>
       <c r="H4"/>
       <c r="I4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F5" t="n">
+        <v>7500000.0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H5"/>
+      <c r="I5" t="s">
         <v>85</v>
       </c>
     </row>
@@ -2839,11 +2999,11 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.3984375" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="7.53125" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="9.73046875" collapsed="false"/>
-    <col min="3" max="4" customWidth="true" width="12.0" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="10.53125" collapsed="false"/>
-    <col min="6" max="25" customWidth="true" width="8.73046875" collapsed="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="7.53125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="9.73046875" collapsed="true"/>
+    <col min="3" max="4" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="10.53125" collapsed="true"/>
+    <col min="6" max="25" customWidth="true" width="8.73046875" collapsed="true"/>
   </cols>
   <sheetData>
     <row ht="14.25" r="1" spans="1:7" x14ac:dyDescent="0.45">
@@ -2886,7 +3046,7 @@
         <v>1.7E7</v>
       </c>
       <c r="F2" t="n">
-        <v>0.085</v>
+        <v>0.0</v>
       </c>
       <c r="G2" t="s">
         <v>85</v>
@@ -2900,7 +3060,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A30" sqref="A30"/>
@@ -2908,12 +3068,12 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.3984375" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="8.53125" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="16.1328125" collapsed="false"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="6.19921875" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="4.1328125" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="12.53125" collapsed="false"/>
-    <col min="6" max="15" customWidth="true" width="8.73046875" collapsed="false"/>
+    <col min="1" max="1" customWidth="true" width="8.53125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="16.1328125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="6.19921875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="4.1328125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.53125" collapsed="true"/>
+    <col min="6" max="15" customWidth="true" width="8.73046875" collapsed="true"/>
   </cols>
   <sheetData>
     <row ht="14.25" r="1" spans="1:5" x14ac:dyDescent="0.45">
@@ -3105,237 +3265,237 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>116</v>
+        <v>422</v>
       </c>
       <c r="B12" t="s">
-        <v>131</v>
+        <v>423</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D12" t="n">
-        <v>36.0</v>
+        <v>16.0</v>
       </c>
       <c r="E12" t="s">
-        <v>146</v>
+        <v>425</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>56</v>
+        <v>116</v>
       </c>
       <c r="B13" t="s">
-        <v>57</v>
+        <v>131</v>
       </c>
       <c r="C13" t="s">
         <v>37</v>
       </c>
       <c r="D13" t="n">
-        <v>33.0</v>
+        <v>36.0</v>
       </c>
       <c r="E13" t="s">
-        <v>58</v>
+        <v>146</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="B14" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C14" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D14" t="n">
-        <v>31.0</v>
+        <v>33.0</v>
       </c>
       <c r="E14" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B15" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C15" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D15" t="n">
-        <v>29.0</v>
+        <v>31.0</v>
       </c>
       <c r="E15" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B16" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C16" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D16" t="n">
-        <v>43.0</v>
+        <v>29.0</v>
       </c>
       <c r="E16" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>118</v>
+        <v>427</v>
       </c>
       <c r="B17" t="s">
-        <v>133</v>
+        <v>430</v>
       </c>
       <c r="C17" t="s">
         <v>32</v>
       </c>
       <c r="D17" t="n">
-        <v>30.0</v>
+        <v>66.0</v>
       </c>
       <c r="E17" t="s">
-        <v>148</v>
+        <v>431</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>117</v>
+        <v>67</v>
       </c>
       <c r="B18" t="s">
-        <v>132</v>
+        <v>68</v>
       </c>
       <c r="C18" t="s">
         <v>32</v>
       </c>
       <c r="D18" t="n">
-        <v>50.0</v>
+        <v>43.0</v>
       </c>
       <c r="E18" t="s">
-        <v>147</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B19" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C19" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D19" t="n">
-        <v>43.0</v>
+        <v>30.0</v>
       </c>
       <c r="E19" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B20" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C20" t="s">
         <v>32</v>
       </c>
       <c r="D20" t="n">
-        <v>49.0</v>
+        <v>50.0</v>
       </c>
       <c r="E20" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C21" t="s">
         <v>37</v>
       </c>
       <c r="D21" t="n">
-        <v>26.0</v>
+        <v>43.0</v>
       </c>
       <c r="E21" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>91</v>
+        <v>119</v>
       </c>
       <c r="B22" t="s">
-        <v>100</v>
+        <v>134</v>
       </c>
       <c r="C22" t="s">
         <v>32</v>
       </c>
       <c r="D22" t="n">
-        <v>28.0</v>
+        <v>49.0</v>
       </c>
       <c r="E22" t="s">
-        <v>102</v>
+        <v>149</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="B23" t="s">
-        <v>99</v>
+        <v>136</v>
       </c>
       <c r="C23" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D23" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="E23" t="s">
-        <v>50</v>
+        <v>151</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B24" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C24" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D24" t="n">
-        <v>29.0</v>
+        <v>28.0</v>
       </c>
       <c r="E24" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="B25" t="s">
-        <v>49</v>
+        <v>99</v>
       </c>
       <c r="C25" t="s">
         <v>32</v>
       </c>
       <c r="D25" t="n">
-        <v>52.0</v>
+        <v>30.0</v>
       </c>
       <c r="E25" t="s">
         <v>50</v>
@@ -3343,86 +3503,120 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="B26" t="s">
-        <v>53</v>
+        <v>103</v>
       </c>
       <c r="C26" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D26" t="n">
-        <v>44.0</v>
+        <v>29.0</v>
       </c>
       <c r="E26" t="s">
-        <v>54</v>
+        <v>104</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="B27" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C27" t="s">
         <v>32</v>
       </c>
       <c r="D27" t="n">
-        <v>50.0</v>
+        <v>52.0</v>
       </c>
       <c r="E27" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="B28" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="C28" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D28" t="n">
         <v>44.0</v>
       </c>
       <c r="E28" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="B29" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C29" t="s">
         <v>32</v>
       </c>
       <c r="D29" t="n">
-        <v>40.0</v>
+        <v>50.0</v>
       </c>
       <c r="E29" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="B30" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="C30" t="s">
         <v>37</v>
       </c>
       <c r="D30" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="E30" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" t="s">
+        <v>32</v>
+      </c>
+      <c r="D31" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="E31" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32" t="s">
+        <v>37</v>
+      </c>
+      <c r="D32" t="n">
         <v>15.0</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E32" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3435,7 +3629,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF21B7AB-93DC-4751-874C-8807C9FDCFB9}">
-  <dimension ref="A1:L77"/>
+  <dimension ref="A1:L79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I2" sqref="I2:I76"/>
@@ -3443,17 +3637,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="9.86328125" collapsed="false"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="9.53125" collapsed="false"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="5.73046875" collapsed="false"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="10.19921875" collapsed="false"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="11.265625" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" width="11.265625" collapsed="false"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="7.46484375" collapsed="false"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="7.73046875" collapsed="false"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="14.796875" collapsed="false"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="10.3984375" collapsed="false"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="11.73046875" collapsed="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="9.86328125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="9.53125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="5.73046875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="10.19921875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="11.265625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="11.265625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="7.46484375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="7.73046875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="14.796875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="10.3984375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="11.73046875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.45">
@@ -3498,12 +3692,16 @@
       <c r="B2" t="n">
         <v>1.0</v>
       </c>
-      <c r="C2"/>
+      <c r="C2" t="n">
+        <v>0.0</v>
+      </c>
       <c r="D2" t="s">
         <v>238</v>
       </c>
       <c r="E2"/>
-      <c r="F2"/>
+      <c r="F2" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G2" t="s">
         <v>80</v>
       </c>
@@ -3534,7 +3732,9 @@
         <v>239</v>
       </c>
       <c r="E3"/>
-      <c r="F3"/>
+      <c r="F3" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G3" t="s">
         <v>80</v>
       </c>
@@ -3565,7 +3765,9 @@
         <v>240</v>
       </c>
       <c r="E4"/>
-      <c r="F4"/>
+      <c r="F4" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G4" t="s">
         <v>80</v>
       </c>
@@ -3596,7 +3798,9 @@
         <v>241</v>
       </c>
       <c r="E5"/>
-      <c r="F5"/>
+      <c r="F5" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G5" t="s">
         <v>80</v>
       </c>
@@ -3627,7 +3831,9 @@
         <v>242</v>
       </c>
       <c r="E6"/>
-      <c r="F6"/>
+      <c r="F6" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G6" t="s">
         <v>80</v>
       </c>
@@ -3658,7 +3864,9 @@
         <v>243</v>
       </c>
       <c r="E7"/>
-      <c r="F7"/>
+      <c r="F7" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G7" t="s">
         <v>80</v>
       </c>
@@ -3689,7 +3897,9 @@
         <v>244</v>
       </c>
       <c r="E8"/>
-      <c r="F8"/>
+      <c r="F8" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G8" t="s">
         <v>81</v>
       </c>
@@ -3720,7 +3930,9 @@
         <v>245</v>
       </c>
       <c r="E9"/>
-      <c r="F9"/>
+      <c r="F9" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G9" t="s">
         <v>81</v>
       </c>
@@ -3751,7 +3963,9 @@
         <v>246</v>
       </c>
       <c r="E10"/>
-      <c r="F10"/>
+      <c r="F10" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G10" t="s">
         <v>81</v>
       </c>
@@ -3782,7 +3996,9 @@
         <v>247</v>
       </c>
       <c r="E11"/>
-      <c r="F11"/>
+      <c r="F11" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G11" t="s">
         <v>81</v>
       </c>
@@ -3813,7 +4029,9 @@
         <v>248</v>
       </c>
       <c r="E12"/>
-      <c r="F12"/>
+      <c r="F12" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G12" t="s">
         <v>81</v>
       </c>
@@ -3844,7 +4062,9 @@
         <v>249</v>
       </c>
       <c r="E13"/>
-      <c r="F13"/>
+      <c r="F13" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G13" t="s">
         <v>81</v>
       </c>
@@ -3875,15 +4095,17 @@
         <v>250</v>
       </c>
       <c r="E14"/>
-      <c r="F14"/>
+      <c r="F14" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G14" t="s">
         <v>205</v>
       </c>
       <c r="H14" t="n">
-        <v>323.0</v>
+        <v>1.23345779E8</v>
       </c>
       <c r="I14" t="n">
-        <v>8421155.87</v>
+        <v>3.21583291289651E12</v>
       </c>
       <c r="J14" t="n">
         <v>0.004</v>
@@ -3906,7 +4128,9 @@
         <v>251</v>
       </c>
       <c r="E15"/>
-      <c r="F15"/>
+      <c r="F15" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G15" t="s">
         <v>205</v>
       </c>
@@ -3937,7 +4161,9 @@
         <v>252</v>
       </c>
       <c r="E16"/>
-      <c r="F16"/>
+      <c r="F16" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G16" t="s">
         <v>205</v>
       </c>
@@ -3968,7 +4194,9 @@
         <v>253</v>
       </c>
       <c r="E17"/>
-      <c r="F17"/>
+      <c r="F17" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G17" t="s">
         <v>205</v>
       </c>
@@ -3999,7 +4227,9 @@
         <v>254</v>
       </c>
       <c r="E18"/>
-      <c r="F18"/>
+      <c r="F18" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G18" t="s">
         <v>205</v>
       </c>
@@ -4030,7 +4260,9 @@
         <v>255</v>
       </c>
       <c r="E19"/>
-      <c r="F19"/>
+      <c r="F19" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G19" t="s">
         <v>205</v>
       </c>
@@ -4061,7 +4293,9 @@
         <v>256</v>
       </c>
       <c r="E20"/>
-      <c r="F20"/>
+      <c r="F20" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G20" t="s">
         <v>80</v>
       </c>
@@ -4092,7 +4326,9 @@
         <v>257</v>
       </c>
       <c r="E21"/>
-      <c r="F21"/>
+      <c r="F21" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G21" t="s">
         <v>80</v>
       </c>
@@ -4123,7 +4359,9 @@
         <v>258</v>
       </c>
       <c r="E22"/>
-      <c r="F22"/>
+      <c r="F22" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G22" t="s">
         <v>80</v>
       </c>
@@ -4154,7 +4392,9 @@
         <v>259</v>
       </c>
       <c r="E23"/>
-      <c r="F23"/>
+      <c r="F23" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G23" t="s">
         <v>80</v>
       </c>
@@ -4185,7 +4425,9 @@
         <v>260</v>
       </c>
       <c r="E24"/>
-      <c r="F24"/>
+      <c r="F24" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G24" t="s">
         <v>80</v>
       </c>
@@ -4216,7 +4458,9 @@
         <v>261</v>
       </c>
       <c r="E25"/>
-      <c r="F25"/>
+      <c r="F25" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G25" t="s">
         <v>80</v>
       </c>
@@ -4247,7 +4491,9 @@
         <v>262</v>
       </c>
       <c r="E26"/>
-      <c r="F26"/>
+      <c r="F26" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G26" t="s">
         <v>80</v>
       </c>
@@ -4278,7 +4524,9 @@
         <v>263</v>
       </c>
       <c r="E27"/>
-      <c r="F27"/>
+      <c r="F27" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G27" t="s">
         <v>80</v>
       </c>
@@ -4309,7 +4557,9 @@
         <v>264</v>
       </c>
       <c r="E28"/>
-      <c r="F28"/>
+      <c r="F28" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G28" t="s">
         <v>80</v>
       </c>
@@ -4340,7 +4590,9 @@
         <v>265</v>
       </c>
       <c r="E29"/>
-      <c r="F29"/>
+      <c r="F29" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G29" t="s">
         <v>80</v>
       </c>
@@ -4371,7 +4623,9 @@
         <v>266</v>
       </c>
       <c r="E30"/>
-      <c r="F30"/>
+      <c r="F30" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G30" t="s">
         <v>80</v>
       </c>
@@ -4402,7 +4656,9 @@
         <v>267</v>
       </c>
       <c r="E31"/>
-      <c r="F31"/>
+      <c r="F31" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G31" t="s">
         <v>80</v>
       </c>
@@ -4433,7 +4689,9 @@
         <v>268</v>
       </c>
       <c r="E32"/>
-      <c r="F32"/>
+      <c r="F32" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G32" t="s">
         <v>80</v>
       </c>
@@ -4464,7 +4722,9 @@
         <v>269</v>
       </c>
       <c r="E33"/>
-      <c r="F33"/>
+      <c r="F33" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G33" t="s">
         <v>80</v>
       </c>
@@ -4495,7 +4755,9 @@
         <v>270</v>
       </c>
       <c r="E34"/>
-      <c r="F34"/>
+      <c r="F34" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G34" t="s">
         <v>80</v>
       </c>
@@ -4526,7 +4788,9 @@
         <v>271</v>
       </c>
       <c r="E35"/>
-      <c r="F35"/>
+      <c r="F35" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G35" t="s">
         <v>80</v>
       </c>
@@ -4550,12 +4814,16 @@
       <c r="B36" t="n">
         <v>23.0</v>
       </c>
-      <c r="C36"/>
+      <c r="C36" t="n">
+        <v>0.0</v>
+      </c>
       <c r="D36" t="s">
         <v>272</v>
       </c>
       <c r="E36"/>
-      <c r="F36"/>
+      <c r="F36" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G36" t="s">
         <v>80</v>
       </c>
@@ -4586,7 +4854,9 @@
         <v>273</v>
       </c>
       <c r="E37"/>
-      <c r="F37"/>
+      <c r="F37" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G37" t="s">
         <v>80</v>
       </c>
@@ -4617,7 +4887,9 @@
         <v>274</v>
       </c>
       <c r="E38"/>
-      <c r="F38"/>
+      <c r="F38" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G38" t="s">
         <v>80</v>
       </c>
@@ -4648,7 +4920,9 @@
         <v>275</v>
       </c>
       <c r="E39"/>
-      <c r="F39"/>
+      <c r="F39" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G39" t="s">
         <v>81</v>
       </c>
@@ -4679,7 +4953,9 @@
         <v>276</v>
       </c>
       <c r="E40"/>
-      <c r="F40"/>
+      <c r="F40" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G40" t="s">
         <v>81</v>
       </c>
@@ -4710,7 +4986,9 @@
         <v>277</v>
       </c>
       <c r="E41"/>
-      <c r="F41"/>
+      <c r="F41" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G41" t="s">
         <v>81</v>
       </c>
@@ -4741,7 +5019,9 @@
         <v>278</v>
       </c>
       <c r="E42"/>
-      <c r="F42"/>
+      <c r="F42" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G42" t="s">
         <v>81</v>
       </c>
@@ -4772,7 +5052,9 @@
         <v>279</v>
       </c>
       <c r="E43"/>
-      <c r="F43"/>
+      <c r="F43" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G43" t="s">
         <v>81</v>
       </c>
@@ -4803,7 +5085,9 @@
         <v>280</v>
       </c>
       <c r="E44"/>
-      <c r="F44"/>
+      <c r="F44" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G44" t="s">
         <v>81</v>
       </c>
@@ -4834,7 +5118,9 @@
         <v>281</v>
       </c>
       <c r="E45"/>
-      <c r="F45"/>
+      <c r="F45" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G45" t="s">
         <v>81</v>
       </c>
@@ -4865,7 +5151,9 @@
         <v>282</v>
       </c>
       <c r="E46"/>
-      <c r="F46"/>
+      <c r="F46" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G46" t="s">
         <v>81</v>
       </c>
@@ -4896,7 +5184,9 @@
         <v>283</v>
       </c>
       <c r="E47"/>
-      <c r="F47"/>
+      <c r="F47" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G47" t="s">
         <v>81</v>
       </c>
@@ -4927,7 +5217,9 @@
         <v>284</v>
       </c>
       <c r="E48"/>
-      <c r="F48"/>
+      <c r="F48" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G48" t="s">
         <v>81</v>
       </c>
@@ -4958,7 +5250,9 @@
         <v>285</v>
       </c>
       <c r="E49"/>
-      <c r="F49"/>
+      <c r="F49" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G49" t="s">
         <v>81</v>
       </c>
@@ -4989,7 +5283,9 @@
         <v>286</v>
       </c>
       <c r="E50"/>
-      <c r="F50"/>
+      <c r="F50" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G50" t="s">
         <v>81</v>
       </c>
@@ -5013,12 +5309,16 @@
       <c r="B51" t="n">
         <v>19.0</v>
       </c>
-      <c r="C51"/>
+      <c r="C51" t="n">
+        <v>4.0</v>
+      </c>
       <c r="D51" t="s">
         <v>287</v>
       </c>
       <c r="E51"/>
-      <c r="F51"/>
+      <c r="F51" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G51" t="s">
         <v>81</v>
       </c>
@@ -5049,7 +5349,9 @@
         <v>288</v>
       </c>
       <c r="E52"/>
-      <c r="F52"/>
+      <c r="F52" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G52" t="s">
         <v>81</v>
       </c>
@@ -5080,7 +5382,9 @@
         <v>289</v>
       </c>
       <c r="E53"/>
-      <c r="F53"/>
+      <c r="F53" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G53" t="s">
         <v>81</v>
       </c>
@@ -5104,12 +5408,16 @@
       <c r="B54" t="n">
         <v>22.0</v>
       </c>
-      <c r="C54"/>
+      <c r="C54" t="n">
+        <v>0.0</v>
+      </c>
       <c r="D54" t="s">
         <v>290</v>
       </c>
       <c r="E54"/>
-      <c r="F54"/>
+      <c r="F54" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G54" t="s">
         <v>81</v>
       </c>
@@ -5140,7 +5448,9 @@
         <v>291</v>
       </c>
       <c r="E55"/>
-      <c r="F55"/>
+      <c r="F55" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G55" t="s">
         <v>81</v>
       </c>
@@ -5171,7 +5481,9 @@
         <v>292</v>
       </c>
       <c r="E56"/>
-      <c r="F56"/>
+      <c r="F56" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G56" t="s">
         <v>81</v>
       </c>
@@ -5202,7 +5514,9 @@
         <v>293</v>
       </c>
       <c r="E57"/>
-      <c r="F57"/>
+      <c r="F57" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G57" t="s">
         <v>81</v>
       </c>
@@ -5233,7 +5547,9 @@
         <v>294</v>
       </c>
       <c r="E58"/>
-      <c r="F58"/>
+      <c r="F58" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G58" t="s">
         <v>205</v>
       </c>
@@ -5257,12 +5573,16 @@
       <c r="B59" t="n">
         <v>8.0</v>
       </c>
-      <c r="C59"/>
+      <c r="C59" t="n">
+        <v>0.0</v>
+      </c>
       <c r="D59" t="s">
         <v>295</v>
       </c>
       <c r="E59"/>
-      <c r="F59"/>
+      <c r="F59" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G59" t="s">
         <v>205</v>
       </c>
@@ -5293,7 +5613,9 @@
         <v>296</v>
       </c>
       <c r="E60"/>
-      <c r="F60"/>
+      <c r="F60" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G60" t="s">
         <v>205</v>
       </c>
@@ -5324,7 +5646,9 @@
         <v>297</v>
       </c>
       <c r="E61"/>
-      <c r="F61"/>
+      <c r="F61" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G61" t="s">
         <v>205</v>
       </c>
@@ -5355,7 +5679,9 @@
         <v>298</v>
       </c>
       <c r="E62"/>
-      <c r="F62"/>
+      <c r="F62" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G62" t="s">
         <v>205</v>
       </c>
@@ -5386,7 +5712,9 @@
         <v>299</v>
       </c>
       <c r="E63"/>
-      <c r="F63"/>
+      <c r="F63" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G63" t="s">
         <v>205</v>
       </c>
@@ -5417,7 +5745,9 @@
         <v>296</v>
       </c>
       <c r="E64"/>
-      <c r="F64"/>
+      <c r="F64" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G64" t="s">
         <v>205</v>
       </c>
@@ -5448,7 +5778,9 @@
         <v>300</v>
       </c>
       <c r="E65"/>
-      <c r="F65"/>
+      <c r="F65" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G65" t="s">
         <v>205</v>
       </c>
@@ -5479,7 +5811,9 @@
         <v>301</v>
       </c>
       <c r="E66"/>
-      <c r="F66"/>
+      <c r="F66" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G66" t="s">
         <v>205</v>
       </c>
@@ -5510,7 +5844,9 @@
         <v>302</v>
       </c>
       <c r="E67"/>
-      <c r="F67"/>
+      <c r="F67" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G67" t="s">
         <v>205</v>
       </c>
@@ -5541,7 +5877,9 @@
         <v>303</v>
       </c>
       <c r="E68"/>
-      <c r="F68"/>
+      <c r="F68" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G68" t="s">
         <v>205</v>
       </c>
@@ -5572,7 +5910,9 @@
         <v>304</v>
       </c>
       <c r="E69"/>
-      <c r="F69"/>
+      <c r="F69" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G69" t="s">
         <v>205</v>
       </c>
@@ -5603,7 +5943,9 @@
         <v>305</v>
       </c>
       <c r="E70"/>
-      <c r="F70"/>
+      <c r="F70" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G70" t="s">
         <v>205</v>
       </c>
@@ -5634,7 +5976,9 @@
         <v>306</v>
       </c>
       <c r="E71"/>
-      <c r="F71"/>
+      <c r="F71" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G71" t="s">
         <v>205</v>
       </c>
@@ -5665,7 +6009,9 @@
         <v>307</v>
       </c>
       <c r="E72"/>
-      <c r="F72"/>
+      <c r="F72" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G72" t="s">
         <v>205</v>
       </c>
@@ -5696,7 +6042,9 @@
         <v>308</v>
       </c>
       <c r="E73"/>
-      <c r="F73"/>
+      <c r="F73" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G73" t="s">
         <v>205</v>
       </c>
@@ -5720,12 +6068,16 @@
       <c r="B74" t="n">
         <v>23.0</v>
       </c>
-      <c r="C74"/>
+      <c r="C74" t="n">
+        <v>0.0</v>
+      </c>
       <c r="D74" t="s">
         <v>309</v>
       </c>
       <c r="E74"/>
-      <c r="F74"/>
+      <c r="F74" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G74" t="s">
         <v>205</v>
       </c>
@@ -5756,7 +6108,9 @@
         <v>310</v>
       </c>
       <c r="E75"/>
-      <c r="F75"/>
+      <c r="F75" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G75" t="s">
         <v>205</v>
       </c>
@@ -5787,7 +6141,9 @@
         <v>311</v>
       </c>
       <c r="E76"/>
-      <c r="F76"/>
+      <c r="F76" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G76" t="s">
         <v>205</v>
       </c>
@@ -5811,12 +6167,16 @@
       <c r="B77" t="n">
         <v>1.0</v>
       </c>
-      <c r="C77"/>
+      <c r="C77" t="n">
+        <v>0.0</v>
+      </c>
       <c r="D77" t="s">
         <v>312</v>
       </c>
       <c r="E77"/>
-      <c r="F77"/>
+      <c r="F77" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G77" t="s">
         <v>80</v>
       </c>
@@ -5830,6 +6190,72 @@
         <v>0.005</v>
       </c>
       <c r="K77" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="B78" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="C78" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D78" t="s">
+        <v>312</v>
+      </c>
+      <c r="E78"/>
+      <c r="F78" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G78" t="s">
+        <v>80</v>
+      </c>
+      <c r="H78" t="n">
+        <v>99999.0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>99999.0</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="K78" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>78.0</v>
+      </c>
+      <c r="B79" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="C79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D79" t="s">
+        <v>312</v>
+      </c>
+      <c r="E79"/>
+      <c r="F79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G79" t="s">
+        <v>81</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K79" t="s">
         <v>85</v>
       </c>
     </row>
@@ -5843,7 +6269,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46E00A1F-C9F6-4EB8-BE07-062FE55637D2}">
-  <dimension ref="A1:M21"/>
+  <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M2" sqref="M2:M21"/>
@@ -5851,19 +6277,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="18" width="5.59765625" collapsed="false"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="9.53125" collapsed="false"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="5.73046875" collapsed="false"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="10.19921875" collapsed="false"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="11.265625" collapsed="false"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="5.0" collapsed="false"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="7.46484375" collapsed="false"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="14.3984375" collapsed="false"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="15.3984375" collapsed="false"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="10.3984375" collapsed="false"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="11.73046875" collapsed="false"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="10.33203125" collapsed="false"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="14.3984375" collapsed="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="18" width="5.59765625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="9.53125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="5.73046875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="10.19921875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="11.265625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="5.0" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="7.46484375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="14.3984375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="15.3984375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="10.3984375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="11.73046875" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="10.33203125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="14.3984375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.45">
@@ -5911,7 +6337,9 @@
       <c r="B2" t="n">
         <v>1.0</v>
       </c>
-      <c r="C2"/>
+      <c r="C2" t="n">
+        <v>0.0</v>
+      </c>
       <c r="D2" t="s">
         <v>313</v>
       </c>
@@ -6554,7 +6982,9 @@
       <c r="B21" t="n">
         <v>2.0</v>
       </c>
-      <c r="C21"/>
+      <c r="C21" t="n">
+        <v>0.0</v>
+      </c>
       <c r="D21" t="s">
         <v>341</v>
       </c>
@@ -6578,6 +7008,37 @@
       </c>
       <c r="K21" t="s">
         <v>85</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="G22" t="s">
+        <v>81</v>
+      </c>
+      <c r="H22" t="n">
+        <v>5.0E7</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.037000000000000005</v>
+      </c>
+      <c r="K22" t="s">
+        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -6595,17 +7056,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="18" width="7.1328125" collapsed="false"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="9.53125" collapsed="false"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="5.73046875" collapsed="false"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="10.19921875" collapsed="false"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="11.265625" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" width="11.265625" collapsed="false"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="7.46484375" collapsed="false"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="7" width="14.3984375" collapsed="false"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="14.796875" collapsed="false"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="10.3984375" collapsed="false"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="11.73046875" collapsed="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="18" width="7.1328125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="9.53125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="5.73046875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="10.19921875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="11.265625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="11.265625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="7.46484375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="7" width="14.3984375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="14.796875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="10.3984375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="11.73046875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.45">
@@ -8058,10 +8519,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="10.19921875" collapsed="false"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.46484375" collapsed="false"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="9.33203125" collapsed="false"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="10.265625" collapsed="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="10.19921875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.46484375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="9.33203125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="10.265625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
@@ -8261,12 +8722,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="12.19921875" collapsed="false"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="9.6640625" collapsed="false"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="12.796875" collapsed="false"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.19921875" collapsed="false"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="12.53125" collapsed="false"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="6" width="12.59765625" collapsed="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="12.19921875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="9.6640625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="12.796875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.19921875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.53125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="6" width="12.59765625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
@@ -9982,7 +10443,9 @@
       <c r="D86" t="n">
         <v>3.0</v>
       </c>
-      <c r="E86"/>
+      <c r="E86" t="s">
+        <v>421</v>
+      </c>
       <c r="F86" t="n">
         <v>0.05</v>
       </c>
@@ -10000,7 +10463,9 @@
       <c r="D87" t="n">
         <v>6.0</v>
       </c>
-      <c r="E87"/>
+      <c r="E87" t="s">
+        <v>421</v>
+      </c>
       <c r="F87" t="n">
         <v>0.053000000000000005</v>
       </c>
@@ -10018,7 +10483,9 @@
       <c r="D88" t="n">
         <v>9.0</v>
       </c>
-      <c r="E88"/>
+      <c r="E88" t="s">
+        <v>421</v>
+      </c>
       <c r="F88" t="n">
         <v>0.05600000000000001</v>
       </c>
@@ -10036,7 +10503,9 @@
       <c r="D89" t="n">
         <v>12.0</v>
       </c>
-      <c r="E89"/>
+      <c r="E89" t="s">
+        <v>421</v>
+      </c>
       <c r="F89" t="n">
         <v>0.05900000000000001</v>
       </c>
@@ -10054,7 +10523,9 @@
       <c r="D90" t="n">
         <v>15.0</v>
       </c>
-      <c r="E90"/>
+      <c r="E90" t="s">
+        <v>421</v>
+      </c>
       <c r="F90" t="n">
         <v>0.06200000000000001</v>
       </c>
@@ -10072,7 +10543,9 @@
       <c r="D91" t="n">
         <v>18.0</v>
       </c>
-      <c r="E91"/>
+      <c r="E91" t="s">
+        <v>421</v>
+      </c>
       <c r="F91" t="n">
         <v>0.06500000000000002</v>
       </c>
@@ -10090,7 +10563,9 @@
       <c r="D92" t="n">
         <v>24.0</v>
       </c>
-      <c r="E92"/>
+      <c r="E92" t="s">
+        <v>421</v>
+      </c>
       <c r="F92" t="n">
         <v>0.06800000000000002</v>
       </c>
@@ -10108,7 +10583,9 @@
       <c r="D93" t="n">
         <v>36.0</v>
       </c>
-      <c r="E93"/>
+      <c r="E93" t="s">
+        <v>421</v>
+      </c>
       <c r="F93" t="n">
         <v>0.07100000000000002</v>
       </c>
@@ -10126,7 +10603,9 @@
       <c r="D94" t="n">
         <v>48.0</v>
       </c>
-      <c r="E94"/>
+      <c r="E94" t="s">
+        <v>421</v>
+      </c>
       <c r="F94" t="n">
         <v>0.07400000000000002</v>
       </c>
@@ -10144,7 +10623,9 @@
       <c r="D95" t="n">
         <v>60.0</v>
       </c>
-      <c r="E95"/>
+      <c r="E95" t="s">
+        <v>421</v>
+      </c>
       <c r="F95" t="n">
         <v>0.07700000000000003</v>
       </c>
@@ -10162,7 +10643,9 @@
       <c r="D96" t="n">
         <v>3.0</v>
       </c>
-      <c r="E96"/>
+      <c r="E96" t="s">
+        <v>421</v>
+      </c>
       <c r="F96" t="n">
         <v>0.0</v>
       </c>
@@ -10180,7 +10663,9 @@
       <c r="D97" t="n">
         <v>6.0</v>
       </c>
-      <c r="E97"/>
+      <c r="E97" t="s">
+        <v>421</v>
+      </c>
       <c r="F97" t="n">
         <v>0.0</v>
       </c>
@@ -10198,7 +10683,9 @@
       <c r="D98" t="n">
         <v>9.0</v>
       </c>
-      <c r="E98"/>
+      <c r="E98" t="s">
+        <v>421</v>
+      </c>
       <c r="F98" t="n">
         <v>0.0</v>
       </c>
@@ -10216,7 +10703,9 @@
       <c r="D99" t="n">
         <v>12.0</v>
       </c>
-      <c r="E99"/>
+      <c r="E99" t="s">
+        <v>421</v>
+      </c>
       <c r="F99" t="n">
         <v>0.0</v>
       </c>
@@ -10234,7 +10723,9 @@
       <c r="D100" t="n">
         <v>15.0</v>
       </c>
-      <c r="E100"/>
+      <c r="E100" t="s">
+        <v>421</v>
+      </c>
       <c r="F100" t="n">
         <v>0.0</v>
       </c>
@@ -10252,7 +10743,9 @@
       <c r="D101" t="n">
         <v>18.0</v>
       </c>
-      <c r="E101"/>
+      <c r="E101" t="s">
+        <v>421</v>
+      </c>
       <c r="F101" t="n">
         <v>0.0</v>
       </c>
@@ -10270,7 +10763,9 @@
       <c r="D102" t="n">
         <v>24.0</v>
       </c>
-      <c r="E102"/>
+      <c r="E102" t="s">
+        <v>421</v>
+      </c>
       <c r="F102" t="n">
         <v>0.0</v>
       </c>
@@ -10288,7 +10783,9 @@
       <c r="D103" t="n">
         <v>36.0</v>
       </c>
-      <c r="E103"/>
+      <c r="E103" t="s">
+        <v>421</v>
+      </c>
       <c r="F103" t="n">
         <v>0.0</v>
       </c>
@@ -10306,7 +10803,9 @@
       <c r="D104" t="n">
         <v>48.0</v>
       </c>
-      <c r="E104"/>
+      <c r="E104" t="s">
+        <v>421</v>
+      </c>
       <c r="F104" t="n">
         <v>0.0</v>
       </c>
@@ -10324,7 +10823,9 @@
       <c r="D105" t="n">
         <v>60.0</v>
       </c>
-      <c r="E105"/>
+      <c r="E105" t="s">
+        <v>421</v>
+      </c>
       <c r="F105" t="n">
         <v>0.0</v>
       </c>
@@ -10342,7 +10843,9 @@
       <c r="D106" t="n">
         <v>3.0</v>
       </c>
-      <c r="E106"/>
+      <c r="E106" t="s">
+        <v>421</v>
+      </c>
       <c r="F106" t="n">
         <v>0.0</v>
       </c>
@@ -10360,7 +10863,9 @@
       <c r="D107" t="n">
         <v>6.0</v>
       </c>
-      <c r="E107"/>
+      <c r="E107" t="s">
+        <v>421</v>
+      </c>
       <c r="F107" t="n">
         <v>0.0</v>
       </c>
@@ -10378,7 +10883,9 @@
       <c r="D108" t="n">
         <v>9.0</v>
       </c>
-      <c r="E108"/>
+      <c r="E108" t="s">
+        <v>421</v>
+      </c>
       <c r="F108" t="n">
         <v>0.0</v>
       </c>
@@ -10396,7 +10903,9 @@
       <c r="D109" t="n">
         <v>12.0</v>
       </c>
-      <c r="E109"/>
+      <c r="E109" t="s">
+        <v>421</v>
+      </c>
       <c r="F109" t="n">
         <v>0.0</v>
       </c>
@@ -10414,7 +10923,9 @@
       <c r="D110" t="n">
         <v>15.0</v>
       </c>
-      <c r="E110"/>
+      <c r="E110" t="s">
+        <v>421</v>
+      </c>
       <c r="F110" t="n">
         <v>0.0</v>
       </c>
@@ -10432,7 +10943,9 @@
       <c r="D111" t="n">
         <v>18.0</v>
       </c>
-      <c r="E111"/>
+      <c r="E111" t="s">
+        <v>421</v>
+      </c>
       <c r="F111" t="n">
         <v>0.0</v>
       </c>
@@ -10450,7 +10963,9 @@
       <c r="D112" t="n">
         <v>24.0</v>
       </c>
-      <c r="E112"/>
+      <c r="E112" t="s">
+        <v>421</v>
+      </c>
       <c r="F112" t="n">
         <v>0.0</v>
       </c>
@@ -10468,7 +10983,9 @@
       <c r="D113" t="n">
         <v>36.0</v>
       </c>
-      <c r="E113"/>
+      <c r="E113" t="s">
+        <v>421</v>
+      </c>
       <c r="F113" t="n">
         <v>0.0</v>
       </c>
@@ -10486,7 +11003,9 @@
       <c r="D114" t="n">
         <v>48.0</v>
       </c>
-      <c r="E114"/>
+      <c r="E114" t="s">
+        <v>421</v>
+      </c>
       <c r="F114" t="n">
         <v>0.0</v>
       </c>
@@ -10504,7 +11023,9 @@
       <c r="D115" t="n">
         <v>60.0</v>
       </c>
-      <c r="E115"/>
+      <c r="E115" t="s">
+        <v>421</v>
+      </c>
       <c r="F115" t="n">
         <v>0.0</v>
       </c>
@@ -10519,8 +11040,12 @@
       <c r="C116" t="s">
         <v>206</v>
       </c>
-      <c r="D116"/>
-      <c r="E116"/>
+      <c r="D116" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E116" t="s">
+        <v>421</v>
+      </c>
       <c r="F116" t="n">
         <v>0.005</v>
       </c>
@@ -10535,8 +11060,12 @@
       <c r="C117" t="s">
         <v>206</v>
       </c>
-      <c r="D117"/>
-      <c r="E117"/>
+      <c r="D117" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E117" t="s">
+        <v>421</v>
+      </c>
       <c r="F117" t="n">
         <v>0.0</v>
       </c>
@@ -10551,8 +11080,12 @@
       <c r="C118" t="s">
         <v>206</v>
       </c>
-      <c r="D118"/>
-      <c r="E118"/>
+      <c r="D118" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E118" t="s">
+        <v>421</v>
+      </c>
       <c r="F118" t="n">
         <v>0.004</v>
       </c>
@@ -10567,8 +11100,12 @@
       <c r="C119" t="s">
         <v>206</v>
       </c>
-      <c r="D119"/>
-      <c r="E119"/>
+      <c r="D119" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E119" t="s">
+        <v>421</v>
+      </c>
       <c r="F119" t="n">
         <v>0.001</v>
       </c>
@@ -10583,8 +11120,12 @@
       <c r="C120" t="s">
         <v>206</v>
       </c>
-      <c r="D120"/>
-      <c r="E120"/>
+      <c r="D120" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E120" t="s">
+        <v>421</v>
+      </c>
       <c r="F120" t="n">
         <v>0.001</v>
       </c>
@@ -10599,8 +11140,12 @@
       <c r="C121" t="s">
         <v>206</v>
       </c>
-      <c r="D121"/>
-      <c r="E121"/>
+      <c r="D121" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E121" t="s">
+        <v>421</v>
+      </c>
       <c r="F121" t="n">
         <v>0.001</v>
       </c>
@@ -10615,8 +11160,12 @@
       <c r="C122" t="s">
         <v>206</v>
       </c>
-      <c r="D122"/>
-      <c r="E122"/>
+      <c r="D122" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E122" t="s">
+        <v>421</v>
+      </c>
       <c r="F122" t="n">
         <v>0.001</v>
       </c>
@@ -10631,8 +11180,12 @@
       <c r="C123" t="s">
         <v>206</v>
       </c>
-      <c r="D123"/>
-      <c r="E123"/>
+      <c r="D123" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E123" t="s">
+        <v>421</v>
+      </c>
       <c r="F123" t="n">
         <v>0.002</v>
       </c>
@@ -10647,8 +11200,12 @@
       <c r="C124" t="s">
         <v>206</v>
       </c>
-      <c r="D124"/>
-      <c r="E124"/>
+      <c r="D124" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E124" t="s">
+        <v>421</v>
+      </c>
       <c r="F124" t="n">
         <v>0.004</v>
       </c>
@@ -10663,8 +11220,12 @@
       <c r="C125" t="s">
         <v>206</v>
       </c>
-      <c r="D125"/>
-      <c r="E125"/>
+      <c r="D125" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E125" t="s">
+        <v>421</v>
+      </c>
       <c r="F125" t="n">
         <v>0.003</v>
       </c>
@@ -10679,8 +11240,12 @@
       <c r="C126" t="s">
         <v>206</v>
       </c>
-      <c r="D126"/>
-      <c r="E126"/>
+      <c r="D126" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E126" t="s">
+        <v>421</v>
+      </c>
       <c r="F126" t="n">
         <v>0.003</v>
       </c>
@@ -10695,8 +11260,12 @@
       <c r="C127" t="s">
         <v>206</v>
       </c>
-      <c r="D127"/>
-      <c r="E127"/>
+      <c r="D127" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E127" t="s">
+        <v>421</v>
+      </c>
       <c r="F127" t="n">
         <v>0.001</v>
       </c>

--- a/java/project-JavaBank/src/io/data.xlsx
+++ b/java/project-JavaBank/src/io/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Huy Binh\Documents\GitHub\nguyenhuybinh2604.github.io\java\project-JavaBank\src\io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{927350A9-BDEB-4D0D-B6CB-E536AEC9FDF3}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr documentId="13_ncr:1_{1AD94BAC-26F3-4775-B085-BD3CEF02635F}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView activeTab="11" tabRatio="781" windowHeight="13096" windowWidth="21795" xWindow="-98" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-98"/>
+    <workbookView activeTab="4" tabRatio="781" windowHeight="13096" windowWidth="21795" xWindow="-98" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-98"/>
   </bookViews>
   <sheets>
     <sheet name="Customer" r:id="rId1" sheetId="1"/>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6216" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5582" uniqueCount="440">
   <si>
     <t>customerId</t>
   </si>
@@ -1380,18 +1380,38 @@
   </si>
   <si>
     <t>2023-05-14 00:50:21</t>
+  </si>
+  <si>
+    <t>31/03/2023</t>
+  </si>
+  <si>
+    <t>2023-05-14 10:06:29</t>
+  </si>
+  <si>
+    <t>14/05/2028</t>
+  </si>
+  <si>
+    <t>2023-05-14 10:25:27</t>
+  </si>
+  <si>
+    <t>2023-05-14 10:26:20</t>
+  </si>
+  <si>
+    <t>FX</t>
+  </si>
+  <si>
+    <t>2023-05-14 10:34:25</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="0.0%"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1437,40 +1457,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
     </font>
     <font>
       <sz val="8"/>
@@ -1516,32 +1503,28 @@
   </borders>
   <cellStyleXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="10" numFmtId="43"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="10" numFmtId="9"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="6" numFmtId="43"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="6" numFmtId="9"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="18">
     <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="11" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="14" xfId="0"/>
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="10" xfId="2"/>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="1"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="9" numFmtId="165" xfId="1"/>
-    <xf applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="1"/>
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="1"/>
     <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="43" xfId="0"/>
     <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0"/>
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0"/>
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0"/>
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle builtinId="3" name="Comma" xfId="1"/>
@@ -1761,9 +1744,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.3984375" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <cols>
@@ -2276,7 +2257,7 @@
         <v>51</v>
       </c>
       <c r="F22" t="s">
-        <v>218</v>
+        <v>6</v>
       </c>
       <c r="G22" t="s">
         <v>85</v>
@@ -2398,7 +2379,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins bottom="0.75" footer="0" header="0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
@@ -2406,21 +2387,21 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEF66A9F-C555-407B-AFB1-FA9ED92A7166}">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="11.06640625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="13.53125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="13" width="17.59765625" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="13.3984375" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="8.3984375" collapsed="true"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="9.53125" collapsed="true"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="7.46484375" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="5.265625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="10.73046875" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="4.796875" collapsed="true"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="13.3984375" collapsed="true"/>
     <col min="10" max="10" bestFit="true" customWidth="true" width="12.9296875" collapsed="true"/>
@@ -2428,63 +2409,65 @@
     <col min="12" max="12" bestFit="true" customWidth="true" width="20.73046875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>225</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="16" t="s">
         <v>219</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="I1" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="J1" s="10" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="B2"/>
+        <v>1.0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>419</v>
+      </c>
       <c r="C2" t="s">
-        <v>218</v>
+        <v>420</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0</v>
+        <v>76.0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="F2" t="s">
-        <v>421</v>
+        <v>80</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0</v>
+        <v>9.999999999E9</v>
       </c>
       <c r="H2" t="n">
         <v>0.0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0</v>
+        <v>9.999999999E9</v>
       </c>
       <c r="J2" t="n">
         <v>0.0</v>
@@ -2492,31 +2475,31 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="B3" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="C3" t="s">
         <v>420</v>
       </c>
       <c r="D3" t="n">
-        <v>76.0</v>
+        <v>77.0</v>
       </c>
       <c r="E3" t="n">
-        <v>1.0</v>
+        <v>26.0</v>
       </c>
       <c r="F3" t="s">
         <v>80</v>
       </c>
       <c r="G3" t="n">
-        <v>9.999999999E9</v>
+        <v>99999.0</v>
       </c>
       <c r="H3" t="n">
         <v>0.0</v>
       </c>
       <c r="I3" t="n">
-        <v>9.999999999E9</v>
+        <v>99999.0</v>
       </c>
       <c r="J3" t="n">
         <v>0.0</v>
@@ -2524,31 +2507,31 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="B4" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="C4" t="s">
         <v>420</v>
       </c>
       <c r="D4" t="n">
-        <v>77.0</v>
+        <v>13.0</v>
       </c>
       <c r="E4" t="n">
-        <v>26.0</v>
+        <v>1.0</v>
       </c>
       <c r="F4" t="s">
-        <v>80</v>
+        <v>205</v>
       </c>
       <c r="G4" t="n">
-        <v>99999.0</v>
+        <v>1.23345456E8</v>
       </c>
       <c r="H4" t="n">
         <v>0.0</v>
       </c>
       <c r="I4" t="n">
-        <v>99999.0</v>
+        <v>3.2158244917406396E12</v>
       </c>
       <c r="J4" t="n">
         <v>0.0</v>
@@ -2556,10 +2539,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="B5" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="C5" t="s">
         <v>420</v>
@@ -2574,23 +2557,119 @@
         <v>205</v>
       </c>
       <c r="G5" t="n">
-        <v>1.23345456E8</v>
+        <v>9.0</v>
       </c>
       <c r="H5" t="n">
         <v>0.0</v>
       </c>
       <c r="I5" t="n">
-        <v>3.2158244917406396E12</v>
+        <v>234645.21</v>
       </c>
       <c r="J5" t="n">
         <v>0.0</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>436</v>
+      </c>
+      <c r="C6" t="s">
+        <v>420</v>
+      </c>
+      <c r="D6" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>205</v>
+      </c>
+      <c r="G6" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>260716.9</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>437</v>
+      </c>
+      <c r="C7" t="s">
+        <v>438</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>500000.0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>500000.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>437</v>
+      </c>
+      <c r="C8" t="s">
+        <v>438</v>
+      </c>
+      <c r="D8" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>205</v>
+      </c>
+      <c r="G8" t="n">
+        <v>19.177889887460307</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>500000.0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B1:B36">
-    <sortCondition ref="B1:B36"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B1:B35">
+    <sortCondition ref="B1:B35"/>
   </sortState>
-  <phoneticPr fontId="15" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
@@ -2598,16 +2677,16 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2C236A0-EBEA-4274-B7D1-BA52EDA4A413}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M32" sqref="M32"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="8.1328125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="13.3984375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="13" width="13.3984375" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="5.73046875" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="9.53125" collapsed="true"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="11.53125" collapsed="true"/>
@@ -2616,25 +2695,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="12" t="s">
         <v>228</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="17" t="s">
         <v>229</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="12" t="s">
         <v>230</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="12" t="s">
         <v>231</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="12" t="s">
         <v>232</v>
       </c>
     </row>
@@ -2656,6 +2735,29 @@
         <v>6</v>
       </c>
       <c r="G2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>439</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>218</v>
+      </c>
+      <c r="F3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2669,8 +2771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D353C15-BDD1-43C8-8E39-2FD10E2A33AF}">
   <dimension ref="B2:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2706,27 +2808,27 @@
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="5">
         <f>SUMIFS(Loan!$M:$M,Loan!$K:$K,"ACTIVE",Loan!$C:$C,BS!$B3)</f>
         <v>8926627936.0000019</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="5">
         <f>SUMIFS(Account!$I:$I,Account!$K:$K,"ACTIVE",Account!$C:$C,BS!$B3)</f>
         <v>496999709.68000001</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="5">
         <f>SUMIFS(Saving!$I:$I,Saving!$K:$K,"ACTIVE",Saving!$C:$C,BS!$B3)</f>
         <v>258181929000</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="5">
         <f>+D3+E3</f>
         <v>258678928709.67999</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="5">
         <f>SUMIFS(Loan!$I:$I,Loan!$K:$K,"ACTIVE",Loan!$C:$C,BS!$B3)</f>
         <v>79263082000</v>
       </c>
-      <c r="H3" s="20">
+      <c r="H3" s="11">
         <f>0.7*C3+0.2*F3+0.1*G3</f>
         <v>65910733497.136002</v>
       </c>
@@ -2735,27 +2837,27 @@
       <c r="B4">
         <v>2</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="5">
         <f>SUMIFS(Loan!$M:$M,Loan!$K:$K,"ACTIVE",Loan!$C:$C,BS!$B4)</f>
         <v>9588153759.0000019</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="5">
         <f>SUMIFS(Account!$I:$I,Account!$K:$K,"ACTIVE",Account!$C:$C,BS!$B4)</f>
         <v>399359421.6400001</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="5">
         <f>SUMIFS(Saving!$I:$I,Saving!$K:$K,"ACTIVE",Saving!$C:$C,BS!$B4)</f>
         <v>159896170000</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="5">
         <f ref="F4:F5" si="0" t="shared">+D4+E4</f>
         <v>160295529421.64001</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="5">
         <f>SUMIFS(Loan!$I:$I,Loan!$K:$K,"ACTIVE",Loan!$C:$C,BS!$B4)</f>
         <v>87465481000</v>
       </c>
-      <c r="H4" s="20">
+      <c r="H4" s="11">
         <f ref="H4:H5" si="1" t="shared">0.7*C4+0.2*F4+0.1*G4</f>
         <v>47517361615.628006</v>
       </c>
@@ -2764,29 +2866,29 @@
       <c r="B5">
         <v>3</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="5">
         <f>SUMIFS(Loan!$M:$M,Loan!$K:$K,"ACTIVE",Loan!$C:$C,BS!$B5)</f>
         <v>14546605580.500004</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="5">
         <f>SUMIFS(Account!$I:$I,Account!$K:$K,"ACTIVE",Account!$C:$C,BS!$B5)</f>
-        <v>467041021.71999997</v>
-      </c>
-      <c r="E5" s="7">
+        <v>458619865.84999996</v>
+      </c>
+      <c r="E5" s="5">
         <f>SUMIFS(Saving!$I:$I,Saving!$K:$K,"ACTIVE",Saving!$C:$C,BS!$B5)</f>
         <v>82167252000</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="5">
         <f si="0" t="shared"/>
-        <v>82634293021.720001</v>
-      </c>
-      <c r="G5" s="7">
+        <v>82625871865.850006</v>
+      </c>
+      <c r="G5" s="5">
         <f>SUMIFS(Loan!$I:$I,Loan!$K:$K,"ACTIVE",Loan!$C:$C,BS!$B5)</f>
         <v>148128195000</v>
       </c>
-      <c r="H5" s="20">
+      <c r="H5" s="11">
         <f si="1" t="shared"/>
-        <v>41522302010.694</v>
+        <v>41520617779.520004</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.45">
@@ -2804,7 +2906,7 @@
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="C13" s="7">
+      <c r="C13" s="5">
         <v>160295529421.64001</v>
       </c>
       <c r="J13">
@@ -2829,7 +2931,7 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.3984375" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -2897,7 +2999,9 @@
       <c r="G2" t="n">
         <v>3.0</v>
       </c>
-      <c r="H2"/>
+      <c r="H2" t="n">
+        <v>9617964.724831305</v>
+      </c>
       <c r="I2" t="s">
         <v>85</v>
       </c>
@@ -2922,9 +3026,11 @@
         <v>7000000.0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="H3"/>
+        <v>1.0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>4.808982362415653E7</v>
+      </c>
       <c r="I3" t="s">
         <v>85</v>
       </c>
@@ -2949,9 +3055,11 @@
         <v>6000000.0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H4"/>
+        <v>3.0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>9617964.724831305</v>
+      </c>
       <c r="I4" t="s">
         <v>85</v>
       </c>
@@ -2976,9 +3084,11 @@
         <v>7500000.0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="H5"/>
+        <v>2.0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2.4044911812078264E7</v>
+      </c>
       <c r="I5" t="s">
         <v>85</v>
       </c>
@@ -3046,7 +3156,7 @@
         <v>1.7E7</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0</v>
+        <v>1.202245590603913E8</v>
       </c>
       <c r="G2" t="s">
         <v>85</v>
@@ -3621,7 +3731,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins bottom="0.75" footer="0" header="0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
@@ -3629,10 +3739,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF21B7AB-93DC-4751-874C-8807C9FDCFB9}">
-  <dimension ref="A1:L79"/>
+  <dimension ref="A1:L81"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I76"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3641,7 +3751,7 @@
     <col min="2" max="2" bestFit="true" customWidth="true" width="9.53125" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="5.73046875" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="10.19921875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="11.265625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="13" width="11.265625" collapsed="true"/>
     <col min="6" max="6" customWidth="true" width="11.265625" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="7.46484375" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="7.73046875" collapsed="true"/>
@@ -3657,62 +3767,62 @@
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1.0</v>
+        <v>13.0</v>
       </c>
       <c r="B2" t="n">
         <v>1.0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="D2" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="E2"/>
       <c r="F2" t="n">
         <v>0.0</v>
       </c>
       <c r="G2" t="s">
-        <v>80</v>
+        <v>205</v>
       </c>
       <c r="H2" t="n">
-        <v>537251.0</v>
+        <v>29.177889887460307</v>
       </c>
       <c r="I2" t="n">
-        <v>537251.0</v>
+        <v>760716.8999999999</v>
       </c>
       <c r="J2" t="n">
-        <v>0.005</v>
+        <v>0.004</v>
       </c>
       <c r="K2" t="s">
         <v>85</v>
@@ -3720,32 +3830,32 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="B3" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C3" t="n">
         <v>2.0</v>
       </c>
-      <c r="B3" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1.0</v>
-      </c>
       <c r="D3" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="E3"/>
       <c r="F3" t="n">
         <v>0.0</v>
       </c>
       <c r="G3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H3" t="n">
-        <v>238237.0</v>
+        <v>4345.0</v>
       </c>
       <c r="I3" t="n">
-        <v>238237.0</v>
+        <v>1.021075E8</v>
       </c>
       <c r="J3" t="n">
-        <v>0.005</v>
+        <v>0.0</v>
       </c>
       <c r="K3" t="s">
         <v>85</v>
@@ -3753,32 +3863,32 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3.0</v>
+        <v>8.0</v>
       </c>
       <c r="B4" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="C4" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="D4" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="E4"/>
       <c r="F4" t="n">
         <v>0.0</v>
       </c>
       <c r="G4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H4" t="n">
-        <v>536806.0</v>
+        <v>4172.0</v>
       </c>
       <c r="I4" t="n">
-        <v>536806.0</v>
+        <v>9.8042E7</v>
       </c>
       <c r="J4" t="n">
-        <v>0.005</v>
+        <v>0.0</v>
       </c>
       <c r="K4" t="s">
         <v>85</v>
@@ -3786,32 +3896,32 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="B5" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="C5" t="n">
         <v>3.0</v>
       </c>
       <c r="D5" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="E5"/>
       <c r="F5" t="n">
         <v>0.0</v>
       </c>
       <c r="G5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H5" t="n">
-        <v>75604.0</v>
+        <v>4113.0</v>
       </c>
       <c r="I5" t="n">
-        <v>75604.0</v>
+        <v>9.66555E7</v>
       </c>
       <c r="J5" t="n">
-        <v>0.005</v>
+        <v>0.0</v>
       </c>
       <c r="K5" t="s">
         <v>85</v>
@@ -3819,7 +3929,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5.0</v>
+        <v>11.0</v>
       </c>
       <c r="B6" t="n">
         <v>5.0</v>
@@ -3828,23 +3938,23 @@
         <v>1.0</v>
       </c>
       <c r="D6" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="E6"/>
       <c r="F6" t="n">
         <v>0.0</v>
       </c>
       <c r="G6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H6" t="n">
-        <v>113622.0</v>
+        <v>3742.0</v>
       </c>
       <c r="I6" t="n">
-        <v>113622.0</v>
+        <v>8.7937E7</v>
       </c>
       <c r="J6" t="n">
-        <v>0.005</v>
+        <v>0.0</v>
       </c>
       <c r="K6" t="s">
         <v>85</v>
@@ -3852,32 +3962,32 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6.0</v>
+        <v>10.0</v>
       </c>
       <c r="B7" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="C7" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="D7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="E7"/>
       <c r="F7" t="n">
         <v>0.0</v>
       </c>
       <c r="G7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H7" t="n">
-        <v>287474.0</v>
+        <v>3420.0</v>
       </c>
       <c r="I7" t="n">
-        <v>287474.0</v>
+        <v>8.037E7</v>
       </c>
       <c r="J7" t="n">
-        <v>0.005</v>
+        <v>0.0</v>
       </c>
       <c r="K7" t="s">
         <v>85</v>
@@ -3885,16 +3995,16 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>7.0</v>
+        <v>39.0</v>
       </c>
       <c r="B8" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="C8" t="n">
         <v>1.0</v>
       </c>
-      <c r="C8" t="n">
-        <v>3.0</v>
-      </c>
       <c r="D8" t="s">
-        <v>244</v>
+        <v>276</v>
       </c>
       <c r="E8"/>
       <c r="F8" t="n">
@@ -3904,10 +4014,10 @@
         <v>81</v>
       </c>
       <c r="H8" t="n">
-        <v>4113.0</v>
+        <v>2967.0</v>
       </c>
       <c r="I8" t="n">
-        <v>9.66555E7</v>
+        <v>6.97245E7</v>
       </c>
       <c r="J8" t="n">
         <v>0.0</v>
@@ -3918,16 +4028,16 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>8.0</v>
+        <v>42.0</v>
       </c>
       <c r="B9" t="n">
-        <v>2.0</v>
+        <v>11.0</v>
       </c>
       <c r="C9" t="n">
         <v>1.0</v>
       </c>
       <c r="D9" t="s">
-        <v>245</v>
+        <v>279</v>
       </c>
       <c r="E9"/>
       <c r="F9" t="n">
@@ -3937,10 +4047,10 @@
         <v>81</v>
       </c>
       <c r="H9" t="n">
-        <v>4172.0</v>
+        <v>2852.0</v>
       </c>
       <c r="I9" t="n">
-        <v>9.8042E7</v>
+        <v>6.7022E7</v>
       </c>
       <c r="J9" t="n">
         <v>0.0</v>
@@ -3951,16 +4061,16 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>9.0</v>
+        <v>41.0</v>
       </c>
       <c r="B10" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="C10" t="n">
         <v>3.0</v>
       </c>
-      <c r="C10" t="n">
-        <v>2.0</v>
-      </c>
       <c r="D10" t="s">
-        <v>246</v>
+        <v>278</v>
       </c>
       <c r="E10"/>
       <c r="F10" t="n">
@@ -3970,10 +4080,10 @@
         <v>81</v>
       </c>
       <c r="H10" t="n">
-        <v>1626.0</v>
+        <v>2850.0</v>
       </c>
       <c r="I10" t="n">
-        <v>3.8211E7</v>
+        <v>6.6975E7</v>
       </c>
       <c r="J10" t="n">
         <v>0.0</v>
@@ -3984,16 +4094,16 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>10.0</v>
+        <v>56.0</v>
       </c>
       <c r="B11" t="n">
-        <v>4.0</v>
+        <v>25.0</v>
       </c>
       <c r="C11" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="D11" t="s">
-        <v>247</v>
+        <v>293</v>
       </c>
       <c r="E11"/>
       <c r="F11" t="n">
@@ -4003,10 +4113,10 @@
         <v>81</v>
       </c>
       <c r="H11" t="n">
-        <v>3420.0</v>
+        <v>2053.0</v>
       </c>
       <c r="I11" t="n">
-        <v>8.037E7</v>
+        <v>4.82455E7</v>
       </c>
       <c r="J11" t="n">
         <v>0.0</v>
@@ -4017,16 +4127,16 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>11.0</v>
+        <v>45.0</v>
       </c>
       <c r="B12" t="n">
-        <v>5.0</v>
+        <v>14.0</v>
       </c>
       <c r="C12" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D12" t="s">
-        <v>248</v>
+        <v>282</v>
       </c>
       <c r="E12"/>
       <c r="F12" t="n">
@@ -4036,10 +4146,10 @@
         <v>81</v>
       </c>
       <c r="H12" t="n">
-        <v>3742.0</v>
+        <v>1990.0</v>
       </c>
       <c r="I12" t="n">
-        <v>8.7937E7</v>
+        <v>4.6765E7</v>
       </c>
       <c r="J12" t="n">
         <v>0.0</v>
@@ -4050,16 +4160,16 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>12.0</v>
+        <v>54.0</v>
       </c>
       <c r="B13" t="n">
-        <v>6.0</v>
+        <v>23.0</v>
       </c>
       <c r="C13" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="D13" t="s">
-        <v>249</v>
+        <v>291</v>
       </c>
       <c r="E13"/>
       <c r="F13" t="n">
@@ -4069,10 +4179,10 @@
         <v>81</v>
       </c>
       <c r="H13" t="n">
-        <v>4345.0</v>
+        <v>1875.0</v>
       </c>
       <c r="I13" t="n">
-        <v>1.021075E8</v>
+        <v>4.40625E7</v>
       </c>
       <c r="J13" t="n">
         <v>0.0</v>
@@ -4083,32 +4193,32 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>13.0</v>
+        <v>9.0</v>
       </c>
       <c r="B14" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="C14" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="D14" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="E14"/>
       <c r="F14" t="n">
         <v>0.0</v>
       </c>
       <c r="G14" t="s">
-        <v>205</v>
+        <v>81</v>
       </c>
       <c r="H14" t="n">
-        <v>1.23345779E8</v>
+        <v>1626.0</v>
       </c>
       <c r="I14" t="n">
-        <v>3.21583291289651E12</v>
+        <v>3.8211E7</v>
       </c>
       <c r="J14" t="n">
-        <v>0.004</v>
+        <v>0.0</v>
       </c>
       <c r="K14" t="s">
         <v>85</v>
@@ -4116,32 +4226,32 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>14.0</v>
+        <v>47.0</v>
       </c>
       <c r="B15" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="C15" t="n">
         <v>2.0</v>
       </c>
-      <c r="C15" t="n">
-        <v>1.0</v>
-      </c>
       <c r="D15" t="s">
-        <v>251</v>
+        <v>284</v>
       </c>
       <c r="E15"/>
       <c r="F15" t="n">
         <v>0.0</v>
       </c>
       <c r="G15" t="s">
-        <v>205</v>
+        <v>81</v>
       </c>
       <c r="H15" t="n">
-        <v>210.0</v>
+        <v>1177.0</v>
       </c>
       <c r="I15" t="n">
-        <v>5475054.899999999</v>
+        <v>2.76595E7</v>
       </c>
       <c r="J15" t="n">
-        <v>0.004</v>
+        <v>0.0</v>
       </c>
       <c r="K15" t="s">
         <v>85</v>
@@ -4149,16 +4259,16 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>15.0</v>
+        <v>66.0</v>
       </c>
       <c r="B16" t="n">
-        <v>3.0</v>
+        <v>16.0</v>
       </c>
       <c r="C16" t="n">
         <v>2.0</v>
       </c>
       <c r="D16" t="s">
-        <v>252</v>
+        <v>302</v>
       </c>
       <c r="E16"/>
       <c r="F16" t="n">
@@ -4168,10 +4278,10 @@
         <v>205</v>
       </c>
       <c r="H16" t="n">
-        <v>490.0</v>
+        <v>990.0</v>
       </c>
       <c r="I16" t="n">
-        <v>1.27751281E7</v>
+        <v>2.5810973099999998E7</v>
       </c>
       <c r="J16" t="n">
         <v>0.004</v>
@@ -4182,16 +4292,16 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>16.0</v>
+        <v>67.0</v>
       </c>
       <c r="B17" t="n">
-        <v>4.0</v>
+        <v>17.0</v>
       </c>
       <c r="C17" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="D17" t="s">
-        <v>253</v>
+        <v>303</v>
       </c>
       <c r="E17"/>
       <c r="F17" t="n">
@@ -4201,10 +4311,10 @@
         <v>205</v>
       </c>
       <c r="H17" t="n">
-        <v>481.0</v>
+        <v>973.0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.2540482889999999E7</v>
+        <v>2.5367754369999997E7</v>
       </c>
       <c r="J17" t="n">
         <v>0.004</v>
@@ -4215,16 +4325,16 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>17.0</v>
+        <v>69.0</v>
       </c>
       <c r="B18" t="n">
-        <v>5.0</v>
+        <v>19.0</v>
       </c>
       <c r="C18" t="n">
         <v>3.0</v>
       </c>
       <c r="D18" t="s">
-        <v>254</v>
+        <v>305</v>
       </c>
       <c r="E18"/>
       <c r="F18" t="n">
@@ -4234,10 +4344,10 @@
         <v>205</v>
       </c>
       <c r="H18" t="n">
-        <v>287.0</v>
+        <v>814.0</v>
       </c>
       <c r="I18" t="n">
-        <v>7482575.029999999</v>
+        <v>2.122235566E7</v>
       </c>
       <c r="J18" t="n">
         <v>0.004</v>
@@ -4248,16 +4358,16 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>18.0</v>
+        <v>73.0</v>
       </c>
       <c r="B19" t="n">
-        <v>6.0</v>
+        <v>23.0</v>
       </c>
       <c r="C19" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="D19" t="s">
-        <v>255</v>
+        <v>309</v>
       </c>
       <c r="E19"/>
       <c r="F19" t="n">
@@ -4267,10 +4377,10 @@
         <v>205</v>
       </c>
       <c r="H19" t="n">
-        <v>491.0</v>
+        <v>740.0</v>
       </c>
       <c r="I19" t="n">
-        <v>1.280119979E7</v>
+        <v>1.9293050599999998E7</v>
       </c>
       <c r="J19" t="n">
         <v>0.004</v>
@@ -4281,32 +4391,32 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>19.0</v>
+        <v>60.0</v>
       </c>
       <c r="B20" t="n">
-        <v>7.0</v>
+        <v>10.0</v>
       </c>
       <c r="C20" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="D20" t="s">
-        <v>256</v>
+        <v>297</v>
       </c>
       <c r="E20"/>
       <c r="F20" t="n">
         <v>0.0</v>
       </c>
       <c r="G20" t="s">
-        <v>80</v>
+        <v>205</v>
       </c>
       <c r="H20" t="n">
-        <v>9980102.0</v>
+        <v>710.0</v>
       </c>
       <c r="I20" t="n">
-        <v>9980102.0</v>
+        <v>1.85108999E7</v>
       </c>
       <c r="J20" t="n">
-        <v>0.005</v>
+        <v>0.004</v>
       </c>
       <c r="K20" t="s">
         <v>85</v>
@@ -4314,32 +4424,32 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>20.0</v>
+        <v>48.0</v>
       </c>
       <c r="B21" t="n">
-        <v>8.0</v>
+        <v>17.0</v>
       </c>
       <c r="C21" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="D21" t="s">
-        <v>257</v>
+        <v>285</v>
       </c>
       <c r="E21"/>
       <c r="F21" t="n">
         <v>0.0</v>
       </c>
       <c r="G21" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H21" t="n">
-        <v>5476967.0</v>
+        <v>779.0</v>
       </c>
       <c r="I21" t="n">
-        <v>5476967.0</v>
+        <v>1.83065E7</v>
       </c>
       <c r="J21" t="n">
-        <v>0.005</v>
+        <v>0.0</v>
       </c>
       <c r="K21" t="s">
         <v>85</v>
@@ -4347,32 +4457,32 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>21.0</v>
+        <v>58.0</v>
       </c>
       <c r="B22" t="n">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
       <c r="C22" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="D22" t="s">
-        <v>258</v>
+        <v>295</v>
       </c>
       <c r="E22"/>
       <c r="F22" t="n">
         <v>0.0</v>
       </c>
       <c r="G22" t="s">
-        <v>80</v>
+        <v>205</v>
       </c>
       <c r="H22" t="n">
-        <v>4549845.0</v>
+        <v>676.0</v>
       </c>
       <c r="I22" t="n">
-        <v>4549845.0</v>
+        <v>1.7624462439999998E7</v>
       </c>
       <c r="J22" t="n">
-        <v>0.005</v>
+        <v>0.004</v>
       </c>
       <c r="K22" t="s">
         <v>85</v>
@@ -4380,32 +4490,32 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>22.0</v>
+        <v>68.0</v>
       </c>
       <c r="B23" t="n">
-        <v>10.0</v>
+        <v>18.0</v>
       </c>
       <c r="C23" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="D23" t="s">
-        <v>259</v>
+        <v>304</v>
       </c>
       <c r="E23"/>
       <c r="F23" t="n">
         <v>0.0</v>
       </c>
       <c r="G23" t="s">
-        <v>80</v>
+        <v>205</v>
       </c>
       <c r="H23" t="n">
-        <v>5863377.0</v>
+        <v>658.0</v>
       </c>
       <c r="I23" t="n">
-        <v>5863377.0</v>
+        <v>1.715517202E7</v>
       </c>
       <c r="J23" t="n">
-        <v>0.005</v>
+        <v>0.004</v>
       </c>
       <c r="K23" t="s">
         <v>85</v>
@@ -4413,32 +4523,32 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>23.0</v>
+        <v>70.0</v>
       </c>
       <c r="B24" t="n">
-        <v>11.0</v>
+        <v>20.0</v>
       </c>
       <c r="C24" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="D24" t="s">
-        <v>260</v>
+        <v>306</v>
       </c>
       <c r="E24"/>
       <c r="F24" t="n">
         <v>0.0</v>
       </c>
       <c r="G24" t="s">
-        <v>80</v>
+        <v>205</v>
       </c>
       <c r="H24" t="n">
-        <v>8448457.0</v>
+        <v>656.0</v>
       </c>
       <c r="I24" t="n">
-        <v>8448457.0</v>
+        <v>1.710302864E7</v>
       </c>
       <c r="J24" t="n">
-        <v>0.005</v>
+        <v>0.004</v>
       </c>
       <c r="K24" t="s">
         <v>85</v>
@@ -4446,32 +4556,32 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>24.0</v>
+        <v>57.0</v>
       </c>
       <c r="B25" t="n">
-        <v>12.0</v>
+        <v>7.0</v>
       </c>
       <c r="C25" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="D25" t="s">
-        <v>261</v>
+        <v>294</v>
       </c>
       <c r="E25"/>
       <c r="F25" t="n">
         <v>0.0</v>
       </c>
       <c r="G25" t="s">
-        <v>80</v>
+        <v>205</v>
       </c>
       <c r="H25" t="n">
-        <v>3872282.0</v>
+        <v>646.0</v>
       </c>
       <c r="I25" t="n">
-        <v>3872282.0</v>
+        <v>1.684231174E7</v>
       </c>
       <c r="J25" t="n">
-        <v>0.005</v>
+        <v>0.004</v>
       </c>
       <c r="K25" t="s">
         <v>85</v>
@@ -4479,32 +4589,32 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>25.0</v>
+        <v>59.0</v>
       </c>
       <c r="B26" t="n">
-        <v>13.0</v>
+        <v>9.0</v>
       </c>
       <c r="C26" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="D26" t="s">
-        <v>262</v>
+        <v>296</v>
       </c>
       <c r="E26"/>
       <c r="F26" t="n">
         <v>0.0</v>
       </c>
       <c r="G26" t="s">
-        <v>80</v>
+        <v>205</v>
       </c>
       <c r="H26" t="n">
-        <v>5739796.0</v>
+        <v>643.0</v>
       </c>
       <c r="I26" t="n">
-        <v>5739796.0</v>
+        <v>1.676409667E7</v>
       </c>
       <c r="J26" t="n">
-        <v>0.005</v>
+        <v>0.004</v>
       </c>
       <c r="K26" t="s">
         <v>85</v>
@@ -4512,32 +4622,32 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>26.0</v>
+        <v>55.0</v>
       </c>
       <c r="B27" t="n">
-        <v>14.0</v>
+        <v>24.0</v>
       </c>
       <c r="C27" t="n">
         <v>1.0</v>
       </c>
       <c r="D27" t="s">
-        <v>263</v>
+        <v>292</v>
       </c>
       <c r="E27"/>
       <c r="F27" t="n">
         <v>0.0</v>
       </c>
       <c r="G27" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H27" t="n">
-        <v>7755939.0</v>
+        <v>662.0</v>
       </c>
       <c r="I27" t="n">
-        <v>7755939.0</v>
+        <v>1.5557E7</v>
       </c>
       <c r="J27" t="n">
-        <v>0.005</v>
+        <v>0.0</v>
       </c>
       <c r="K27" t="s">
         <v>85</v>
@@ -4545,32 +4655,32 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>27.0</v>
+        <v>61.0</v>
       </c>
       <c r="B28" t="n">
-        <v>15.0</v>
+        <v>11.0</v>
       </c>
       <c r="C28" t="n">
         <v>3.0</v>
       </c>
       <c r="D28" t="s">
-        <v>264</v>
+        <v>298</v>
       </c>
       <c r="E28"/>
       <c r="F28" t="n">
         <v>0.0</v>
       </c>
       <c r="G28" t="s">
-        <v>80</v>
+        <v>205</v>
       </c>
       <c r="H28" t="n">
-        <v>7213398.0</v>
+        <v>555.0</v>
       </c>
       <c r="I28" t="n">
-        <v>7213398.0</v>
+        <v>1.446978795E7</v>
       </c>
       <c r="J28" t="n">
-        <v>0.005</v>
+        <v>0.004</v>
       </c>
       <c r="K28" t="s">
         <v>85</v>
@@ -4578,32 +4688,32 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>28.0</v>
+        <v>18.0</v>
       </c>
       <c r="B29" t="n">
-        <v>16.0</v>
+        <v>6.0</v>
       </c>
       <c r="C29" t="n">
         <v>3.0</v>
       </c>
       <c r="D29" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="E29"/>
       <c r="F29" t="n">
         <v>0.0</v>
       </c>
       <c r="G29" t="s">
-        <v>80</v>
+        <v>205</v>
       </c>
       <c r="H29" t="n">
-        <v>6577462.0</v>
+        <v>491.0</v>
       </c>
       <c r="I29" t="n">
-        <v>6577462.0</v>
+        <v>1.280119979E7</v>
       </c>
       <c r="J29" t="n">
-        <v>0.005</v>
+        <v>0.004</v>
       </c>
       <c r="K29" t="s">
         <v>85</v>
@@ -4611,32 +4721,32 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>29.0</v>
+        <v>15.0</v>
       </c>
       <c r="B30" t="n">
-        <v>17.0</v>
+        <v>3.0</v>
       </c>
       <c r="C30" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D30" t="s">
-        <v>266</v>
+        <v>252</v>
       </c>
       <c r="E30"/>
       <c r="F30" t="n">
         <v>0.0</v>
       </c>
       <c r="G30" t="s">
-        <v>80</v>
+        <v>205</v>
       </c>
       <c r="H30" t="n">
-        <v>2960169.0</v>
+        <v>490.0</v>
       </c>
       <c r="I30" t="n">
-        <v>2960169.0</v>
+        <v>1.27751281E7</v>
       </c>
       <c r="J30" t="n">
-        <v>0.005</v>
+        <v>0.004</v>
       </c>
       <c r="K30" t="s">
         <v>85</v>
@@ -4644,32 +4754,32 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>30.0</v>
+        <v>16.0</v>
       </c>
       <c r="B31" t="n">
-        <v>18.0</v>
+        <v>4.0</v>
       </c>
       <c r="C31" t="n">
         <v>3.0</v>
       </c>
       <c r="D31" t="s">
-        <v>267</v>
+        <v>253</v>
       </c>
       <c r="E31"/>
       <c r="F31" t="n">
         <v>0.0</v>
       </c>
       <c r="G31" t="s">
-        <v>80</v>
+        <v>205</v>
       </c>
       <c r="H31" t="n">
-        <v>8009206.0</v>
+        <v>481.0</v>
       </c>
       <c r="I31" t="n">
-        <v>8009206.0</v>
+        <v>1.2540482889999999E7</v>
       </c>
       <c r="J31" t="n">
-        <v>0.005</v>
+        <v>0.004</v>
       </c>
       <c r="K31" t="s">
         <v>85</v>
@@ -4677,32 +4787,32 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>31.0</v>
+        <v>72.0</v>
       </c>
       <c r="B32" t="n">
-        <v>19.0</v>
+        <v>22.0</v>
       </c>
       <c r="C32" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D32" t="s">
-        <v>268</v>
+        <v>308</v>
       </c>
       <c r="E32"/>
       <c r="F32" t="n">
         <v>0.0</v>
       </c>
       <c r="G32" t="s">
-        <v>80</v>
+        <v>205</v>
       </c>
       <c r="H32" t="n">
-        <v>7747227.0</v>
+        <v>470.0</v>
       </c>
       <c r="I32" t="n">
-        <v>7747227.0</v>
+        <v>1.2253694299999999E7</v>
       </c>
       <c r="J32" t="n">
-        <v>0.005</v>
+        <v>0.004</v>
       </c>
       <c r="K32" t="s">
         <v>85</v>
@@ -4710,32 +4820,32 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>32.0</v>
+        <v>62.0</v>
       </c>
       <c r="B33" t="n">
-        <v>20.0</v>
+        <v>12.0</v>
       </c>
       <c r="C33" t="n">
         <v>2.0</v>
       </c>
       <c r="D33" t="s">
-        <v>269</v>
+        <v>299</v>
       </c>
       <c r="E33"/>
       <c r="F33" t="n">
         <v>0.0</v>
       </c>
       <c r="G33" t="s">
-        <v>80</v>
+        <v>205</v>
       </c>
       <c r="H33" t="n">
-        <v>8563947.0</v>
+        <v>445.0</v>
       </c>
       <c r="I33" t="n">
-        <v>8563947.0</v>
+        <v>1.1601902049999999E7</v>
       </c>
       <c r="J33" t="n">
-        <v>0.005</v>
+        <v>0.004</v>
       </c>
       <c r="K33" t="s">
         <v>85</v>
@@ -4743,32 +4853,32 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>33.0</v>
+        <v>74.0</v>
       </c>
       <c r="B34" t="n">
-        <v>21.0</v>
+        <v>24.0</v>
       </c>
       <c r="C34" t="n">
         <v>2.0</v>
       </c>
       <c r="D34" t="s">
-        <v>270</v>
+        <v>310</v>
       </c>
       <c r="E34"/>
       <c r="F34" t="n">
         <v>0.0</v>
       </c>
       <c r="G34" t="s">
-        <v>80</v>
+        <v>205</v>
       </c>
       <c r="H34" t="n">
-        <v>9371489.0</v>
+        <v>426.0</v>
       </c>
       <c r="I34" t="n">
-        <v>9371489.0</v>
+        <v>1.110653994E7</v>
       </c>
       <c r="J34" t="n">
-        <v>0.005</v>
+        <v>0.004</v>
       </c>
       <c r="K34" t="s">
         <v>85</v>
@@ -4776,32 +4886,32 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>34.0</v>
+        <v>46.0</v>
       </c>
       <c r="B35" t="n">
-        <v>22.0</v>
+        <v>15.0</v>
       </c>
       <c r="C35" t="n">
         <v>2.0</v>
       </c>
       <c r="D35" t="s">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="E35"/>
       <c r="F35" t="n">
         <v>0.0</v>
       </c>
       <c r="G35" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H35" t="n">
-        <v>5359387.0</v>
+        <v>434.0</v>
       </c>
       <c r="I35" t="n">
-        <v>5359387.0</v>
+        <v>1.0199E7</v>
       </c>
       <c r="J35" t="n">
-        <v>0.005</v>
+        <v>0.0</v>
       </c>
       <c r="K35" t="s">
         <v>85</v>
@@ -4809,32 +4919,32 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>35.0</v>
+        <v>75.0</v>
       </c>
       <c r="B36" t="n">
-        <v>23.0</v>
+        <v>25.0</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="D36" t="s">
-        <v>272</v>
+        <v>311</v>
       </c>
       <c r="E36"/>
       <c r="F36" t="n">
         <v>0.0</v>
       </c>
       <c r="G36" t="s">
-        <v>80</v>
+        <v>205</v>
       </c>
       <c r="H36" t="n">
-        <v>7487506.0</v>
+        <v>389.0</v>
       </c>
       <c r="I36" t="n">
-        <v>7487506.0</v>
+        <v>1.014188741E7</v>
       </c>
       <c r="J36" t="n">
-        <v>0.005</v>
+        <v>0.004</v>
       </c>
       <c r="K36" t="s">
         <v>85</v>
@@ -4842,16 +4952,16 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>36.0</v>
+        <v>19.0</v>
       </c>
       <c r="B37" t="n">
-        <v>24.0</v>
+        <v>7.0</v>
       </c>
       <c r="C37" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="D37" t="s">
-        <v>273</v>
+        <v>256</v>
       </c>
       <c r="E37"/>
       <c r="F37" t="n">
@@ -4861,10 +4971,10 @@
         <v>80</v>
       </c>
       <c r="H37" t="n">
-        <v>1603258.0</v>
+        <v>9980102.0</v>
       </c>
       <c r="I37" t="n">
-        <v>1603258.0</v>
+        <v>9980102.0</v>
       </c>
       <c r="J37" t="n">
         <v>0.005</v>
@@ -4875,32 +4985,32 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>37.0</v>
+        <v>52.0</v>
       </c>
       <c r="B38" t="n">
-        <v>25.0</v>
+        <v>21.0</v>
       </c>
       <c r="C38" t="n">
         <v>1.0</v>
       </c>
       <c r="D38" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="E38"/>
       <c r="F38" t="n">
         <v>0.0</v>
       </c>
       <c r="G38" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H38" t="n">
-        <v>2798196.0</v>
+        <v>420.0</v>
       </c>
       <c r="I38" t="n">
-        <v>2798196.0</v>
+        <v>9870000.0</v>
       </c>
       <c r="J38" t="n">
-        <v>0.005</v>
+        <v>0.0</v>
       </c>
       <c r="K38" t="s">
         <v>85</v>
@@ -4908,32 +5018,32 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>38.0</v>
+        <v>33.0</v>
       </c>
       <c r="B39" t="n">
-        <v>7.0</v>
+        <v>21.0</v>
       </c>
       <c r="C39" t="n">
         <v>2.0</v>
       </c>
       <c r="D39" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="E39"/>
       <c r="F39" t="n">
         <v>0.0</v>
       </c>
       <c r="G39" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H39" t="n">
-        <v>150.0</v>
+        <v>9371489.0</v>
       </c>
       <c r="I39" t="n">
-        <v>3525000.0</v>
+        <v>9371489.0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.0</v>
+        <v>0.005</v>
       </c>
       <c r="K39" t="s">
         <v>85</v>
@@ -4941,32 +5051,32 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>39.0</v>
+        <v>32.0</v>
       </c>
       <c r="B40" t="n">
-        <v>8.0</v>
+        <v>20.0</v>
       </c>
       <c r="C40" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D40" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="E40"/>
       <c r="F40" t="n">
         <v>0.0</v>
       </c>
       <c r="G40" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H40" t="n">
-        <v>2967.0</v>
+        <v>8563947.0</v>
       </c>
       <c r="I40" t="n">
-        <v>6.97245E7</v>
+        <v>8563947.0</v>
       </c>
       <c r="J40" t="n">
-        <v>0.0</v>
+        <v>0.005</v>
       </c>
       <c r="K40" t="s">
         <v>85</v>
@@ -4974,16 +5084,16 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>40.0</v>
+        <v>49.0</v>
       </c>
       <c r="B41" t="n">
-        <v>9.0</v>
+        <v>18.0</v>
       </c>
       <c r="C41" t="n">
         <v>3.0</v>
       </c>
       <c r="D41" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="E41"/>
       <c r="F41" t="n">
@@ -4993,10 +5103,10 @@
         <v>81</v>
       </c>
       <c r="H41" t="n">
-        <v>214.0</v>
+        <v>360.0</v>
       </c>
       <c r="I41" t="n">
-        <v>5029000.0</v>
+        <v>8460000.0</v>
       </c>
       <c r="J41" t="n">
         <v>0.0</v>
@@ -5007,32 +5117,32 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>41.0</v>
+        <v>23.0</v>
       </c>
       <c r="B42" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="C42" t="n">
         <v>3.0</v>
       </c>
       <c r="D42" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
       <c r="E42"/>
       <c r="F42" t="n">
         <v>0.0</v>
       </c>
       <c r="G42" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H42" t="n">
-        <v>2850.0</v>
+        <v>8448457.0</v>
       </c>
       <c r="I42" t="n">
-        <v>6.6975E7</v>
+        <v>8448457.0</v>
       </c>
       <c r="J42" t="n">
-        <v>0.0</v>
+        <v>0.005</v>
       </c>
       <c r="K42" t="s">
         <v>85</v>
@@ -5040,16 +5150,16 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>42.0</v>
+        <v>43.0</v>
       </c>
       <c r="B43" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="C43" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D43" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E43"/>
       <c r="F43" t="n">
@@ -5059,10 +5169,10 @@
         <v>81</v>
       </c>
       <c r="H43" t="n">
-        <v>2852.0</v>
+        <v>351.0</v>
       </c>
       <c r="I43" t="n">
-        <v>6.7022E7</v>
+        <v>8248500.0</v>
       </c>
       <c r="J43" t="n">
         <v>0.0</v>
@@ -5073,32 +5183,32 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>43.0</v>
+        <v>30.0</v>
       </c>
       <c r="B44" t="n">
-        <v>12.0</v>
+        <v>18.0</v>
       </c>
       <c r="C44" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="D44" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="E44"/>
       <c r="F44" t="n">
         <v>0.0</v>
       </c>
       <c r="G44" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H44" t="n">
-        <v>351.0</v>
+        <v>8009206.0</v>
       </c>
       <c r="I44" t="n">
-        <v>8248500.0</v>
+        <v>8009206.0</v>
       </c>
       <c r="J44" t="n">
-        <v>0.0</v>
+        <v>0.005</v>
       </c>
       <c r="K44" t="s">
         <v>85</v>
@@ -5106,32 +5216,32 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>44.0</v>
+        <v>26.0</v>
       </c>
       <c r="B45" t="n">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="C45" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="D45" t="s">
-        <v>281</v>
+        <v>263</v>
       </c>
       <c r="E45"/>
       <c r="F45" t="n">
         <v>0.0</v>
       </c>
       <c r="G45" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H45" t="n">
-        <v>124.0</v>
+        <v>7755939.0</v>
       </c>
       <c r="I45" t="n">
-        <v>2914000.0</v>
+        <v>7755939.0</v>
       </c>
       <c r="J45" t="n">
-        <v>0.0</v>
+        <v>0.005</v>
       </c>
       <c r="K45" t="s">
         <v>85</v>
@@ -5139,32 +5249,32 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>45.0</v>
+        <v>31.0</v>
       </c>
       <c r="B46" t="n">
-        <v>14.0</v>
+        <v>19.0</v>
       </c>
       <c r="C46" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="D46" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="E46"/>
       <c r="F46" t="n">
         <v>0.0</v>
       </c>
       <c r="G46" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H46" t="n">
-        <v>1990.0</v>
+        <v>7747227.0</v>
       </c>
       <c r="I46" t="n">
-        <v>4.6765E7</v>
+        <v>7747227.0</v>
       </c>
       <c r="J46" t="n">
-        <v>0.0</v>
+        <v>0.005</v>
       </c>
       <c r="K46" t="s">
         <v>85</v>
@@ -5172,32 +5282,32 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>46.0</v>
+        <v>35.0</v>
       </c>
       <c r="B47" t="n">
-        <v>15.0</v>
+        <v>23.0</v>
       </c>
       <c r="C47" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="D47" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="E47"/>
       <c r="F47" t="n">
         <v>0.0</v>
       </c>
       <c r="G47" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H47" t="n">
-        <v>434.0</v>
+        <v>7487506.0</v>
       </c>
       <c r="I47" t="n">
-        <v>1.0199E7</v>
+        <v>7487506.0</v>
       </c>
       <c r="J47" t="n">
-        <v>0.0</v>
+        <v>0.005</v>
       </c>
       <c r="K47" t="s">
         <v>85</v>
@@ -5205,32 +5315,32 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>47.0</v>
+        <v>17.0</v>
       </c>
       <c r="B48" t="n">
-        <v>16.0</v>
+        <v>5.0</v>
       </c>
       <c r="C48" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="D48" t="s">
-        <v>284</v>
+        <v>254</v>
       </c>
       <c r="E48"/>
       <c r="F48" t="n">
         <v>0.0</v>
       </c>
       <c r="G48" t="s">
-        <v>81</v>
+        <v>205</v>
       </c>
       <c r="H48" t="n">
-        <v>1177.0</v>
+        <v>287.0</v>
       </c>
       <c r="I48" t="n">
-        <v>2.76595E7</v>
+        <v>7482575.029999999</v>
       </c>
       <c r="J48" t="n">
-        <v>0.0</v>
+        <v>0.004</v>
       </c>
       <c r="K48" t="s">
         <v>85</v>
@@ -5238,32 +5348,32 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>48.0</v>
+        <v>27.0</v>
       </c>
       <c r="B49" t="n">
-        <v>17.0</v>
+        <v>15.0</v>
       </c>
       <c r="C49" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="D49" t="s">
-        <v>285</v>
+        <v>264</v>
       </c>
       <c r="E49"/>
       <c r="F49" t="n">
         <v>0.0</v>
       </c>
       <c r="G49" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H49" t="n">
-        <v>779.0</v>
+        <v>7213398.0</v>
       </c>
       <c r="I49" t="n">
-        <v>1.83065E7</v>
+        <v>7213398.0</v>
       </c>
       <c r="J49" t="n">
-        <v>0.0</v>
+        <v>0.005</v>
       </c>
       <c r="K49" t="s">
         <v>85</v>
@@ -5271,32 +5381,32 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>49.0</v>
+        <v>28.0</v>
       </c>
       <c r="B50" t="n">
-        <v>18.0</v>
+        <v>16.0</v>
       </c>
       <c r="C50" t="n">
         <v>3.0</v>
       </c>
       <c r="D50" t="s">
-        <v>286</v>
+        <v>265</v>
       </c>
       <c r="E50"/>
       <c r="F50" t="n">
         <v>0.0</v>
       </c>
       <c r="G50" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H50" t="n">
-        <v>360.0</v>
+        <v>6577462.0</v>
       </c>
       <c r="I50" t="n">
-        <v>8460000.0</v>
+        <v>6577462.0</v>
       </c>
       <c r="J50" t="n">
-        <v>0.0</v>
+        <v>0.005</v>
       </c>
       <c r="K50" t="s">
         <v>85</v>
@@ -5304,16 +5414,16 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>50.0</v>
+        <v>53.0</v>
       </c>
       <c r="B51" t="n">
-        <v>19.0</v>
+        <v>22.0</v>
       </c>
       <c r="C51" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="D51" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="E51"/>
       <c r="F51" t="n">
@@ -5323,10 +5433,10 @@
         <v>81</v>
       </c>
       <c r="H51" t="n">
-        <v>270.0</v>
+        <v>277.0</v>
       </c>
       <c r="I51" t="n">
-        <v>6345000.0</v>
+        <v>6509500.0</v>
       </c>
       <c r="J51" t="n">
         <v>0.0</v>
@@ -5337,16 +5447,16 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>51.0</v>
+        <v>50.0</v>
       </c>
       <c r="B52" t="n">
-        <v>20.0</v>
+        <v>19.0</v>
       </c>
       <c r="C52" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="D52" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E52"/>
       <c r="F52" t="n">
@@ -5356,10 +5466,10 @@
         <v>81</v>
       </c>
       <c r="H52" t="n">
-        <v>194.0</v>
+        <v>270.0</v>
       </c>
       <c r="I52" t="n">
-        <v>4559000.0</v>
+        <v>6345000.0</v>
       </c>
       <c r="J52" t="n">
         <v>0.0</v>
@@ -5370,32 +5480,32 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>52.0</v>
+        <v>64.0</v>
       </c>
       <c r="B53" t="n">
-        <v>21.0</v>
+        <v>14.0</v>
       </c>
       <c r="C53" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="D53" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="E53"/>
       <c r="F53" t="n">
         <v>0.0</v>
       </c>
       <c r="G53" t="s">
-        <v>81</v>
+        <v>205</v>
       </c>
       <c r="H53" t="n">
-        <v>420.0</v>
+        <v>242.0</v>
       </c>
       <c r="I53" t="n">
-        <v>9870000.0</v>
+        <v>6309348.9799999995</v>
       </c>
       <c r="J53" t="n">
-        <v>0.0</v>
+        <v>0.004</v>
       </c>
       <c r="K53" t="s">
         <v>85</v>
@@ -5403,32 +5513,32 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>53.0</v>
+        <v>22.0</v>
       </c>
       <c r="B54" t="n">
-        <v>22.0</v>
+        <v>10.0</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="D54" t="s">
-        <v>290</v>
+        <v>259</v>
       </c>
       <c r="E54"/>
       <c r="F54" t="n">
         <v>0.0</v>
       </c>
       <c r="G54" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H54" t="n">
-        <v>277.0</v>
+        <v>5863377.0</v>
       </c>
       <c r="I54" t="n">
-        <v>6509500.0</v>
+        <v>5863377.0</v>
       </c>
       <c r="J54" t="n">
-        <v>0.0</v>
+        <v>0.005</v>
       </c>
       <c r="K54" t="s">
         <v>85</v>
@@ -5436,32 +5546,32 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>54.0</v>
+        <v>25.0</v>
       </c>
       <c r="B55" t="n">
-        <v>23.0</v>
+        <v>13.0</v>
       </c>
       <c r="C55" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="D55" t="s">
-        <v>291</v>
+        <v>262</v>
       </c>
       <c r="E55"/>
       <c r="F55" t="n">
         <v>0.0</v>
       </c>
       <c r="G55" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H55" t="n">
-        <v>1875.0</v>
+        <v>5739796.0</v>
       </c>
       <c r="I55" t="n">
-        <v>4.40625E7</v>
+        <v>5739796.0</v>
       </c>
       <c r="J55" t="n">
-        <v>0.0</v>
+        <v>0.005</v>
       </c>
       <c r="K55" t="s">
         <v>85</v>
@@ -5469,32 +5579,32 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>55.0</v>
+        <v>20.0</v>
       </c>
       <c r="B56" t="n">
-        <v>24.0</v>
+        <v>8.0</v>
       </c>
       <c r="C56" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="D56" t="s">
-        <v>292</v>
+        <v>257</v>
       </c>
       <c r="E56"/>
       <c r="F56" t="n">
         <v>0.0</v>
       </c>
       <c r="G56" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H56" t="n">
-        <v>662.0</v>
+        <v>5476967.0</v>
       </c>
       <c r="I56" t="n">
-        <v>1.5557E7</v>
+        <v>5476967.0</v>
       </c>
       <c r="J56" t="n">
-        <v>0.0</v>
+        <v>0.005</v>
       </c>
       <c r="K56" t="s">
         <v>85</v>
@@ -5502,32 +5612,32 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>56.0</v>
+        <v>14.0</v>
       </c>
       <c r="B57" t="n">
-        <v>25.0</v>
+        <v>2.0</v>
       </c>
       <c r="C57" t="n">
         <v>1.0</v>
       </c>
       <c r="D57" t="s">
-        <v>293</v>
+        <v>251</v>
       </c>
       <c r="E57"/>
       <c r="F57" t="n">
         <v>0.0</v>
       </c>
       <c r="G57" t="s">
-        <v>81</v>
+        <v>205</v>
       </c>
       <c r="H57" t="n">
-        <v>2053.0</v>
+        <v>210.0</v>
       </c>
       <c r="I57" t="n">
-        <v>4.82455E7</v>
+        <v>5475054.899999999</v>
       </c>
       <c r="J57" t="n">
-        <v>0.0</v>
+        <v>0.004</v>
       </c>
       <c r="K57" t="s">
         <v>85</v>
@@ -5535,32 +5645,32 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>57.0</v>
+        <v>34.0</v>
       </c>
       <c r="B58" t="n">
-        <v>7.0</v>
+        <v>22.0</v>
       </c>
       <c r="C58" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D58" t="s">
-        <v>294</v>
+        <v>271</v>
       </c>
       <c r="E58"/>
       <c r="F58" t="n">
         <v>0.0</v>
       </c>
       <c r="G58" t="s">
-        <v>205</v>
+        <v>80</v>
       </c>
       <c r="H58" t="n">
-        <v>646.0</v>
+        <v>5359387.0</v>
       </c>
       <c r="I58" t="n">
-        <v>1.684231174E7</v>
+        <v>5359387.0</v>
       </c>
       <c r="J58" t="n">
-        <v>0.004</v>
+        <v>0.005</v>
       </c>
       <c r="K58" t="s">
         <v>85</v>
@@ -5568,32 +5678,32 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>58.0</v>
+        <v>40.0</v>
       </c>
       <c r="B59" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="D59" t="s">
-        <v>295</v>
+        <v>277</v>
       </c>
       <c r="E59"/>
       <c r="F59" t="n">
         <v>0.0</v>
       </c>
       <c r="G59" t="s">
-        <v>205</v>
+        <v>81</v>
       </c>
       <c r="H59" t="n">
-        <v>676.0</v>
+        <v>214.0</v>
       </c>
       <c r="I59" t="n">
-        <v>1.7624462439999998E7</v>
+        <v>5029000.0</v>
       </c>
       <c r="J59" t="n">
-        <v>0.004</v>
+        <v>0.0</v>
       </c>
       <c r="K59" t="s">
         <v>85</v>
@@ -5601,32 +5711,32 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>59.0</v>
+        <v>51.0</v>
       </c>
       <c r="B60" t="n">
-        <v>9.0</v>
+        <v>20.0</v>
       </c>
       <c r="C60" t="n">
         <v>1.0</v>
       </c>
       <c r="D60" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="E60"/>
       <c r="F60" t="n">
         <v>0.0</v>
       </c>
       <c r="G60" t="s">
-        <v>205</v>
+        <v>81</v>
       </c>
       <c r="H60" t="n">
-        <v>643.0</v>
+        <v>194.0</v>
       </c>
       <c r="I60" t="n">
-        <v>1.676409667E7</v>
+        <v>4559000.0</v>
       </c>
       <c r="J60" t="n">
-        <v>0.004</v>
+        <v>0.0</v>
       </c>
       <c r="K60" t="s">
         <v>85</v>
@@ -5634,32 +5744,32 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>60.0</v>
+        <v>21.0</v>
       </c>
       <c r="B61" t="n">
-        <v>10.0</v>
+        <v>9.0</v>
       </c>
       <c r="C61" t="n">
         <v>3.0</v>
       </c>
       <c r="D61" t="s">
-        <v>297</v>
+        <v>258</v>
       </c>
       <c r="E61"/>
       <c r="F61" t="n">
         <v>0.0</v>
       </c>
       <c r="G61" t="s">
-        <v>205</v>
+        <v>80</v>
       </c>
       <c r="H61" t="n">
-        <v>710.0</v>
+        <v>4549845.0</v>
       </c>
       <c r="I61" t="n">
-        <v>1.85108999E7</v>
+        <v>4549845.0</v>
       </c>
       <c r="J61" t="n">
-        <v>0.004</v>
+        <v>0.005</v>
       </c>
       <c r="K61" t="s">
         <v>85</v>
@@ -5667,32 +5777,32 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>61.0</v>
+        <v>24.0</v>
       </c>
       <c r="B62" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="C62" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="D62" t="s">
-        <v>298</v>
+        <v>261</v>
       </c>
       <c r="E62"/>
       <c r="F62" t="n">
         <v>0.0</v>
       </c>
       <c r="G62" t="s">
-        <v>205</v>
+        <v>80</v>
       </c>
       <c r="H62" t="n">
-        <v>555.0</v>
+        <v>3872282.0</v>
       </c>
       <c r="I62" t="n">
-        <v>1.446978795E7</v>
+        <v>3872282.0</v>
       </c>
       <c r="J62" t="n">
-        <v>0.004</v>
+        <v>0.005</v>
       </c>
       <c r="K62" t="s">
         <v>85</v>
@@ -5700,32 +5810,32 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>62.0</v>
+        <v>38.0</v>
       </c>
       <c r="B63" t="n">
-        <v>12.0</v>
+        <v>7.0</v>
       </c>
       <c r="C63" t="n">
         <v>2.0</v>
       </c>
       <c r="D63" t="s">
-        <v>299</v>
+        <v>275</v>
       </c>
       <c r="E63"/>
       <c r="F63" t="n">
         <v>0.0</v>
       </c>
       <c r="G63" t="s">
-        <v>205</v>
+        <v>81</v>
       </c>
       <c r="H63" t="n">
-        <v>445.0</v>
+        <v>150.0</v>
       </c>
       <c r="I63" t="n">
-        <v>1.1601902049999999E7</v>
+        <v>3525000.0</v>
       </c>
       <c r="J63" t="n">
-        <v>0.004</v>
+        <v>0.0</v>
       </c>
       <c r="K63" t="s">
         <v>85</v>
@@ -5733,32 +5843,32 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>63.0</v>
+        <v>29.0</v>
       </c>
       <c r="B64" t="n">
-        <v>13.0</v>
+        <v>17.0</v>
       </c>
       <c r="C64" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="D64" t="s">
-        <v>296</v>
+        <v>266</v>
       </c>
       <c r="E64"/>
       <c r="F64" t="n">
         <v>0.0</v>
       </c>
       <c r="G64" t="s">
-        <v>205</v>
+        <v>80</v>
       </c>
       <c r="H64" t="n">
-        <v>44.0</v>
+        <v>2960169.0</v>
       </c>
       <c r="I64" t="n">
-        <v>1147154.3599999999</v>
+        <v>2960169.0</v>
       </c>
       <c r="J64" t="n">
-        <v>0.004</v>
+        <v>0.005</v>
       </c>
       <c r="K64" t="s">
         <v>85</v>
@@ -5766,32 +5876,32 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>64.0</v>
+        <v>44.0</v>
       </c>
       <c r="B65" t="n">
-        <v>14.0</v>
+        <v>13.0</v>
       </c>
       <c r="C65" t="n">
         <v>3.0</v>
       </c>
       <c r="D65" t="s">
-        <v>300</v>
+        <v>281</v>
       </c>
       <c r="E65"/>
       <c r="F65" t="n">
         <v>0.0</v>
       </c>
       <c r="G65" t="s">
-        <v>205</v>
+        <v>81</v>
       </c>
       <c r="H65" t="n">
-        <v>242.0</v>
+        <v>124.0</v>
       </c>
       <c r="I65" t="n">
-        <v>6309348.9799999995</v>
+        <v>2914000.0</v>
       </c>
       <c r="J65" t="n">
-        <v>0.004</v>
+        <v>0.0</v>
       </c>
       <c r="K65" t="s">
         <v>85</v>
@@ -5799,32 +5909,32 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>65.0</v>
+        <v>37.0</v>
       </c>
       <c r="B66" t="n">
-        <v>15.0</v>
+        <v>25.0</v>
       </c>
       <c r="C66" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="D66" t="s">
-        <v>301</v>
+        <v>274</v>
       </c>
       <c r="E66"/>
       <c r="F66" t="n">
         <v>0.0</v>
       </c>
       <c r="G66" t="s">
-        <v>205</v>
+        <v>80</v>
       </c>
       <c r="H66" t="n">
-        <v>83.0</v>
+        <v>2798196.0</v>
       </c>
       <c r="I66" t="n">
-        <v>2163950.27</v>
+        <v>2798196.0</v>
       </c>
       <c r="J66" t="n">
-        <v>0.004</v>
+        <v>0.005</v>
       </c>
       <c r="K66" t="s">
         <v>85</v>
@@ -5832,16 +5942,16 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>66.0</v>
+        <v>71.0</v>
       </c>
       <c r="B67" t="n">
-        <v>16.0</v>
+        <v>21.0</v>
       </c>
       <c r="C67" t="n">
         <v>2.0</v>
       </c>
       <c r="D67" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="E67"/>
       <c r="F67" t="n">
@@ -5851,10 +5961,10 @@
         <v>205</v>
       </c>
       <c r="H67" t="n">
-        <v>990.0</v>
+        <v>90.0</v>
       </c>
       <c r="I67" t="n">
-        <v>2.5810973099999998E7</v>
+        <v>2346452.1</v>
       </c>
       <c r="J67" t="n">
         <v>0.004</v>
@@ -5865,16 +5975,16 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>67.0</v>
+        <v>65.0</v>
       </c>
       <c r="B68" t="n">
-        <v>17.0</v>
+        <v>15.0</v>
       </c>
       <c r="C68" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="D68" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E68"/>
       <c r="F68" t="n">
@@ -5884,10 +5994,10 @@
         <v>205</v>
       </c>
       <c r="H68" t="n">
-        <v>973.0</v>
+        <v>83.0</v>
       </c>
       <c r="I68" t="n">
-        <v>2.5367754369999997E7</v>
+        <v>2163950.27</v>
       </c>
       <c r="J68" t="n">
         <v>0.004</v>
@@ -5898,32 +6008,32 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>68.0</v>
+        <v>36.0</v>
       </c>
       <c r="B69" t="n">
-        <v>18.0</v>
+        <v>24.0</v>
       </c>
       <c r="C69" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="D69" t="s">
-        <v>304</v>
+        <v>273</v>
       </c>
       <c r="E69"/>
       <c r="F69" t="n">
         <v>0.0</v>
       </c>
       <c r="G69" t="s">
-        <v>205</v>
+        <v>80</v>
       </c>
       <c r="H69" t="n">
-        <v>658.0</v>
+        <v>1603258.0</v>
       </c>
       <c r="I69" t="n">
-        <v>1.715517202E7</v>
+        <v>1603258.0</v>
       </c>
       <c r="J69" t="n">
-        <v>0.004</v>
+        <v>0.005</v>
       </c>
       <c r="K69" t="s">
         <v>85</v>
@@ -5931,16 +6041,16 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>69.0</v>
+        <v>63.0</v>
       </c>
       <c r="B70" t="n">
-        <v>19.0</v>
+        <v>13.0</v>
       </c>
       <c r="C70" t="n">
         <v>3.0</v>
       </c>
       <c r="D70" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="E70"/>
       <c r="F70" t="n">
@@ -5950,10 +6060,10 @@
         <v>205</v>
       </c>
       <c r="H70" t="n">
-        <v>814.0</v>
+        <v>44.0</v>
       </c>
       <c r="I70" t="n">
-        <v>2.122235566E7</v>
+        <v>1147154.3599999999</v>
       </c>
       <c r="J70" t="n">
         <v>0.004</v>
@@ -5964,32 +6074,32 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>70.0</v>
+        <v>1.0</v>
       </c>
       <c r="B71" t="n">
-        <v>20.0</v>
+        <v>1.0</v>
       </c>
       <c r="C71" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="D71" t="s">
-        <v>306</v>
+        <v>238</v>
       </c>
       <c r="E71"/>
       <c r="F71" t="n">
         <v>0.0</v>
       </c>
       <c r="G71" t="s">
-        <v>205</v>
+        <v>80</v>
       </c>
       <c r="H71" t="n">
-        <v>656.0</v>
+        <v>37251.0</v>
       </c>
       <c r="I71" t="n">
-        <v>1.710302864E7</v>
+        <v>37251.0</v>
       </c>
       <c r="J71" t="n">
-        <v>0.004</v>
+        <v>0.005</v>
       </c>
       <c r="K71" t="s">
         <v>85</v>
@@ -5997,32 +6107,32 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>71.0</v>
+        <v>3.0</v>
       </c>
       <c r="B72" t="n">
-        <v>21.0</v>
+        <v>3.0</v>
       </c>
       <c r="C72" t="n">
         <v>2.0</v>
       </c>
       <c r="D72" t="s">
-        <v>307</v>
+        <v>240</v>
       </c>
       <c r="E72"/>
       <c r="F72" t="n">
         <v>0.0</v>
       </c>
       <c r="G72" t="s">
-        <v>205</v>
+        <v>80</v>
       </c>
       <c r="H72" t="n">
-        <v>90.0</v>
+        <v>536806.0</v>
       </c>
       <c r="I72" t="n">
-        <v>2346452.1</v>
+        <v>536806.0</v>
       </c>
       <c r="J72" t="n">
-        <v>0.004</v>
+        <v>0.005</v>
       </c>
       <c r="K72" t="s">
         <v>85</v>
@@ -6030,32 +6140,32 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>72.0</v>
+        <v>6.0</v>
       </c>
       <c r="B73" t="n">
-        <v>22.0</v>
+        <v>6.0</v>
       </c>
       <c r="C73" t="n">
         <v>2.0</v>
       </c>
       <c r="D73" t="s">
-        <v>308</v>
+        <v>243</v>
       </c>
       <c r="E73"/>
       <c r="F73" t="n">
         <v>0.0</v>
       </c>
       <c r="G73" t="s">
-        <v>205</v>
+        <v>80</v>
       </c>
       <c r="H73" t="n">
-        <v>470.0</v>
+        <v>287474.0</v>
       </c>
       <c r="I73" t="n">
-        <v>1.2253694299999999E7</v>
+        <v>287474.0</v>
       </c>
       <c r="J73" t="n">
-        <v>0.004</v>
+        <v>0.005</v>
       </c>
       <c r="K73" t="s">
         <v>85</v>
@@ -6063,32 +6173,32 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>73.0</v>
+        <v>2.0</v>
       </c>
       <c r="B74" t="n">
-        <v>23.0</v>
+        <v>2.0</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D74" t="s">
-        <v>309</v>
+        <v>239</v>
       </c>
       <c r="E74"/>
       <c r="F74" t="n">
         <v>0.0</v>
       </c>
       <c r="G74" t="s">
-        <v>205</v>
+        <v>80</v>
       </c>
       <c r="H74" t="n">
-        <v>740.0</v>
+        <v>238237.0</v>
       </c>
       <c r="I74" t="n">
-        <v>1.9293050599999998E7</v>
+        <v>238237.0</v>
       </c>
       <c r="J74" t="n">
-        <v>0.004</v>
+        <v>0.005</v>
       </c>
       <c r="K74" t="s">
         <v>85</v>
@@ -6096,32 +6206,32 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>74.0</v>
+        <v>5.0</v>
       </c>
       <c r="B75" t="n">
-        <v>24.0</v>
+        <v>5.0</v>
       </c>
       <c r="C75" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="D75" t="s">
-        <v>310</v>
+        <v>242</v>
       </c>
       <c r="E75"/>
       <c r="F75" t="n">
         <v>0.0</v>
       </c>
       <c r="G75" t="s">
-        <v>205</v>
+        <v>80</v>
       </c>
       <c r="H75" t="n">
-        <v>426.0</v>
+        <v>113622.0</v>
       </c>
       <c r="I75" t="n">
-        <v>1.110653994E7</v>
+        <v>113622.0</v>
       </c>
       <c r="J75" t="n">
-        <v>0.004</v>
+        <v>0.005</v>
       </c>
       <c r="K75" t="s">
         <v>85</v>
@@ -6129,32 +6239,32 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>75.0</v>
+        <v>77.0</v>
       </c>
       <c r="B76" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="C76" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="D76" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E76"/>
       <c r="F76" t="n">
         <v>0.0</v>
       </c>
       <c r="G76" t="s">
-        <v>205</v>
+        <v>80</v>
       </c>
       <c r="H76" t="n">
-        <v>389.0</v>
+        <v>99999.0</v>
       </c>
       <c r="I76" t="n">
-        <v>1.014188741E7</v>
+        <v>99999.0</v>
       </c>
       <c r="J76" t="n">
-        <v>0.004</v>
+        <v>0.005</v>
       </c>
       <c r="K76" t="s">
         <v>85</v>
@@ -6162,16 +6272,16 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>76.0</v>
+        <v>4.0</v>
       </c>
       <c r="B77" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="D77" t="s">
-        <v>312</v>
+        <v>241</v>
       </c>
       <c r="E77"/>
       <c r="F77" t="n">
@@ -6181,10 +6291,10 @@
         <v>80</v>
       </c>
       <c r="H77" t="n">
-        <v>9.999999999E9</v>
+        <v>75604.0</v>
       </c>
       <c r="I77" t="n">
-        <v>9.999999999E9</v>
+        <v>75604.0</v>
       </c>
       <c r="J77" t="n">
         <v>0.005</v>
@@ -6195,10 +6305,10 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>77.0</v>
+        <v>76.0</v>
       </c>
       <c r="B78" t="n">
-        <v>26.0</v>
+        <v>1.0</v>
       </c>
       <c r="C78" t="n">
         <v>0.0</v>
@@ -6214,10 +6324,10 @@
         <v>80</v>
       </c>
       <c r="H78" t="n">
-        <v>99999.0</v>
+        <v>9.0</v>
       </c>
       <c r="I78" t="n">
-        <v>99999.0</v>
+        <v>9.0</v>
       </c>
       <c r="J78" t="n">
         <v>0.005</v>
@@ -6259,9 +6369,79 @@
         <v>85</v>
       </c>
     </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>79.0</v>
+      </c>
+      <c r="B80" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C80" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D80" t="s">
+        <v>312</v>
+      </c>
+      <c r="E80"/>
+      <c r="F80" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G80" t="s">
+        <v>82</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="K80" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="B81" t="n">
+        <v>80.0</v>
+      </c>
+      <c r="C81" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D81" t="s">
+        <v>312</v>
+      </c>
+      <c r="E81"/>
+      <c r="F81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G81" t="s">
+        <v>81</v>
+      </c>
+      <c r="H81" t="n">
+        <v>230145.0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>5.4084075E9</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K81" t="s">
+        <v>85</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:K76" xr:uid="{BF21B7AB-93DC-4751-874C-8807C9FDCFB9}"/>
-  <phoneticPr fontId="12" type="noConversion"/>
+  <autoFilter ref="A1:K76" xr:uid="{BF21B7AB-93DC-4751-874C-8807C9FDCFB9}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K79">
+      <sortCondition descending="1" ref="I1:I76"/>
+    </sortState>
+  </autoFilter>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
@@ -6269,19 +6449,19 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46E00A1F-C9F6-4EB8-BE07-062FE55637D2}">
-  <dimension ref="A1:M22"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M2" sqref="M2:M21"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="18" width="5.59765625" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="9" width="5.59765625" collapsed="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="9.53125" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="5.73046875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="10.19921875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="11.265625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="13" width="10.19921875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="13" width="11.265625" collapsed="true"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="5.0" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="7.46484375" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.3984375" collapsed="true"/>
@@ -6292,41 +6472,41 @@
     <col min="13" max="13" bestFit="true" customWidth="true" width="14.3984375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A1" s="8" t="s">
         <v>86</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="L1" s="7" t="s">
         <v>3</v>
       </c>
     </row>
@@ -6678,8 +6858,12 @@
       <c r="C12" t="n">
         <v>1.0</v>
       </c>
-      <c r="D12"/>
-      <c r="E12"/>
+      <c r="D12" t="s">
+        <v>312</v>
+      </c>
+      <c r="E12" t="s">
+        <v>435</v>
+      </c>
       <c r="F12" t="n">
         <v>60.0</v>
       </c>
@@ -6693,10 +6877,10 @@
         <v>5.4084075E9</v>
       </c>
       <c r="J12" t="n">
-        <v>0.0</v>
+        <v>0.03900000000000001</v>
       </c>
       <c r="K12" t="s">
-        <v>216</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13">
@@ -7038,6 +7222,37 @@
         <v>0.037000000000000005</v>
       </c>
       <c r="K22" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="B23" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D23"/>
+      <c r="E23"/>
+      <c r="F23" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="G23" t="s">
+        <v>80</v>
+      </c>
+      <c r="H23" t="n">
+        <v>1000000.0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.10800000000000003</v>
+      </c>
+      <c r="K23" t="s">
         <v>216</v>
       </c>
     </row>
@@ -7056,51 +7271,51 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="18" width="7.1328125" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="9" width="7.1328125" collapsed="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="9.53125" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="5.73046875" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="10.19921875" collapsed="true"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="11.265625" collapsed="true"/>
     <col min="6" max="6" customWidth="true" width="11.265625" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="7.46484375" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="7" width="14.3984375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="5" width="14.3984375" collapsed="true"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="14.796875" collapsed="true"/>
     <col min="10" max="10" bestFit="true" customWidth="true" width="10.3984375" collapsed="true"/>
     <col min="11" max="11" bestFit="true" customWidth="true" width="11.73046875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="8" t="s">
         <v>105</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>79</v>
       </c>
     </row>
@@ -8511,31 +8726,31 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7CEEA2A-F762-4182-90A3-86784995BC41}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="10.19921875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.46484375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="9.33203125" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="13" width="10.19921875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="13" width="11.46484375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="13" width="9.33203125" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="10.265625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="14" t="s">
         <v>207</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>106</v>
       </c>
     </row>
@@ -8704,6 +8919,174 @@
         <v>80</v>
       </c>
       <c r="D13" t="n">
+        <v>15281.28</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>433</v>
+      </c>
+      <c r="B14" t="s">
+        <v>80</v>
+      </c>
+      <c r="C14" t="s">
+        <v>80</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>433</v>
+      </c>
+      <c r="B15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C15" t="s">
+        <v>80</v>
+      </c>
+      <c r="D15" t="n">
+        <v>23500.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>433</v>
+      </c>
+      <c r="B16" t="s">
+        <v>205</v>
+      </c>
+      <c r="C16" t="s">
+        <v>80</v>
+      </c>
+      <c r="D16" t="n">
+        <v>26071.69</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>433</v>
+      </c>
+      <c r="B17" t="s">
+        <v>208</v>
+      </c>
+      <c r="C17" t="s">
+        <v>80</v>
+      </c>
+      <c r="D17" t="n">
+        <v>22035.58</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>433</v>
+      </c>
+      <c r="B18" t="s">
+        <v>209</v>
+      </c>
+      <c r="C18" t="s">
+        <v>80</v>
+      </c>
+      <c r="D18" t="n">
+        <v>30379.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>433</v>
+      </c>
+      <c r="B19" t="s">
+        <v>82</v>
+      </c>
+      <c r="C19" t="s">
+        <v>80</v>
+      </c>
+      <c r="D19" t="n">
+        <v>16271.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>433</v>
+      </c>
+      <c r="B20" t="s">
+        <v>210</v>
+      </c>
+      <c r="C20" t="s">
+        <v>80</v>
+      </c>
+      <c r="D20" t="n">
+        <v>191.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>433</v>
+      </c>
+      <c r="B21" t="s">
+        <v>211</v>
+      </c>
+      <c r="C21" t="s">
+        <v>80</v>
+      </c>
+      <c r="D21" t="n">
+        <v>23032.8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>433</v>
+      </c>
+      <c r="B22" t="s">
+        <v>212</v>
+      </c>
+      <c r="C22" t="s">
+        <v>80</v>
+      </c>
+      <c r="D22" t="n">
+        <v>3416.69</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>433</v>
+      </c>
+      <c r="B23" t="s">
+        <v>213</v>
+      </c>
+      <c r="C23" t="s">
+        <v>80</v>
+      </c>
+      <c r="D23" t="n">
+        <v>2576.69</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>433</v>
+      </c>
+      <c r="B24" t="s">
+        <v>214</v>
+      </c>
+      <c r="C24" t="s">
+        <v>80</v>
+      </c>
+      <c r="D24" t="n">
+        <v>18.89</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>433</v>
+      </c>
+      <c r="B25" t="s">
+        <v>215</v>
+      </c>
+      <c r="C25" t="s">
+        <v>80</v>
+      </c>
+      <c r="D25" t="n">
         <v>15281.28</v>
       </c>
     </row>
@@ -8716,28 +9099,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{146A3E06-B983-43B3-A43F-658D5B96467C}">
   <dimension ref="A1:G127"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+    <sheetView topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="A122" sqref="A122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="12.19921875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="9.6640625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="12.796875" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="13" width="12.19921875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="13" width="9.6640625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="13" width="12.796875" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="7.19921875" collapsed="true"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="12.53125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="6" width="12.59765625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="4" width="12.59765625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="14" t="s">
         <v>207</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="13" t="s">
         <v>201</v>
       </c>
       <c r="D1" t="s">
@@ -8746,7 +9129,7 @@
       <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="4" t="s">
         <v>78</v>
       </c>
     </row>

--- a/java/project-JavaBank/src/io/data.xlsx
+++ b/java/project-JavaBank/src/io/data.xlsx
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5582" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6965" uniqueCount="440">
   <si>
     <t>customerId</t>
   </si>

--- a/java/project-JavaBank/src/io/data.xlsx
+++ b/java/project-JavaBank/src/io/data.xlsx
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6965" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9731" uniqueCount="441">
   <si>
     <t>customerId</t>
   </si>
@@ -1401,6 +1401,9 @@
   </si>
   <si>
     <t>2023-05-14 10:34:25</t>
+  </si>
+  <si>
+    <t>INACTIVE</t>
   </si>
 </sst>
 </file>
@@ -7561,7 +7564,7 @@
         <v>0.05600000000000001</v>
       </c>
       <c r="K8" t="s">
-        <v>85</v>
+        <v>440</v>
       </c>
     </row>
     <row r="9">
@@ -7666,7 +7669,7 @@
         <v>0.05600000000000001</v>
       </c>
       <c r="K11" t="s">
-        <v>85</v>
+        <v>440</v>
       </c>
     </row>
     <row r="12">
@@ -8401,7 +8404,7 @@
         <v>0.0</v>
       </c>
       <c r="K32" t="s">
-        <v>85</v>
+        <v>440</v>
       </c>
     </row>
     <row r="33">
@@ -8506,7 +8509,7 @@
         <v>0.0</v>
       </c>
       <c r="K35" t="s">
-        <v>85</v>
+        <v>440</v>
       </c>
     </row>
     <row r="36">
@@ -8541,7 +8544,7 @@
         <v>0.0</v>
       </c>
       <c r="K36" t="s">
-        <v>85</v>
+        <v>440</v>
       </c>
     </row>
     <row r="37">
